--- a/マニュアル.xlsx
+++ b/マニュアル.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="90" windowWidth="28035" windowHeight="12555"/>
+    <workbookView xWindow="360" yWindow="105" windowWidth="28035" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="タイトル" sheetId="3" r:id="rId1"/>
@@ -14,7 +14,7 @@
     <sheet name="デバイス一覧" sheetId="8" r:id="rId5"/>
     <sheet name="デバッグ機能一覧" sheetId="4" r:id="rId6"/>
     <sheet name="インストール手順" sheetId="5" r:id="rId7"/>
-    <sheet name="コマンドオプション" sheetId="6" r:id="rId8"/>
+    <sheet name="CPUエミュレータ起動方法" sheetId="6" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">タイトル!$A$1:$J$22</definedName>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="559" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="591" uniqueCount="250">
   <si>
     <t>１．はじめに</t>
     <phoneticPr fontId="2"/>
@@ -122,10 +122,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>６．コマンドオプション</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>本エミュレータがサポートしている命令は以下の通り．</t>
     <rPh sb="0" eb="1">
       <t>ホン</t>
@@ -140,247 +136,6 @@
       <t>トオ</t>
     </rPh>
     <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>• LD.B ：Load byte</t>
-  </si>
-  <si>
-    <t>• LD.BU ：Load byte unsigned</t>
-  </si>
-  <si>
-    <t>• LD.H ：Load half-word</t>
-  </si>
-  <si>
-    <t>• LD.HU ：Load half-word unsigned</t>
-  </si>
-  <si>
-    <t>• LD.W ：Load word</t>
-  </si>
-  <si>
-    <t>• SLD.B ：Short format load byte</t>
-  </si>
-  <si>
-    <t>• SLD.BU ：Short format load byte unsigned</t>
-  </si>
-  <si>
-    <t>• SLD.H ：Short format load half-word</t>
-  </si>
-  <si>
-    <t>• SLD.HU ：Short format load half-word unsigned</t>
-  </si>
-  <si>
-    <t>• SLD.W ：Short format load word</t>
-  </si>
-  <si>
-    <t>• ST.B ：Store byte</t>
-  </si>
-  <si>
-    <t>• ST.H ：Store half-word</t>
-  </si>
-  <si>
-    <t>• ST.W ：Store word</t>
-  </si>
-  <si>
-    <t>• SST.B ：Short format store byte</t>
-  </si>
-  <si>
-    <t>• SST.H ：Short format store half-word</t>
-  </si>
-  <si>
-    <t>• SST.W ：Short format store word</t>
-  </si>
-  <si>
-    <t>• MUL ：Multiply word</t>
-  </si>
-  <si>
-    <t>• MULH ：Multiply half-word</t>
-  </si>
-  <si>
-    <t>• MULHI ：Multiply half-word immediate</t>
-  </si>
-  <si>
-    <t>• MULU ：Multiply word unsigned</t>
-  </si>
-  <si>
-    <t>• ADD ：Add</t>
-  </si>
-  <si>
-    <t>• ADDI ：Add immediate</t>
-  </si>
-  <si>
-    <t>• CMOV ：Conditional move</t>
-  </si>
-  <si>
-    <t>• CMP ：Compare</t>
-  </si>
-  <si>
-    <t>• DIV ：Divide word</t>
-  </si>
-  <si>
-    <t>• DIVH ：Divide half-word</t>
-  </si>
-  <si>
-    <t>• DIVHU ：Divide half-word unsigned</t>
-  </si>
-  <si>
-    <t>• DIVU ：Divide word unsigned</t>
-  </si>
-  <si>
-    <t>• MOV ：Move</t>
-  </si>
-  <si>
-    <t>• MOVEA ：Move effective address</t>
-  </si>
-  <si>
-    <t>• MOVHI ：Move high half-word</t>
-  </si>
-  <si>
-    <t>• SASF ：Shift and set flag condition</t>
-  </si>
-  <si>
-    <t>• SETF ：Set flag condition</t>
-  </si>
-  <si>
-    <t>• SUB ：Subtract</t>
-  </si>
-  <si>
-    <t>• SUBR ：Subtract reverse</t>
-  </si>
-  <si>
-    <t>• SATADD ：Saturated add</t>
-  </si>
-  <si>
-    <t>• SATSUB ：Saturated subtract</t>
-  </si>
-  <si>
-    <t>• SATSUBI ：Saturated subtract immediate</t>
-  </si>
-  <si>
-    <t>• SATSUBR ：Saturated subtract reverse</t>
-  </si>
-  <si>
-    <t>• AND ：AND</t>
-  </si>
-  <si>
-    <t>• ANDI ：AND immediate</t>
-  </si>
-  <si>
-    <t>• BSH ：Byte swap half-word</t>
-  </si>
-  <si>
-    <t>• BSW ：Byte swap word</t>
-  </si>
-  <si>
-    <t>• HSW ：Half-word swap word</t>
-  </si>
-  <si>
-    <t>• NOT ：NOT</t>
-  </si>
-  <si>
-    <t>• OR ：OR</t>
-  </si>
-  <si>
-    <t>• ORI ：OR immediate</t>
-  </si>
-  <si>
-    <t>• SAR ：Shift arithmetic right</t>
-  </si>
-  <si>
-    <t>• SHL ：Shift logical left</t>
-  </si>
-  <si>
-    <t>• SHR ：Shift logical right</t>
-  </si>
-  <si>
-    <t>• SXB ：Sign extend byte</t>
-  </si>
-  <si>
-    <t>• SXH ：Sign extend half-word</t>
-  </si>
-  <si>
-    <t>• TST ：Test</t>
-  </si>
-  <si>
-    <t>• XOR ：Exclusive OR</t>
-  </si>
-  <si>
-    <t>• XORI ：Exclusive OR immediate</t>
-  </si>
-  <si>
-    <t>• ZXB ：Zero extend byte</t>
-  </si>
-  <si>
-    <t>• ZXH ：Zero extend half-word</t>
-  </si>
-  <si>
-    <t>• JARL ：Jump and register link</t>
-  </si>
-  <si>
-    <t>• JMP ：Jump register</t>
-  </si>
-  <si>
-    <t>• JR ：Jump relative</t>
-  </si>
-  <si>
-    <t>• Bcond（ BC, BE, BGE, BGT, BH, BL, BLE, BLT, BN, BNC, BNE, BNH, BNL, BNV, BNZ, BP, BR, BSA, BV, BZ） ：Branch on condition code</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>• CLR1 ：Clear bit</t>
-  </si>
-  <si>
-    <t>• NOT1 ：Not bit</t>
-  </si>
-  <si>
-    <t>• SET1 ：Set bit</t>
-  </si>
-  <si>
-    <t>• TST1 ：Test bit</t>
-  </si>
-  <si>
-    <t>• CALLT ：Call with table look up</t>
-  </si>
-  <si>
-    <t>• CTRET ：Return from CALLT</t>
-  </si>
-  <si>
-    <t>• DI ：Disable interrupt</t>
-  </si>
-  <si>
-    <t>• DISPOSE ：Function dispose</t>
-  </si>
-  <si>
-    <t>• EI ：Enable interrupt</t>
-  </si>
-  <si>
-    <t>• HALT ：Halt</t>
-  </si>
-  <si>
-    <t>• LDSR ：Load system register</t>
-  </si>
-  <si>
-    <t>• NOP ：No operation</t>
-  </si>
-  <si>
-    <t>• PREPARE ：Function prepare</t>
-  </si>
-  <si>
-    <t>• RETI ：Return from trap or interrupt</t>
-  </si>
-  <si>
-    <t>• STSR ：Store system register</t>
-  </si>
-  <si>
-    <t>• SWITCH ：Jump with table look up</t>
-  </si>
-  <si>
-    <t>• TRAP ：Trap</t>
-  </si>
-  <si>
-    <t>• DBRET ：Return from debug trap</t>
-  </si>
-  <si>
-    <t>• DBTRAP ：Debug trap</t>
   </si>
   <si>
     <t>命令</t>
@@ -1332,31 +1087,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>CPUが実行した命令をログとして吐き出す機能の設定/解除</t>
-    <rPh sb="4" eb="6">
-      <t>ジッコウ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>メイレイ</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>ハ</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>ダ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>キノウ</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>セッテイ</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>カイジョ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>メモリ内容を確認する機能</t>
     <rPh sb="3" eb="5">
       <t>ナイヨウ</t>
@@ -1419,6 +1149,583 @@
     <rPh sb="20" eb="22">
       <t>キノウ</t>
     </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>LD.B ：Load byte</t>
+  </si>
+  <si>
+    <t>LD.BU ：Load byte unsigned</t>
+  </si>
+  <si>
+    <t>LD.H ：Load half-word</t>
+  </si>
+  <si>
+    <t>LD.HU ：Load half-word unsigned</t>
+  </si>
+  <si>
+    <t>LD.W ：Load word</t>
+  </si>
+  <si>
+    <t>SLD.B ：Short format load byte</t>
+  </si>
+  <si>
+    <t>SLD.BU ：Short format load byte unsigned</t>
+  </si>
+  <si>
+    <t>SLD.H ：Short format load half-word</t>
+  </si>
+  <si>
+    <t>SLD.HU ：Short format load half-word unsigned</t>
+  </si>
+  <si>
+    <t>SLD.W ：Short format load word</t>
+  </si>
+  <si>
+    <t>ST.B ：Store byte</t>
+  </si>
+  <si>
+    <t>ST.H ：Store half-word</t>
+  </si>
+  <si>
+    <t>ST.W ：Store word</t>
+  </si>
+  <si>
+    <t>SST.B ：Short format store byte</t>
+  </si>
+  <si>
+    <t>SST.H ：Short format store half-word</t>
+  </si>
+  <si>
+    <t>SST.W ：Short format store word</t>
+  </si>
+  <si>
+    <t>MUL ：Multiply word</t>
+  </si>
+  <si>
+    <t>MULH ：Multiply half-word</t>
+  </si>
+  <si>
+    <t>MULHI ：Multiply half-word immediate</t>
+  </si>
+  <si>
+    <t>MULU ：Multiply word unsigned</t>
+  </si>
+  <si>
+    <t>ADD ：Add</t>
+  </si>
+  <si>
+    <t>ADDI ：Add immediate</t>
+  </si>
+  <si>
+    <t>CMOV ：Conditional move</t>
+  </si>
+  <si>
+    <t>CMP ：Compare</t>
+  </si>
+  <si>
+    <t>DIV ：Divide word</t>
+  </si>
+  <si>
+    <t>DIVH ：Divide half-word</t>
+  </si>
+  <si>
+    <t>DIVHU ：Divide half-word unsigned</t>
+  </si>
+  <si>
+    <t>DIVU ：Divide word unsigned</t>
+  </si>
+  <si>
+    <t>MOV ：Move</t>
+  </si>
+  <si>
+    <t>MOVEA ：Move effective address</t>
+  </si>
+  <si>
+    <t>MOVHI ：Move high half-word</t>
+  </si>
+  <si>
+    <t>SASF ：Shift and set flag condition</t>
+  </si>
+  <si>
+    <t>SETF ：Set flag condition</t>
+  </si>
+  <si>
+    <t>SUB ：Subtract</t>
+  </si>
+  <si>
+    <t>SUBR ：Subtract reverse</t>
+  </si>
+  <si>
+    <t>SATADD ：Saturated add</t>
+  </si>
+  <si>
+    <t>SATSUB ：Saturated subtract</t>
+  </si>
+  <si>
+    <t>SATSUBI ：Saturated subtract immediate</t>
+  </si>
+  <si>
+    <t>SATSUBR ：Saturated subtract reverse</t>
+  </si>
+  <si>
+    <t>AND ：AND</t>
+  </si>
+  <si>
+    <t>ANDI ：AND immediate</t>
+  </si>
+  <si>
+    <t>BSH ：Byte swap half-word</t>
+  </si>
+  <si>
+    <t>BSW ：Byte swap word</t>
+  </si>
+  <si>
+    <t>HSW ：Half-word swap word</t>
+  </si>
+  <si>
+    <t>NOT ：NOT</t>
+  </si>
+  <si>
+    <t>OR ：OR</t>
+  </si>
+  <si>
+    <t>ORI ：OR immediate</t>
+  </si>
+  <si>
+    <t>SAR ：Shift arithmetic right</t>
+  </si>
+  <si>
+    <t>SHL ：Shift logical left</t>
+  </si>
+  <si>
+    <t>SHR ：Shift logical right</t>
+  </si>
+  <si>
+    <t>SXB ：Sign extend byte</t>
+  </si>
+  <si>
+    <t>SXH ：Sign extend half-word</t>
+  </si>
+  <si>
+    <t>TST ：Test</t>
+  </si>
+  <si>
+    <t>XOR ：Exclusive OR</t>
+  </si>
+  <si>
+    <t>XORI ：Exclusive OR immediate</t>
+  </si>
+  <si>
+    <t>ZXB ：Zero extend byte</t>
+  </si>
+  <si>
+    <t>ZXH ：Zero extend half-word</t>
+  </si>
+  <si>
+    <t>Bcond（ BC, BE, BGE, BGT, BH, BL, BLE, BLT, BN, BNC, BNE, BNH, BNL, BNV, BNZ, BP, BR, BSA, BV, BZ） ：Branch on condition code</t>
+  </si>
+  <si>
+    <t>JARL ：Jump and register link</t>
+  </si>
+  <si>
+    <t>JMP ：Jump register</t>
+  </si>
+  <si>
+    <t>JR ：Jump relative</t>
+  </si>
+  <si>
+    <t>CLR1 ：Clear bit</t>
+  </si>
+  <si>
+    <t>NOT1 ：Not bit</t>
+  </si>
+  <si>
+    <t>SET1 ：Set bit</t>
+  </si>
+  <si>
+    <t>TST1 ：Test bit</t>
+  </si>
+  <si>
+    <t>CALLT ：Call with table look up</t>
+  </si>
+  <si>
+    <t>CTRET ：Return from CALLT</t>
+  </si>
+  <si>
+    <t>DI ：Disable interrupt</t>
+  </si>
+  <si>
+    <t>DISPOSE ：Function dispose</t>
+  </si>
+  <si>
+    <t>EI ：Enable interrupt</t>
+  </si>
+  <si>
+    <t>HALT ：Halt</t>
+  </si>
+  <si>
+    <t>LDSR ：Load system register</t>
+  </si>
+  <si>
+    <t>NOP ：No operation</t>
+  </si>
+  <si>
+    <t>PREPARE ：Function prepare</t>
+  </si>
+  <si>
+    <t>RETI ：Return from trap or interrupt</t>
+  </si>
+  <si>
+    <t>STSR ：Store system register</t>
+  </si>
+  <si>
+    <t>SWITCH ：Jump with table look up</t>
+  </si>
+  <si>
+    <t>TRAP ：Trap</t>
+  </si>
+  <si>
+    <t>DBRET ：Return from debug trap</t>
+  </si>
+  <si>
+    <t>DBTRAP ：Debug trap</t>
+  </si>
+  <si>
+    <t>コマンド仕様
+※コマンド発行は，デバッグモードで行うこと</t>
+    <rPh sb="4" eb="6">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ハッコウ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>b &lt;命令アドレス※16進数表記&gt;</t>
+    <rPh sb="3" eb="5">
+      <t>メイレイ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>シンスウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ヒョウキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>d &lt;命令アドレス※16進数表記&gt;</t>
+    <rPh sb="3" eb="5">
+      <t>メイレイ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>シンスウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ヒョウキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>n</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>c</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>コマンド実行例</t>
+    <rPh sb="4" eb="6">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>レイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>@DBG&gt;b 0x100
+setted break point:0x100</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>@DBG&gt;d 0x100
+deleted break point:0x100</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>@DBG&gt;n
+@DBG&gt;</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>@DBG&gt;c
+@CPU&gt;</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>@DBG&gt;v
+view mode=OFF
+@DBG&gt;v
+view mode=ON</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>v</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>CPUが実行した命令をログとして吐き出す機能の設定/解除
+※トグル</t>
+    <rPh sb="4" eb="6">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>メイレイ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ハ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ダ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>カイジョ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">@DBG&gt;o 0x1000
+off=0x1000 size=0
+@DBG&gt;s 10
+off=0x1000 size=10
+@DBG&gt;p
+0x1000: 0x63
+0x1001: 0x6f
+0x1002: 0x5
+0x1003: 0x0
+0x1004: 0x63
+0x1005: 0xdf
+0x1006: 0x9
+0x1007: 0x0
+0x1008: 0x3d
+0x1009: 0x37
+</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>■メモリ参照位置設定
+o &lt;アドレス※16進数表記&gt;
+■参照メモリサイズ設定
+s &lt;サイズ※10進数表記&gt;
+■メモリ参照
+p</t>
+    <rPh sb="4" eb="6">
+      <t>サンショウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>イチ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>シンスウ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ヒョウキ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>サンショウ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>シンスウ</t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t>ヒョウキ</t>
+    </rPh>
+    <rPh sb="60" eb="62">
+      <t>サンショウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>S &lt;任意の文字列&gt;</t>
+    <rPh sb="3" eb="5">
+      <t>ニンイ</t>
+    </rPh>
+    <rPh sb="6" eb="9">
+      <t>モジレツ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">@DBG&gt;S aaa
+SERIAL_ACCEPT:aaa
+</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>C
+※事前に，can_data_creator.exeを使用して，
+※can.txtを作成しておくこと</t>
+    <rPh sb="3" eb="5">
+      <t>ジゼン</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>@DBG&gt;c
+@CPU&gt;
+##RCV_CAN::ch=1
+##RCV_CNA:canid=0x200
+##RCV_CAN:ex_canid=0xffffffff
+##RCV_CNA:dlc=8
+##0x00 0x01 0x02 0x03 0x04 0x05 0x06 0x07</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>A &lt;チャネル番号※10進数表記&gt;:&lt;ADデータ&gt;
+※&lt;チャネル番号&gt;：-1を指定した場合は全チャネルが対象となる</t>
+    <rPh sb="7" eb="9">
+      <t>バンゴウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>シンスウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ヒョウキ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>バンゴウ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="47" eb="48">
+      <t>ゼン</t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t>タイショウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>@DBG&gt;A 1:100</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>q</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>@DBG&gt;c
+@CPU&gt;q
+Unknown command:q
+@DBG&gt;</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>本エミュレータのインストール手順は以下の通り．</t>
+    <rPh sb="0" eb="1">
+      <t>ホン</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>テジュン</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>トオ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>①本エミュレータをビルドする</t>
+    <rPh sb="1" eb="2">
+      <t>ホン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>$make clean;make</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>②以下のファイルが作成されていることを確認する</t>
+    <rPh sb="1" eb="3">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>$ ls cpu_emulator.exe</t>
+  </si>
+  <si>
+    <t>cpu_emulator.exe</t>
+  </si>
+  <si>
+    <t>６．CPUエミュレータ起動方法</t>
+    <rPh sb="11" eb="13">
+      <t>キドウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ホウホウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>本エミュレータの起動方法は以下の通り．</t>
+    <rPh sb="0" eb="1">
+      <t>ホン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>キドウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ホウホウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>トオ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>$./cpu_emulator.exe &lt;バイナリファイル&gt; 2&gt; stderr.txt</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1547,7 +1854,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1616,6 +1923,30 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1921,9 +2252,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B6:I12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" zoomScaleSheetLayoutView="130" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" zoomScaleSheetLayoutView="130" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -1982,9 +2311,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:B8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -2025,7 +2352,7 @@
     </row>
     <row r="8" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B8" s="1" t="s">
-        <v>12</v>
+        <v>247</v>
       </c>
     </row>
   </sheetData>
@@ -2038,9 +2365,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:C3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -2069,9 +2394,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:E85"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5:E5"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -2090,655 +2413,655 @@
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.15">
       <c r="C3" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="2:5" ht="27" x14ac:dyDescent="0.15">
       <c r="D5" s="10" t="s">
-        <v>94</v>
+        <v>13</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>96</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.15">
       <c r="D6" s="11" t="s">
-        <v>14</v>
+        <v>138</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>97</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.15">
       <c r="D7" s="11" t="s">
-        <v>15</v>
+        <v>139</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>98</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.15">
       <c r="D8" s="11" t="s">
-        <v>16</v>
+        <v>140</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>97</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.15">
       <c r="D9" s="11" t="s">
-        <v>17</v>
+        <v>141</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>98</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.15">
       <c r="D10" s="11" t="s">
-        <v>18</v>
+        <v>142</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>97</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.15">
       <c r="D11" s="11" t="s">
-        <v>19</v>
+        <v>143</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>97</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.15">
       <c r="D12" s="11" t="s">
-        <v>20</v>
+        <v>144</v>
       </c>
       <c r="E12" s="13" t="s">
-        <v>98</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.15">
       <c r="D13" s="11" t="s">
-        <v>21</v>
+        <v>145</v>
       </c>
       <c r="E13" s="13" t="s">
-        <v>97</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.15">
       <c r="D14" s="11" t="s">
-        <v>22</v>
+        <v>146</v>
       </c>
       <c r="E14" s="13" t="s">
-        <v>98</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.15">
       <c r="D15" s="11" t="s">
-        <v>23</v>
+        <v>147</v>
       </c>
       <c r="E15" s="13" t="s">
-        <v>97</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.15">
       <c r="D16" s="11" t="s">
-        <v>24</v>
+        <v>148</v>
       </c>
       <c r="E16" s="13" t="s">
-        <v>97</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D17" s="11" t="s">
-        <v>25</v>
+        <v>149</v>
       </c>
       <c r="E17" s="13" t="s">
-        <v>97</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D18" s="11" t="s">
-        <v>26</v>
+        <v>150</v>
       </c>
       <c r="E18" s="13" t="s">
-        <v>97</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D19" s="11" t="s">
-        <v>27</v>
+        <v>151</v>
       </c>
       <c r="E19" s="13" t="s">
-        <v>97</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D20" s="11" t="s">
-        <v>28</v>
+        <v>152</v>
       </c>
       <c r="E20" s="13" t="s">
-        <v>97</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D21" s="11" t="s">
-        <v>29</v>
+        <v>153</v>
       </c>
       <c r="E21" s="13" t="s">
-        <v>97</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D22" s="11" t="s">
-        <v>30</v>
+        <v>154</v>
       </c>
       <c r="E22" s="13" t="s">
-        <v>98</v>
+        <v>17</v>
       </c>
     </row>
     <row r="23" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D23" s="11" t="s">
-        <v>31</v>
+        <v>155</v>
       </c>
       <c r="E23" s="13" t="s">
-        <v>97</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D24" s="11" t="s">
-        <v>32</v>
+        <v>156</v>
       </c>
       <c r="E24" s="13" t="s">
-        <v>97</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D25" s="11" t="s">
-        <v>33</v>
+        <v>157</v>
       </c>
       <c r="E25" s="13" t="s">
-        <v>98</v>
+        <v>17</v>
       </c>
     </row>
     <row r="26" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D26" s="11" t="s">
-        <v>34</v>
+        <v>158</v>
       </c>
       <c r="E26" s="13" t="s">
-        <v>97</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D27" s="11" t="s">
-        <v>35</v>
+        <v>159</v>
       </c>
       <c r="E27" s="13" t="s">
-        <v>97</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D28" s="11" t="s">
-        <v>36</v>
+        <v>160</v>
       </c>
       <c r="E28" s="13" t="s">
-        <v>98</v>
+        <v>17</v>
       </c>
     </row>
     <row r="29" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D29" s="11" t="s">
-        <v>37</v>
+        <v>161</v>
       </c>
       <c r="E29" s="13" t="s">
-        <v>97</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D30" s="11" t="s">
-        <v>38</v>
+        <v>162</v>
       </c>
       <c r="E30" s="13" t="s">
-        <v>98</v>
+        <v>17</v>
       </c>
     </row>
     <row r="31" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D31" s="11" t="s">
-        <v>39</v>
+        <v>163</v>
       </c>
       <c r="E31" s="13" t="s">
-        <v>98</v>
+        <v>17</v>
       </c>
     </row>
     <row r="32" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D32" s="11" t="s">
-        <v>40</v>
+        <v>164</v>
       </c>
       <c r="E32" s="13" t="s">
-        <v>98</v>
+        <v>17</v>
       </c>
     </row>
     <row r="33" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D33" s="11" t="s">
-        <v>41</v>
+        <v>165</v>
       </c>
       <c r="E33" s="13" t="s">
-        <v>98</v>
+        <v>17</v>
       </c>
     </row>
     <row r="34" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D34" s="11" t="s">
-        <v>42</v>
+        <v>166</v>
       </c>
       <c r="E34" s="13" t="s">
-        <v>97</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D35" s="11" t="s">
-        <v>43</v>
+        <v>167</v>
       </c>
       <c r="E35" s="13" t="s">
-        <v>97</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D36" s="11" t="s">
-        <v>44</v>
+        <v>168</v>
       </c>
       <c r="E36" s="13" t="s">
-        <v>97</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D37" s="11" t="s">
-        <v>45</v>
+        <v>169</v>
       </c>
       <c r="E37" s="13" t="s">
-        <v>98</v>
+        <v>17</v>
       </c>
     </row>
     <row r="38" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D38" s="11" t="s">
-        <v>46</v>
+        <v>170</v>
       </c>
       <c r="E38" s="13" t="s">
-        <v>97</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D39" s="11" t="s">
-        <v>47</v>
+        <v>171</v>
       </c>
       <c r="E39" s="13" t="s">
-        <v>97</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D40" s="11" t="s">
-        <v>48</v>
+        <v>172</v>
       </c>
       <c r="E40" s="13" t="s">
-        <v>97</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D41" s="11" t="s">
-        <v>49</v>
+        <v>173</v>
       </c>
       <c r="E41" s="13" t="s">
-        <v>97</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D42" s="11" t="s">
-        <v>50</v>
+        <v>174</v>
       </c>
       <c r="E42" s="13" t="s">
-        <v>98</v>
+        <v>17</v>
       </c>
     </row>
     <row r="43" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D43" s="11" t="s">
-        <v>51</v>
+        <v>175</v>
       </c>
       <c r="E43" s="13" t="s">
-        <v>97</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D44" s="11" t="s">
-        <v>52</v>
+        <v>176</v>
       </c>
       <c r="E44" s="13" t="s">
-        <v>98</v>
+        <v>17</v>
       </c>
     </row>
     <row r="45" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D45" s="11" t="s">
-        <v>53</v>
+        <v>177</v>
       </c>
       <c r="E45" s="13" t="s">
-        <v>97</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D46" s="11" t="s">
-        <v>54</v>
+        <v>178</v>
       </c>
       <c r="E46" s="13" t="s">
-        <v>97</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D47" s="11" t="s">
-        <v>55</v>
+        <v>179</v>
       </c>
       <c r="E47" s="13" t="s">
-        <v>98</v>
+        <v>17</v>
       </c>
     </row>
     <row r="48" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D48" s="11" t="s">
-        <v>56</v>
+        <v>180</v>
       </c>
       <c r="E48" s="13" t="s">
-        <v>98</v>
+        <v>17</v>
       </c>
     </row>
     <row r="49" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D49" s="11" t="s">
-        <v>57</v>
+        <v>181</v>
       </c>
       <c r="E49" s="13" t="s">
-        <v>98</v>
+        <v>17</v>
       </c>
     </row>
     <row r="50" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D50" s="11" t="s">
-        <v>58</v>
+        <v>182</v>
       </c>
       <c r="E50" s="13" t="s">
-        <v>97</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D51" s="11" t="s">
-        <v>59</v>
+        <v>183</v>
       </c>
       <c r="E51" s="13" t="s">
-        <v>97</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D52" s="11" t="s">
-        <v>60</v>
+        <v>184</v>
       </c>
       <c r="E52" s="13" t="s">
-        <v>97</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D53" s="11" t="s">
-        <v>61</v>
+        <v>185</v>
       </c>
       <c r="E53" s="13" t="s">
-        <v>97</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D54" s="11" t="s">
-        <v>62</v>
+        <v>186</v>
       </c>
       <c r="E54" s="13" t="s">
-        <v>97</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D55" s="11" t="s">
-        <v>63</v>
+        <v>187</v>
       </c>
       <c r="E55" s="13" t="s">
-        <v>97</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D56" s="11" t="s">
-        <v>64</v>
+        <v>188</v>
       </c>
       <c r="E56" s="13" t="s">
-        <v>97</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D57" s="11" t="s">
-        <v>65</v>
+        <v>189</v>
       </c>
       <c r="E57" s="13" t="s">
-        <v>97</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D58" s="11" t="s">
-        <v>66</v>
+        <v>190</v>
       </c>
       <c r="E58" s="13" t="s">
-        <v>97</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D59" s="11" t="s">
-        <v>67</v>
+        <v>191</v>
       </c>
       <c r="E59" s="13" t="s">
-        <v>97</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D60" s="11" t="s">
-        <v>68</v>
+        <v>192</v>
       </c>
       <c r="E60" s="13" t="s">
-        <v>97</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D61" s="11" t="s">
-        <v>69</v>
+        <v>193</v>
       </c>
       <c r="E61" s="13" t="s">
-        <v>97</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D62" s="11" t="s">
-        <v>70</v>
+        <v>194</v>
       </c>
       <c r="E62" s="13" t="s">
-        <v>97</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" spans="4:5" ht="40.5" x14ac:dyDescent="0.15">
       <c r="D63" s="11" t="s">
-        <v>74</v>
+        <v>195</v>
       </c>
       <c r="E63" s="13" t="s">
-        <v>97</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D64" s="11" t="s">
-        <v>71</v>
+        <v>196</v>
       </c>
       <c r="E64" s="13" t="s">
-        <v>98</v>
+        <v>17</v>
       </c>
     </row>
     <row r="65" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D65" s="11" t="s">
-        <v>72</v>
+        <v>197</v>
       </c>
       <c r="E65" s="13" t="s">
-        <v>97</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D66" s="11" t="s">
-        <v>73</v>
+        <v>198</v>
       </c>
       <c r="E66" s="13" t="s">
-        <v>97</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D67" s="11" t="s">
-        <v>75</v>
+        <v>199</v>
       </c>
       <c r="E67" s="13" t="s">
-        <v>98</v>
+        <v>17</v>
       </c>
     </row>
     <row r="68" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D68" s="11" t="s">
-        <v>76</v>
+        <v>200</v>
       </c>
       <c r="E68" s="13" t="s">
-        <v>98</v>
+        <v>17</v>
       </c>
     </row>
     <row r="69" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D69" s="11" t="s">
-        <v>77</v>
+        <v>201</v>
       </c>
       <c r="E69" s="13" t="s">
-        <v>98</v>
+        <v>17</v>
       </c>
     </row>
     <row r="70" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D70" s="11" t="s">
-        <v>78</v>
+        <v>202</v>
       </c>
       <c r="E70" s="13" t="s">
-        <v>98</v>
+        <v>17</v>
       </c>
     </row>
     <row r="71" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D71" s="11" t="s">
-        <v>79</v>
+        <v>203</v>
       </c>
       <c r="E71" s="13" t="s">
-        <v>98</v>
+        <v>17</v>
       </c>
     </row>
     <row r="72" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D72" s="11" t="s">
-        <v>80</v>
+        <v>204</v>
       </c>
       <c r="E72" s="13" t="s">
-        <v>98</v>
+        <v>17</v>
       </c>
     </row>
     <row r="73" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D73" s="11" t="s">
-        <v>81</v>
+        <v>205</v>
       </c>
       <c r="E73" s="13" t="s">
-        <v>97</v>
+        <v>16</v>
       </c>
     </row>
     <row r="74" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D74" s="11" t="s">
-        <v>82</v>
+        <v>206</v>
       </c>
       <c r="E74" s="13" t="s">
-        <v>98</v>
+        <v>17</v>
       </c>
     </row>
     <row r="75" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D75" s="11" t="s">
-        <v>83</v>
+        <v>207</v>
       </c>
       <c r="E75" s="13" t="s">
-        <v>97</v>
+        <v>16</v>
       </c>
     </row>
     <row r="76" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D76" s="11" t="s">
-        <v>84</v>
+        <v>208</v>
       </c>
       <c r="E76" s="13" t="s">
-        <v>97</v>
+        <v>16</v>
       </c>
     </row>
     <row r="77" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D77" s="11" t="s">
-        <v>85</v>
+        <v>209</v>
       </c>
       <c r="E77" s="13" t="s">
-        <v>97</v>
+        <v>16</v>
       </c>
     </row>
     <row r="78" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D78" s="11" t="s">
-        <v>86</v>
+        <v>210</v>
       </c>
       <c r="E78" s="13" t="s">
-        <v>97</v>
+        <v>16</v>
       </c>
     </row>
     <row r="79" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D79" s="11" t="s">
-        <v>87</v>
+        <v>211</v>
       </c>
       <c r="E79" s="13" t="s">
-        <v>98</v>
+        <v>17</v>
       </c>
     </row>
     <row r="80" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D80" s="11" t="s">
-        <v>88</v>
+        <v>212</v>
       </c>
       <c r="E80" s="13" t="s">
-        <v>97</v>
+        <v>16</v>
       </c>
     </row>
     <row r="81" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D81" s="11" t="s">
-        <v>89</v>
+        <v>213</v>
       </c>
       <c r="E81" s="13" t="s">
-        <v>97</v>
+        <v>16</v>
       </c>
     </row>
     <row r="82" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D82" s="11" t="s">
-        <v>90</v>
+        <v>214</v>
       </c>
       <c r="E82" s="13" t="s">
-        <v>98</v>
+        <v>17</v>
       </c>
     </row>
     <row r="83" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D83" s="11" t="s">
-        <v>91</v>
+        <v>215</v>
       </c>
       <c r="E83" s="13" t="s">
-        <v>97</v>
+        <v>16</v>
       </c>
     </row>
     <row r="84" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D84" s="11" t="s">
-        <v>92</v>
+        <v>216</v>
       </c>
       <c r="E84" s="13" t="s">
-        <v>98</v>
+        <v>17</v>
       </c>
     </row>
     <row r="85" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D85" s="11" t="s">
-        <v>93</v>
+        <v>217</v>
       </c>
       <c r="E85" s="13" t="s">
-        <v>98</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -2751,9 +3074,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:H93"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -2775,7 +3096,7 @@
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.15">
       <c r="C3" s="1" t="s">
-        <v>99</v>
+        <v>18</v>
       </c>
       <c r="D3" s="9"/>
       <c r="E3" s="2"/>
@@ -2786,15 +3107,15 @@
     </row>
     <row r="5" spans="2:8" ht="27" x14ac:dyDescent="0.15">
       <c r="D5" s="14" t="s">
-        <v>100</v>
+        <v>19</v>
       </c>
       <c r="E5" s="15"/>
       <c r="F5" s="16"/>
       <c r="G5" s="17" t="s">
-        <v>95</v>
+        <v>14</v>
       </c>
       <c r="H5" s="18" t="s">
-        <v>194</v>
+        <v>113</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.15">
@@ -2802,16 +3123,16 @@
         <v>1</v>
       </c>
       <c r="E6" s="20" t="s">
-        <v>101</v>
+        <v>20</v>
       </c>
       <c r="F6" s="20" t="s">
-        <v>102</v>
+        <v>21</v>
       </c>
       <c r="G6" s="19" t="s">
-        <v>102</v>
+        <v>21</v>
       </c>
       <c r="H6" s="21" t="s">
-        <v>102</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.15">
@@ -2819,16 +3140,16 @@
         <v>2</v>
       </c>
       <c r="E7" s="20" t="s">
-        <v>103</v>
+        <v>22</v>
       </c>
       <c r="F7" s="20" t="s">
-        <v>104</v>
+        <v>23</v>
       </c>
       <c r="G7" s="19" t="s">
-        <v>98</v>
+        <v>17</v>
       </c>
       <c r="H7" s="21" t="s">
-        <v>102</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.15">
@@ -2836,16 +3157,16 @@
         <v>2</v>
       </c>
       <c r="E8" s="20" t="s">
-        <v>103</v>
+        <v>22</v>
       </c>
       <c r="F8" s="20" t="s">
-        <v>105</v>
+        <v>24</v>
       </c>
       <c r="G8" s="19" t="s">
-        <v>98</v>
+        <v>17</v>
       </c>
       <c r="H8" s="21" t="s">
-        <v>102</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.15">
@@ -2853,16 +3174,16 @@
         <v>2</v>
       </c>
       <c r="E9" s="20" t="s">
-        <v>103</v>
+        <v>22</v>
       </c>
       <c r="F9" s="20" t="s">
-        <v>107</v>
+        <v>26</v>
       </c>
       <c r="G9" s="19" t="s">
-        <v>98</v>
+        <v>17</v>
       </c>
       <c r="H9" s="21" t="s">
-        <v>102</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.15">
@@ -2870,16 +3191,16 @@
         <v>2</v>
       </c>
       <c r="E10" s="20" t="s">
-        <v>103</v>
+        <v>22</v>
       </c>
       <c r="F10" s="20" t="s">
-        <v>108</v>
+        <v>27</v>
       </c>
       <c r="G10" s="19" t="s">
-        <v>98</v>
+        <v>17</v>
       </c>
       <c r="H10" s="21" t="s">
-        <v>102</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.15">
@@ -2887,16 +3208,16 @@
         <v>3</v>
       </c>
       <c r="E11" s="20" t="s">
-        <v>109</v>
+        <v>28</v>
       </c>
       <c r="F11" s="20" t="s">
-        <v>110</v>
+        <v>29</v>
       </c>
       <c r="G11" s="19" t="s">
-        <v>98</v>
+        <v>17</v>
       </c>
       <c r="H11" s="21" t="s">
-        <v>102</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.15">
@@ -2904,16 +3225,16 @@
         <v>3</v>
       </c>
       <c r="E12" s="20" t="s">
-        <v>109</v>
+        <v>28</v>
       </c>
       <c r="F12" s="20" t="s">
-        <v>111</v>
+        <v>30</v>
       </c>
       <c r="G12" s="19" t="s">
-        <v>98</v>
+        <v>17</v>
       </c>
       <c r="H12" s="21" t="s">
-        <v>102</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.15">
@@ -2921,16 +3242,16 @@
         <v>3</v>
       </c>
       <c r="E13" s="20" t="s">
-        <v>109</v>
+        <v>28</v>
       </c>
       <c r="F13" s="20" t="s">
-        <v>112</v>
+        <v>31</v>
       </c>
       <c r="G13" s="19" t="s">
-        <v>97</v>
+        <v>16</v>
       </c>
       <c r="H13" s="21" t="s">
-        <v>102</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.15">
@@ -2938,16 +3259,16 @@
         <v>3</v>
       </c>
       <c r="E14" s="20" t="s">
-        <v>109</v>
+        <v>28</v>
       </c>
       <c r="F14" s="20" t="s">
-        <v>113</v>
+        <v>32</v>
       </c>
       <c r="G14" s="19" t="s">
-        <v>97</v>
+        <v>16</v>
       </c>
       <c r="H14" s="21" t="s">
-        <v>102</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.15">
@@ -2955,16 +3276,16 @@
         <v>4</v>
       </c>
       <c r="E15" s="20" t="s">
-        <v>114</v>
+        <v>33</v>
       </c>
       <c r="F15" s="20" t="s">
-        <v>115</v>
+        <v>34</v>
       </c>
       <c r="G15" s="19" t="s">
-        <v>98</v>
+        <v>17</v>
       </c>
       <c r="H15" s="21" t="s">
-        <v>102</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.15">
@@ -2972,16 +3293,16 @@
         <v>4</v>
       </c>
       <c r="E16" s="20" t="s">
-        <v>114</v>
+        <v>33</v>
       </c>
       <c r="F16" s="20" t="s">
-        <v>116</v>
+        <v>35</v>
       </c>
       <c r="G16" s="19" t="s">
-        <v>98</v>
+        <v>17</v>
       </c>
       <c r="H16" s="21" t="s">
-        <v>102</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" spans="4:8" x14ac:dyDescent="0.15">
@@ -2989,16 +3310,16 @@
         <v>4</v>
       </c>
       <c r="E17" s="20" t="s">
-        <v>114</v>
+        <v>33</v>
       </c>
       <c r="F17" s="20" t="s">
-        <v>117</v>
+        <v>36</v>
       </c>
       <c r="G17" s="19" t="s">
-        <v>98</v>
+        <v>17</v>
       </c>
       <c r="H17" s="21" t="s">
-        <v>102</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" spans="4:8" x14ac:dyDescent="0.15">
@@ -3006,16 +3327,16 @@
         <v>5</v>
       </c>
       <c r="E18" s="20" t="s">
-        <v>118</v>
+        <v>37</v>
       </c>
       <c r="F18" s="20" t="s">
-        <v>119</v>
+        <v>38</v>
       </c>
       <c r="G18" s="19" t="s">
-        <v>97</v>
+        <v>16</v>
       </c>
       <c r="H18" s="21" t="s">
-        <v>102</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" spans="4:8" x14ac:dyDescent="0.15">
@@ -3023,16 +3344,16 @@
         <v>5</v>
       </c>
       <c r="E19" s="20" t="s">
-        <v>118</v>
+        <v>37</v>
       </c>
       <c r="F19" s="20" t="s">
-        <v>120</v>
+        <v>39</v>
       </c>
       <c r="G19" s="19" t="s">
-        <v>97</v>
+        <v>16</v>
       </c>
       <c r="H19" s="21" t="s">
-        <v>102</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" spans="4:8" x14ac:dyDescent="0.15">
@@ -3040,16 +3361,16 @@
         <v>5</v>
       </c>
       <c r="E20" s="20" t="s">
-        <v>118</v>
+        <v>37</v>
       </c>
       <c r="F20" s="20" t="s">
-        <v>121</v>
+        <v>40</v>
       </c>
       <c r="G20" s="19" t="s">
-        <v>97</v>
+        <v>16</v>
       </c>
       <c r="H20" s="21" t="s">
-        <v>102</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" spans="4:8" x14ac:dyDescent="0.15">
@@ -3057,16 +3378,16 @@
         <v>5</v>
       </c>
       <c r="E21" s="20" t="s">
-        <v>118</v>
+        <v>37</v>
       </c>
       <c r="F21" s="20" t="s">
-        <v>122</v>
+        <v>41</v>
       </c>
       <c r="G21" s="19" t="s">
-        <v>98</v>
+        <v>17</v>
       </c>
       <c r="H21" s="21" t="s">
-        <v>102</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" spans="4:8" x14ac:dyDescent="0.15">
@@ -3074,16 +3395,16 @@
         <v>5</v>
       </c>
       <c r="E22" s="20" t="s">
-        <v>118</v>
+        <v>37</v>
       </c>
       <c r="F22" s="20" t="s">
-        <v>123</v>
+        <v>42</v>
       </c>
       <c r="G22" s="19" t="s">
-        <v>98</v>
+        <v>17</v>
       </c>
       <c r="H22" s="21" t="s">
-        <v>102</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" spans="4:8" x14ac:dyDescent="0.15">
@@ -3091,16 +3412,16 @@
         <v>5</v>
       </c>
       <c r="E23" s="20" t="s">
-        <v>118</v>
+        <v>37</v>
       </c>
       <c r="F23" s="20" t="s">
-        <v>124</v>
+        <v>43</v>
       </c>
       <c r="G23" s="19" t="s">
-        <v>97</v>
+        <v>16</v>
       </c>
       <c r="H23" s="21" t="s">
-        <v>102</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" spans="4:8" x14ac:dyDescent="0.15">
@@ -3108,16 +3429,16 @@
         <v>5</v>
       </c>
       <c r="E24" s="20" t="s">
-        <v>118</v>
+        <v>37</v>
       </c>
       <c r="F24" s="20" t="s">
-        <v>125</v>
+        <v>44</v>
       </c>
       <c r="G24" s="19" t="s">
-        <v>97</v>
+        <v>16</v>
       </c>
       <c r="H24" s="21" t="s">
-        <v>102</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25" spans="4:8" x14ac:dyDescent="0.15">
@@ -3125,16 +3446,16 @@
         <v>6</v>
       </c>
       <c r="E25" s="20" t="s">
-        <v>126</v>
+        <v>45</v>
       </c>
       <c r="F25" s="20" t="s">
-        <v>106</v>
+        <v>25</v>
       </c>
       <c r="G25" s="19" t="s">
-        <v>98</v>
+        <v>17</v>
       </c>
       <c r="H25" s="21" t="s">
-        <v>102</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26" spans="4:8" x14ac:dyDescent="0.15">
@@ -3142,16 +3463,16 @@
         <v>7</v>
       </c>
       <c r="E26" s="20" t="s">
-        <v>127</v>
+        <v>46</v>
       </c>
       <c r="F26" s="20" t="s">
-        <v>106</v>
+        <v>25</v>
       </c>
       <c r="G26" s="19" t="s">
-        <v>98</v>
+        <v>17</v>
       </c>
       <c r="H26" s="21" t="s">
-        <v>102</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27" spans="4:8" x14ac:dyDescent="0.15">
@@ -3159,16 +3480,16 @@
         <v>8</v>
       </c>
       <c r="E27" s="20" t="s">
-        <v>128</v>
+        <v>47</v>
       </c>
       <c r="F27" s="20" t="s">
-        <v>106</v>
+        <v>25</v>
       </c>
       <c r="G27" s="19" t="s">
-        <v>98</v>
+        <v>17</v>
       </c>
       <c r="H27" s="21" t="s">
-        <v>102</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28" spans="4:8" x14ac:dyDescent="0.15">
@@ -3176,16 +3497,16 @@
         <v>9</v>
       </c>
       <c r="E28" s="20" t="s">
-        <v>129</v>
+        <v>48</v>
       </c>
       <c r="F28" s="20" t="s">
-        <v>106</v>
+        <v>25</v>
       </c>
       <c r="G28" s="19" t="s">
-        <v>98</v>
+        <v>17</v>
       </c>
       <c r="H28" s="21" t="s">
-        <v>102</v>
+        <v>21</v>
       </c>
     </row>
     <row r="29" spans="4:8" x14ac:dyDescent="0.15">
@@ -3193,16 +3514,16 @@
         <v>10</v>
       </c>
       <c r="E29" s="20" t="s">
-        <v>130</v>
+        <v>49</v>
       </c>
       <c r="F29" s="20" t="s">
-        <v>131</v>
+        <v>50</v>
       </c>
       <c r="G29" s="19" t="s">
-        <v>193</v>
+        <v>112</v>
       </c>
       <c r="H29" s="21" t="s">
-        <v>195</v>
+        <v>114</v>
       </c>
     </row>
     <row r="30" spans="4:8" x14ac:dyDescent="0.15">
@@ -3210,16 +3531,16 @@
         <v>11</v>
       </c>
       <c r="E30" s="20" t="s">
-        <v>132</v>
+        <v>51</v>
       </c>
       <c r="F30" s="20" t="s">
-        <v>106</v>
+        <v>25</v>
       </c>
       <c r="G30" s="19" t="s">
-        <v>98</v>
+        <v>17</v>
       </c>
       <c r="H30" s="21" t="s">
-        <v>106</v>
+        <v>25</v>
       </c>
     </row>
     <row r="31" spans="4:8" x14ac:dyDescent="0.15">
@@ -3227,16 +3548,16 @@
         <v>12</v>
       </c>
       <c r="E31" s="20" t="s">
-        <v>133</v>
+        <v>52</v>
       </c>
       <c r="F31" s="20" t="s">
-        <v>134</v>
+        <v>53</v>
       </c>
       <c r="G31" s="19" t="s">
-        <v>98</v>
+        <v>17</v>
       </c>
       <c r="H31" s="22" t="s">
-        <v>106</v>
+        <v>25</v>
       </c>
     </row>
     <row r="32" spans="4:8" x14ac:dyDescent="0.15">
@@ -3244,16 +3565,16 @@
         <v>12</v>
       </c>
       <c r="E32" s="20" t="s">
-        <v>133</v>
+        <v>52</v>
       </c>
       <c r="F32" s="20" t="s">
-        <v>135</v>
+        <v>54</v>
       </c>
       <c r="G32" s="19" t="s">
-        <v>97</v>
+        <v>16</v>
       </c>
       <c r="H32" s="22" t="s">
-        <v>106</v>
+        <v>25</v>
       </c>
     </row>
     <row r="33" spans="4:8" x14ac:dyDescent="0.15">
@@ -3261,16 +3582,16 @@
         <v>12</v>
       </c>
       <c r="E33" s="20" t="s">
-        <v>133</v>
+        <v>52</v>
       </c>
       <c r="F33" s="20" t="s">
-        <v>136</v>
+        <v>55</v>
       </c>
       <c r="G33" s="19" t="s">
-        <v>98</v>
+        <v>17</v>
       </c>
       <c r="H33" s="21" t="s">
-        <v>106</v>
+        <v>25</v>
       </c>
     </row>
     <row r="34" spans="4:8" x14ac:dyDescent="0.15">
@@ -3278,16 +3599,16 @@
         <v>12</v>
       </c>
       <c r="E34" s="20" t="s">
-        <v>133</v>
+        <v>52</v>
       </c>
       <c r="F34" s="20" t="s">
-        <v>137</v>
+        <v>56</v>
       </c>
       <c r="G34" s="19" t="s">
-        <v>98</v>
+        <v>17</v>
       </c>
       <c r="H34" s="21" t="s">
-        <v>106</v>
+        <v>25</v>
       </c>
     </row>
     <row r="35" spans="4:8" x14ac:dyDescent="0.15">
@@ -3295,16 +3616,16 @@
         <v>12</v>
       </c>
       <c r="E35" s="20" t="s">
-        <v>133</v>
+        <v>52</v>
       </c>
       <c r="F35" s="20" t="s">
-        <v>138</v>
+        <v>57</v>
       </c>
       <c r="G35" s="19" t="s">
-        <v>98</v>
+        <v>17</v>
       </c>
       <c r="H35" s="21" t="s">
-        <v>106</v>
+        <v>25</v>
       </c>
     </row>
     <row r="36" spans="4:8" x14ac:dyDescent="0.15">
@@ -3312,16 +3633,16 @@
         <v>12</v>
       </c>
       <c r="E36" s="20" t="s">
-        <v>133</v>
+        <v>52</v>
       </c>
       <c r="F36" s="20" t="s">
-        <v>139</v>
+        <v>58</v>
       </c>
       <c r="G36" s="19" t="s">
-        <v>98</v>
+        <v>17</v>
       </c>
       <c r="H36" s="22" t="s">
-        <v>106</v>
+        <v>25</v>
       </c>
     </row>
     <row r="37" spans="4:8" x14ac:dyDescent="0.15">
@@ -3329,16 +3650,16 @@
         <v>12</v>
       </c>
       <c r="E37" s="20" t="s">
-        <v>133</v>
+        <v>52</v>
       </c>
       <c r="F37" s="20" t="s">
-        <v>140</v>
+        <v>59</v>
       </c>
       <c r="G37" s="19" t="s">
-        <v>98</v>
+        <v>17</v>
       </c>
       <c r="H37" s="21" t="s">
-        <v>106</v>
+        <v>25</v>
       </c>
     </row>
     <row r="38" spans="4:8" x14ac:dyDescent="0.15">
@@ -3346,16 +3667,16 @@
         <v>12</v>
       </c>
       <c r="E38" s="20" t="s">
-        <v>133</v>
+        <v>52</v>
       </c>
       <c r="F38" s="20" t="s">
-        <v>141</v>
+        <v>60</v>
       </c>
       <c r="G38" s="19" t="s">
-        <v>98</v>
+        <v>17</v>
       </c>
       <c r="H38" s="21" t="s">
-        <v>106</v>
+        <v>25</v>
       </c>
     </row>
     <row r="39" spans="4:8" x14ac:dyDescent="0.15">
@@ -3363,16 +3684,16 @@
         <v>12</v>
       </c>
       <c r="E39" s="20" t="s">
-        <v>133</v>
+        <v>52</v>
       </c>
       <c r="F39" s="20" t="s">
-        <v>142</v>
+        <v>61</v>
       </c>
       <c r="G39" s="19" t="s">
-        <v>98</v>
+        <v>17</v>
       </c>
       <c r="H39" s="21" t="s">
-        <v>106</v>
+        <v>25</v>
       </c>
     </row>
     <row r="40" spans="4:8" x14ac:dyDescent="0.15">
@@ -3380,16 +3701,16 @@
         <v>13</v>
       </c>
       <c r="E40" s="20" t="s">
-        <v>143</v>
+        <v>62</v>
       </c>
       <c r="F40" s="20" t="s">
-        <v>134</v>
+        <v>53</v>
       </c>
       <c r="G40" s="19" t="s">
-        <v>98</v>
+        <v>17</v>
       </c>
       <c r="H40" s="22" t="s">
-        <v>106</v>
+        <v>25</v>
       </c>
     </row>
     <row r="41" spans="4:8" x14ac:dyDescent="0.15">
@@ -3397,16 +3718,16 @@
         <v>13</v>
       </c>
       <c r="E41" s="20" t="s">
-        <v>143</v>
+        <v>62</v>
       </c>
       <c r="F41" s="20" t="s">
-        <v>135</v>
+        <v>54</v>
       </c>
       <c r="G41" s="19" t="s">
-        <v>98</v>
+        <v>17</v>
       </c>
       <c r="H41" s="22" t="s">
-        <v>106</v>
+        <v>25</v>
       </c>
     </row>
     <row r="42" spans="4:8" x14ac:dyDescent="0.15">
@@ -3414,16 +3735,16 @@
         <v>13</v>
       </c>
       <c r="E42" s="20" t="s">
-        <v>143</v>
+        <v>62</v>
       </c>
       <c r="F42" s="20" t="s">
-        <v>136</v>
+        <v>55</v>
       </c>
       <c r="G42" s="19" t="s">
-        <v>98</v>
+        <v>17</v>
       </c>
       <c r="H42" s="21" t="s">
-        <v>106</v>
+        <v>25</v>
       </c>
     </row>
     <row r="43" spans="4:8" x14ac:dyDescent="0.15">
@@ -3431,16 +3752,16 @@
         <v>13</v>
       </c>
       <c r="E43" s="20" t="s">
-        <v>143</v>
+        <v>62</v>
       </c>
       <c r="F43" s="20" t="s">
-        <v>138</v>
+        <v>57</v>
       </c>
       <c r="G43" s="19" t="s">
-        <v>98</v>
+        <v>17</v>
       </c>
       <c r="H43" s="21" t="s">
-        <v>106</v>
+        <v>25</v>
       </c>
     </row>
     <row r="44" spans="4:8" x14ac:dyDescent="0.15">
@@ -3448,16 +3769,16 @@
         <v>13</v>
       </c>
       <c r="E44" s="20" t="s">
-        <v>143</v>
+        <v>62</v>
       </c>
       <c r="F44" s="20" t="s">
-        <v>139</v>
+        <v>58</v>
       </c>
       <c r="G44" s="19" t="s">
-        <v>98</v>
+        <v>17</v>
       </c>
       <c r="H44" s="22" t="s">
-        <v>106</v>
+        <v>25</v>
       </c>
     </row>
     <row r="45" spans="4:8" x14ac:dyDescent="0.15">
@@ -3465,16 +3786,16 @@
         <v>13</v>
       </c>
       <c r="E45" s="20" t="s">
-        <v>143</v>
+        <v>62</v>
       </c>
       <c r="F45" s="20" t="s">
-        <v>144</v>
+        <v>63</v>
       </c>
       <c r="G45" s="19" t="s">
-        <v>98</v>
+        <v>17</v>
       </c>
       <c r="H45" s="21" t="s">
-        <v>106</v>
+        <v>25</v>
       </c>
     </row>
     <row r="46" spans="4:8" x14ac:dyDescent="0.15">
@@ -3482,16 +3803,16 @@
         <v>13</v>
       </c>
       <c r="E46" s="20" t="s">
-        <v>143</v>
+        <v>62</v>
       </c>
       <c r="F46" s="20" t="s">
-        <v>145</v>
+        <v>64</v>
       </c>
       <c r="G46" s="19" t="s">
-        <v>98</v>
+        <v>17</v>
       </c>
       <c r="H46" s="21" t="s">
-        <v>106</v>
+        <v>25</v>
       </c>
     </row>
     <row r="47" spans="4:8" x14ac:dyDescent="0.15">
@@ -3499,16 +3820,16 @@
         <v>13</v>
       </c>
       <c r="E47" s="20" t="s">
-        <v>143</v>
+        <v>62</v>
       </c>
       <c r="F47" s="20" t="s">
-        <v>142</v>
+        <v>61</v>
       </c>
       <c r="G47" s="19" t="s">
-        <v>98</v>
+        <v>17</v>
       </c>
       <c r="H47" s="21" t="s">
-        <v>106</v>
+        <v>25</v>
       </c>
     </row>
     <row r="48" spans="4:8" x14ac:dyDescent="0.15">
@@ -3516,16 +3837,16 @@
         <v>13</v>
       </c>
       <c r="E48" s="20" t="s">
-        <v>143</v>
+        <v>62</v>
       </c>
       <c r="F48" s="20" t="s">
-        <v>141</v>
+        <v>60</v>
       </c>
       <c r="G48" s="19" t="s">
-        <v>98</v>
+        <v>17</v>
       </c>
       <c r="H48" s="21" t="s">
-        <v>106</v>
+        <v>25</v>
       </c>
     </row>
     <row r="49" spans="4:8" x14ac:dyDescent="0.15">
@@ -3533,16 +3854,16 @@
         <v>14</v>
       </c>
       <c r="E49" s="20" t="s">
-        <v>146</v>
+        <v>65</v>
       </c>
       <c r="F49" s="20" t="s">
-        <v>147</v>
+        <v>66</v>
       </c>
       <c r="G49" s="19" t="s">
-        <v>97</v>
+        <v>16</v>
       </c>
       <c r="H49" s="22" t="s">
-        <v>106</v>
+        <v>25</v>
       </c>
     </row>
     <row r="50" spans="4:8" x14ac:dyDescent="0.15">
@@ -3550,16 +3871,16 @@
         <v>15</v>
       </c>
       <c r="E50" s="20" t="s">
-        <v>148</v>
+        <v>67</v>
       </c>
       <c r="F50" s="20" t="s">
-        <v>106</v>
+        <v>25</v>
       </c>
       <c r="G50" s="19" t="s">
-        <v>98</v>
+        <v>17</v>
       </c>
       <c r="H50" s="21" t="s">
-        <v>106</v>
+        <v>25</v>
       </c>
     </row>
     <row r="51" spans="4:8" x14ac:dyDescent="0.15">
@@ -3567,16 +3888,16 @@
         <v>16</v>
       </c>
       <c r="E51" s="20" t="s">
-        <v>149</v>
+        <v>68</v>
       </c>
       <c r="F51" s="20" t="s">
-        <v>106</v>
+        <v>25</v>
       </c>
       <c r="G51" s="19" t="s">
-        <v>98</v>
+        <v>17</v>
       </c>
       <c r="H51" s="21" t="s">
-        <v>106</v>
+        <v>25</v>
       </c>
     </row>
     <row r="52" spans="4:8" x14ac:dyDescent="0.15">
@@ -3584,16 +3905,16 @@
         <v>17</v>
       </c>
       <c r="E52" s="20" t="s">
-        <v>150</v>
+        <v>69</v>
       </c>
       <c r="F52" s="20" t="s">
-        <v>106</v>
+        <v>25</v>
       </c>
       <c r="G52" s="19" t="s">
-        <v>98</v>
+        <v>17</v>
       </c>
       <c r="H52" s="21" t="s">
-        <v>106</v>
+        <v>25</v>
       </c>
     </row>
     <row r="53" spans="4:8" x14ac:dyDescent="0.15">
@@ -3601,16 +3922,16 @@
         <v>18</v>
       </c>
       <c r="E53" s="20" t="s">
-        <v>151</v>
+        <v>70</v>
       </c>
       <c r="F53" s="20" t="s">
-        <v>106</v>
+        <v>25</v>
       </c>
       <c r="G53" s="19" t="s">
-        <v>98</v>
+        <v>17</v>
       </c>
       <c r="H53" s="21" t="s">
-        <v>106</v>
+        <v>25</v>
       </c>
     </row>
     <row r="54" spans="4:8" x14ac:dyDescent="0.15">
@@ -3618,16 +3939,16 @@
         <v>19</v>
       </c>
       <c r="E54" s="20" t="s">
-        <v>152</v>
+        <v>71</v>
       </c>
       <c r="F54" s="20" t="s">
-        <v>106</v>
+        <v>25</v>
       </c>
       <c r="G54" s="19" t="s">
-        <v>98</v>
+        <v>17</v>
       </c>
       <c r="H54" s="21" t="s">
-        <v>106</v>
+        <v>25</v>
       </c>
     </row>
     <row r="55" spans="4:8" x14ac:dyDescent="0.15">
@@ -3635,16 +3956,16 @@
         <v>20</v>
       </c>
       <c r="E55" s="20" t="s">
-        <v>153</v>
+        <v>72</v>
       </c>
       <c r="F55" s="20" t="s">
-        <v>106</v>
+        <v>25</v>
       </c>
       <c r="G55" s="19" t="s">
-        <v>98</v>
+        <v>17</v>
       </c>
       <c r="H55" s="21" t="s">
-        <v>106</v>
+        <v>25</v>
       </c>
     </row>
     <row r="56" spans="4:8" x14ac:dyDescent="0.15">
@@ -3652,16 +3973,16 @@
         <v>21</v>
       </c>
       <c r="E56" s="20" t="s">
-        <v>154</v>
+        <v>73</v>
       </c>
       <c r="F56" s="20" t="s">
-        <v>155</v>
+        <v>74</v>
       </c>
       <c r="G56" s="19" t="s">
-        <v>98</v>
+        <v>17</v>
       </c>
       <c r="H56" s="22" t="s">
-        <v>106</v>
+        <v>25</v>
       </c>
     </row>
     <row r="57" spans="4:8" x14ac:dyDescent="0.15">
@@ -3669,16 +3990,16 @@
         <v>21</v>
       </c>
       <c r="E57" s="20" t="s">
-        <v>154</v>
+        <v>73</v>
       </c>
       <c r="F57" s="20" t="s">
-        <v>156</v>
+        <v>75</v>
       </c>
       <c r="G57" s="19" t="s">
-        <v>98</v>
+        <v>17</v>
       </c>
       <c r="H57" s="22" t="s">
-        <v>106</v>
+        <v>25</v>
       </c>
     </row>
     <row r="58" spans="4:8" x14ac:dyDescent="0.15">
@@ -3686,16 +4007,16 @@
         <v>21</v>
       </c>
       <c r="E58" s="20" t="s">
-        <v>154</v>
+        <v>73</v>
       </c>
       <c r="F58" s="20" t="s">
-        <v>157</v>
+        <v>76</v>
       </c>
       <c r="G58" s="19" t="s">
-        <v>98</v>
+        <v>17</v>
       </c>
       <c r="H58" s="22" t="s">
-        <v>106</v>
+        <v>25</v>
       </c>
     </row>
     <row r="59" spans="4:8" x14ac:dyDescent="0.15">
@@ -3703,16 +4024,16 @@
         <v>21</v>
       </c>
       <c r="E59" s="20" t="s">
-        <v>154</v>
+        <v>73</v>
       </c>
       <c r="F59" s="20" t="s">
-        <v>158</v>
+        <v>77</v>
       </c>
       <c r="G59" s="19" t="s">
-        <v>193</v>
+        <v>112</v>
       </c>
       <c r="H59" s="21" t="s">
-        <v>195</v>
+        <v>114</v>
       </c>
     </row>
     <row r="60" spans="4:8" x14ac:dyDescent="0.15">
@@ -3720,16 +4041,16 @@
         <v>21</v>
       </c>
       <c r="E60" s="20" t="s">
-        <v>154</v>
+        <v>73</v>
       </c>
       <c r="F60" s="20" t="s">
-        <v>159</v>
+        <v>78</v>
       </c>
       <c r="G60" s="19" t="s">
-        <v>193</v>
+        <v>112</v>
       </c>
       <c r="H60" s="21" t="s">
-        <v>195</v>
+        <v>114</v>
       </c>
     </row>
     <row r="61" spans="4:8" x14ac:dyDescent="0.15">
@@ -3737,16 +4058,16 @@
         <v>21</v>
       </c>
       <c r="E61" s="20" t="s">
-        <v>154</v>
+        <v>73</v>
       </c>
       <c r="F61" s="20" t="s">
-        <v>160</v>
+        <v>79</v>
       </c>
       <c r="G61" s="19" t="s">
-        <v>193</v>
+        <v>112</v>
       </c>
       <c r="H61" s="21" t="s">
-        <v>195</v>
+        <v>114</v>
       </c>
     </row>
     <row r="62" spans="4:8" x14ac:dyDescent="0.15">
@@ -3754,16 +4075,16 @@
         <v>21</v>
       </c>
       <c r="E62" s="20" t="s">
-        <v>154</v>
+        <v>73</v>
       </c>
       <c r="F62" s="20" t="s">
-        <v>161</v>
+        <v>80</v>
       </c>
       <c r="G62" s="19" t="s">
-        <v>98</v>
+        <v>17</v>
       </c>
       <c r="H62" s="22" t="s">
-        <v>106</v>
+        <v>25</v>
       </c>
     </row>
     <row r="63" spans="4:8" x14ac:dyDescent="0.15">
@@ -3771,16 +4092,16 @@
         <v>21</v>
       </c>
       <c r="E63" s="20" t="s">
-        <v>154</v>
+        <v>73</v>
       </c>
       <c r="F63" s="20" t="s">
-        <v>162</v>
+        <v>81</v>
       </c>
       <c r="G63" s="19" t="s">
-        <v>98</v>
+        <v>17</v>
       </c>
       <c r="H63" s="22" t="s">
-        <v>106</v>
+        <v>25</v>
       </c>
     </row>
     <row r="64" spans="4:8" x14ac:dyDescent="0.15">
@@ -3788,16 +4109,16 @@
         <v>21</v>
       </c>
       <c r="E64" s="20" t="s">
-        <v>154</v>
+        <v>73</v>
       </c>
       <c r="F64" s="20" t="s">
-        <v>163</v>
+        <v>82</v>
       </c>
       <c r="G64" s="19" t="s">
-        <v>98</v>
+        <v>17</v>
       </c>
       <c r="H64" s="22" t="s">
-        <v>106</v>
+        <v>25</v>
       </c>
     </row>
     <row r="65" spans="4:8" x14ac:dyDescent="0.15">
@@ -3805,16 +4126,16 @@
         <v>21</v>
       </c>
       <c r="E65" s="20" t="s">
-        <v>154</v>
+        <v>73</v>
       </c>
       <c r="F65" s="20" t="s">
-        <v>164</v>
+        <v>83</v>
       </c>
       <c r="G65" s="19" t="s">
-        <v>98</v>
+        <v>17</v>
       </c>
       <c r="H65" s="22" t="s">
-        <v>106</v>
+        <v>25</v>
       </c>
     </row>
     <row r="66" spans="4:8" x14ac:dyDescent="0.15">
@@ -3822,16 +4143,16 @@
         <v>21</v>
       </c>
       <c r="E66" s="20" t="s">
-        <v>154</v>
+        <v>73</v>
       </c>
       <c r="F66" s="20" t="s">
-        <v>165</v>
+        <v>84</v>
       </c>
       <c r="G66" s="19" t="s">
-        <v>193</v>
+        <v>112</v>
       </c>
       <c r="H66" s="21" t="s">
-        <v>195</v>
+        <v>114</v>
       </c>
     </row>
     <row r="67" spans="4:8" x14ac:dyDescent="0.15">
@@ -3839,16 +4160,16 @@
         <v>21</v>
       </c>
       <c r="E67" s="20" t="s">
-        <v>154</v>
+        <v>73</v>
       </c>
       <c r="F67" s="20" t="s">
-        <v>166</v>
+        <v>85</v>
       </c>
       <c r="G67" s="19" t="s">
-        <v>98</v>
+        <v>17</v>
       </c>
       <c r="H67" s="22" t="s">
-        <v>106</v>
+        <v>25</v>
       </c>
     </row>
     <row r="68" spans="4:8" x14ac:dyDescent="0.15">
@@ -3856,16 +4177,16 @@
         <v>21</v>
       </c>
       <c r="E68" s="20" t="s">
-        <v>154</v>
+        <v>73</v>
       </c>
       <c r="F68" s="20" t="s">
-        <v>167</v>
+        <v>86</v>
       </c>
       <c r="G68" s="19" t="s">
-        <v>98</v>
+        <v>17</v>
       </c>
       <c r="H68" s="22" t="s">
-        <v>106</v>
+        <v>25</v>
       </c>
     </row>
     <row r="69" spans="4:8" x14ac:dyDescent="0.15">
@@ -3873,16 +4194,16 @@
         <v>21</v>
       </c>
       <c r="E69" s="20" t="s">
-        <v>154</v>
+        <v>73</v>
       </c>
       <c r="F69" s="20" t="s">
-        <v>168</v>
+        <v>87</v>
       </c>
       <c r="G69" s="19" t="s">
-        <v>98</v>
+        <v>17</v>
       </c>
       <c r="H69" s="22" t="s">
-        <v>106</v>
+        <v>25</v>
       </c>
     </row>
     <row r="70" spans="4:8" x14ac:dyDescent="0.15">
@@ -3890,16 +4211,16 @@
         <v>21</v>
       </c>
       <c r="E70" s="20" t="s">
-        <v>154</v>
+        <v>73</v>
       </c>
       <c r="F70" s="20" t="s">
-        <v>169</v>
+        <v>88</v>
       </c>
       <c r="G70" s="19" t="s">
-        <v>98</v>
+        <v>17</v>
       </c>
       <c r="H70" s="22" t="s">
-        <v>106</v>
+        <v>25</v>
       </c>
     </row>
     <row r="71" spans="4:8" x14ac:dyDescent="0.15">
@@ -3907,16 +4228,16 @@
         <v>21</v>
       </c>
       <c r="E71" s="20" t="s">
-        <v>154</v>
+        <v>73</v>
       </c>
       <c r="F71" s="20" t="s">
-        <v>170</v>
+        <v>89</v>
       </c>
       <c r="G71" s="19" t="s">
-        <v>98</v>
+        <v>17</v>
       </c>
       <c r="H71" s="22" t="s">
-        <v>106</v>
+        <v>25</v>
       </c>
     </row>
     <row r="72" spans="4:8" x14ac:dyDescent="0.15">
@@ -3924,16 +4245,16 @@
         <v>21</v>
       </c>
       <c r="E72" s="20" t="s">
-        <v>154</v>
+        <v>73</v>
       </c>
       <c r="F72" s="20" t="s">
-        <v>171</v>
+        <v>90</v>
       </c>
       <c r="G72" s="19" t="s">
-        <v>193</v>
+        <v>112</v>
       </c>
       <c r="H72" s="21" t="s">
-        <v>196</v>
+        <v>115</v>
       </c>
     </row>
     <row r="73" spans="4:8" x14ac:dyDescent="0.15">
@@ -3941,16 +4262,16 @@
         <v>21</v>
       </c>
       <c r="E73" s="20" t="s">
-        <v>154</v>
+        <v>73</v>
       </c>
       <c r="F73" s="20" t="s">
-        <v>172</v>
+        <v>91</v>
       </c>
       <c r="G73" s="19" t="s">
-        <v>98</v>
+        <v>17</v>
       </c>
       <c r="H73" s="22" t="s">
-        <v>106</v>
+        <v>25</v>
       </c>
     </row>
     <row r="74" spans="4:8" x14ac:dyDescent="0.15">
@@ -3958,16 +4279,16 @@
         <v>21</v>
       </c>
       <c r="E74" s="20" t="s">
-        <v>154</v>
+        <v>73</v>
       </c>
       <c r="F74" s="20" t="s">
-        <v>173</v>
+        <v>92</v>
       </c>
       <c r="G74" s="19" t="s">
-        <v>98</v>
+        <v>17</v>
       </c>
       <c r="H74" s="22" t="s">
-        <v>106</v>
+        <v>25</v>
       </c>
     </row>
     <row r="75" spans="4:8" x14ac:dyDescent="0.15">
@@ -3975,16 +4296,16 @@
         <v>21</v>
       </c>
       <c r="E75" s="20" t="s">
-        <v>154</v>
+        <v>73</v>
       </c>
       <c r="F75" s="20" t="s">
-        <v>174</v>
+        <v>93</v>
       </c>
       <c r="G75" s="19" t="s">
-        <v>98</v>
+        <v>17</v>
       </c>
       <c r="H75" s="22" t="s">
-        <v>106</v>
+        <v>25</v>
       </c>
     </row>
     <row r="76" spans="4:8" x14ac:dyDescent="0.15">
@@ -3992,16 +4313,16 @@
         <v>21</v>
       </c>
       <c r="E76" s="20" t="s">
-        <v>154</v>
+        <v>73</v>
       </c>
       <c r="F76" s="20" t="s">
-        <v>175</v>
+        <v>94</v>
       </c>
       <c r="G76" s="19" t="s">
-        <v>98</v>
+        <v>17</v>
       </c>
       <c r="H76" s="21" t="s">
-        <v>106</v>
+        <v>25</v>
       </c>
     </row>
     <row r="77" spans="4:8" x14ac:dyDescent="0.15">
@@ -4009,16 +4330,16 @@
         <v>21</v>
       </c>
       <c r="E77" s="20" t="s">
-        <v>154</v>
+        <v>73</v>
       </c>
       <c r="F77" s="20" t="s">
-        <v>176</v>
+        <v>95</v>
       </c>
       <c r="G77" s="19" t="s">
-        <v>98</v>
+        <v>17</v>
       </c>
       <c r="H77" s="21" t="s">
-        <v>106</v>
+        <v>25</v>
       </c>
     </row>
     <row r="78" spans="4:8" x14ac:dyDescent="0.15">
@@ -4026,16 +4347,16 @@
         <v>22</v>
       </c>
       <c r="E78" s="20" t="s">
-        <v>177</v>
+        <v>96</v>
       </c>
       <c r="F78" s="20" t="s">
-        <v>178</v>
+        <v>97</v>
       </c>
       <c r="G78" s="19" t="s">
-        <v>98</v>
+        <v>17</v>
       </c>
       <c r="H78" s="22" t="s">
-        <v>106</v>
+        <v>25</v>
       </c>
     </row>
     <row r="79" spans="4:8" x14ac:dyDescent="0.15">
@@ -4043,16 +4364,16 @@
         <v>21</v>
       </c>
       <c r="E79" s="20" t="s">
-        <v>177</v>
+        <v>96</v>
       </c>
       <c r="F79" s="20" t="s">
-        <v>179</v>
+        <v>98</v>
       </c>
       <c r="G79" s="19" t="s">
-        <v>193</v>
+        <v>112</v>
       </c>
       <c r="H79" s="21" t="s">
-        <v>195</v>
+        <v>114</v>
       </c>
     </row>
     <row r="80" spans="4:8" x14ac:dyDescent="0.15">
@@ -4060,16 +4381,16 @@
         <v>21</v>
       </c>
       <c r="E80" s="20" t="s">
-        <v>177</v>
+        <v>96</v>
       </c>
       <c r="F80" s="20" t="s">
-        <v>180</v>
+        <v>99</v>
       </c>
       <c r="G80" s="19" t="s">
-        <v>98</v>
+        <v>17</v>
       </c>
       <c r="H80" s="22" t="s">
-        <v>106</v>
+        <v>25</v>
       </c>
     </row>
     <row r="81" spans="4:8" x14ac:dyDescent="0.15">
@@ -4077,16 +4398,16 @@
         <v>21</v>
       </c>
       <c r="E81" s="20" t="s">
-        <v>177</v>
+        <v>96</v>
       </c>
       <c r="F81" s="20" t="s">
-        <v>181</v>
+        <v>100</v>
       </c>
       <c r="G81" s="19" t="s">
-        <v>98</v>
+        <v>17</v>
       </c>
       <c r="H81" s="22" t="s">
-        <v>106</v>
+        <v>25</v>
       </c>
     </row>
     <row r="82" spans="4:8" x14ac:dyDescent="0.15">
@@ -4094,16 +4415,16 @@
         <v>21</v>
       </c>
       <c r="E82" s="20" t="s">
-        <v>177</v>
+        <v>96</v>
       </c>
       <c r="F82" s="20" t="s">
-        <v>182</v>
+        <v>101</v>
       </c>
       <c r="G82" s="19" t="s">
-        <v>98</v>
+        <v>17</v>
       </c>
       <c r="H82" s="22" t="s">
-        <v>106</v>
+        <v>25</v>
       </c>
     </row>
     <row r="83" spans="4:8" x14ac:dyDescent="0.15">
@@ -4111,16 +4432,16 @@
         <v>21</v>
       </c>
       <c r="E83" s="20" t="s">
-        <v>177</v>
+        <v>96</v>
       </c>
       <c r="F83" s="20" t="s">
-        <v>183</v>
+        <v>102</v>
       </c>
       <c r="G83" s="19" t="s">
-        <v>98</v>
+        <v>17</v>
       </c>
       <c r="H83" s="22" t="s">
-        <v>106</v>
+        <v>25</v>
       </c>
     </row>
     <row r="84" spans="4:8" x14ac:dyDescent="0.15">
@@ -4128,16 +4449,16 @@
         <v>21</v>
       </c>
       <c r="E84" s="20" t="s">
-        <v>177</v>
+        <v>96</v>
       </c>
       <c r="F84" s="20" t="s">
-        <v>184</v>
+        <v>103</v>
       </c>
       <c r="G84" s="19" t="s">
-        <v>98</v>
+        <v>17</v>
       </c>
       <c r="H84" s="22" t="s">
-        <v>106</v>
+        <v>25</v>
       </c>
     </row>
     <row r="85" spans="4:8" x14ac:dyDescent="0.15">
@@ -4145,16 +4466,16 @@
         <v>21</v>
       </c>
       <c r="E85" s="20" t="s">
-        <v>177</v>
+        <v>96</v>
       </c>
       <c r="F85" s="20" t="s">
-        <v>185</v>
+        <v>104</v>
       </c>
       <c r="G85" s="19" t="s">
-        <v>98</v>
+        <v>17</v>
       </c>
       <c r="H85" s="22" t="s">
-        <v>106</v>
+        <v>25</v>
       </c>
     </row>
     <row r="86" spans="4:8" x14ac:dyDescent="0.15">
@@ -4162,16 +4483,16 @@
         <v>21</v>
       </c>
       <c r="E86" s="20" t="s">
-        <v>177</v>
+        <v>96</v>
       </c>
       <c r="F86" s="20" t="s">
-        <v>186</v>
+        <v>105</v>
       </c>
       <c r="G86" s="19" t="s">
-        <v>98</v>
+        <v>17</v>
       </c>
       <c r="H86" s="22" t="s">
-        <v>106</v>
+        <v>25</v>
       </c>
     </row>
     <row r="87" spans="4:8" x14ac:dyDescent="0.15">
@@ -4179,16 +4500,16 @@
         <v>21</v>
       </c>
       <c r="E87" s="20" t="s">
-        <v>177</v>
+        <v>96</v>
       </c>
       <c r="F87" s="20" t="s">
-        <v>187</v>
+        <v>106</v>
       </c>
       <c r="G87" s="19" t="s">
-        <v>98</v>
+        <v>17</v>
       </c>
       <c r="H87" s="22" t="s">
-        <v>106</v>
+        <v>25</v>
       </c>
     </row>
     <row r="88" spans="4:8" x14ac:dyDescent="0.15">
@@ -4196,16 +4517,16 @@
         <v>21</v>
       </c>
       <c r="E88" s="20" t="s">
-        <v>177</v>
+        <v>96</v>
       </c>
       <c r="F88" s="20" t="s">
-        <v>171</v>
+        <v>90</v>
       </c>
       <c r="G88" s="19" t="s">
-        <v>98</v>
+        <v>17</v>
       </c>
       <c r="H88" s="22" t="s">
-        <v>106</v>
+        <v>25</v>
       </c>
     </row>
     <row r="89" spans="4:8" x14ac:dyDescent="0.15">
@@ -4213,16 +4534,16 @@
         <v>21</v>
       </c>
       <c r="E89" s="20" t="s">
-        <v>188</v>
+        <v>107</v>
       </c>
       <c r="F89" s="20" t="s">
-        <v>106</v>
+        <v>25</v>
       </c>
       <c r="G89" s="19" t="s">
-        <v>98</v>
+        <v>17</v>
       </c>
       <c r="H89" s="21" t="s">
-        <v>106</v>
+        <v>25</v>
       </c>
     </row>
     <row r="90" spans="4:8" x14ac:dyDescent="0.15">
@@ -4230,16 +4551,16 @@
         <v>24</v>
       </c>
       <c r="E90" s="20" t="s">
-        <v>189</v>
+        <v>108</v>
       </c>
       <c r="F90" s="20" t="s">
-        <v>106</v>
+        <v>25</v>
       </c>
       <c r="G90" s="19" t="s">
-        <v>98</v>
+        <v>17</v>
       </c>
       <c r="H90" s="21" t="s">
-        <v>106</v>
+        <v>25</v>
       </c>
     </row>
     <row r="91" spans="4:8" x14ac:dyDescent="0.15">
@@ -4247,16 +4568,16 @@
         <v>25</v>
       </c>
       <c r="E91" s="20" t="s">
-        <v>190</v>
+        <v>109</v>
       </c>
       <c r="F91" s="20" t="s">
-        <v>106</v>
+        <v>25</v>
       </c>
       <c r="G91" s="19" t="s">
-        <v>98</v>
+        <v>17</v>
       </c>
       <c r="H91" s="21" t="s">
-        <v>106</v>
+        <v>25</v>
       </c>
     </row>
     <row r="92" spans="4:8" x14ac:dyDescent="0.15">
@@ -4264,16 +4585,16 @@
         <v>26</v>
       </c>
       <c r="E92" s="20" t="s">
-        <v>191</v>
+        <v>110</v>
       </c>
       <c r="F92" s="20" t="s">
-        <v>106</v>
+        <v>25</v>
       </c>
       <c r="G92" s="19" t="s">
-        <v>98</v>
+        <v>17</v>
       </c>
       <c r="H92" s="21" t="s">
-        <v>106</v>
+        <v>25</v>
       </c>
     </row>
     <row r="93" spans="4:8" x14ac:dyDescent="0.15">
@@ -4281,16 +4602,16 @@
         <v>27</v>
       </c>
       <c r="E93" s="20" t="s">
-        <v>192</v>
+        <v>111</v>
       </c>
       <c r="F93" s="20" t="s">
-        <v>106</v>
+        <v>25</v>
       </c>
       <c r="G93" s="19" t="s">
-        <v>98</v>
+        <v>17</v>
       </c>
       <c r="H93" s="21" t="s">
-        <v>106</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -4304,119 +4625,185 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:E15"/>
+  <dimension ref="B2:F15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
-    </sheetView>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="4.125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="5.125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="54.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="64.625" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="2.625" style="23" customWidth="1"/>
+    <col min="2" max="2" width="3.625" style="23" customWidth="1"/>
+    <col min="3" max="3" width="24.25" style="23" customWidth="1"/>
+    <col min="4" max="4" width="64.625" style="23" customWidth="1"/>
+    <col min="5" max="5" width="55.25" style="23" customWidth="1"/>
+    <col min="6" max="6" width="44.25" style="23" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="23"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B2" s="1" t="s">
+    <row r="2" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B2" s="23" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="C3" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="D3" s="9"/>
-      <c r="E3" s="2"/>
-    </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="C5" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="C6" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="C7" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="C8" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="C9" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="C10" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="C11" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="C12" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="C13" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="C14" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="D14" s="3" t="s">
+    <row r="3" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="C3" s="23" t="s">
+        <v>116</v>
+      </c>
+      <c r="D3" s="24"/>
+      <c r="E3" s="25"/>
+    </row>
+    <row r="5" spans="2:6" ht="27" x14ac:dyDescent="0.15">
+      <c r="C5" s="26" t="s">
+        <v>117</v>
+      </c>
+      <c r="D5" s="26" t="s">
+        <v>118</v>
+      </c>
+      <c r="E5" s="27" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="C15" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="D15" s="3" t="s">
+      <c r="F5" s="26" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C6" s="20" t="s">
+        <v>119</v>
+      </c>
+      <c r="D6" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="E6" s="20" t="s">
         <v>219</v>
+      </c>
+      <c r="F6" s="29" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C7" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="D7" s="20" t="s">
+        <v>130</v>
+      </c>
+      <c r="E7" s="20" t="s">
+        <v>220</v>
+      </c>
+      <c r="F7" s="29" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C8" s="20" t="s">
+        <v>121</v>
+      </c>
+      <c r="D8" s="20" t="s">
+        <v>131</v>
+      </c>
+      <c r="E8" s="20" t="s">
+        <v>221</v>
+      </c>
+      <c r="F8" s="29" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C9" s="20" t="s">
+        <v>122</v>
+      </c>
+      <c r="D9" s="20" t="s">
+        <v>132</v>
+      </c>
+      <c r="E9" s="20" t="s">
+        <v>222</v>
+      </c>
+      <c r="F9" s="29" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" ht="60" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C10" s="20" t="s">
+        <v>123</v>
+      </c>
+      <c r="D10" s="28" t="s">
+        <v>230</v>
+      </c>
+      <c r="E10" s="28" t="s">
+        <v>229</v>
+      </c>
+      <c r="F10" s="29" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" ht="228.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C11" s="20" t="s">
+        <v>124</v>
+      </c>
+      <c r="D11" s="20" t="s">
+        <v>133</v>
+      </c>
+      <c r="E11" s="28" t="s">
+        <v>232</v>
+      </c>
+      <c r="F11" s="29" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" ht="60" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C12" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="D12" s="20" t="s">
+        <v>134</v>
+      </c>
+      <c r="E12" s="20" t="s">
+        <v>233</v>
+      </c>
+      <c r="F12" s="29" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" ht="109.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C13" s="20" t="s">
+        <v>126</v>
+      </c>
+      <c r="D13" s="20" t="s">
+        <v>135</v>
+      </c>
+      <c r="E13" s="28" t="s">
+        <v>235</v>
+      </c>
+      <c r="F13" s="29" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" ht="60" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C14" s="20" t="s">
+        <v>127</v>
+      </c>
+      <c r="D14" s="20" t="s">
+        <v>136</v>
+      </c>
+      <c r="E14" s="28" t="s">
+        <v>237</v>
+      </c>
+      <c r="F14" s="30" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" ht="60" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C15" s="20" t="s">
+        <v>128</v>
+      </c>
+      <c r="D15" s="20" t="s">
+        <v>137</v>
+      </c>
+      <c r="E15" s="20" t="s">
+        <v>239</v>
+      </c>
+      <c r="F15" s="29" t="s">
+        <v>240</v>
       </c>
     </row>
   </sheetData>
@@ -4427,15 +4814,54 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="B2:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="3.375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="4.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="3" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="1"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="2" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B2" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C3" s="23" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C5" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="D6" s="1" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C8" s="1" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="D9" s="1" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="D10" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4443,17 +4869,35 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="B2:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="3.5" style="1" customWidth="1"/>
+    <col min="2" max="3" width="3.75" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="1"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B2" s="1" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C3" s="23" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C5" s="1" t="s">
+        <v>249</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/マニュアル.xlsx
+++ b/マニュアル.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="105" windowWidth="28035" windowHeight="12540"/>
+    <workbookView xWindow="360" yWindow="105" windowWidth="28035" windowHeight="12540" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="タイトル" sheetId="3" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="591" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="599" uniqueCount="258">
   <si>
     <t>１．はじめに</t>
     <phoneticPr fontId="2"/>
@@ -997,22 +997,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>AD変換入力施亭</t>
-    <rPh sb="2" eb="4">
-      <t>ヘンカン</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>セ</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>テイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>CPU停止命令</t>
     <rPh sb="3" eb="5">
       <t>テイシ</t>
@@ -1467,17 +1451,6 @@
   <si>
     <t>@DBG&gt;c
 @CPU&gt;</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>@DBG&gt;v
-view mode=OFF
-@DBG&gt;v
-view mode=ON</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>v</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -1728,12 +1701,217 @@
     <t>$./cpu_emulator.exe &lt;バイナリファイル&gt; 2&gt; stderr.txt</t>
     <phoneticPr fontId="2"/>
   </si>
+  <si>
+    <t>AD変換入力設定</t>
+    <rPh sb="2" eb="4">
+      <t>ヘンカン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>割込み命令</t>
+    <rPh sb="0" eb="2">
+      <t>ワリコ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>メイレイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>割込みを発生させる機能</t>
+    <rPh sb="0" eb="2">
+      <t>ワリコ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ハッセイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>■マスカブル割り込みの場合
+'@DBG&gt;i 106
+INT:106
+@DBG&gt;n
+@DBG&gt;RAISED INT(106):waiting_num=1
+■ノンマスカブル割り込みの場合
+@DBG&gt;i -1
+NMI</t>
+    <rPh sb="5" eb="6">
+      <t>ワ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="84" eb="85">
+      <t>ワ</t>
+    </rPh>
+    <rPh sb="86" eb="87">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="89" eb="91">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>i &lt;割込み番号※10進数表記&gt;
+&lt;割込み番号&gt;：-1を指定した場合はノンマスカブル割り込み発生</t>
+    <rPh sb="3" eb="5">
+      <t>ワリコ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>バンゴウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>シンスウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ヒョウキ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ワリコ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>バンゴウ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>ワ</t>
+    </rPh>
+    <rPh sb="45" eb="46">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>ハッセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>v
+CPU命令をロギングする場合は，log_s.txtにロギング情報が自動保存される．</t>
+    <rPh sb="6" eb="8">
+      <t>メイレイ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>ジドウ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>ホゾン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>@DBG&gt;v
+view mode=OFF
+@DBG&gt;v
+view mode=ON
+----- ロギング結果例 -----
+0x0: JR disp22(2000):0x7d0
+0x7d0: DI
+0x7d4: MOVHI imm16(1),r0(0) r3(0):65536
+0x7d8: MOVEA imm16(-28052),r3(65536) r3(65536):37484
+0x7dc: LD.W disp16(0),r3(0x926c), r3(0x926c):0x3ff8038
+0x7e0: MOVHI imm16(0),r0(0) r5(0):0
+0x7e4: MOVEA imm16(2000),r5(0) r5(0):2000
+0x7e8: MOVHI imm16(1024),r0(0) r30(0):67108864
+0x7ec: MOVEA imm16(-27180),r30(67108864) r30(67108864):67081684
+0x7f0: MOVHI imm16(1024),r0(0) r4(0):67108864
+0x7f4: MOVEA imm16(5588),r4(67108864) r4(67108864):67114452
+0x7f8: MOVHI imm16(1),r0(0) r6(0):65536
+0x7fc: MOVEA imm16(-29752),r6(65536) r6(65536):35784
+：</t>
+    <rPh sb="51" eb="53">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="53" eb="54">
+      <t>レイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>CPU状態表示機能</t>
+    <rPh sb="3" eb="5">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>(なし)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>デバッグモードの場合，最新のCPUのレジスタ状態を自動保存する．</t>
+    <rPh sb="8" eb="10">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>サイシン</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ジドウ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ホゾン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">----- CPU情報例 ------
+PC  0xb7e
+R0  0x0
+R1  0x0
+R2  0x44a4
+R3  0x3ff8fe8
+R4  0x4002b30
+：
+</t>
+    <rPh sb="9" eb="11">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>レイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1762,6 +1940,20 @@
       <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
@@ -1854,7 +2046,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1867,14 +2059,8 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
@@ -1896,15 +2082,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -1947,6 +2124,33 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2252,7 +2456,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B6:I12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" zoomScaleSheetLayoutView="130" workbookViewId="0"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" zoomScaleSheetLayoutView="130" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -2264,37 +2468,37 @@
   </cols>
   <sheetData>
     <row r="6" spans="2:9" ht="42" x14ac:dyDescent="0.15">
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="5" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
+      <c r="D11" s="26"/>
+      <c r="E11" s="26"/>
+      <c r="F11" s="26"/>
+      <c r="G11" s="26"/>
+      <c r="H11" s="26"/>
+      <c r="I11" s="26"/>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B12" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
+      <c r="D12" s="27"/>
+      <c r="E12" s="27"/>
+      <c r="F12" s="27"/>
+      <c r="G12" s="27"/>
+      <c r="H12" s="27"/>
+      <c r="I12" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -2321,7 +2525,7 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="6" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2352,7 +2556,7 @@
     </row>
     <row r="8" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B8" s="1" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
   </sheetData>
@@ -2401,7 +2605,7 @@
     <col min="1" max="1" width="4.5" style="1" customWidth="1"/>
     <col min="2" max="2" width="3.125" style="1" customWidth="1"/>
     <col min="3" max="3" width="3.625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="43.125" style="9" customWidth="1"/>
+    <col min="4" max="4" width="43.125" style="7" customWidth="1"/>
     <col min="5" max="5" width="9" style="2"/>
     <col min="6" max="16384" width="9" style="1"/>
   </cols>
@@ -2417,650 +2621,650 @@
       </c>
     </row>
     <row r="5" spans="2:5" ht="27" x14ac:dyDescent="0.15">
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="12" t="s">
+      <c r="E5" s="10" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="D6" s="11" t="s">
+      <c r="D6" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="D7" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="E6" s="13" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="D7" s="11" t="s">
+      <c r="E7" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="D8" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="E7" s="13" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="D8" s="11" t="s">
+      <c r="E8" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="D9" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="E8" s="13" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="D9" s="11" t="s">
+      <c r="E9" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="D10" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="E9" s="13" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="D10" s="11" t="s">
+      <c r="E10" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="D11" s="9" t="s">
         <v>142</v>
       </c>
-      <c r="E10" s="13" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="D11" s="11" t="s">
+      <c r="E11" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="D12" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="E11" s="13" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="D12" s="11" t="s">
+      <c r="E12" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="D13" s="9" t="s">
         <v>144</v>
       </c>
-      <c r="E12" s="13" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="D13" s="11" t="s">
+      <c r="E13" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="D14" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="E13" s="13" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="D14" s="11" t="s">
+      <c r="E14" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="D15" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="E14" s="13" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="D15" s="11" t="s">
+      <c r="E15" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="D16" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="E15" s="13" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="D16" s="11" t="s">
+      <c r="E16" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="4:5" x14ac:dyDescent="0.15">
+      <c r="D17" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="E16" s="13" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="17" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="D17" s="11" t="s">
+      <c r="E17" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="4:5" x14ac:dyDescent="0.15">
+      <c r="D18" s="9" t="s">
         <v>149</v>
       </c>
-      <c r="E17" s="13" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="D18" s="11" t="s">
+      <c r="E18" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="4:5" x14ac:dyDescent="0.15">
+      <c r="D19" s="9" t="s">
         <v>150</v>
       </c>
-      <c r="E18" s="13" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="19" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="D19" s="11" t="s">
+      <c r="E19" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="4:5" x14ac:dyDescent="0.15">
+      <c r="D20" s="9" t="s">
         <v>151</v>
       </c>
-      <c r="E19" s="13" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="20" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="D20" s="11" t="s">
+      <c r="E20" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="4:5" x14ac:dyDescent="0.15">
+      <c r="D21" s="9" t="s">
         <v>152</v>
       </c>
-      <c r="E20" s="13" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="21" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="D21" s="11" t="s">
+      <c r="E21" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="4:5" x14ac:dyDescent="0.15">
+      <c r="D22" s="9" t="s">
         <v>153</v>
       </c>
-      <c r="E21" s="13" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="22" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="D22" s="11" t="s">
+      <c r="E22" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="4:5" x14ac:dyDescent="0.15">
+      <c r="D23" s="9" t="s">
         <v>154</v>
       </c>
-      <c r="E22" s="13" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="23" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="D23" s="11" t="s">
+      <c r="E23" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" spans="4:5" x14ac:dyDescent="0.15">
+      <c r="D24" s="9" t="s">
         <v>155</v>
       </c>
-      <c r="E23" s="13" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="24" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="D24" s="11" t="s">
+      <c r="E24" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="25" spans="4:5" x14ac:dyDescent="0.15">
+      <c r="D25" s="9" t="s">
         <v>156</v>
       </c>
-      <c r="E24" s="13" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="25" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="D25" s="11" t="s">
+      <c r="E25" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="26" spans="4:5" x14ac:dyDescent="0.15">
+      <c r="D26" s="9" t="s">
         <v>157</v>
       </c>
-      <c r="E25" s="13" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="26" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="D26" s="11" t="s">
+      <c r="E26" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="27" spans="4:5" x14ac:dyDescent="0.15">
+      <c r="D27" s="9" t="s">
         <v>158</v>
       </c>
-      <c r="E26" s="13" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="27" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="D27" s="11" t="s">
+      <c r="E27" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="28" spans="4:5" x14ac:dyDescent="0.15">
+      <c r="D28" s="9" t="s">
         <v>159</v>
       </c>
-      <c r="E27" s="13" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="28" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="D28" s="11" t="s">
+      <c r="E28" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="29" spans="4:5" x14ac:dyDescent="0.15">
+      <c r="D29" s="9" t="s">
         <v>160</v>
       </c>
-      <c r="E28" s="13" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="29" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="D29" s="11" t="s">
+      <c r="E29" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="30" spans="4:5" x14ac:dyDescent="0.15">
+      <c r="D30" s="9" t="s">
         <v>161</v>
       </c>
-      <c r="E29" s="13" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="30" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="D30" s="11" t="s">
+      <c r="E30" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="31" spans="4:5" x14ac:dyDescent="0.15">
+      <c r="D31" s="9" t="s">
         <v>162</v>
       </c>
-      <c r="E30" s="13" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="31" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="D31" s="11" t="s">
+      <c r="E31" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="32" spans="4:5" x14ac:dyDescent="0.15">
+      <c r="D32" s="9" t="s">
         <v>163</v>
       </c>
-      <c r="E31" s="13" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="32" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="D32" s="11" t="s">
+      <c r="E32" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="33" spans="4:5" x14ac:dyDescent="0.15">
+      <c r="D33" s="9" t="s">
         <v>164</v>
       </c>
-      <c r="E32" s="13" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="33" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="D33" s="11" t="s">
+      <c r="E33" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="34" spans="4:5" x14ac:dyDescent="0.15">
+      <c r="D34" s="9" t="s">
         <v>165</v>
       </c>
-      <c r="E33" s="13" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="34" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="D34" s="11" t="s">
+      <c r="E34" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="35" spans="4:5" x14ac:dyDescent="0.15">
+      <c r="D35" s="9" t="s">
         <v>166</v>
       </c>
-      <c r="E34" s="13" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="35" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="D35" s="11" t="s">
+      <c r="E35" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="36" spans="4:5" x14ac:dyDescent="0.15">
+      <c r="D36" s="9" t="s">
         <v>167</v>
       </c>
-      <c r="E35" s="13" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="36" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="D36" s="11" t="s">
+      <c r="E36" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="37" spans="4:5" x14ac:dyDescent="0.15">
+      <c r="D37" s="9" t="s">
         <v>168</v>
       </c>
-      <c r="E36" s="13" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="37" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="D37" s="11" t="s">
+      <c r="E37" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="38" spans="4:5" x14ac:dyDescent="0.15">
+      <c r="D38" s="9" t="s">
         <v>169</v>
       </c>
-      <c r="E37" s="13" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="38" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="D38" s="11" t="s">
+      <c r="E38" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="39" spans="4:5" x14ac:dyDescent="0.15">
+      <c r="D39" s="9" t="s">
         <v>170</v>
       </c>
-      <c r="E38" s="13" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="39" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="D39" s="11" t="s">
+      <c r="E39" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="40" spans="4:5" x14ac:dyDescent="0.15">
+      <c r="D40" s="9" t="s">
         <v>171</v>
       </c>
-      <c r="E39" s="13" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="40" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="D40" s="11" t="s">
+      <c r="E40" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="41" spans="4:5" x14ac:dyDescent="0.15">
+      <c r="D41" s="9" t="s">
         <v>172</v>
       </c>
-      <c r="E40" s="13" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="41" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="D41" s="11" t="s">
+      <c r="E41" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="42" spans="4:5" x14ac:dyDescent="0.15">
+      <c r="D42" s="9" t="s">
         <v>173</v>
       </c>
-      <c r="E41" s="13" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="42" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="D42" s="11" t="s">
+      <c r="E42" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="43" spans="4:5" x14ac:dyDescent="0.15">
+      <c r="D43" s="9" t="s">
         <v>174</v>
       </c>
-      <c r="E42" s="13" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="43" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="D43" s="11" t="s">
+      <c r="E43" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="44" spans="4:5" x14ac:dyDescent="0.15">
+      <c r="D44" s="9" t="s">
         <v>175</v>
       </c>
-      <c r="E43" s="13" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="44" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="D44" s="11" t="s">
+      <c r="E44" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="45" spans="4:5" x14ac:dyDescent="0.15">
+      <c r="D45" s="9" t="s">
         <v>176</v>
       </c>
-      <c r="E44" s="13" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="45" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="D45" s="11" t="s">
+      <c r="E45" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="46" spans="4:5" x14ac:dyDescent="0.15">
+      <c r="D46" s="9" t="s">
         <v>177</v>
       </c>
-      <c r="E45" s="13" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="46" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="D46" s="11" t="s">
+      <c r="E46" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="47" spans="4:5" x14ac:dyDescent="0.15">
+      <c r="D47" s="9" t="s">
         <v>178</v>
       </c>
-      <c r="E46" s="13" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="47" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="D47" s="11" t="s">
+      <c r="E47" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="48" spans="4:5" x14ac:dyDescent="0.15">
+      <c r="D48" s="9" t="s">
         <v>179</v>
       </c>
-      <c r="E47" s="13" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="48" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="D48" s="11" t="s">
+      <c r="E48" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="49" spans="4:5" x14ac:dyDescent="0.15">
+      <c r="D49" s="9" t="s">
         <v>180</v>
       </c>
-      <c r="E48" s="13" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="49" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="D49" s="11" t="s">
+      <c r="E49" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="50" spans="4:5" x14ac:dyDescent="0.15">
+      <c r="D50" s="9" t="s">
         <v>181</v>
       </c>
-      <c r="E49" s="13" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="50" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="D50" s="11" t="s">
+      <c r="E50" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="51" spans="4:5" x14ac:dyDescent="0.15">
+      <c r="D51" s="9" t="s">
         <v>182</v>
       </c>
-      <c r="E50" s="13" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="51" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="D51" s="11" t="s">
+      <c r="E51" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="52" spans="4:5" x14ac:dyDescent="0.15">
+      <c r="D52" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="E51" s="13" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="52" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="D52" s="11" t="s">
+      <c r="E52" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="53" spans="4:5" x14ac:dyDescent="0.15">
+      <c r="D53" s="9" t="s">
         <v>184</v>
       </c>
-      <c r="E52" s="13" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="53" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="D53" s="11" t="s">
+      <c r="E53" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="54" spans="4:5" x14ac:dyDescent="0.15">
+      <c r="D54" s="9" t="s">
         <v>185</v>
       </c>
-      <c r="E53" s="13" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="54" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="D54" s="11" t="s">
+      <c r="E54" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="55" spans="4:5" x14ac:dyDescent="0.15">
+      <c r="D55" s="9" t="s">
         <v>186</v>
       </c>
-      <c r="E54" s="13" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="55" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="D55" s="11" t="s">
+      <c r="E55" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="56" spans="4:5" x14ac:dyDescent="0.15">
+      <c r="D56" s="9" t="s">
         <v>187</v>
       </c>
-      <c r="E55" s="13" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="56" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="D56" s="11" t="s">
+      <c r="E56" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="57" spans="4:5" x14ac:dyDescent="0.15">
+      <c r="D57" s="9" t="s">
         <v>188</v>
       </c>
-      <c r="E56" s="13" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="57" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="D57" s="11" t="s">
+      <c r="E57" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="58" spans="4:5" x14ac:dyDescent="0.15">
+      <c r="D58" s="9" t="s">
         <v>189</v>
       </c>
-      <c r="E57" s="13" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="58" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="D58" s="11" t="s">
+      <c r="E58" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="59" spans="4:5" x14ac:dyDescent="0.15">
+      <c r="D59" s="9" t="s">
         <v>190</v>
       </c>
-      <c r="E58" s="13" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="59" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="D59" s="11" t="s">
+      <c r="E59" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="60" spans="4:5" x14ac:dyDescent="0.15">
+      <c r="D60" s="9" t="s">
         <v>191</v>
       </c>
-      <c r="E59" s="13" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="60" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="D60" s="11" t="s">
+      <c r="E60" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="61" spans="4:5" x14ac:dyDescent="0.15">
+      <c r="D61" s="9" t="s">
         <v>192</v>
       </c>
-      <c r="E60" s="13" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="61" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="D61" s="11" t="s">
+      <c r="E61" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="62" spans="4:5" x14ac:dyDescent="0.15">
+      <c r="D62" s="9" t="s">
         <v>193</v>
       </c>
-      <c r="E61" s="13" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="62" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="D62" s="11" t="s">
+      <c r="E62" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="63" spans="4:5" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="D63" s="9" t="s">
         <v>194</v>
       </c>
-      <c r="E62" s="13" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="63" spans="4:5" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="D63" s="11" t="s">
+      <c r="E63" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="64" spans="4:5" x14ac:dyDescent="0.15">
+      <c r="D64" s="9" t="s">
         <v>195</v>
       </c>
-      <c r="E63" s="13" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="64" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="D64" s="11" t="s">
+      <c r="E64" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="65" spans="4:5" x14ac:dyDescent="0.15">
+      <c r="D65" s="9" t="s">
         <v>196</v>
       </c>
-      <c r="E64" s="13" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="65" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="D65" s="11" t="s">
+      <c r="E65" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="66" spans="4:5" x14ac:dyDescent="0.15">
+      <c r="D66" s="9" t="s">
         <v>197</v>
       </c>
-      <c r="E65" s="13" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="66" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="D66" s="11" t="s">
+      <c r="E66" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="67" spans="4:5" x14ac:dyDescent="0.15">
+      <c r="D67" s="9" t="s">
         <v>198</v>
       </c>
-      <c r="E66" s="13" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="67" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="D67" s="11" t="s">
+      <c r="E67" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="68" spans="4:5" x14ac:dyDescent="0.15">
+      <c r="D68" s="9" t="s">
         <v>199</v>
       </c>
-      <c r="E67" s="13" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="68" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="D68" s="11" t="s">
+      <c r="E68" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="69" spans="4:5" x14ac:dyDescent="0.15">
+      <c r="D69" s="9" t="s">
         <v>200</v>
       </c>
-      <c r="E68" s="13" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="69" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="D69" s="11" t="s">
+      <c r="E69" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="70" spans="4:5" x14ac:dyDescent="0.15">
+      <c r="D70" s="9" t="s">
         <v>201</v>
       </c>
-      <c r="E69" s="13" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="70" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="D70" s="11" t="s">
+      <c r="E70" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="71" spans="4:5" x14ac:dyDescent="0.15">
+      <c r="D71" s="9" t="s">
         <v>202</v>
       </c>
-      <c r="E70" s="13" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="71" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="D71" s="11" t="s">
+      <c r="E71" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="72" spans="4:5" x14ac:dyDescent="0.15">
+      <c r="D72" s="9" t="s">
         <v>203</v>
       </c>
-      <c r="E71" s="13" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="72" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="D72" s="11" t="s">
+      <c r="E72" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="73" spans="4:5" x14ac:dyDescent="0.15">
+      <c r="D73" s="9" t="s">
         <v>204</v>
       </c>
-      <c r="E72" s="13" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="73" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="D73" s="11" t="s">
+      <c r="E73" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="74" spans="4:5" x14ac:dyDescent="0.15">
+      <c r="D74" s="9" t="s">
         <v>205</v>
       </c>
-      <c r="E73" s="13" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="74" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="D74" s="11" t="s">
+      <c r="E74" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="75" spans="4:5" x14ac:dyDescent="0.15">
+      <c r="D75" s="9" t="s">
         <v>206</v>
       </c>
-      <c r="E74" s="13" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="75" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="D75" s="11" t="s">
+      <c r="E75" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="76" spans="4:5" x14ac:dyDescent="0.15">
+      <c r="D76" s="9" t="s">
         <v>207</v>
       </c>
-      <c r="E75" s="13" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="76" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="D76" s="11" t="s">
+      <c r="E76" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="77" spans="4:5" x14ac:dyDescent="0.15">
+      <c r="D77" s="9" t="s">
         <v>208</v>
       </c>
-      <c r="E76" s="13" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="77" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="D77" s="11" t="s">
+      <c r="E77" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="78" spans="4:5" x14ac:dyDescent="0.15">
+      <c r="D78" s="9" t="s">
         <v>209</v>
       </c>
-      <c r="E77" s="13" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="78" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="D78" s="11" t="s">
+      <c r="E78" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="79" spans="4:5" x14ac:dyDescent="0.15">
+      <c r="D79" s="9" t="s">
         <v>210</v>
       </c>
-      <c r="E78" s="13" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="79" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="D79" s="11" t="s">
+      <c r="E79" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="80" spans="4:5" x14ac:dyDescent="0.15">
+      <c r="D80" s="9" t="s">
         <v>211</v>
       </c>
-      <c r="E79" s="13" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="80" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="D80" s="11" t="s">
+      <c r="E80" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="81" spans="4:5" x14ac:dyDescent="0.15">
+      <c r="D81" s="9" t="s">
         <v>212</v>
       </c>
-      <c r="E80" s="13" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="81" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="D81" s="11" t="s">
+      <c r="E81" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="82" spans="4:5" x14ac:dyDescent="0.15">
+      <c r="D82" s="9" t="s">
         <v>213</v>
       </c>
-      <c r="E81" s="13" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="82" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="D82" s="11" t="s">
+      <c r="E82" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="83" spans="4:5" x14ac:dyDescent="0.15">
+      <c r="D83" s="9" t="s">
         <v>214</v>
       </c>
-      <c r="E82" s="13" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="83" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="D83" s="11" t="s">
+      <c r="E83" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="84" spans="4:5" x14ac:dyDescent="0.15">
+      <c r="D84" s="9" t="s">
         <v>215</v>
       </c>
-      <c r="E83" s="13" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="84" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="D84" s="11" t="s">
+      <c r="E84" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="85" spans="4:5" x14ac:dyDescent="0.15">
+      <c r="D85" s="9" t="s">
         <v>216</v>
       </c>
-      <c r="E84" s="13" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="85" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="D85" s="11" t="s">
-        <v>217</v>
-      </c>
-      <c r="E85" s="13" t="s">
+      <c r="E85" s="11" t="s">
         <v>17</v>
       </c>
     </row>
@@ -3091,1526 +3295,1526 @@
       <c r="B2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="9"/>
+      <c r="D2" s="7"/>
       <c r="E2" s="2"/>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.15">
       <c r="C3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="9"/>
+      <c r="D3" s="7"/>
       <c r="E3" s="2"/>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="D4" s="9"/>
+      <c r="D4" s="7"/>
       <c r="E4" s="2"/>
     </row>
     <row r="5" spans="2:8" ht="27" x14ac:dyDescent="0.15">
-      <c r="D5" s="14" t="s">
+      <c r="D5" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="15"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="17" t="s">
+      <c r="E5" s="29"/>
+      <c r="F5" s="30"/>
+      <c r="G5" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="H5" s="18" t="s">
+      <c r="H5" s="13" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="D6" s="19">
+      <c r="D6" s="14">
         <v>1</v>
       </c>
-      <c r="E6" s="20" t="s">
+      <c r="E6" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="F6" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="G6" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="H6" s="21" t="s">
+      <c r="F6" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="G6" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="H6" s="16" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="D7" s="19">
+      <c r="D7" s="14">
         <v>2</v>
       </c>
-      <c r="E7" s="20" t="s">
+      <c r="E7" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="F7" s="20" t="s">
+      <c r="F7" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="G7" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="H7" s="21" t="s">
+      <c r="G7" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="H7" s="16" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="D8" s="19">
+      <c r="D8" s="14">
         <v>2</v>
       </c>
-      <c r="E8" s="20" t="s">
+      <c r="E8" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="F8" s="20" t="s">
+      <c r="F8" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="G8" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="H8" s="21" t="s">
+      <c r="G8" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="H8" s="16" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="D9" s="19">
+      <c r="D9" s="14">
         <v>2</v>
       </c>
-      <c r="E9" s="20" t="s">
+      <c r="E9" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="F9" s="20" t="s">
+      <c r="F9" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="G9" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="H9" s="21" t="s">
+      <c r="G9" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="H9" s="16" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="D10" s="19">
+      <c r="D10" s="14">
         <v>2</v>
       </c>
-      <c r="E10" s="20" t="s">
+      <c r="E10" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="F10" s="20" t="s">
+      <c r="F10" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="G10" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="H10" s="21" t="s">
+      <c r="G10" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="H10" s="16" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="D11" s="19">
+      <c r="D11" s="14">
         <v>3</v>
       </c>
-      <c r="E11" s="20" t="s">
+      <c r="E11" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="F11" s="20" t="s">
+      <c r="F11" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="G11" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="H11" s="21" t="s">
+      <c r="G11" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="H11" s="16" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="D12" s="19">
+      <c r="D12" s="14">
         <v>3</v>
       </c>
-      <c r="E12" s="20" t="s">
+      <c r="E12" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="F12" s="20" t="s">
+      <c r="F12" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="G12" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="H12" s="21" t="s">
+      <c r="G12" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="H12" s="16" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="D13" s="19">
+      <c r="D13" s="14">
         <v>3</v>
       </c>
-      <c r="E13" s="20" t="s">
+      <c r="E13" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="F13" s="20" t="s">
+      <c r="F13" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="G13" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="H13" s="21" t="s">
+      <c r="G13" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="H13" s="16" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="D14" s="19">
+      <c r="D14" s="14">
         <v>3</v>
       </c>
-      <c r="E14" s="20" t="s">
+      <c r="E14" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="F14" s="20" t="s">
+      <c r="F14" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="G14" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="H14" s="21" t="s">
+      <c r="G14" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="H14" s="16" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="D15" s="19">
+      <c r="D15" s="14">
         <v>4</v>
       </c>
-      <c r="E15" s="20" t="s">
+      <c r="E15" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="F15" s="20" t="s">
+      <c r="F15" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="G15" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="H15" s="21" t="s">
+      <c r="G15" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="H15" s="16" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="D16" s="19">
+      <c r="D16" s="14">
         <v>4</v>
       </c>
-      <c r="E16" s="20" t="s">
+      <c r="E16" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="F16" s="20" t="s">
+      <c r="F16" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="G16" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="H16" s="21" t="s">
+      <c r="G16" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="H16" s="16" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="17" spans="4:8" x14ac:dyDescent="0.15">
-      <c r="D17" s="19">
+      <c r="D17" s="14">
         <v>4</v>
       </c>
-      <c r="E17" s="20" t="s">
+      <c r="E17" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="F17" s="20" t="s">
+      <c r="F17" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="G17" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="H17" s="21" t="s">
+      <c r="G17" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="H17" s="16" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="18" spans="4:8" x14ac:dyDescent="0.15">
-      <c r="D18" s="19">
+      <c r="D18" s="14">
         <v>5</v>
       </c>
-      <c r="E18" s="20" t="s">
+      <c r="E18" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="F18" s="20" t="s">
+      <c r="F18" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="G18" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="H18" s="21" t="s">
+      <c r="G18" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="H18" s="16" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="19" spans="4:8" x14ac:dyDescent="0.15">
-      <c r="D19" s="19">
+      <c r="D19" s="14">
         <v>5</v>
       </c>
-      <c r="E19" s="20" t="s">
+      <c r="E19" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="F19" s="20" t="s">
+      <c r="F19" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="G19" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="H19" s="21" t="s">
+      <c r="G19" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="H19" s="16" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="20" spans="4:8" x14ac:dyDescent="0.15">
-      <c r="D20" s="19">
+      <c r="D20" s="14">
         <v>5</v>
       </c>
-      <c r="E20" s="20" t="s">
+      <c r="E20" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="F20" s="20" t="s">
+      <c r="F20" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="G20" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="H20" s="21" t="s">
+      <c r="G20" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="H20" s="16" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="21" spans="4:8" x14ac:dyDescent="0.15">
-      <c r="D21" s="19">
+      <c r="D21" s="14">
         <v>5</v>
       </c>
-      <c r="E21" s="20" t="s">
+      <c r="E21" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="F21" s="20" t="s">
+      <c r="F21" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="G21" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="H21" s="21" t="s">
+      <c r="G21" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="H21" s="16" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="22" spans="4:8" x14ac:dyDescent="0.15">
-      <c r="D22" s="19">
+      <c r="D22" s="14">
         <v>5</v>
       </c>
-      <c r="E22" s="20" t="s">
+      <c r="E22" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="F22" s="20" t="s">
+      <c r="F22" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="G22" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="H22" s="21" t="s">
+      <c r="G22" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="H22" s="16" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="23" spans="4:8" x14ac:dyDescent="0.15">
-      <c r="D23" s="19">
+      <c r="D23" s="14">
         <v>5</v>
       </c>
-      <c r="E23" s="20" t="s">
+      <c r="E23" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="F23" s="20" t="s">
+      <c r="F23" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="G23" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="H23" s="21" t="s">
+      <c r="G23" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="H23" s="16" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="24" spans="4:8" x14ac:dyDescent="0.15">
-      <c r="D24" s="19">
+      <c r="D24" s="14">
         <v>5</v>
       </c>
-      <c r="E24" s="20" t="s">
+      <c r="E24" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="F24" s="20" t="s">
+      <c r="F24" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="G24" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="H24" s="21" t="s">
+      <c r="G24" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="H24" s="16" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="25" spans="4:8" x14ac:dyDescent="0.15">
-      <c r="D25" s="19">
+      <c r="D25" s="14">
         <v>6</v>
       </c>
-      <c r="E25" s="20" t="s">
+      <c r="E25" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="F25" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="G25" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="H25" s="21" t="s">
+      <c r="F25" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="G25" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="H25" s="16" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="26" spans="4:8" x14ac:dyDescent="0.15">
-      <c r="D26" s="19">
+      <c r="D26" s="14">
         <v>7</v>
       </c>
-      <c r="E26" s="20" t="s">
+      <c r="E26" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="F26" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="G26" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="H26" s="21" t="s">
+      <c r="F26" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="G26" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="H26" s="16" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="27" spans="4:8" x14ac:dyDescent="0.15">
-      <c r="D27" s="19">
+      <c r="D27" s="14">
         <v>8</v>
       </c>
-      <c r="E27" s="20" t="s">
+      <c r="E27" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="F27" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="G27" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="H27" s="21" t="s">
+      <c r="F27" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="G27" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="H27" s="16" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="28" spans="4:8" x14ac:dyDescent="0.15">
-      <c r="D28" s="19">
+      <c r="D28" s="14">
         <v>9</v>
       </c>
-      <c r="E28" s="20" t="s">
+      <c r="E28" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="F28" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="G28" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="H28" s="21" t="s">
+      <c r="F28" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="G28" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="H28" s="16" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="29" spans="4:8" x14ac:dyDescent="0.15">
-      <c r="D29" s="19">
+      <c r="D29" s="14">
         <v>10</v>
       </c>
-      <c r="E29" s="20" t="s">
+      <c r="E29" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="F29" s="20" t="s">
+      <c r="F29" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="G29" s="19" t="s">
+      <c r="G29" s="14" t="s">
         <v>112</v>
       </c>
-      <c r="H29" s="21" t="s">
+      <c r="H29" s="16" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="30" spans="4:8" x14ac:dyDescent="0.15">
-      <c r="D30" s="19">
+      <c r="D30" s="14">
         <v>11</v>
       </c>
-      <c r="E30" s="20" t="s">
+      <c r="E30" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="F30" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="G30" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="H30" s="21" t="s">
+      <c r="F30" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="G30" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="H30" s="16" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="31" spans="4:8" x14ac:dyDescent="0.15">
-      <c r="D31" s="19">
+      <c r="D31" s="14">
         <v>12</v>
       </c>
-      <c r="E31" s="20" t="s">
+      <c r="E31" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="F31" s="20" t="s">
+      <c r="F31" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="G31" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="H31" s="22" t="s">
+      <c r="G31" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="H31" s="17" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="32" spans="4:8" x14ac:dyDescent="0.15">
-      <c r="D32" s="19">
+      <c r="D32" s="14">
         <v>12</v>
       </c>
-      <c r="E32" s="20" t="s">
+      <c r="E32" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="F32" s="20" t="s">
+      <c r="F32" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="G32" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="H32" s="22" t="s">
+      <c r="G32" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="H32" s="17" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="33" spans="4:8" x14ac:dyDescent="0.15">
-      <c r="D33" s="19">
+      <c r="D33" s="14">
         <v>12</v>
       </c>
-      <c r="E33" s="20" t="s">
+      <c r="E33" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="F33" s="20" t="s">
+      <c r="F33" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="G33" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="H33" s="21" t="s">
+      <c r="G33" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="H33" s="16" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="34" spans="4:8" x14ac:dyDescent="0.15">
-      <c r="D34" s="19">
+      <c r="D34" s="14">
         <v>12</v>
       </c>
-      <c r="E34" s="20" t="s">
+      <c r="E34" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="F34" s="20" t="s">
+      <c r="F34" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="G34" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="H34" s="21" t="s">
+      <c r="G34" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="H34" s="16" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="35" spans="4:8" x14ac:dyDescent="0.15">
-      <c r="D35" s="19">
+      <c r="D35" s="14">
         <v>12</v>
       </c>
-      <c r="E35" s="20" t="s">
+      <c r="E35" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="F35" s="20" t="s">
+      <c r="F35" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="G35" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="H35" s="21" t="s">
+      <c r="G35" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="H35" s="16" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="36" spans="4:8" x14ac:dyDescent="0.15">
-      <c r="D36" s="19">
+      <c r="D36" s="14">
         <v>12</v>
       </c>
-      <c r="E36" s="20" t="s">
+      <c r="E36" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="F36" s="20" t="s">
+      <c r="F36" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="G36" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="H36" s="22" t="s">
+      <c r="G36" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="H36" s="17" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="37" spans="4:8" x14ac:dyDescent="0.15">
-      <c r="D37" s="19">
+      <c r="D37" s="14">
         <v>12</v>
       </c>
-      <c r="E37" s="20" t="s">
+      <c r="E37" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="F37" s="20" t="s">
+      <c r="F37" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="G37" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="H37" s="21" t="s">
+      <c r="G37" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="H37" s="16" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="38" spans="4:8" x14ac:dyDescent="0.15">
-      <c r="D38" s="19">
+      <c r="D38" s="14">
         <v>12</v>
       </c>
-      <c r="E38" s="20" t="s">
+      <c r="E38" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="F38" s="20" t="s">
+      <c r="F38" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="G38" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="H38" s="21" t="s">
+      <c r="G38" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="H38" s="16" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="39" spans="4:8" x14ac:dyDescent="0.15">
-      <c r="D39" s="19">
+      <c r="D39" s="14">
         <v>12</v>
       </c>
-      <c r="E39" s="20" t="s">
+      <c r="E39" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="F39" s="20" t="s">
+      <c r="F39" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="G39" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="H39" s="21" t="s">
+      <c r="G39" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="H39" s="16" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="40" spans="4:8" x14ac:dyDescent="0.15">
-      <c r="D40" s="19">
+      <c r="D40" s="14">
         <v>13</v>
       </c>
-      <c r="E40" s="20" t="s">
+      <c r="E40" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="F40" s="20" t="s">
+      <c r="F40" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="G40" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="H40" s="22" t="s">
+      <c r="G40" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="H40" s="17" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="41" spans="4:8" x14ac:dyDescent="0.15">
-      <c r="D41" s="19">
+      <c r="D41" s="14">
         <v>13</v>
       </c>
-      <c r="E41" s="20" t="s">
+      <c r="E41" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="F41" s="20" t="s">
+      <c r="F41" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="G41" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="H41" s="22" t="s">
+      <c r="G41" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="H41" s="17" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="42" spans="4:8" x14ac:dyDescent="0.15">
-      <c r="D42" s="19">
+      <c r="D42" s="14">
         <v>13</v>
       </c>
-      <c r="E42" s="20" t="s">
+      <c r="E42" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="F42" s="20" t="s">
+      <c r="F42" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="G42" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="H42" s="21" t="s">
+      <c r="G42" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="H42" s="16" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="43" spans="4:8" x14ac:dyDescent="0.15">
-      <c r="D43" s="19">
+      <c r="D43" s="14">
         <v>13</v>
       </c>
-      <c r="E43" s="20" t="s">
+      <c r="E43" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="F43" s="20" t="s">
+      <c r="F43" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="G43" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="H43" s="21" t="s">
+      <c r="G43" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="H43" s="16" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="44" spans="4:8" x14ac:dyDescent="0.15">
-      <c r="D44" s="19">
+      <c r="D44" s="14">
         <v>13</v>
       </c>
-      <c r="E44" s="20" t="s">
+      <c r="E44" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="F44" s="20" t="s">
+      <c r="F44" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="G44" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="H44" s="22" t="s">
+      <c r="G44" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="H44" s="17" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="45" spans="4:8" x14ac:dyDescent="0.15">
-      <c r="D45" s="19">
+      <c r="D45" s="14">
         <v>13</v>
       </c>
-      <c r="E45" s="20" t="s">
+      <c r="E45" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="F45" s="20" t="s">
+      <c r="F45" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="G45" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="H45" s="21" t="s">
+      <c r="G45" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="H45" s="16" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="46" spans="4:8" x14ac:dyDescent="0.15">
-      <c r="D46" s="19">
+      <c r="D46" s="14">
         <v>13</v>
       </c>
-      <c r="E46" s="20" t="s">
+      <c r="E46" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="F46" s="20" t="s">
+      <c r="F46" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="G46" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="H46" s="21" t="s">
+      <c r="G46" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="H46" s="16" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="47" spans="4:8" x14ac:dyDescent="0.15">
-      <c r="D47" s="19">
+      <c r="D47" s="14">
         <v>13</v>
       </c>
-      <c r="E47" s="20" t="s">
+      <c r="E47" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="F47" s="20" t="s">
+      <c r="F47" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="G47" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="H47" s="21" t="s">
+      <c r="G47" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="H47" s="16" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="48" spans="4:8" x14ac:dyDescent="0.15">
-      <c r="D48" s="19">
+      <c r="D48" s="14">
         <v>13</v>
       </c>
-      <c r="E48" s="20" t="s">
+      <c r="E48" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="F48" s="20" t="s">
+      <c r="F48" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="G48" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="H48" s="21" t="s">
+      <c r="G48" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="H48" s="16" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="49" spans="4:8" x14ac:dyDescent="0.15">
-      <c r="D49" s="19">
+      <c r="D49" s="14">
         <v>14</v>
       </c>
-      <c r="E49" s="20" t="s">
+      <c r="E49" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="F49" s="20" t="s">
+      <c r="F49" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="G49" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="H49" s="22" t="s">
+      <c r="G49" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="H49" s="17" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="50" spans="4:8" x14ac:dyDescent="0.15">
-      <c r="D50" s="19">
+      <c r="D50" s="14">
         <v>15</v>
       </c>
-      <c r="E50" s="20" t="s">
+      <c r="E50" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="F50" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="G50" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="H50" s="21" t="s">
+      <c r="F50" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="G50" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="H50" s="16" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="51" spans="4:8" x14ac:dyDescent="0.15">
-      <c r="D51" s="19">
-        <v>16</v>
-      </c>
-      <c r="E51" s="20" t="s">
+      <c r="D51" s="14">
+        <v>16</v>
+      </c>
+      <c r="E51" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="F51" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="G51" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="H51" s="21" t="s">
+      <c r="F51" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="G51" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="H51" s="16" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="52" spans="4:8" x14ac:dyDescent="0.15">
-      <c r="D52" s="19">
-        <v>17</v>
-      </c>
-      <c r="E52" s="20" t="s">
+      <c r="D52" s="14">
+        <v>17</v>
+      </c>
+      <c r="E52" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="F52" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="G52" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="H52" s="21" t="s">
+      <c r="F52" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="G52" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="H52" s="16" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="53" spans="4:8" x14ac:dyDescent="0.15">
-      <c r="D53" s="19">
+      <c r="D53" s="14">
         <v>18</v>
       </c>
-      <c r="E53" s="20" t="s">
+      <c r="E53" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="F53" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="G53" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="H53" s="21" t="s">
+      <c r="F53" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="G53" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="H53" s="16" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="54" spans="4:8" x14ac:dyDescent="0.15">
-      <c r="D54" s="19">
+      <c r="D54" s="14">
         <v>19</v>
       </c>
-      <c r="E54" s="20" t="s">
+      <c r="E54" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="F54" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="G54" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="H54" s="21" t="s">
+      <c r="F54" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="G54" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="H54" s="16" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="55" spans="4:8" x14ac:dyDescent="0.15">
-      <c r="D55" s="19">
+      <c r="D55" s="14">
         <v>20</v>
       </c>
-      <c r="E55" s="20" t="s">
+      <c r="E55" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="F55" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="G55" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="H55" s="21" t="s">
+      <c r="F55" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="G55" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="H55" s="16" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="56" spans="4:8" x14ac:dyDescent="0.15">
-      <c r="D56" s="19">
-        <v>21</v>
-      </c>
-      <c r="E56" s="20" t="s">
+      <c r="D56" s="14">
+        <v>21</v>
+      </c>
+      <c r="E56" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="F56" s="20" t="s">
+      <c r="F56" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="G56" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="H56" s="22" t="s">
+      <c r="G56" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="H56" s="17" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="57" spans="4:8" x14ac:dyDescent="0.15">
-      <c r="D57" s="19">
-        <v>21</v>
-      </c>
-      <c r="E57" s="20" t="s">
+      <c r="D57" s="14">
+        <v>21</v>
+      </c>
+      <c r="E57" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="F57" s="20" t="s">
+      <c r="F57" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="G57" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="H57" s="22" t="s">
+      <c r="G57" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="H57" s="17" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="58" spans="4:8" x14ac:dyDescent="0.15">
-      <c r="D58" s="19">
-        <v>21</v>
-      </c>
-      <c r="E58" s="20" t="s">
+      <c r="D58" s="14">
+        <v>21</v>
+      </c>
+      <c r="E58" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="F58" s="20" t="s">
+      <c r="F58" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="G58" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="H58" s="22" t="s">
+      <c r="G58" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="H58" s="17" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="59" spans="4:8" x14ac:dyDescent="0.15">
-      <c r="D59" s="19">
-        <v>21</v>
-      </c>
-      <c r="E59" s="20" t="s">
+      <c r="D59" s="14">
+        <v>21</v>
+      </c>
+      <c r="E59" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="F59" s="20" t="s">
+      <c r="F59" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="G59" s="19" t="s">
+      <c r="G59" s="14" t="s">
         <v>112</v>
       </c>
-      <c r="H59" s="21" t="s">
+      <c r="H59" s="16" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="60" spans="4:8" x14ac:dyDescent="0.15">
-      <c r="D60" s="19">
-        <v>21</v>
-      </c>
-      <c r="E60" s="20" t="s">
+      <c r="D60" s="14">
+        <v>21</v>
+      </c>
+      <c r="E60" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="F60" s="20" t="s">
+      <c r="F60" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="G60" s="19" t="s">
+      <c r="G60" s="14" t="s">
         <v>112</v>
       </c>
-      <c r="H60" s="21" t="s">
+      <c r="H60" s="16" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="61" spans="4:8" x14ac:dyDescent="0.15">
-      <c r="D61" s="19">
-        <v>21</v>
-      </c>
-      <c r="E61" s="20" t="s">
+      <c r="D61" s="14">
+        <v>21</v>
+      </c>
+      <c r="E61" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="F61" s="20" t="s">
+      <c r="F61" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="G61" s="19" t="s">
+      <c r="G61" s="14" t="s">
         <v>112</v>
       </c>
-      <c r="H61" s="21" t="s">
+      <c r="H61" s="16" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="62" spans="4:8" x14ac:dyDescent="0.15">
-      <c r="D62" s="19">
-        <v>21</v>
-      </c>
-      <c r="E62" s="20" t="s">
+      <c r="D62" s="14">
+        <v>21</v>
+      </c>
+      <c r="E62" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="F62" s="20" t="s">
+      <c r="F62" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="G62" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="H62" s="22" t="s">
+      <c r="G62" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="H62" s="17" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="63" spans="4:8" x14ac:dyDescent="0.15">
-      <c r="D63" s="19">
-        <v>21</v>
-      </c>
-      <c r="E63" s="20" t="s">
+      <c r="D63" s="14">
+        <v>21</v>
+      </c>
+      <c r="E63" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="F63" s="20" t="s">
+      <c r="F63" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="G63" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="H63" s="22" t="s">
+      <c r="G63" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="H63" s="17" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="64" spans="4:8" x14ac:dyDescent="0.15">
-      <c r="D64" s="19">
-        <v>21</v>
-      </c>
-      <c r="E64" s="20" t="s">
+      <c r="D64" s="14">
+        <v>21</v>
+      </c>
+      <c r="E64" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="F64" s="20" t="s">
+      <c r="F64" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="G64" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="H64" s="22" t="s">
+      <c r="G64" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="H64" s="17" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="65" spans="4:8" x14ac:dyDescent="0.15">
-      <c r="D65" s="19">
-        <v>21</v>
-      </c>
-      <c r="E65" s="20" t="s">
+      <c r="D65" s="14">
+        <v>21</v>
+      </c>
+      <c r="E65" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="F65" s="20" t="s">
+      <c r="F65" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="G65" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="H65" s="22" t="s">
+      <c r="G65" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="H65" s="17" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="66" spans="4:8" x14ac:dyDescent="0.15">
-      <c r="D66" s="19">
-        <v>21</v>
-      </c>
-      <c r="E66" s="20" t="s">
+      <c r="D66" s="14">
+        <v>21</v>
+      </c>
+      <c r="E66" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="F66" s="20" t="s">
+      <c r="F66" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="G66" s="19" t="s">
+      <c r="G66" s="14" t="s">
         <v>112</v>
       </c>
-      <c r="H66" s="21" t="s">
+      <c r="H66" s="16" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="67" spans="4:8" x14ac:dyDescent="0.15">
-      <c r="D67" s="19">
-        <v>21</v>
-      </c>
-      <c r="E67" s="20" t="s">
+      <c r="D67" s="14">
+        <v>21</v>
+      </c>
+      <c r="E67" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="F67" s="20" t="s">
+      <c r="F67" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="G67" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="H67" s="22" t="s">
+      <c r="G67" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="H67" s="17" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="68" spans="4:8" x14ac:dyDescent="0.15">
-      <c r="D68" s="19">
-        <v>21</v>
-      </c>
-      <c r="E68" s="20" t="s">
+      <c r="D68" s="14">
+        <v>21</v>
+      </c>
+      <c r="E68" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="F68" s="20" t="s">
+      <c r="F68" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="G68" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="H68" s="22" t="s">
+      <c r="G68" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="H68" s="17" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="69" spans="4:8" x14ac:dyDescent="0.15">
-      <c r="D69" s="19">
-        <v>21</v>
-      </c>
-      <c r="E69" s="20" t="s">
+      <c r="D69" s="14">
+        <v>21</v>
+      </c>
+      <c r="E69" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="F69" s="20" t="s">
+      <c r="F69" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="G69" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="H69" s="22" t="s">
+      <c r="G69" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="H69" s="17" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="70" spans="4:8" x14ac:dyDescent="0.15">
-      <c r="D70" s="19">
-        <v>21</v>
-      </c>
-      <c r="E70" s="20" t="s">
+      <c r="D70" s="14">
+        <v>21</v>
+      </c>
+      <c r="E70" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="F70" s="20" t="s">
+      <c r="F70" s="15" t="s">
         <v>88</v>
       </c>
-      <c r="G70" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="H70" s="22" t="s">
+      <c r="G70" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="H70" s="17" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="71" spans="4:8" x14ac:dyDescent="0.15">
-      <c r="D71" s="19">
-        <v>21</v>
-      </c>
-      <c r="E71" s="20" t="s">
+      <c r="D71" s="14">
+        <v>21</v>
+      </c>
+      <c r="E71" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="F71" s="20" t="s">
+      <c r="F71" s="15" t="s">
         <v>89</v>
       </c>
-      <c r="G71" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="H71" s="22" t="s">
+      <c r="G71" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="H71" s="17" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="72" spans="4:8" x14ac:dyDescent="0.15">
-      <c r="D72" s="19">
-        <v>21</v>
-      </c>
-      <c r="E72" s="20" t="s">
+      <c r="D72" s="14">
+        <v>21</v>
+      </c>
+      <c r="E72" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="F72" s="20" t="s">
+      <c r="F72" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="G72" s="19" t="s">
+      <c r="G72" s="14" t="s">
         <v>112</v>
       </c>
-      <c r="H72" s="21" t="s">
+      <c r="H72" s="16" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="73" spans="4:8" x14ac:dyDescent="0.15">
-      <c r="D73" s="19">
-        <v>21</v>
-      </c>
-      <c r="E73" s="20" t="s">
+      <c r="D73" s="14">
+        <v>21</v>
+      </c>
+      <c r="E73" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="F73" s="20" t="s">
+      <c r="F73" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="G73" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="H73" s="22" t="s">
+      <c r="G73" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="H73" s="17" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="74" spans="4:8" x14ac:dyDescent="0.15">
-      <c r="D74" s="19">
-        <v>21</v>
-      </c>
-      <c r="E74" s="20" t="s">
+      <c r="D74" s="14">
+        <v>21</v>
+      </c>
+      <c r="E74" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="F74" s="20" t="s">
+      <c r="F74" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="G74" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="H74" s="22" t="s">
+      <c r="G74" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="H74" s="17" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="75" spans="4:8" x14ac:dyDescent="0.15">
-      <c r="D75" s="19">
-        <v>21</v>
-      </c>
-      <c r="E75" s="20" t="s">
+      <c r="D75" s="14">
+        <v>21</v>
+      </c>
+      <c r="E75" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="F75" s="20" t="s">
+      <c r="F75" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="G75" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="H75" s="22" t="s">
+      <c r="G75" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="H75" s="17" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="76" spans="4:8" x14ac:dyDescent="0.15">
-      <c r="D76" s="19">
-        <v>21</v>
-      </c>
-      <c r="E76" s="20" t="s">
+      <c r="D76" s="14">
+        <v>21</v>
+      </c>
+      <c r="E76" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="F76" s="20" t="s">
+      <c r="F76" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="G76" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="H76" s="21" t="s">
+      <c r="G76" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="H76" s="16" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="77" spans="4:8" x14ac:dyDescent="0.15">
-      <c r="D77" s="19">
-        <v>21</v>
-      </c>
-      <c r="E77" s="20" t="s">
+      <c r="D77" s="14">
+        <v>21</v>
+      </c>
+      <c r="E77" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="F77" s="20" t="s">
+      <c r="F77" s="15" t="s">
         <v>95</v>
       </c>
-      <c r="G77" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="H77" s="21" t="s">
+      <c r="G77" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="H77" s="16" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="78" spans="4:8" x14ac:dyDescent="0.15">
-      <c r="D78" s="19">
+      <c r="D78" s="14">
         <v>22</v>
       </c>
-      <c r="E78" s="20" t="s">
+      <c r="E78" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="F78" s="20" t="s">
+      <c r="F78" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="G78" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="H78" s="22" t="s">
+      <c r="G78" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="H78" s="17" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="79" spans="4:8" x14ac:dyDescent="0.15">
-      <c r="D79" s="19">
-        <v>21</v>
-      </c>
-      <c r="E79" s="20" t="s">
+      <c r="D79" s="14">
+        <v>21</v>
+      </c>
+      <c r="E79" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="F79" s="20" t="s">
+      <c r="F79" s="15" t="s">
         <v>98</v>
       </c>
-      <c r="G79" s="19" t="s">
+      <c r="G79" s="14" t="s">
         <v>112</v>
       </c>
-      <c r="H79" s="21" t="s">
+      <c r="H79" s="16" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="80" spans="4:8" x14ac:dyDescent="0.15">
-      <c r="D80" s="19">
-        <v>21</v>
-      </c>
-      <c r="E80" s="20" t="s">
+      <c r="D80" s="14">
+        <v>21</v>
+      </c>
+      <c r="E80" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="F80" s="20" t="s">
+      <c r="F80" s="15" t="s">
         <v>99</v>
       </c>
-      <c r="G80" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="H80" s="22" t="s">
+      <c r="G80" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="H80" s="17" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="81" spans="4:8" x14ac:dyDescent="0.15">
-      <c r="D81" s="19">
-        <v>21</v>
-      </c>
-      <c r="E81" s="20" t="s">
+      <c r="D81" s="14">
+        <v>21</v>
+      </c>
+      <c r="E81" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="F81" s="20" t="s">
+      <c r="F81" s="15" t="s">
         <v>100</v>
       </c>
-      <c r="G81" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="H81" s="22" t="s">
+      <c r="G81" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="H81" s="17" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="82" spans="4:8" x14ac:dyDescent="0.15">
-      <c r="D82" s="19">
-        <v>21</v>
-      </c>
-      <c r="E82" s="20" t="s">
+      <c r="D82" s="14">
+        <v>21</v>
+      </c>
+      <c r="E82" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="F82" s="20" t="s">
+      <c r="F82" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="G82" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="H82" s="22" t="s">
+      <c r="G82" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="H82" s="17" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="83" spans="4:8" x14ac:dyDescent="0.15">
-      <c r="D83" s="19">
-        <v>21</v>
-      </c>
-      <c r="E83" s="20" t="s">
+      <c r="D83" s="14">
+        <v>21</v>
+      </c>
+      <c r="E83" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="F83" s="20" t="s">
+      <c r="F83" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="G83" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="H83" s="22" t="s">
+      <c r="G83" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="H83" s="17" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="84" spans="4:8" x14ac:dyDescent="0.15">
-      <c r="D84" s="19">
-        <v>21</v>
-      </c>
-      <c r="E84" s="20" t="s">
+      <c r="D84" s="14">
+        <v>21</v>
+      </c>
+      <c r="E84" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="F84" s="20" t="s">
+      <c r="F84" s="15" t="s">
         <v>103</v>
       </c>
-      <c r="G84" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="H84" s="22" t="s">
+      <c r="G84" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="H84" s="17" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="85" spans="4:8" x14ac:dyDescent="0.15">
-      <c r="D85" s="19">
-        <v>21</v>
-      </c>
-      <c r="E85" s="20" t="s">
+      <c r="D85" s="14">
+        <v>21</v>
+      </c>
+      <c r="E85" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="F85" s="20" t="s">
+      <c r="F85" s="15" t="s">
         <v>104</v>
       </c>
-      <c r="G85" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="H85" s="22" t="s">
+      <c r="G85" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="H85" s="17" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="86" spans="4:8" x14ac:dyDescent="0.15">
-      <c r="D86" s="19">
-        <v>21</v>
-      </c>
-      <c r="E86" s="20" t="s">
+      <c r="D86" s="14">
+        <v>21</v>
+      </c>
+      <c r="E86" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="F86" s="20" t="s">
+      <c r="F86" s="15" t="s">
         <v>105</v>
       </c>
-      <c r="G86" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="H86" s="22" t="s">
+      <c r="G86" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="H86" s="17" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="87" spans="4:8" x14ac:dyDescent="0.15">
-      <c r="D87" s="19">
-        <v>21</v>
-      </c>
-      <c r="E87" s="20" t="s">
+      <c r="D87" s="14">
+        <v>21</v>
+      </c>
+      <c r="E87" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="F87" s="20" t="s">
+      <c r="F87" s="15" t="s">
         <v>106</v>
       </c>
-      <c r="G87" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="H87" s="22" t="s">
+      <c r="G87" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="H87" s="17" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="88" spans="4:8" x14ac:dyDescent="0.15">
-      <c r="D88" s="19">
-        <v>21</v>
-      </c>
-      <c r="E88" s="20" t="s">
+      <c r="D88" s="14">
+        <v>21</v>
+      </c>
+      <c r="E88" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="F88" s="20" t="s">
+      <c r="F88" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="G88" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="H88" s="22" t="s">
+      <c r="G88" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="H88" s="17" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="89" spans="4:8" x14ac:dyDescent="0.15">
-      <c r="D89" s="19">
-        <v>21</v>
-      </c>
-      <c r="E89" s="20" t="s">
+      <c r="D89" s="14">
+        <v>21</v>
+      </c>
+      <c r="E89" s="15" t="s">
         <v>107</v>
       </c>
-      <c r="F89" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="G89" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="H89" s="21" t="s">
+      <c r="F89" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="G89" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="H89" s="16" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="90" spans="4:8" x14ac:dyDescent="0.15">
-      <c r="D90" s="19">
+      <c r="D90" s="14">
         <v>24</v>
       </c>
-      <c r="E90" s="20" t="s">
+      <c r="E90" s="15" t="s">
         <v>108</v>
       </c>
-      <c r="F90" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="G90" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="H90" s="21" t="s">
+      <c r="F90" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="G90" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="H90" s="16" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="91" spans="4:8" x14ac:dyDescent="0.15">
-      <c r="D91" s="19">
-        <v>25</v>
-      </c>
-      <c r="E91" s="20" t="s">
+      <c r="D91" s="14">
+        <v>25</v>
+      </c>
+      <c r="E91" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="F91" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="G91" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="H91" s="21" t="s">
+      <c r="F91" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="G91" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="H91" s="16" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="92" spans="4:8" x14ac:dyDescent="0.15">
-      <c r="D92" s="19">
+      <c r="D92" s="14">
         <v>26</v>
       </c>
-      <c r="E92" s="20" t="s">
+      <c r="E92" s="15" t="s">
         <v>110</v>
       </c>
-      <c r="F92" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="G92" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="H92" s="21" t="s">
+      <c r="F92" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="G92" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="H92" s="16" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="93" spans="4:8" x14ac:dyDescent="0.15">
-      <c r="D93" s="19">
+      <c r="D93" s="14">
         <v>27</v>
       </c>
-      <c r="E93" s="20" t="s">
+      <c r="E93" s="15" t="s">
         <v>111</v>
       </c>
-      <c r="F93" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="G93" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="H93" s="21" t="s">
+      <c r="F93" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="G93" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="H93" s="16" t="s">
         <v>25</v>
       </c>
     </row>
@@ -4625,190 +4829,287 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:F15"/>
+  <dimension ref="B2:F28"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="2.625" style="23" customWidth="1"/>
-    <col min="2" max="2" width="3.625" style="23" customWidth="1"/>
-    <col min="3" max="3" width="24.25" style="23" customWidth="1"/>
-    <col min="4" max="4" width="64.625" style="23" customWidth="1"/>
-    <col min="5" max="5" width="55.25" style="23" customWidth="1"/>
-    <col min="6" max="6" width="44.25" style="23" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="23"/>
+    <col min="1" max="1" width="2.625" style="18" customWidth="1"/>
+    <col min="2" max="2" width="3.625" style="18" customWidth="1"/>
+    <col min="3" max="3" width="24.25" style="18" customWidth="1"/>
+    <col min="4" max="4" width="64.625" style="18" customWidth="1"/>
+    <col min="5" max="5" width="55.25" style="18" customWidth="1"/>
+    <col min="6" max="6" width="80.5" style="18" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="18"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="18" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="C3" s="23" t="s">
+      <c r="C3" s="18" t="s">
         <v>116</v>
       </c>
-      <c r="D3" s="24"/>
-      <c r="E3" s="25"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="20"/>
     </row>
     <row r="5" spans="2:6" ht="27" x14ac:dyDescent="0.15">
-      <c r="C5" s="26" t="s">
+      <c r="C5" s="21" t="s">
         <v>117</v>
       </c>
-      <c r="D5" s="26" t="s">
+      <c r="D5" s="21" t="s">
         <v>118</v>
       </c>
-      <c r="E5" s="27" t="s">
+      <c r="E5" s="22" t="s">
+        <v>217</v>
+      </c>
+      <c r="F5" s="21" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" s="31" customFormat="1" ht="134.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C6" s="32" t="s">
+        <v>254</v>
+      </c>
+      <c r="D6" s="32" t="s">
+        <v>256</v>
+      </c>
+      <c r="E6" s="33" t="s">
+        <v>255</v>
+      </c>
+      <c r="F6" s="34" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C7" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>128</v>
+      </c>
+      <c r="E7" s="15" t="s">
         <v>218</v>
       </c>
-      <c r="F5" s="26" t="s">
+      <c r="F7" s="24" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="6" spans="2:6" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C6" s="20" t="s">
-        <v>119</v>
-      </c>
-      <c r="D6" s="20" t="s">
+    <row r="8" spans="2:6" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C8" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="D8" s="15" t="s">
         <v>129</v>
       </c>
-      <c r="E6" s="20" t="s">
+      <c r="E8" s="15" t="s">
         <v>219</v>
       </c>
-      <c r="F6" s="29" t="s">
+      <c r="F8" s="24" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="7" spans="2:6" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C7" s="20" t="s">
-        <v>120</v>
-      </c>
-      <c r="D7" s="20" t="s">
+    <row r="9" spans="2:6" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C9" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="D9" s="15" t="s">
         <v>130</v>
       </c>
-      <c r="E7" s="20" t="s">
+      <c r="E9" s="15" t="s">
         <v>220</v>
       </c>
-      <c r="F7" s="29" t="s">
+      <c r="F9" s="24" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="8" spans="2:6" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C8" s="20" t="s">
-        <v>121</v>
-      </c>
-      <c r="D8" s="20" t="s">
+    <row r="10" spans="2:6" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C10" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="D10" s="15" t="s">
         <v>131</v>
       </c>
-      <c r="E8" s="20" t="s">
+      <c r="E10" s="15" t="s">
         <v>221</v>
       </c>
-      <c r="F8" s="29" t="s">
+      <c r="F10" s="24" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="9" spans="2:6" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C9" s="20" t="s">
-        <v>122</v>
-      </c>
-      <c r="D9" s="20" t="s">
+    <row r="11" spans="2:6" ht="267.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C11" s="15" t="s">
+        <v>123</v>
+      </c>
+      <c r="D11" s="23" t="s">
+        <v>227</v>
+      </c>
+      <c r="E11" s="23" t="s">
+        <v>252</v>
+      </c>
+      <c r="F11" s="24" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" ht="228.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C12" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="D12" s="15" t="s">
         <v>132</v>
       </c>
-      <c r="E9" s="20" t="s">
-        <v>222</v>
-      </c>
-      <c r="F9" s="29" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="10" spans="2:6" ht="60" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C10" s="20" t="s">
-        <v>123</v>
-      </c>
-      <c r="D10" s="28" t="s">
+      <c r="E12" s="23" t="s">
+        <v>229</v>
+      </c>
+      <c r="F12" s="24" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" ht="60" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C13" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="D13" s="15" t="s">
+        <v>133</v>
+      </c>
+      <c r="E13" s="15" t="s">
         <v>230</v>
       </c>
-      <c r="E10" s="28" t="s">
-        <v>229</v>
-      </c>
-      <c r="F10" s="29" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="11" spans="2:6" ht="228.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C11" s="20" t="s">
-        <v>124</v>
-      </c>
-      <c r="D11" s="20" t="s">
-        <v>133</v>
-      </c>
-      <c r="E11" s="28" t="s">
+      <c r="F13" s="24" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" ht="109.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C14" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="D14" s="15" t="s">
+        <v>134</v>
+      </c>
+      <c r="E14" s="23" t="s">
         <v>232</v>
       </c>
-      <c r="F11" s="29" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="12" spans="2:6" ht="60" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C12" s="20" t="s">
-        <v>125</v>
-      </c>
-      <c r="D12" s="20" t="s">
-        <v>134</v>
-      </c>
-      <c r="E12" s="20" t="s">
+      <c r="F14" s="24" t="s">
         <v>233</v>
       </c>
-      <c r="F12" s="29" t="s">
+    </row>
+    <row r="15" spans="2:6" ht="60" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C15" s="15" t="s">
+        <v>247</v>
+      </c>
+      <c r="D15" s="15" t="s">
+        <v>135</v>
+      </c>
+      <c r="E15" s="23" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="13" spans="2:6" ht="109.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C13" s="20" t="s">
-        <v>126</v>
-      </c>
-      <c r="D13" s="20" t="s">
-        <v>135</v>
-      </c>
-      <c r="E13" s="28" t="s">
+      <c r="F15" s="25" t="s">
         <v>235</v>
       </c>
-      <c r="F13" s="29" t="s">
+    </row>
+    <row r="16" spans="2:6" ht="60" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C16" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="D16" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="E16" s="15" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="14" spans="2:6" ht="60" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C14" s="20" t="s">
-        <v>127</v>
-      </c>
-      <c r="D14" s="20" t="s">
-        <v>136</v>
-      </c>
-      <c r="E14" s="28" t="s">
+      <c r="F16" s="24" t="s">
         <v>237</v>
       </c>
-      <c r="F14" s="30" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="15" spans="2:6" ht="60" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C15" s="20" t="s">
-        <v>128</v>
-      </c>
-      <c r="D15" s="20" t="s">
-        <v>137</v>
-      </c>
-      <c r="E15" s="20" t="s">
-        <v>239</v>
-      </c>
-      <c r="F15" s="29" t="s">
-        <v>240</v>
-      </c>
+    </row>
+    <row r="17" spans="3:6" ht="169.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C17" s="15" t="s">
+        <v>248</v>
+      </c>
+      <c r="D17" s="15" t="s">
+        <v>249</v>
+      </c>
+      <c r="E17" s="23" t="s">
+        <v>251</v>
+      </c>
+      <c r="F17" s="24" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="18" spans="3:6" x14ac:dyDescent="0.15">
+      <c r="C18" s="15"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="15"/>
+    </row>
+    <row r="19" spans="3:6" x14ac:dyDescent="0.15">
+      <c r="C19" s="15"/>
+      <c r="D19" s="15"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="15"/>
+    </row>
+    <row r="20" spans="3:6" x14ac:dyDescent="0.15">
+      <c r="C20" s="15"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="15"/>
+    </row>
+    <row r="21" spans="3:6" x14ac:dyDescent="0.15">
+      <c r="C21" s="15"/>
+      <c r="D21" s="15"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="15"/>
+    </row>
+    <row r="22" spans="3:6" x14ac:dyDescent="0.15">
+      <c r="C22" s="15"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="15"/>
+    </row>
+    <row r="23" spans="3:6" x14ac:dyDescent="0.15">
+      <c r="C23" s="15"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="15"/>
+    </row>
+    <row r="24" spans="3:6" x14ac:dyDescent="0.15">
+      <c r="C24" s="15"/>
+      <c r="D24" s="15"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="15"/>
+    </row>
+    <row r="25" spans="3:6" x14ac:dyDescent="0.15">
+      <c r="C25" s="15"/>
+      <c r="D25" s="15"/>
+      <c r="E25" s="15"/>
+      <c r="F25" s="15"/>
+    </row>
+    <row r="26" spans="3:6" x14ac:dyDescent="0.15">
+      <c r="C26" s="15"/>
+      <c r="D26" s="15"/>
+      <c r="E26" s="15"/>
+      <c r="F26" s="15"/>
+    </row>
+    <row r="27" spans="3:6" x14ac:dyDescent="0.15">
+      <c r="C27" s="15"/>
+      <c r="D27" s="15"/>
+      <c r="E27" s="15"/>
+      <c r="F27" s="15"/>
+    </row>
+    <row r="28" spans="3:6" x14ac:dyDescent="0.15">
+      <c r="C28" s="15"/>
+      <c r="D28" s="15"/>
+      <c r="E28" s="15"/>
+      <c r="F28" s="15"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4832,33 +5133,33 @@
       </c>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="C3" s="23" t="s">
-        <v>241</v>
+      <c r="C3" s="18" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.15">
       <c r="C5" s="1" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.15">
       <c r="D6" s="1" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.15">
       <c r="C8" s="1" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.15">
       <c r="D9" s="1" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.15">
       <c r="D10" s="1" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
     </row>
   </sheetData>
@@ -4884,17 +5185,17 @@
   <sheetData>
     <row r="2" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B2" s="1" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="C3" s="23" t="s">
-        <v>248</v>
+      <c r="C3" s="18" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.15">
       <c r="C5" s="1" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
     </row>
   </sheetData>

--- a/マニュアル.xlsx
+++ b/マニュアル.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="105" windowWidth="28035" windowHeight="12540" activeTab="5"/>
+    <workbookView xWindow="360" yWindow="105" windowWidth="28035" windowHeight="12540" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="タイトル" sheetId="3" r:id="rId1"/>
@@ -15,6 +15,7 @@
     <sheet name="デバッグ機能一覧" sheetId="4" r:id="rId6"/>
     <sheet name="インストール手順" sheetId="5" r:id="rId7"/>
     <sheet name="CPUエミュレータ起動方法" sheetId="6" r:id="rId8"/>
+    <sheet name="付録" sheetId="9" r:id="rId9"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">タイトル!$A$1:$J$22</definedName>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="599" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="603" uniqueCount="261">
   <si>
     <t>１．はじめに</t>
     <phoneticPr fontId="2"/>
@@ -1431,11 +1432,6 @@
     <rPh sb="6" eb="7">
       <t>レイ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>@DBG&gt;b 0x100
-setted break point:0x100</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -1904,6 +1900,25 @@
     <rPh sb="11" eb="12">
       <t>レイ</t>
     </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>７．付録</t>
+    <rPh sb="2" eb="4">
+      <t>フロク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>　７．１　CPUエミュレータ・アーキテクチャ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>７．１　CPUエミュレータ・アーキテクチャ</t>
+  </si>
+  <si>
+    <t>@DBG&gt;b 0x100
+setted break point:0x100</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -2125,6 +2140,18 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2140,18 +2167,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -2165,6 +2180,1134 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>649357</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>49281</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>165652</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="テキスト ボックス 1"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4923183" y="1266824"/>
+          <a:ext cx="6606208" cy="4290806"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1"/>
+            <a:t>CPU</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
+            <a:t>エミュレータ</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>211207</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>155712</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>480391</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>41413</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="テキスト ボックス 2"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="807555" y="2590799"/>
+          <a:ext cx="2571749" cy="1277179"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
+            <a:t>バイナリ</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800" b="1"/>
+            <a:t>0012060 0000 0000 001f 0000 0001 0000 0006 0000</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800" b="1"/>
+            <a:t>0012100 0000 0000 0034 0000 0194 0000 0000 0000</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800" b="1"/>
+            <a:t>0012120 0000 0000 0004 0000 0000 0000 001b 0000</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800" b="1"/>
+            <a:t>0012140 0009 0000 0000 0000 0000 0000 1b60 0000</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800" b="1"/>
+            <a:t>0012160 00c8 0000 0014 0000 0001 0000 0004 0000</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800" b="1"/>
+            <a:t>0012200 0008 0000 0025 0000 0001 0000 0003 0000</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800" b="1"/>
+            <a:t>0012220 0000 0000 01c8 0000 0000 0000 0000 0000</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="400" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>8282</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>82824</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>554935</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>165650</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="右矢印 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3594652" y="2865781"/>
+          <a:ext cx="1234109" cy="604630"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent5">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>ロード</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>521805</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>165652</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="184731" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="テキスト ボックス 4"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10295283" y="1209261"/>
+          <a:ext cx="184731" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>190498</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>16565</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>447260</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>49696</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="テキスト ボックス 5"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5151781" y="1581978"/>
+          <a:ext cx="944218" cy="728870"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>CPU</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>124237</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>107674</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>414129</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>157370</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="テキスト ボックス 6"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5085520" y="3586370"/>
+          <a:ext cx="977348" cy="1789043"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
+            <a:t>内蔵メモリ</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1"/>
+            <a:t>(ROM)</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>289892</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>157368</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>157368</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>16565</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="テキスト ボックス 7"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10063370" y="1548846"/>
+          <a:ext cx="1242389" cy="3859697"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
+            <a:t>デバッガ</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>198784</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>33132</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>612915</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>16565</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="テキスト ボックス 8"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12722088" y="1598545"/>
+          <a:ext cx="1789044" cy="1027042"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="1"/>
+            <a:t>端末</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="1"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
+            <a:t>---------------------------------------</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
+            <a:t>@DBG&gt;b 0x100</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
+            <a:t>setted break point:0x100</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000"/>
+            <a:t>　：</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>530087</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>82827</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>74543</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>165653</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="左右矢印 9"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11678478" y="1822175"/>
+          <a:ext cx="919369" cy="604630"/>
+        </a:xfrm>
+        <a:prstGeom prst="leftRightArrow">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 58219"/>
+            <a:gd name="adj2" fmla="val 33562"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>140803</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>24847</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>687455</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>82826</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="テキスト ボックス 11"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5102086" y="2981738"/>
+          <a:ext cx="4671391" cy="405849"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
+            <a:t>メモリバス</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>298174</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>157369</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>240196</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="上下矢印 12"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5259457" y="2418521"/>
+          <a:ext cx="629478" cy="538370"/>
+        </a:xfrm>
+        <a:prstGeom prst="upDownArrow">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 65789"/>
+            <a:gd name="adj2" fmla="val 19231"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>513521</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>99392</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>115956</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>157370</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="テキスト ボックス 13"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6162260" y="3578088"/>
+          <a:ext cx="977348" cy="1797325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
+            <a:t>内蔵メモリ</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1"/>
+            <a:t>(RAM)</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>273325</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>91109</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>16564</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>165653</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="テキスト ボックス 14"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7296977" y="3569805"/>
+          <a:ext cx="2493065" cy="1813891"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
+            <a:t>周辺デバイス</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>521806</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>66261</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>546653</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>107674</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="テキスト ボックス 15"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7545458" y="3892826"/>
+          <a:ext cx="712304" cy="389283"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1"/>
+            <a:t>INTC</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>314739</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>66262</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>339586</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>107675</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="テキスト ボックス 16"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8713304" y="3892827"/>
+          <a:ext cx="712304" cy="389283"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1"/>
+            <a:t>ADC</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>521804</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>74543</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>546651</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>115957</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="テキスト ボックス 17"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7545456" y="4422913"/>
+          <a:ext cx="712304" cy="389283"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1"/>
+            <a:t>CAN</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>306457</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>91109</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>331304</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>132523</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="テキスト ボックス 18"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8705022" y="4439479"/>
+          <a:ext cx="712304" cy="389283"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1"/>
+            <a:t>Timer</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>525117</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>19878</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>549964</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>61292</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="テキスト ボックス 19"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7548769" y="4890052"/>
+          <a:ext cx="712304" cy="389283"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1"/>
+            <a:t>Serial</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2476,29 +3619,29 @@
       <c r="B11" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C11" s="26" t="s">
+      <c r="C11" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="D11" s="26"/>
-      <c r="E11" s="26"/>
-      <c r="F11" s="26"/>
-      <c r="G11" s="26"/>
-      <c r="H11" s="26"/>
-      <c r="I11" s="26"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="30"/>
+      <c r="G11" s="30"/>
+      <c r="H11" s="30"/>
+      <c r="I11" s="30"/>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B12" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C12" s="27" t="s">
+      <c r="C12" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="D12" s="27"/>
-      <c r="E12" s="27"/>
-      <c r="F12" s="27"/>
-      <c r="G12" s="27"/>
-      <c r="H12" s="27"/>
-      <c r="I12" s="27"/>
+      <c r="D12" s="31"/>
+      <c r="E12" s="31"/>
+      <c r="F12" s="31"/>
+      <c r="G12" s="31"/>
+      <c r="H12" s="31"/>
+      <c r="I12" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -2513,9 +3656,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:B8"/>
+  <dimension ref="B2:B10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -2556,7 +3701,17 @@
     </row>
     <row r="8" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B8" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B9" s="1" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B10" s="1" t="s">
+        <v>258</v>
       </c>
     </row>
   </sheetData>
@@ -3278,7 +4433,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:H93"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -3310,11 +4467,11 @@
       <c r="E4" s="2"/>
     </row>
     <row r="5" spans="2:8" ht="27" x14ac:dyDescent="0.15">
-      <c r="D5" s="28" t="s">
+      <c r="D5" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="29"/>
-      <c r="F5" s="30"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="34"/>
       <c r="G5" s="12" t="s">
         <v>14</v>
       </c>
@@ -4831,8 +5988,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:F28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4872,18 +6029,18 @@
         <v>222</v>
       </c>
     </row>
-    <row r="6" spans="2:6" s="31" customFormat="1" ht="134.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C6" s="32" t="s">
+    <row r="6" spans="2:6" s="26" customFormat="1" ht="134.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C6" s="27" t="s">
+        <v>253</v>
+      </c>
+      <c r="D6" s="27" t="s">
+        <v>255</v>
+      </c>
+      <c r="E6" s="28" t="s">
         <v>254</v>
       </c>
-      <c r="D6" s="32" t="s">
+      <c r="F6" s="29" t="s">
         <v>256</v>
-      </c>
-      <c r="E6" s="33" t="s">
-        <v>255</v>
-      </c>
-      <c r="F6" s="34" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="7" spans="2:6" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -4897,7 +6054,7 @@
         <v>218</v>
       </c>
       <c r="F7" s="24" t="s">
-        <v>223</v>
+        <v>260</v>
       </c>
     </row>
     <row r="8" spans="2:6" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -4911,7 +6068,7 @@
         <v>219</v>
       </c>
       <c r="F8" s="24" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="9" spans="2:6" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -4925,7 +6082,7 @@
         <v>220</v>
       </c>
       <c r="F9" s="24" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="10" spans="2:6" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -4939,7 +6096,7 @@
         <v>221</v>
       </c>
       <c r="F10" s="24" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="11" spans="2:6" ht="267.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -4947,13 +6104,13 @@
         <v>123</v>
       </c>
       <c r="D11" s="23" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E11" s="23" t="s">
+        <v>251</v>
+      </c>
+      <c r="F11" s="24" t="s">
         <v>252</v>
-      </c>
-      <c r="F11" s="24" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="12" spans="2:6" ht="228.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -4964,10 +6121,10 @@
         <v>132</v>
       </c>
       <c r="E12" s="23" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F12" s="24" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="13" spans="2:6" ht="60" customHeight="1" x14ac:dyDescent="0.15">
@@ -4978,10 +6135,10 @@
         <v>133</v>
       </c>
       <c r="E13" s="15" t="s">
+        <v>229</v>
+      </c>
+      <c r="F13" s="24" t="s">
         <v>230</v>
-      </c>
-      <c r="F13" s="24" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="14" spans="2:6" ht="109.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -4992,24 +6149,24 @@
         <v>134</v>
       </c>
       <c r="E14" s="23" t="s">
+        <v>231</v>
+      </c>
+      <c r="F14" s="24" t="s">
         <v>232</v>
-      </c>
-      <c r="F14" s="24" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="15" spans="2:6" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C15" s="15" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D15" s="15" t="s">
         <v>135</v>
       </c>
       <c r="E15" s="23" t="s">
+        <v>233</v>
+      </c>
+      <c r="F15" s="25" t="s">
         <v>234</v>
-      </c>
-      <c r="F15" s="25" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="16" spans="2:6" ht="60" customHeight="1" x14ac:dyDescent="0.15">
@@ -5020,24 +6177,24 @@
         <v>136</v>
       </c>
       <c r="E16" s="15" t="s">
+        <v>235</v>
+      </c>
+      <c r="F16" s="24" t="s">
         <v>236</v>
-      </c>
-      <c r="F16" s="24" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="17" spans="3:6" ht="169.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C17" s="15" t="s">
+        <v>247</v>
+      </c>
+      <c r="D17" s="15" t="s">
         <v>248</v>
       </c>
-      <c r="D17" s="15" t="s">
+      <c r="E17" s="23" t="s">
+        <v>250</v>
+      </c>
+      <c r="F17" s="24" t="s">
         <v>249</v>
-      </c>
-      <c r="E17" s="23" t="s">
-        <v>251</v>
-      </c>
-      <c r="F17" s="24" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="18" spans="3:6" x14ac:dyDescent="0.15">
@@ -5134,32 +6291,32 @@
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.15">
       <c r="C3" s="18" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.15">
       <c r="C5" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.15">
       <c r="D6" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.15">
       <c r="C8" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.15">
       <c r="D9" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.15">
       <c r="D10" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
   </sheetData>
@@ -5185,21 +6342,54 @@
   <sheetData>
     <row r="2" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B2" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.15">
       <c r="C3" s="18" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.15">
       <c r="C5" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:C3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H26" sqref="H26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="4.375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="3.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="3.125" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B2" s="1" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C3" s="1" t="s">
+        <v>259</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/マニュアル.xlsx
+++ b/マニュアル.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="105" windowWidth="28035" windowHeight="12540" activeTab="8"/>
+    <workbookView xWindow="360" yWindow="105" windowWidth="28035" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="タイトル" sheetId="3" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="603" uniqueCount="261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="607" uniqueCount="265">
   <si>
     <t>１．はじめに</t>
     <phoneticPr fontId="2"/>
@@ -1919,6 +1919,63 @@
   <si>
     <t>@DBG&gt;b 0x100
 setted break point:0x100</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>上記コマンドを実行すると，以下のメッセージが出力され，</t>
+    <rPh sb="0" eb="2">
+      <t>ジョウキ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>シュツリョク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>CPUは，命令番地 0x00でデバッグモードに入る．</t>
+    <rPh sb="5" eb="7">
+      <t>メイレイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>バンチ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>ハイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>@DBG&gt;HIT break:0x0</t>
+  </si>
+  <si>
+    <t>上記メッセージ出力後は，任意のデバッグ機能を使用可能になる．</t>
+    <rPh sb="0" eb="2">
+      <t>ジョウキ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>シュツリョク</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ニンイ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>カノウ</t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1992,7 +2049,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -2052,6 +2109,43 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -2061,7 +2155,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2166,6 +2260,15 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2298,7 +2401,7 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
-            <a:t>バイナリ</a:t>
+            <a:t>バイナリファイル</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1"/>
         </a:p>
@@ -3599,7 +3702,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B6:I12"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" zoomScaleSheetLayoutView="130" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" zoomScaleSheetLayoutView="130" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -4433,7 +4536,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:H93"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
@@ -5988,7 +6091,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:F28"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
@@ -6327,10 +6430,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:C5"/>
+  <dimension ref="B2:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6340,22 +6443,58 @@
     <col min="4" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B2" s="1" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.15">
       <c r="C3" s="18" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="C5" s="1" t="s">
+    <row r="4" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="5" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="C5" s="35" t="s">
         <v>245</v>
       </c>
+      <c r="D5" s="36"/>
+      <c r="E5" s="36"/>
+      <c r="F5" s="36"/>
+      <c r="G5" s="36"/>
+      <c r="H5" s="37"/>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="C7" s="1" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="C8" s="1" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="10" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="C10" s="35" t="s">
+        <v>263</v>
+      </c>
+      <c r="D10" s="36"/>
+      <c r="E10" s="36"/>
+      <c r="F10" s="36"/>
+      <c r="G10" s="36"/>
+      <c r="H10" s="37"/>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="C12" s="1" t="s">
+        <v>264</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="C10:H10"/>
+    <mergeCell ref="C5:H5"/>
+  </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6365,8 +6504,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/マニュアル.xlsx
+++ b/マニュアル.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="105" windowWidth="28035" windowHeight="12540"/>
+    <workbookView xWindow="360" yWindow="105" windowWidth="28035" windowHeight="12540" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="タイトル" sheetId="3" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="607" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="613" uniqueCount="271">
   <si>
     <t>１．はじめに</t>
     <phoneticPr fontId="2"/>
@@ -1975,6 +1975,75 @@
     </rPh>
     <rPh sb="24" eb="26">
       <t>カノウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>６．２．　エミュレータ起動</t>
+    <rPh sb="11" eb="13">
+      <t>キドウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>本CPUエミュレータを起動するためのステップは以下の通り．</t>
+    <rPh sb="0" eb="1">
+      <t>ホン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>キドウ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>トオ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>　①実行対象バイナリファイルの事前準備</t>
+    <rPh sb="2" eb="4">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>タイショウ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ジゼン</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ジュンビ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>　②CPUエミュレータ起動</t>
+    <rPh sb="11" eb="13">
+      <t>キドウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>６．１．　実行対象バイナリファイルの事前準備</t>
+    <rPh sb="5" eb="7">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>タイショウ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ジゼン</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ジュンビ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>※注意：ビルド実行前に，６．１を実施済みであること．</t>
+    <rPh sb="1" eb="3">
+      <t>チュウイ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -3702,7 +3771,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B6:I12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" zoomScaleSheetLayoutView="130" workbookViewId="0"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" zoomScaleSheetLayoutView="130" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -6375,9 +6444,11 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:D10"/>
+  <dimension ref="B2:D11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -6408,17 +6479,22 @@
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="C8" s="1" t="s">
+      <c r="D8" s="1" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C9" s="1" t="s">
         <v>240</v>
-      </c>
-    </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="D9" s="1" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.15">
       <c r="D10" s="1" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="D11" s="1" t="s">
         <v>242</v>
       </c>
     </row>
@@ -6430,70 +6506,118 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:H12"/>
+  <dimension ref="B2:I30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="A7" sqref="A7:XFD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="3.5" style="1" customWidth="1"/>
-    <col min="2" max="3" width="3.75" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="1"/>
+    <col min="2" max="4" width="3.75" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B2" s="1" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="C3" s="18" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="4" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="5" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="C5" s="35" t="s">
-        <v>245</v>
-      </c>
-      <c r="D5" s="36"/>
-      <c r="E5" s="36"/>
-      <c r="F5" s="36"/>
-      <c r="G5" s="36"/>
-      <c r="H5" s="37"/>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="C3" s="1" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="C4" s="1" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="C5" s="1" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.15">
       <c r="C7" s="1" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="C8" s="1" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="9" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="10" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="C10" s="35" t="s">
-        <v>263</v>
-      </c>
-      <c r="D10" s="36"/>
+        <v>269</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="D8" s="18"/>
+    </row>
+    <row r="9" spans="2:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="10" spans="2:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="D10" s="35"/>
       <c r="E10" s="36"/>
       <c r="F10" s="36"/>
       <c r="G10" s="36"/>
-      <c r="H10" s="37"/>
-    </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="C12" s="1" t="s">
+      <c r="H10" s="36"/>
+      <c r="I10" s="37"/>
+    </row>
+    <row r="14" spans="2:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="15" spans="2:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="D15" s="35"/>
+      <c r="E15" s="36"/>
+      <c r="F15" s="36"/>
+      <c r="G15" s="36"/>
+      <c r="H15" s="36"/>
+      <c r="I15" s="37"/>
+    </row>
+    <row r="20" spans="3:9" x14ac:dyDescent="0.15">
+      <c r="C20" s="1" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="21" spans="3:9" x14ac:dyDescent="0.15">
+      <c r="D21" s="18" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="22" spans="3:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="23" spans="3:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="D23" s="35" t="s">
+        <v>245</v>
+      </c>
+      <c r="E23" s="36"/>
+      <c r="F23" s="36"/>
+      <c r="G23" s="36"/>
+      <c r="H23" s="36"/>
+      <c r="I23" s="37"/>
+    </row>
+    <row r="25" spans="3:9" x14ac:dyDescent="0.15">
+      <c r="D25" s="1" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="26" spans="3:9" x14ac:dyDescent="0.15">
+      <c r="D26" s="1" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="27" spans="3:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="28" spans="3:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="D28" s="35" t="s">
+        <v>263</v>
+      </c>
+      <c r="E28" s="36"/>
+      <c r="F28" s="36"/>
+      <c r="G28" s="36"/>
+      <c r="H28" s="36"/>
+      <c r="I28" s="37"/>
+    </row>
+    <row r="30" spans="3:9" x14ac:dyDescent="0.15">
+      <c r="D30" s="1" t="s">
         <v>264</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="C10:H10"/>
-    <mergeCell ref="C5:H5"/>
+  <mergeCells count="4">
+    <mergeCell ref="D15:I15"/>
+    <mergeCell ref="D10:I10"/>
+    <mergeCell ref="D23:I23"/>
+    <mergeCell ref="D28:I28"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/マニュアル.xlsx
+++ b/マニュアル.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="105" windowWidth="28035" windowHeight="12540" activeTab="6"/>
+    <workbookView xWindow="360" yWindow="105" windowWidth="28035" windowHeight="12540" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="タイトル" sheetId="3" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="613" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="640" uniqueCount="297">
   <si>
     <t>１．はじめに</t>
     <phoneticPr fontId="2"/>
@@ -1635,27 +1635,7 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>①本エミュレータをビルドする</t>
-    <rPh sb="1" eb="2">
-      <t>ホン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>$make clean;make</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>②以下のファイルが作成されていることを確認する</t>
-    <rPh sb="1" eb="3">
-      <t>イカ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>サクセイ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>カクニン</t>
-    </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -1797,26 +1777,6 @@
     </rPh>
     <rPh sb="47" eb="49">
       <t>ハッセイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>v
-CPU命令をロギングする場合は，log_s.txtにロギング情報が自動保存される．</t>
-    <rPh sb="6" eb="8">
-      <t>メイレイ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="33" eb="35">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="36" eb="38">
-      <t>ジドウ</t>
-    </rPh>
-    <rPh sb="38" eb="40">
-      <t>ホゾン</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -2047,12 +2007,339 @@
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
+  <si>
+    <t>v
+CPU命令をロギングする場合は，log.txtにロギング情報が自動保存される．</t>
+    <rPh sb="6" eb="8">
+      <t>メイレイ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>ジドウ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>ホゾン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>①デバッグ対象バイナリを用意する．</t>
+    <rPh sb="5" eb="7">
+      <t>タイショウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ヨウイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>・バイナリファイル(機械語命令)</t>
+    <rPh sb="10" eb="13">
+      <t>キカイゴ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>メイレイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>・ELFファイル</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>・DUMPファイル(objdump -dの出力結果)</t>
+    <rPh sb="21" eb="23">
+      <t>シュツリョク</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ケッカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>②デバッグ情報を作成する</t>
+    <rPh sb="5" eb="7">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>toolsフォルダ配下に移動し，以下のコマンドを実行することで本エミュレータが必要とするデバッグ情報を作成する．</t>
+    <rPh sb="9" eb="11">
+      <t>ハイカ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>ホン</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>$ sh elf2symbol.sh ../&lt;ELFファイル&gt;</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>本コマンド実行すると，エクセル起動し，</t>
+    <rPh sb="0" eb="1">
+      <t>ホン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>キドウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>しばらくすると(１分程度)，保存確認通知がポップアップされるため，</t>
+    <rPh sb="9" eb="10">
+      <t>フン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>テイド</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ホゾン</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ツウチ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>保存して終了する．</t>
+    <rPh sb="0" eb="2">
+      <t>ホゾン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>シュウリョウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>gui_debugger配下に移動し，以下の２ファイルを開く．</t>
+    <rPh sb="12" eb="14">
+      <t>ハイカ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>ヒラ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>$ sh create_debuginfo.sh ../&lt;DUMPファイル&gt;</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>②-(1) シンボル情報作成</t>
+    <rPh sb="10" eb="12">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>②-(2) デバッガ情報作成</t>
+    <rPh sb="10" eb="12">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>②-(3) 命令コードのコピー</t>
+    <rPh sb="6" eb="8">
+      <t>メイレイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>・asm.csv</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>・Debugger.xlsx</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>asm.csvの３行目～最終行を，Debugger.xlsxの「ASM」シートの５行目以降へ全コピー(書式はコピーしない)する．</t>
+    <rPh sb="9" eb="11">
+      <t>ギョウメ</t>
+    </rPh>
+    <rPh sb="12" eb="15">
+      <t>サイシュウギョウ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>ギョウメ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>イコウ</t>
+    </rPh>
+    <rPh sb="46" eb="47">
+      <t>ゼン</t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t>ショシキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>③本エミュレータをビルドする</t>
+    <rPh sb="1" eb="2">
+      <t>ホン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>④以下のファイルが作成されていることを確認する</t>
+    <rPh sb="1" eb="3">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>インストール手順を実施すること．</t>
+    <rPh sb="6" eb="8">
+      <t>テジュン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ジッシ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>６．３．　GUIデバッガの起動と停止方法</t>
+    <rPh sb="13" eb="15">
+      <t>キドウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>テイシ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ホウホウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>GUIデバッガの起動方法は以下の通り．</t>
+    <rPh sb="8" eb="10">
+      <t>キドウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ホウホウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>トオ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>$ start_gui.sh</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>$ cd tools</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>GUIデバッガの停止方法は以下の通り．</t>
+    <rPh sb="8" eb="10">
+      <t>テイシ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ホウホウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>トオ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>★GUIデバッガ起動後は，cpu_emulatorのコンソール上でデバッグコマンド発行することで，ステップ実行等を可視化できるようになる．</t>
+    <rPh sb="8" eb="10">
+      <t>キドウ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>ジョウ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>ハッコウ</t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="55" eb="56">
+      <t>トウ</t>
+    </rPh>
+    <rPh sb="57" eb="60">
+      <t>カシカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>$ stop_gui.sh</t>
+    <phoneticPr fontId="2"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2118,7 +2405,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -2215,6 +2502,68 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -2224,7 +2573,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2337,6 +2686,27 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3773,7 +4143,7 @@
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" zoomScaleSheetLayoutView="130" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="6" style="1" customWidth="1"/>
     <col min="2" max="2" width="15.75" style="1" customWidth="1"/>
@@ -3782,12 +4152,12 @@
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="2:9" ht="42" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:9" ht="42">
       <c r="B6" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:9">
       <c r="B11" s="4" t="s">
         <v>2</v>
       </c>
@@ -3801,7 +4171,7 @@
       <c r="H11" s="30"/>
       <c r="I11" s="30"/>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:9">
       <c r="B12" s="3" t="s">
         <v>3</v>
       </c>
@@ -3834,56 +4204,56 @@
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="4.125" style="1" customWidth="1"/>
     <col min="2" max="2" width="18.75" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:2">
       <c r="B2" s="6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:2">
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:2">
       <c r="B4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:2">
       <c r="B5" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:2">
       <c r="B6" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:2">
       <c r="B7" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:2">
       <c r="B8" s="1" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="9" spans="2:2" x14ac:dyDescent="0.15">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2">
       <c r="B9" s="1" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="10" spans="2:2" x14ac:dyDescent="0.15">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2">
       <c r="B10" s="1" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
     </row>
   </sheetData>
@@ -3898,19 +4268,19 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="4.625" style="1" customWidth="1"/>
     <col min="2" max="2" width="3.375" style="1" customWidth="1"/>
     <col min="3" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:3">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:3">
       <c r="C3" s="1" t="s">
         <v>7</v>
       </c>
@@ -3927,7 +4297,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="4.5" style="1" customWidth="1"/>
     <col min="2" max="2" width="3.125" style="1" customWidth="1"/>
@@ -3937,17 +4307,17 @@
     <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:5">
       <c r="B2" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:5">
       <c r="C3" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="2:5" ht="27" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:5" ht="27">
       <c r="D5" s="8" t="s">
         <v>13</v>
       </c>
@@ -3955,7 +4325,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:5">
       <c r="D6" s="9" t="s">
         <v>137</v>
       </c>
@@ -3963,7 +4333,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:5">
       <c r="D7" s="9" t="s">
         <v>138</v>
       </c>
@@ -3971,7 +4341,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:5">
       <c r="D8" s="9" t="s">
         <v>139</v>
       </c>
@@ -3979,7 +4349,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:5">
       <c r="D9" s="9" t="s">
         <v>140</v>
       </c>
@@ -3987,7 +4357,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:5">
       <c r="D10" s="9" t="s">
         <v>141</v>
       </c>
@@ -3995,7 +4365,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:5">
       <c r="D11" s="9" t="s">
         <v>142</v>
       </c>
@@ -4003,7 +4373,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:5">
       <c r="D12" s="9" t="s">
         <v>143</v>
       </c>
@@ -4011,7 +4381,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="13" spans="2:5">
       <c r="D13" s="9" t="s">
         <v>144</v>
       </c>
@@ -4019,7 +4389,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="14" spans="2:5">
       <c r="D14" s="9" t="s">
         <v>145</v>
       </c>
@@ -4027,7 +4397,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="15" spans="2:5">
       <c r="D15" s="9" t="s">
         <v>146</v>
       </c>
@@ -4035,7 +4405,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="16" spans="2:5">
       <c r="D16" s="9" t="s">
         <v>147</v>
       </c>
@@ -4043,7 +4413,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="17" spans="4:5">
       <c r="D17" s="9" t="s">
         <v>148</v>
       </c>
@@ -4051,7 +4421,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="18" spans="4:5">
       <c r="D18" s="9" t="s">
         <v>149</v>
       </c>
@@ -4059,7 +4429,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="19" spans="4:5">
       <c r="D19" s="9" t="s">
         <v>150</v>
       </c>
@@ -4067,7 +4437,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="20" spans="4:5">
       <c r="D20" s="9" t="s">
         <v>151</v>
       </c>
@@ -4075,7 +4445,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="21" spans="4:5">
       <c r="D21" s="9" t="s">
         <v>152</v>
       </c>
@@ -4083,7 +4453,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="22" spans="4:5">
       <c r="D22" s="9" t="s">
         <v>153</v>
       </c>
@@ -4091,7 +4461,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="23" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="23" spans="4:5">
       <c r="D23" s="9" t="s">
         <v>154</v>
       </c>
@@ -4099,7 +4469,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="24" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="24" spans="4:5">
       <c r="D24" s="9" t="s">
         <v>155</v>
       </c>
@@ -4107,7 +4477,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="25" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="25" spans="4:5">
       <c r="D25" s="9" t="s">
         <v>156</v>
       </c>
@@ -4115,7 +4485,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="26" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="26" spans="4:5">
       <c r="D26" s="9" t="s">
         <v>157</v>
       </c>
@@ -4123,7 +4493,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="27" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="27" spans="4:5">
       <c r="D27" s="9" t="s">
         <v>158</v>
       </c>
@@ -4131,7 +4501,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="28" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="28" spans="4:5">
       <c r="D28" s="9" t="s">
         <v>159</v>
       </c>
@@ -4139,7 +4509,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="29" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="29" spans="4:5">
       <c r="D29" s="9" t="s">
         <v>160</v>
       </c>
@@ -4147,7 +4517,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="30" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="30" spans="4:5">
       <c r="D30" s="9" t="s">
         <v>161</v>
       </c>
@@ -4155,7 +4525,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="31" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="31" spans="4:5">
       <c r="D31" s="9" t="s">
         <v>162</v>
       </c>
@@ -4163,7 +4533,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="32" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="32" spans="4:5">
       <c r="D32" s="9" t="s">
         <v>163</v>
       </c>
@@ -4171,7 +4541,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="33" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="33" spans="4:5">
       <c r="D33" s="9" t="s">
         <v>164</v>
       </c>
@@ -4179,7 +4549,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="34" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="34" spans="4:5">
       <c r="D34" s="9" t="s">
         <v>165</v>
       </c>
@@ -4187,7 +4557,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="35" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="35" spans="4:5">
       <c r="D35" s="9" t="s">
         <v>166</v>
       </c>
@@ -4195,7 +4565,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="36" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="36" spans="4:5">
       <c r="D36" s="9" t="s">
         <v>167</v>
       </c>
@@ -4203,7 +4573,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="37" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="37" spans="4:5">
       <c r="D37" s="9" t="s">
         <v>168</v>
       </c>
@@ -4211,7 +4581,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="38" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="38" spans="4:5">
       <c r="D38" s="9" t="s">
         <v>169</v>
       </c>
@@ -4219,7 +4589,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="39" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="39" spans="4:5">
       <c r="D39" s="9" t="s">
         <v>170</v>
       </c>
@@ -4227,7 +4597,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="40" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="40" spans="4:5">
       <c r="D40" s="9" t="s">
         <v>171</v>
       </c>
@@ -4235,7 +4605,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="41" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="41" spans="4:5">
       <c r="D41" s="9" t="s">
         <v>172</v>
       </c>
@@ -4243,7 +4613,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="42" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="42" spans="4:5">
       <c r="D42" s="9" t="s">
         <v>173</v>
       </c>
@@ -4251,7 +4621,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="43" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="43" spans="4:5">
       <c r="D43" s="9" t="s">
         <v>174</v>
       </c>
@@ -4259,7 +4629,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="44" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="44" spans="4:5">
       <c r="D44" s="9" t="s">
         <v>175</v>
       </c>
@@ -4267,7 +4637,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="45" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="45" spans="4:5">
       <c r="D45" s="9" t="s">
         <v>176</v>
       </c>
@@ -4275,7 +4645,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="46" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="46" spans="4:5">
       <c r="D46" s="9" t="s">
         <v>177</v>
       </c>
@@ -4283,7 +4653,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="47" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="47" spans="4:5">
       <c r="D47" s="9" t="s">
         <v>178</v>
       </c>
@@ -4291,7 +4661,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="48" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="48" spans="4:5">
       <c r="D48" s="9" t="s">
         <v>179</v>
       </c>
@@ -4299,7 +4669,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="49" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="49" spans="4:5">
       <c r="D49" s="9" t="s">
         <v>180</v>
       </c>
@@ -4307,7 +4677,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="50" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="50" spans="4:5">
       <c r="D50" s="9" t="s">
         <v>181</v>
       </c>
@@ -4315,7 +4685,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="51" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="51" spans="4:5">
       <c r="D51" s="9" t="s">
         <v>182</v>
       </c>
@@ -4323,7 +4693,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="52" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="52" spans="4:5">
       <c r="D52" s="9" t="s">
         <v>183</v>
       </c>
@@ -4331,7 +4701,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="53" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="53" spans="4:5">
       <c r="D53" s="9" t="s">
         <v>184</v>
       </c>
@@ -4339,7 +4709,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="54" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="54" spans="4:5">
       <c r="D54" s="9" t="s">
         <v>185</v>
       </c>
@@ -4347,7 +4717,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="55" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="55" spans="4:5">
       <c r="D55" s="9" t="s">
         <v>186</v>
       </c>
@@ -4355,7 +4725,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="56" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="56" spans="4:5">
       <c r="D56" s="9" t="s">
         <v>187</v>
       </c>
@@ -4363,7 +4733,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="57" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="57" spans="4:5">
       <c r="D57" s="9" t="s">
         <v>188</v>
       </c>
@@ -4371,7 +4741,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="58" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="58" spans="4:5">
       <c r="D58" s="9" t="s">
         <v>189</v>
       </c>
@@ -4379,7 +4749,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="59" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="59" spans="4:5">
       <c r="D59" s="9" t="s">
         <v>190</v>
       </c>
@@ -4387,7 +4757,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="60" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="60" spans="4:5">
       <c r="D60" s="9" t="s">
         <v>191</v>
       </c>
@@ -4395,7 +4765,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="61" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="61" spans="4:5">
       <c r="D61" s="9" t="s">
         <v>192</v>
       </c>
@@ -4403,7 +4773,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="62" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="62" spans="4:5">
       <c r="D62" s="9" t="s">
         <v>193</v>
       </c>
@@ -4411,7 +4781,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="63" spans="4:5" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="63" spans="4:5" ht="40.5">
       <c r="D63" s="9" t="s">
         <v>194</v>
       </c>
@@ -4419,7 +4789,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="64" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="64" spans="4:5">
       <c r="D64" s="9" t="s">
         <v>195</v>
       </c>
@@ -4427,7 +4797,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="65" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="65" spans="4:5">
       <c r="D65" s="9" t="s">
         <v>196</v>
       </c>
@@ -4435,7 +4805,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="66" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="66" spans="4:5">
       <c r="D66" s="9" t="s">
         <v>197</v>
       </c>
@@ -4443,7 +4813,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="67" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="67" spans="4:5">
       <c r="D67" s="9" t="s">
         <v>198</v>
       </c>
@@ -4451,7 +4821,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="68" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="68" spans="4:5">
       <c r="D68" s="9" t="s">
         <v>199</v>
       </c>
@@ -4459,7 +4829,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="69" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="69" spans="4:5">
       <c r="D69" s="9" t="s">
         <v>200</v>
       </c>
@@ -4467,7 +4837,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="70" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="70" spans="4:5">
       <c r="D70" s="9" t="s">
         <v>201</v>
       </c>
@@ -4475,7 +4845,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="71" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="71" spans="4:5">
       <c r="D71" s="9" t="s">
         <v>202</v>
       </c>
@@ -4483,7 +4853,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="72" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="72" spans="4:5">
       <c r="D72" s="9" t="s">
         <v>203</v>
       </c>
@@ -4491,7 +4861,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="73" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="73" spans="4:5">
       <c r="D73" s="9" t="s">
         <v>204</v>
       </c>
@@ -4499,7 +4869,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="74" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="74" spans="4:5">
       <c r="D74" s="9" t="s">
         <v>205</v>
       </c>
@@ -4507,7 +4877,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="75" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="75" spans="4:5">
       <c r="D75" s="9" t="s">
         <v>206</v>
       </c>
@@ -4515,7 +4885,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="76" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="76" spans="4:5">
       <c r="D76" s="9" t="s">
         <v>207</v>
       </c>
@@ -4523,7 +4893,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="77" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="77" spans="4:5">
       <c r="D77" s="9" t="s">
         <v>208</v>
       </c>
@@ -4531,7 +4901,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="78" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="78" spans="4:5">
       <c r="D78" s="9" t="s">
         <v>209</v>
       </c>
@@ -4539,7 +4909,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="79" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="79" spans="4:5">
       <c r="D79" s="9" t="s">
         <v>210</v>
       </c>
@@ -4547,7 +4917,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="80" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="80" spans="4:5">
       <c r="D80" s="9" t="s">
         <v>211</v>
       </c>
@@ -4555,7 +4925,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="81" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="81" spans="4:5">
       <c r="D81" s="9" t="s">
         <v>212</v>
       </c>
@@ -4563,7 +4933,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="82" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="82" spans="4:5">
       <c r="D82" s="9" t="s">
         <v>213</v>
       </c>
@@ -4571,7 +4941,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="83" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="83" spans="4:5">
       <c r="D83" s="9" t="s">
         <v>214</v>
       </c>
@@ -4579,7 +4949,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="84" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="84" spans="4:5">
       <c r="D84" s="9" t="s">
         <v>215</v>
       </c>
@@ -4587,7 +4957,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="85" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="85" spans="4:5">
       <c r="D85" s="9" t="s">
         <v>216</v>
       </c>
@@ -4609,7 +4979,7 @@
       <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="3" width="3.375" style="1" customWidth="1"/>
     <col min="4" max="4" width="8" style="1" customWidth="1"/>
@@ -4620,25 +4990,25 @@
     <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:8">
       <c r="B2" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D2" s="7"/>
       <c r="E2" s="2"/>
     </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:8">
       <c r="C3" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D3" s="7"/>
       <c r="E3" s="2"/>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:8">
       <c r="D4" s="7"/>
       <c r="E4" s="2"/>
     </row>
-    <row r="5" spans="2:8" ht="27" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:8" ht="27">
       <c r="D5" s="32" t="s">
         <v>19</v>
       </c>
@@ -4651,7 +5021,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:8">
       <c r="D6" s="14">
         <v>1</v>
       </c>
@@ -4668,7 +5038,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:8">
       <c r="D7" s="14">
         <v>2</v>
       </c>
@@ -4685,7 +5055,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:8">
       <c r="D8" s="14">
         <v>2</v>
       </c>
@@ -4702,7 +5072,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:8">
       <c r="D9" s="14">
         <v>2</v>
       </c>
@@ -4719,7 +5089,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:8">
       <c r="D10" s="14">
         <v>2</v>
       </c>
@@ -4736,7 +5106,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:8">
       <c r="D11" s="14">
         <v>3</v>
       </c>
@@ -4753,7 +5123,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:8">
       <c r="D12" s="14">
         <v>3</v>
       </c>
@@ -4770,7 +5140,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="13" spans="2:8">
       <c r="D13" s="14">
         <v>3</v>
       </c>
@@ -4787,7 +5157,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="14" spans="2:8">
       <c r="D14" s="14">
         <v>3</v>
       </c>
@@ -4804,7 +5174,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="15" spans="2:8">
       <c r="D15" s="14">
         <v>4</v>
       </c>
@@ -4821,7 +5191,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="16" spans="2:8">
       <c r="D16" s="14">
         <v>4</v>
       </c>
@@ -4838,7 +5208,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="17" spans="4:8" x14ac:dyDescent="0.15">
+    <row r="17" spans="4:8">
       <c r="D17" s="14">
         <v>4</v>
       </c>
@@ -4855,7 +5225,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="4:8" x14ac:dyDescent="0.15">
+    <row r="18" spans="4:8">
       <c r="D18" s="14">
         <v>5</v>
       </c>
@@ -4872,7 +5242,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="4:8" x14ac:dyDescent="0.15">
+    <row r="19" spans="4:8">
       <c r="D19" s="14">
         <v>5</v>
       </c>
@@ -4889,7 +5259,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="4:8" x14ac:dyDescent="0.15">
+    <row r="20" spans="4:8">
       <c r="D20" s="14">
         <v>5</v>
       </c>
@@ -4906,7 +5276,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="4:8" x14ac:dyDescent="0.15">
+    <row r="21" spans="4:8">
       <c r="D21" s="14">
         <v>5</v>
       </c>
@@ -4923,7 +5293,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="4:8" x14ac:dyDescent="0.15">
+    <row r="22" spans="4:8">
       <c r="D22" s="14">
         <v>5</v>
       </c>
@@ -4940,7 +5310,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="4:8" x14ac:dyDescent="0.15">
+    <row r="23" spans="4:8">
       <c r="D23" s="14">
         <v>5</v>
       </c>
@@ -4957,7 +5327,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="4:8" x14ac:dyDescent="0.15">
+    <row r="24" spans="4:8">
       <c r="D24" s="14">
         <v>5</v>
       </c>
@@ -4974,7 +5344,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="25" spans="4:8" x14ac:dyDescent="0.15">
+    <row r="25" spans="4:8">
       <c r="D25" s="14">
         <v>6</v>
       </c>
@@ -4991,7 +5361,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="26" spans="4:8" x14ac:dyDescent="0.15">
+    <row r="26" spans="4:8">
       <c r="D26" s="14">
         <v>7</v>
       </c>
@@ -5008,7 +5378,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="27" spans="4:8" x14ac:dyDescent="0.15">
+    <row r="27" spans="4:8">
       <c r="D27" s="14">
         <v>8</v>
       </c>
@@ -5025,7 +5395,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="28" spans="4:8" x14ac:dyDescent="0.15">
+    <row r="28" spans="4:8">
       <c r="D28" s="14">
         <v>9</v>
       </c>
@@ -5042,7 +5412,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="29" spans="4:8" x14ac:dyDescent="0.15">
+    <row r="29" spans="4:8">
       <c r="D29" s="14">
         <v>10</v>
       </c>
@@ -5059,7 +5429,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="30" spans="4:8" x14ac:dyDescent="0.15">
+    <row r="30" spans="4:8">
       <c r="D30" s="14">
         <v>11</v>
       </c>
@@ -5076,7 +5446,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="31" spans="4:8" x14ac:dyDescent="0.15">
+    <row r="31" spans="4:8">
       <c r="D31" s="14">
         <v>12</v>
       </c>
@@ -5093,7 +5463,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="32" spans="4:8" x14ac:dyDescent="0.15">
+    <row r="32" spans="4:8">
       <c r="D32" s="14">
         <v>12</v>
       </c>
@@ -5110,7 +5480,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="33" spans="4:8" x14ac:dyDescent="0.15">
+    <row r="33" spans="4:8">
       <c r="D33" s="14">
         <v>12</v>
       </c>
@@ -5127,7 +5497,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="34" spans="4:8" x14ac:dyDescent="0.15">
+    <row r="34" spans="4:8">
       <c r="D34" s="14">
         <v>12</v>
       </c>
@@ -5144,7 +5514,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="35" spans="4:8" x14ac:dyDescent="0.15">
+    <row r="35" spans="4:8">
       <c r="D35" s="14">
         <v>12</v>
       </c>
@@ -5161,7 +5531,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="36" spans="4:8" x14ac:dyDescent="0.15">
+    <row r="36" spans="4:8">
       <c r="D36" s="14">
         <v>12</v>
       </c>
@@ -5178,7 +5548,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="37" spans="4:8" x14ac:dyDescent="0.15">
+    <row r="37" spans="4:8">
       <c r="D37" s="14">
         <v>12</v>
       </c>
@@ -5195,7 +5565,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="38" spans="4:8" x14ac:dyDescent="0.15">
+    <row r="38" spans="4:8">
       <c r="D38" s="14">
         <v>12</v>
       </c>
@@ -5212,7 +5582,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="39" spans="4:8" x14ac:dyDescent="0.15">
+    <row r="39" spans="4:8">
       <c r="D39" s="14">
         <v>12</v>
       </c>
@@ -5229,7 +5599,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="40" spans="4:8" x14ac:dyDescent="0.15">
+    <row r="40" spans="4:8">
       <c r="D40" s="14">
         <v>13</v>
       </c>
@@ -5246,7 +5616,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="41" spans="4:8" x14ac:dyDescent="0.15">
+    <row r="41" spans="4:8">
       <c r="D41" s="14">
         <v>13</v>
       </c>
@@ -5263,7 +5633,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="42" spans="4:8" x14ac:dyDescent="0.15">
+    <row r="42" spans="4:8">
       <c r="D42" s="14">
         <v>13</v>
       </c>
@@ -5280,7 +5650,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="43" spans="4:8" x14ac:dyDescent="0.15">
+    <row r="43" spans="4:8">
       <c r="D43" s="14">
         <v>13</v>
       </c>
@@ -5297,7 +5667,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="44" spans="4:8" x14ac:dyDescent="0.15">
+    <row r="44" spans="4:8">
       <c r="D44" s="14">
         <v>13</v>
       </c>
@@ -5314,7 +5684,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="45" spans="4:8" x14ac:dyDescent="0.15">
+    <row r="45" spans="4:8">
       <c r="D45" s="14">
         <v>13</v>
       </c>
@@ -5331,7 +5701,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="46" spans="4:8" x14ac:dyDescent="0.15">
+    <row r="46" spans="4:8">
       <c r="D46" s="14">
         <v>13</v>
       </c>
@@ -5348,7 +5718,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="47" spans="4:8" x14ac:dyDescent="0.15">
+    <row r="47" spans="4:8">
       <c r="D47" s="14">
         <v>13</v>
       </c>
@@ -5365,7 +5735,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="48" spans="4:8" x14ac:dyDescent="0.15">
+    <row r="48" spans="4:8">
       <c r="D48" s="14">
         <v>13</v>
       </c>
@@ -5382,7 +5752,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="49" spans="4:8" x14ac:dyDescent="0.15">
+    <row r="49" spans="4:8">
       <c r="D49" s="14">
         <v>14</v>
       </c>
@@ -5399,7 +5769,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="50" spans="4:8" x14ac:dyDescent="0.15">
+    <row r="50" spans="4:8">
       <c r="D50" s="14">
         <v>15</v>
       </c>
@@ -5416,7 +5786,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="51" spans="4:8" x14ac:dyDescent="0.15">
+    <row r="51" spans="4:8">
       <c r="D51" s="14">
         <v>16</v>
       </c>
@@ -5433,7 +5803,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="52" spans="4:8" x14ac:dyDescent="0.15">
+    <row r="52" spans="4:8">
       <c r="D52" s="14">
         <v>17</v>
       </c>
@@ -5450,7 +5820,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="53" spans="4:8" x14ac:dyDescent="0.15">
+    <row r="53" spans="4:8">
       <c r="D53" s="14">
         <v>18</v>
       </c>
@@ -5467,7 +5837,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="54" spans="4:8" x14ac:dyDescent="0.15">
+    <row r="54" spans="4:8">
       <c r="D54" s="14">
         <v>19</v>
       </c>
@@ -5484,7 +5854,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="55" spans="4:8" x14ac:dyDescent="0.15">
+    <row r="55" spans="4:8">
       <c r="D55" s="14">
         <v>20</v>
       </c>
@@ -5501,7 +5871,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="56" spans="4:8" x14ac:dyDescent="0.15">
+    <row r="56" spans="4:8">
       <c r="D56" s="14">
         <v>21</v>
       </c>
@@ -5518,7 +5888,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="57" spans="4:8" x14ac:dyDescent="0.15">
+    <row r="57" spans="4:8">
       <c r="D57" s="14">
         <v>21</v>
       </c>
@@ -5535,7 +5905,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="58" spans="4:8" x14ac:dyDescent="0.15">
+    <row r="58" spans="4:8">
       <c r="D58" s="14">
         <v>21</v>
       </c>
@@ -5552,7 +5922,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="59" spans="4:8" x14ac:dyDescent="0.15">
+    <row r="59" spans="4:8">
       <c r="D59" s="14">
         <v>21</v>
       </c>
@@ -5569,7 +5939,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="60" spans="4:8" x14ac:dyDescent="0.15">
+    <row r="60" spans="4:8">
       <c r="D60" s="14">
         <v>21</v>
       </c>
@@ -5586,7 +5956,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="61" spans="4:8" x14ac:dyDescent="0.15">
+    <row r="61" spans="4:8">
       <c r="D61" s="14">
         <v>21</v>
       </c>
@@ -5603,7 +5973,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="62" spans="4:8" x14ac:dyDescent="0.15">
+    <row r="62" spans="4:8">
       <c r="D62" s="14">
         <v>21</v>
       </c>
@@ -5620,7 +5990,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="63" spans="4:8" x14ac:dyDescent="0.15">
+    <row r="63" spans="4:8">
       <c r="D63" s="14">
         <v>21</v>
       </c>
@@ -5637,7 +6007,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="64" spans="4:8" x14ac:dyDescent="0.15">
+    <row r="64" spans="4:8">
       <c r="D64" s="14">
         <v>21</v>
       </c>
@@ -5654,7 +6024,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="65" spans="4:8" x14ac:dyDescent="0.15">
+    <row r="65" spans="4:8">
       <c r="D65" s="14">
         <v>21</v>
       </c>
@@ -5671,7 +6041,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="66" spans="4:8" x14ac:dyDescent="0.15">
+    <row r="66" spans="4:8">
       <c r="D66" s="14">
         <v>21</v>
       </c>
@@ -5688,7 +6058,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="67" spans="4:8" x14ac:dyDescent="0.15">
+    <row r="67" spans="4:8">
       <c r="D67" s="14">
         <v>21</v>
       </c>
@@ -5705,7 +6075,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="68" spans="4:8" x14ac:dyDescent="0.15">
+    <row r="68" spans="4:8">
       <c r="D68" s="14">
         <v>21</v>
       </c>
@@ -5722,7 +6092,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="69" spans="4:8" x14ac:dyDescent="0.15">
+    <row r="69" spans="4:8">
       <c r="D69" s="14">
         <v>21</v>
       </c>
@@ -5739,7 +6109,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="70" spans="4:8" x14ac:dyDescent="0.15">
+    <row r="70" spans="4:8">
       <c r="D70" s="14">
         <v>21</v>
       </c>
@@ -5756,7 +6126,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="71" spans="4:8" x14ac:dyDescent="0.15">
+    <row r="71" spans="4:8">
       <c r="D71" s="14">
         <v>21</v>
       </c>
@@ -5773,7 +6143,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="72" spans="4:8" x14ac:dyDescent="0.15">
+    <row r="72" spans="4:8">
       <c r="D72" s="14">
         <v>21</v>
       </c>
@@ -5790,7 +6160,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="73" spans="4:8" x14ac:dyDescent="0.15">
+    <row r="73" spans="4:8">
       <c r="D73" s="14">
         <v>21</v>
       </c>
@@ -5807,7 +6177,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="74" spans="4:8" x14ac:dyDescent="0.15">
+    <row r="74" spans="4:8">
       <c r="D74" s="14">
         <v>21</v>
       </c>
@@ -5824,7 +6194,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="75" spans="4:8" x14ac:dyDescent="0.15">
+    <row r="75" spans="4:8">
       <c r="D75" s="14">
         <v>21</v>
       </c>
@@ -5841,7 +6211,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="76" spans="4:8" x14ac:dyDescent="0.15">
+    <row r="76" spans="4:8">
       <c r="D76" s="14">
         <v>21</v>
       </c>
@@ -5858,7 +6228,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="77" spans="4:8" x14ac:dyDescent="0.15">
+    <row r="77" spans="4:8">
       <c r="D77" s="14">
         <v>21</v>
       </c>
@@ -5875,7 +6245,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="78" spans="4:8" x14ac:dyDescent="0.15">
+    <row r="78" spans="4:8">
       <c r="D78" s="14">
         <v>22</v>
       </c>
@@ -5892,7 +6262,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="79" spans="4:8" x14ac:dyDescent="0.15">
+    <row r="79" spans="4:8">
       <c r="D79" s="14">
         <v>21</v>
       </c>
@@ -5909,7 +6279,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="80" spans="4:8" x14ac:dyDescent="0.15">
+    <row r="80" spans="4:8">
       <c r="D80" s="14">
         <v>21</v>
       </c>
@@ -5926,7 +6296,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="81" spans="4:8" x14ac:dyDescent="0.15">
+    <row r="81" spans="4:8">
       <c r="D81" s="14">
         <v>21</v>
       </c>
@@ -5943,7 +6313,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="82" spans="4:8" x14ac:dyDescent="0.15">
+    <row r="82" spans="4:8">
       <c r="D82" s="14">
         <v>21</v>
       </c>
@@ -5960,7 +6330,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="83" spans="4:8" x14ac:dyDescent="0.15">
+    <row r="83" spans="4:8">
       <c r="D83" s="14">
         <v>21</v>
       </c>
@@ -5977,7 +6347,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="84" spans="4:8" x14ac:dyDescent="0.15">
+    <row r="84" spans="4:8">
       <c r="D84" s="14">
         <v>21</v>
       </c>
@@ -5994,7 +6364,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="85" spans="4:8" x14ac:dyDescent="0.15">
+    <row r="85" spans="4:8">
       <c r="D85" s="14">
         <v>21</v>
       </c>
@@ -6011,7 +6381,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="86" spans="4:8" x14ac:dyDescent="0.15">
+    <row r="86" spans="4:8">
       <c r="D86" s="14">
         <v>21</v>
       </c>
@@ -6028,7 +6398,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="87" spans="4:8" x14ac:dyDescent="0.15">
+    <row r="87" spans="4:8">
       <c r="D87" s="14">
         <v>21</v>
       </c>
@@ -6045,7 +6415,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="88" spans="4:8" x14ac:dyDescent="0.15">
+    <row r="88" spans="4:8">
       <c r="D88" s="14">
         <v>21</v>
       </c>
@@ -6062,7 +6432,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="89" spans="4:8" x14ac:dyDescent="0.15">
+    <row r="89" spans="4:8">
       <c r="D89" s="14">
         <v>21</v>
       </c>
@@ -6079,7 +6449,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="90" spans="4:8" x14ac:dyDescent="0.15">
+    <row r="90" spans="4:8">
       <c r="D90" s="14">
         <v>24</v>
       </c>
@@ -6096,7 +6466,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="91" spans="4:8" x14ac:dyDescent="0.15">
+    <row r="91" spans="4:8">
       <c r="D91" s="14">
         <v>25</v>
       </c>
@@ -6113,7 +6483,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="92" spans="4:8" x14ac:dyDescent="0.15">
+    <row r="92" spans="4:8">
       <c r="D92" s="14">
         <v>26</v>
       </c>
@@ -6130,7 +6500,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="93" spans="4:8" x14ac:dyDescent="0.15">
+    <row r="93" spans="4:8">
       <c r="D93" s="14">
         <v>27</v>
       </c>
@@ -6160,11 +6530,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:F28"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="2.625" style="18" customWidth="1"/>
     <col min="2" max="2" width="3.625" style="18" customWidth="1"/>
@@ -6175,19 +6545,19 @@
     <col min="7" max="16384" width="9" style="18"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:6">
       <c r="B2" s="18" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:6">
       <c r="C3" s="18" t="s">
         <v>116</v>
       </c>
       <c r="D3" s="19"/>
       <c r="E3" s="20"/>
     </row>
-    <row r="5" spans="2:6" ht="27" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:6" ht="27">
       <c r="C5" s="21" t="s">
         <v>117</v>
       </c>
@@ -6201,21 +6571,21 @@
         <v>222</v>
       </c>
     </row>
-    <row r="6" spans="2:6" s="26" customFormat="1" ht="134.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:6" s="26" customFormat="1" ht="134.25" customHeight="1">
       <c r="C6" s="27" t="s">
+        <v>250</v>
+      </c>
+      <c r="D6" s="27" t="s">
+        <v>252</v>
+      </c>
+      <c r="E6" s="28" t="s">
+        <v>251</v>
+      </c>
+      <c r="F6" s="29" t="s">
         <v>253</v>
       </c>
-      <c r="D6" s="27" t="s">
-        <v>255</v>
-      </c>
-      <c r="E6" s="28" t="s">
-        <v>254</v>
-      </c>
-      <c r="F6" s="29" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="7" spans="2:6" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="7" spans="2:6" ht="41.25" customHeight="1">
       <c r="C7" s="15" t="s">
         <v>119</v>
       </c>
@@ -6226,10 +6596,10 @@
         <v>218</v>
       </c>
       <c r="F7" s="24" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="8" spans="2:6" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" ht="41.25" customHeight="1">
       <c r="C8" s="15" t="s">
         <v>120</v>
       </c>
@@ -6243,7 +6613,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="9" spans="2:6" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:6" ht="41.25" customHeight="1">
       <c r="C9" s="15" t="s">
         <v>121</v>
       </c>
@@ -6257,7 +6627,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="10" spans="2:6" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:6" ht="41.25" customHeight="1">
       <c r="C10" s="15" t="s">
         <v>122</v>
       </c>
@@ -6271,7 +6641,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="11" spans="2:6" ht="267.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:6" ht="267.75" customHeight="1">
       <c r="C11" s="15" t="s">
         <v>123</v>
       </c>
@@ -6279,13 +6649,13 @@
         <v>226</v>
       </c>
       <c r="E11" s="23" t="s">
-        <v>251</v>
+        <v>268</v>
       </c>
       <c r="F11" s="24" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="12" spans="2:6" ht="228.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" ht="228.75" customHeight="1">
       <c r="C12" s="15" t="s">
         <v>124</v>
       </c>
@@ -6299,7 +6669,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="13" spans="2:6" ht="60" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="2:6" ht="60" customHeight="1">
       <c r="C13" s="15" t="s">
         <v>125</v>
       </c>
@@ -6313,7 +6683,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="14" spans="2:6" ht="109.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="2:6" ht="109.5" customHeight="1">
       <c r="C14" s="15" t="s">
         <v>126</v>
       </c>
@@ -6327,9 +6697,9 @@
         <v>232</v>
       </c>
     </row>
-    <row r="15" spans="2:6" ht="60" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="2:6" ht="60" customHeight="1">
       <c r="C15" s="15" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D15" s="15" t="s">
         <v>135</v>
@@ -6341,7 +6711,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="16" spans="2:6" ht="60" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="2:6" ht="60" customHeight="1">
       <c r="C16" s="15" t="s">
         <v>127</v>
       </c>
@@ -6355,81 +6725,81 @@
         <v>236</v>
       </c>
     </row>
-    <row r="17" spans="3:6" ht="169.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="3:6" ht="169.5" customHeight="1">
       <c r="C17" s="15" t="s">
+        <v>245</v>
+      </c>
+      <c r="D17" s="15" t="s">
+        <v>246</v>
+      </c>
+      <c r="E17" s="23" t="s">
+        <v>248</v>
+      </c>
+      <c r="F17" s="24" t="s">
         <v>247</v>
       </c>
-      <c r="D17" s="15" t="s">
-        <v>248</v>
-      </c>
-      <c r="E17" s="23" t="s">
-        <v>250</v>
-      </c>
-      <c r="F17" s="24" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="18" spans="3:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="18" spans="3:6">
       <c r="C18" s="15"/>
       <c r="D18" s="15"/>
       <c r="E18" s="15"/>
       <c r="F18" s="15"/>
     </row>
-    <row r="19" spans="3:6" x14ac:dyDescent="0.15">
+    <row r="19" spans="3:6">
       <c r="C19" s="15"/>
       <c r="D19" s="15"/>
       <c r="E19" s="15"/>
       <c r="F19" s="15"/>
     </row>
-    <row r="20" spans="3:6" x14ac:dyDescent="0.15">
+    <row r="20" spans="3:6">
       <c r="C20" s="15"/>
       <c r="D20" s="15"/>
       <c r="E20" s="15"/>
       <c r="F20" s="15"/>
     </row>
-    <row r="21" spans="3:6" x14ac:dyDescent="0.15">
+    <row r="21" spans="3:6">
       <c r="C21" s="15"/>
       <c r="D21" s="15"/>
       <c r="E21" s="15"/>
       <c r="F21" s="15"/>
     </row>
-    <row r="22" spans="3:6" x14ac:dyDescent="0.15">
+    <row r="22" spans="3:6">
       <c r="C22" s="15"/>
       <c r="D22" s="15"/>
       <c r="E22" s="15"/>
       <c r="F22" s="15"/>
     </row>
-    <row r="23" spans="3:6" x14ac:dyDescent="0.15">
+    <row r="23" spans="3:6">
       <c r="C23" s="15"/>
       <c r="D23" s="15"/>
       <c r="E23" s="15"/>
       <c r="F23" s="15"/>
     </row>
-    <row r="24" spans="3:6" x14ac:dyDescent="0.15">
+    <row r="24" spans="3:6">
       <c r="C24" s="15"/>
       <c r="D24" s="15"/>
       <c r="E24" s="15"/>
       <c r="F24" s="15"/>
     </row>
-    <row r="25" spans="3:6" x14ac:dyDescent="0.15">
+    <row r="25" spans="3:6">
       <c r="C25" s="15"/>
       <c r="D25" s="15"/>
       <c r="E25" s="15"/>
       <c r="F25" s="15"/>
     </row>
-    <row r="26" spans="3:6" x14ac:dyDescent="0.15">
+    <row r="26" spans="3:6">
       <c r="C26" s="15"/>
       <c r="D26" s="15"/>
       <c r="E26" s="15"/>
       <c r="F26" s="15"/>
     </row>
-    <row r="27" spans="3:6" x14ac:dyDescent="0.15">
+    <row r="27" spans="3:6">
       <c r="C27" s="15"/>
       <c r="D27" s="15"/>
       <c r="E27" s="15"/>
       <c r="F27" s="15"/>
     </row>
-    <row r="28" spans="3:6" x14ac:dyDescent="0.15">
+    <row r="28" spans="3:6">
       <c r="C28" s="15"/>
       <c r="D28" s="15"/>
       <c r="E28" s="15"/>
@@ -6444,13 +6814,13 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:D11"/>
+  <dimension ref="B2:H35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="3.375" style="1" customWidth="1"/>
     <col min="2" max="2" width="4.5" style="1" customWidth="1"/>
@@ -6458,47 +6828,164 @@
     <col min="4" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:8">
       <c r="B2" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:8">
       <c r="C3" s="18" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:8">
       <c r="C5" s="1" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8">
+      <c r="D6" s="1" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8">
+      <c r="D7" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8">
+      <c r="D8" s="1" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8">
+      <c r="C10" s="1" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8">
+      <c r="D11" s="1" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" ht="14.25" thickBot="1">
+      <c r="D13" s="1" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" ht="14.25" thickBot="1">
+      <c r="D14" s="35" t="s">
+        <v>275</v>
+      </c>
+      <c r="E14" s="36"/>
+      <c r="F14" s="36"/>
+      <c r="G14" s="36"/>
+      <c r="H14" s="37"/>
+    </row>
+    <row r="16" spans="2:8" ht="14.25" thickBot="1">
+      <c r="D16" s="1" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="17" spans="3:8" ht="14.25" thickBot="1">
+      <c r="D17" s="35" t="s">
+        <v>280</v>
+      </c>
+      <c r="E17" s="36"/>
+      <c r="F17" s="36"/>
+      <c r="G17" s="36"/>
+      <c r="H17" s="37"/>
+    </row>
+    <row r="18" spans="3:8">
+      <c r="D18" s="1" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="19" spans="3:8">
+      <c r="D19" s="1" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="20" spans="3:8">
+      <c r="D20" s="1" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="22" spans="3:8">
+      <c r="D22" s="1" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="23" spans="3:8">
+      <c r="D23" s="1" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="24" spans="3:8">
+      <c r="D24" s="1" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="25" spans="3:8">
+      <c r="D25" s="1" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="27" spans="3:8">
+      <c r="D27" s="1" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="29" spans="3:8" ht="14.25" thickBot="1">
+      <c r="C29" s="1" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="30" spans="3:8" ht="14.25" thickBot="1">
+      <c r="D30" s="35" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="D6" s="1" t="s">
+      <c r="E30" s="36"/>
+      <c r="F30" s="36"/>
+      <c r="G30" s="36"/>
+      <c r="H30" s="37"/>
+    </row>
+    <row r="32" spans="3:8">
+      <c r="D32" s="1" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="33" spans="3:8" ht="14.25" thickBot="1">
+      <c r="C33" s="1" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="34" spans="3:8">
+      <c r="D34" s="38" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="D8" s="1" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="C9" s="1" t="s">
+      <c r="E34" s="39"/>
+      <c r="F34" s="39"/>
+      <c r="G34" s="39"/>
+      <c r="H34" s="40"/>
+    </row>
+    <row r="35" spans="3:8" ht="14.25" thickBot="1">
+      <c r="D35" s="41" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="D10" s="1" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="D11" s="1" t="s">
-        <v>242</v>
-      </c>
+      <c r="E35" s="42"/>
+      <c r="F35" s="42"/>
+      <c r="G35" s="42"/>
+      <c r="H35" s="43"/>
     </row>
   </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="D30:H30"/>
+    <mergeCell ref="D34:H34"/>
+    <mergeCell ref="D35:H35"/>
+    <mergeCell ref="D14:H14"/>
+    <mergeCell ref="D17:H17"/>
+  </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6506,121 +6993,178 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:I30"/>
+  <dimension ref="B2:I33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:XFD7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I36" sqref="I36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="3.5" style="1" customWidth="1"/>
     <col min="2" max="4" width="3.75" style="1" customWidth="1"/>
     <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:9">
       <c r="B2" s="1" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9">
+      <c r="C3" s="1" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9">
+      <c r="C4" s="1" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9">
+      <c r="C5" s="1" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9">
+      <c r="C7" s="1" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9">
+      <c r="D8" s="1" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9">
+      <c r="C10" s="1" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9">
+      <c r="D11" s="18" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" ht="14.25" thickBot="1"/>
+    <row r="13" spans="2:9" ht="14.25" thickBot="1">
+      <c r="D13" s="35" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="C3" s="1" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="C4" s="1" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="C5" s="1" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="C7" s="1" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="D8" s="18"/>
-    </row>
-    <row r="9" spans="2:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="10" spans="2:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="D10" s="35"/>
-      <c r="E10" s="36"/>
-      <c r="F10" s="36"/>
-      <c r="G10" s="36"/>
-      <c r="H10" s="36"/>
-      <c r="I10" s="37"/>
-    </row>
-    <row r="14" spans="2:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="15" spans="2:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="D15" s="35"/>
-      <c r="E15" s="36"/>
-      <c r="F15" s="36"/>
-      <c r="G15" s="36"/>
-      <c r="H15" s="36"/>
-      <c r="I15" s="37"/>
-    </row>
-    <row r="20" spans="3:9" x14ac:dyDescent="0.15">
-      <c r="C20" s="1" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="21" spans="3:9" x14ac:dyDescent="0.15">
-      <c r="D21" s="18" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="22" spans="3:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="23" spans="3:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="D23" s="35" t="s">
-        <v>245</v>
-      </c>
-      <c r="E23" s="36"/>
-      <c r="F23" s="36"/>
-      <c r="G23" s="36"/>
-      <c r="H23" s="36"/>
-      <c r="I23" s="37"/>
-    </row>
-    <row r="25" spans="3:9" x14ac:dyDescent="0.15">
-      <c r="D25" s="1" t="s">
+      <c r="E13" s="36"/>
+      <c r="F13" s="36"/>
+      <c r="G13" s="36"/>
+      <c r="H13" s="36"/>
+      <c r="I13" s="37"/>
+    </row>
+    <row r="15" spans="2:9">
+      <c r="D15" s="1" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9">
+      <c r="D16" s="1" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="17" spans="3:9" ht="14.25" thickBot="1"/>
+    <row r="18" spans="3:9" ht="14.25" thickBot="1">
+      <c r="D18" s="35" t="s">
+        <v>260</v>
+      </c>
+      <c r="E18" s="36"/>
+      <c r="F18" s="36"/>
+      <c r="G18" s="36"/>
+      <c r="H18" s="36"/>
+      <c r="I18" s="37"/>
+    </row>
+    <row r="20" spans="3:9">
+      <c r="D20" s="1" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="26" spans="3:9" x14ac:dyDescent="0.15">
-      <c r="D26" s="1" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="27" spans="3:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="28" spans="3:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="D28" s="35" t="s">
-        <v>263</v>
-      </c>
-      <c r="E28" s="36"/>
-      <c r="F28" s="36"/>
-      <c r="G28" s="36"/>
-      <c r="H28" s="36"/>
-      <c r="I28" s="37"/>
-    </row>
-    <row r="30" spans="3:9" x14ac:dyDescent="0.15">
-      <c r="D30" s="1" t="s">
-        <v>264</v>
-      </c>
+    <row r="22" spans="3:9">
+      <c r="C22" s="1" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="23" spans="3:9">
+      <c r="D23" s="18" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="24" spans="3:9" ht="14.25" thickBot="1"/>
+    <row r="25" spans="3:9">
+      <c r="D25" s="38" t="s">
+        <v>293</v>
+      </c>
+      <c r="E25" s="39"/>
+      <c r="F25" s="39"/>
+      <c r="G25" s="39"/>
+      <c r="H25" s="39"/>
+      <c r="I25" s="40"/>
+    </row>
+    <row r="26" spans="3:9" ht="14.25" thickBot="1">
+      <c r="D26" s="41" t="s">
+        <v>292</v>
+      </c>
+      <c r="E26" s="42"/>
+      <c r="F26" s="42"/>
+      <c r="G26" s="42"/>
+      <c r="H26" s="42"/>
+      <c r="I26" s="43"/>
+    </row>
+    <row r="27" spans="3:9">
+      <c r="D27" s="44"/>
+      <c r="E27" s="44"/>
+      <c r="F27" s="44"/>
+      <c r="G27" s="44"/>
+      <c r="H27" s="44"/>
+      <c r="I27" s="44"/>
+    </row>
+    <row r="28" spans="3:9">
+      <c r="D28" s="1" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="30" spans="3:9">
+      <c r="D30" s="18" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="31" spans="3:9" ht="14.25" thickBot="1"/>
+    <row r="32" spans="3:9">
+      <c r="D32" s="38" t="s">
+        <v>293</v>
+      </c>
+      <c r="E32" s="39"/>
+      <c r="F32" s="39"/>
+      <c r="G32" s="39"/>
+      <c r="H32" s="39"/>
+      <c r="I32" s="40"/>
+    </row>
+    <row r="33" spans="4:9" ht="14.25" thickBot="1">
+      <c r="D33" s="41" t="s">
+        <v>296</v>
+      </c>
+      <c r="E33" s="42"/>
+      <c r="F33" s="42"/>
+      <c r="G33" s="42"/>
+      <c r="H33" s="42"/>
+      <c r="I33" s="43"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="D15:I15"/>
-    <mergeCell ref="D10:I10"/>
-    <mergeCell ref="D23:I23"/>
-    <mergeCell ref="D28:I28"/>
+  <mergeCells count="6">
+    <mergeCell ref="D25:I25"/>
+    <mergeCell ref="D32:I32"/>
+    <mergeCell ref="D33:I33"/>
+    <mergeCell ref="D13:I13"/>
+    <mergeCell ref="D18:I18"/>
+    <mergeCell ref="D26:I26"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -6632,7 +7176,7 @@
       <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="4.375" style="1" customWidth="1"/>
     <col min="2" max="2" width="3.5" style="1" customWidth="1"/>
@@ -6640,14 +7184,14 @@
     <col min="4" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:3">
       <c r="B2" s="1" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.15">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3">
       <c r="C3" s="1" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
   </sheetData>

--- a/マニュアル.xlsx
+++ b/マニュアル.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="105" windowWidth="28035" windowHeight="12540" activeTab="7"/>
+    <workbookView xWindow="360" yWindow="105" windowWidth="28035" windowHeight="12540" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="タイトル" sheetId="3" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="640" uniqueCount="297">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="648" uniqueCount="305">
   <si>
     <t>１．はじめに</t>
     <phoneticPr fontId="2"/>
@@ -2334,12 +2334,306 @@
     <t>$ stop_gui.sh</t>
     <phoneticPr fontId="2"/>
   </si>
+  <si>
+    <t>デバッグモード時に以下のファイルが自動出力される．
+prof.csv
+本ファイルのフォーマットは以下の通り．
+①１列目：関数名
+②２列目：関数コール回数
+③３列目：C関数内の命令コード実行クロック数(当該関数からの関数コール分は含まない)
+④４列目：C関数内の命令コード実行クロック数(当該関数から呼び出す関数コール分を含む)</t>
+    <rPh sb="7" eb="8">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ジドウ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>シュツリョク</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>ホン</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="51" eb="52">
+      <t>トオ</t>
+    </rPh>
+    <rPh sb="57" eb="58">
+      <t>レツ</t>
+    </rPh>
+    <rPh sb="58" eb="59">
+      <t>メ</t>
+    </rPh>
+    <rPh sb="60" eb="63">
+      <t>カンスウメイ</t>
+    </rPh>
+    <rPh sb="66" eb="67">
+      <t>レツ</t>
+    </rPh>
+    <rPh sb="67" eb="68">
+      <t>メ</t>
+    </rPh>
+    <rPh sb="69" eb="71">
+      <t>カンスウ</t>
+    </rPh>
+    <rPh sb="74" eb="76">
+      <t>カイスウ</t>
+    </rPh>
+    <rPh sb="79" eb="80">
+      <t>レツ</t>
+    </rPh>
+    <rPh sb="80" eb="81">
+      <t>メ</t>
+    </rPh>
+    <rPh sb="122" eb="123">
+      <t>レツ</t>
+    </rPh>
+    <rPh sb="123" eb="124">
+      <t>メ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>CPU命令実行中に，実行した全命令アドレスを出力する機能</t>
+    <rPh sb="3" eb="5">
+      <t>メイレイ</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>ジッコウチュウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ゼン</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>メイレイ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>シュツリョク</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>デバッグモード時に以下のファイルが自動出力される．
+cov.csv</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>命令カバレッジ情報出力機能</t>
+    <rPh sb="0" eb="2">
+      <t>メイレイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>シュツリョク</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>プロファイル情報出力機能</t>
+    <rPh sb="6" eb="8">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>シュツリョク</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>CPU命令実行中に，以下のプロファイル情報を出力する機能
+①C関数呼び出し回数
+②C関数内の命令コード実行クロック数(当該関数からの関数コール分は含まない)
+③C関数内の命令コード実行クロック数(当該関数から呼び出す関数コール分を含む)
+※アセンブラ関数はプロファイル対象外</t>
+    <rPh sb="3" eb="5">
+      <t>メイレイ</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>ジッコウチュウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>シュツリョク</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>カンスウ</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>ダ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>カイスウ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>カンスウ</t>
+    </rPh>
+    <rPh sb="44" eb="45">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>メイレイ</t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="57" eb="58">
+      <t>スウ</t>
+    </rPh>
+    <rPh sb="59" eb="61">
+      <t>トウガイ</t>
+    </rPh>
+    <rPh sb="61" eb="63">
+      <t>カンスウ</t>
+    </rPh>
+    <rPh sb="66" eb="68">
+      <t>カンスウ</t>
+    </rPh>
+    <rPh sb="71" eb="72">
+      <t>ブン</t>
+    </rPh>
+    <rPh sb="73" eb="74">
+      <t>フク</t>
+    </rPh>
+    <rPh sb="81" eb="83">
+      <t>カンスウ</t>
+    </rPh>
+    <rPh sb="83" eb="84">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="85" eb="87">
+      <t>メイレイ</t>
+    </rPh>
+    <rPh sb="90" eb="92">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="96" eb="97">
+      <t>スウ</t>
+    </rPh>
+    <rPh sb="98" eb="100">
+      <t>トウガイ</t>
+    </rPh>
+    <rPh sb="100" eb="102">
+      <t>カンスウ</t>
+    </rPh>
+    <rPh sb="104" eb="105">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="106" eb="107">
+      <t>ダ</t>
+    </rPh>
+    <rPh sb="108" eb="110">
+      <t>カンスウ</t>
+    </rPh>
+    <rPh sb="113" eb="114">
+      <t>ブン</t>
+    </rPh>
+    <rPh sb="115" eb="116">
+      <t>フク</t>
+    </rPh>
+    <rPh sb="125" eb="127">
+      <t>カンスウ</t>
+    </rPh>
+    <rPh sb="134" eb="137">
+      <t>タイショウガイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>カバレッジ状況を行単位で威嚇化するツールとして，以下がある．
+tools/get_coverage.sh
+本ツールを使用する場合は，gui_debugger/asm.csvをエクセルファイルとして
+tools配下に保存後，
+sh get_coverage.sh 
+を実行することで，CPUが実行したルートが緑色で塗りつぶされて視覚化される．</t>
+    <rPh sb="5" eb="7">
+      <t>ジョウキョウ</t>
+    </rPh>
+    <rPh sb="8" eb="11">
+      <t>ギョウタンイ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>イカク</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="54" eb="55">
+      <t>ホン</t>
+    </rPh>
+    <rPh sb="59" eb="61">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="63" eb="65">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="105" eb="107">
+      <t>ハイカ</t>
+    </rPh>
+    <rPh sb="108" eb="110">
+      <t>ホゾン</t>
+    </rPh>
+    <rPh sb="110" eb="111">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="134" eb="136">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="146" eb="148">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="154" eb="156">
+      <t>ミドリイロ</t>
+    </rPh>
+    <rPh sb="157" eb="158">
+      <t>ヌ</t>
+    </rPh>
+    <rPh sb="164" eb="167">
+      <t>シカクカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2664,6 +2958,9 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2704,9 +3001,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -4143,7 +4437,7 @@
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" zoomScaleSheetLayoutView="130" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="6" style="1" customWidth="1"/>
     <col min="2" max="2" width="15.75" style="1" customWidth="1"/>
@@ -4152,38 +4446,38 @@
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="2:9" ht="42">
+    <row r="6" spans="2:9" ht="42" x14ac:dyDescent="0.15">
       <c r="B6" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="2:9">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B11" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C11" s="30" t="s">
+      <c r="C11" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="D11" s="30"/>
-      <c r="E11" s="30"/>
-      <c r="F11" s="30"/>
-      <c r="G11" s="30"/>
-      <c r="H11" s="30"/>
-      <c r="I11" s="30"/>
-    </row>
-    <row r="12" spans="2:9">
+      <c r="D11" s="31"/>
+      <c r="E11" s="31"/>
+      <c r="F11" s="31"/>
+      <c r="G11" s="31"/>
+      <c r="H11" s="31"/>
+      <c r="I11" s="31"/>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B12" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C12" s="31" t="s">
+      <c r="C12" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="D12" s="31"/>
-      <c r="E12" s="31"/>
-      <c r="F12" s="31"/>
-      <c r="G12" s="31"/>
-      <c r="H12" s="31"/>
-      <c r="I12" s="31"/>
+      <c r="D12" s="32"/>
+      <c r="E12" s="32"/>
+      <c r="F12" s="32"/>
+      <c r="G12" s="32"/>
+      <c r="H12" s="32"/>
+      <c r="I12" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -4204,54 +4498,54 @@
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="4.125" style="1" customWidth="1"/>
     <col min="2" max="2" width="18.75" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:2">
+    <row r="2" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B2" s="6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="2:2">
+    <row r="3" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="2:2">
+    <row r="4" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="2:2">
+    <row r="5" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B5" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="2:2">
+    <row r="6" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B6" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="2:2">
+    <row r="7" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B7" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="2:2">
+    <row r="8" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B8" s="1" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="9" spans="2:2">
+    <row r="9" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B9" s="1" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="10" spans="2:2">
+    <row r="10" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B10" s="1" t="s">
         <v>255</v>
       </c>
@@ -4268,19 +4562,19 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="4.625" style="1" customWidth="1"/>
     <col min="2" max="2" width="3.375" style="1" customWidth="1"/>
     <col min="3" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3">
+    <row r="2" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:3">
+    <row r="3" spans="2:3" x14ac:dyDescent="0.15">
       <c r="C3" s="1" t="s">
         <v>7</v>
       </c>
@@ -4297,7 +4591,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="4.5" style="1" customWidth="1"/>
     <col min="2" max="2" width="3.125" style="1" customWidth="1"/>
@@ -4307,17 +4601,17 @@
     <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5">
+    <row r="2" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B2" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="2:5">
+    <row r="3" spans="2:5" x14ac:dyDescent="0.15">
       <c r="C3" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="2:5" ht="27">
+    <row r="5" spans="2:5" ht="27" x14ac:dyDescent="0.15">
       <c r="D5" s="8" t="s">
         <v>13</v>
       </c>
@@ -4325,7 +4619,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="2:5">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.15">
       <c r="D6" s="9" t="s">
         <v>137</v>
       </c>
@@ -4333,7 +4627,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="2:5">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.15">
       <c r="D7" s="9" t="s">
         <v>138</v>
       </c>
@@ -4341,7 +4635,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="2:5">
+    <row r="8" spans="2:5" x14ac:dyDescent="0.15">
       <c r="D8" s="9" t="s">
         <v>139</v>
       </c>
@@ -4349,7 +4643,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="2:5">
+    <row r="9" spans="2:5" x14ac:dyDescent="0.15">
       <c r="D9" s="9" t="s">
         <v>140</v>
       </c>
@@ -4357,7 +4651,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="2:5">
+    <row r="10" spans="2:5" x14ac:dyDescent="0.15">
       <c r="D10" s="9" t="s">
         <v>141</v>
       </c>
@@ -4365,7 +4659,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="2:5">
+    <row r="11" spans="2:5" x14ac:dyDescent="0.15">
       <c r="D11" s="9" t="s">
         <v>142</v>
       </c>
@@ -4373,7 +4667,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="2:5">
+    <row r="12" spans="2:5" x14ac:dyDescent="0.15">
       <c r="D12" s="9" t="s">
         <v>143</v>
       </c>
@@ -4381,7 +4675,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="2:5">
+    <row r="13" spans="2:5" x14ac:dyDescent="0.15">
       <c r="D13" s="9" t="s">
         <v>144</v>
       </c>
@@ -4389,7 +4683,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="2:5">
+    <row r="14" spans="2:5" x14ac:dyDescent="0.15">
       <c r="D14" s="9" t="s">
         <v>145</v>
       </c>
@@ -4397,7 +4691,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="2:5">
+    <row r="15" spans="2:5" x14ac:dyDescent="0.15">
       <c r="D15" s="9" t="s">
         <v>146</v>
       </c>
@@ -4405,7 +4699,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="2:5">
+    <row r="16" spans="2:5" x14ac:dyDescent="0.15">
       <c r="D16" s="9" t="s">
         <v>147</v>
       </c>
@@ -4413,7 +4707,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="4:5">
+    <row r="17" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D17" s="9" t="s">
         <v>148</v>
       </c>
@@ -4421,7 +4715,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="4:5">
+    <row r="18" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D18" s="9" t="s">
         <v>149</v>
       </c>
@@ -4429,7 +4723,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="4:5">
+    <row r="19" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D19" s="9" t="s">
         <v>150</v>
       </c>
@@ -4437,7 +4731,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="4:5">
+    <row r="20" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D20" s="9" t="s">
         <v>151</v>
       </c>
@@ -4445,7 +4739,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="4:5">
+    <row r="21" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D21" s="9" t="s">
         <v>152</v>
       </c>
@@ -4453,7 +4747,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="4:5">
+    <row r="22" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D22" s="9" t="s">
         <v>153</v>
       </c>
@@ -4461,7 +4755,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="23" spans="4:5">
+    <row r="23" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D23" s="9" t="s">
         <v>154</v>
       </c>
@@ -4469,7 +4763,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="24" spans="4:5">
+    <row r="24" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D24" s="9" t="s">
         <v>155</v>
       </c>
@@ -4477,7 +4771,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="25" spans="4:5">
+    <row r="25" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D25" s="9" t="s">
         <v>156</v>
       </c>
@@ -4485,7 +4779,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="26" spans="4:5">
+    <row r="26" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D26" s="9" t="s">
         <v>157</v>
       </c>
@@ -4493,7 +4787,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="27" spans="4:5">
+    <row r="27" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D27" s="9" t="s">
         <v>158</v>
       </c>
@@ -4501,7 +4795,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="28" spans="4:5">
+    <row r="28" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D28" s="9" t="s">
         <v>159</v>
       </c>
@@ -4509,7 +4803,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="29" spans="4:5">
+    <row r="29" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D29" s="9" t="s">
         <v>160</v>
       </c>
@@ -4517,7 +4811,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="30" spans="4:5">
+    <row r="30" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D30" s="9" t="s">
         <v>161</v>
       </c>
@@ -4525,7 +4819,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="31" spans="4:5">
+    <row r="31" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D31" s="9" t="s">
         <v>162</v>
       </c>
@@ -4533,7 +4827,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="32" spans="4:5">
+    <row r="32" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D32" s="9" t="s">
         <v>163</v>
       </c>
@@ -4541,7 +4835,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="33" spans="4:5">
+    <row r="33" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D33" s="9" t="s">
         <v>164</v>
       </c>
@@ -4549,7 +4843,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="34" spans="4:5">
+    <row r="34" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D34" s="9" t="s">
         <v>165</v>
       </c>
@@ -4557,7 +4851,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="35" spans="4:5">
+    <row r="35" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D35" s="9" t="s">
         <v>166</v>
       </c>
@@ -4565,7 +4859,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="36" spans="4:5">
+    <row r="36" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D36" s="9" t="s">
         <v>167</v>
       </c>
@@ -4573,7 +4867,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="37" spans="4:5">
+    <row r="37" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D37" s="9" t="s">
         <v>168</v>
       </c>
@@ -4581,7 +4875,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="38" spans="4:5">
+    <row r="38" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D38" s="9" t="s">
         <v>169</v>
       </c>
@@ -4589,7 +4883,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="39" spans="4:5">
+    <row r="39" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D39" s="9" t="s">
         <v>170</v>
       </c>
@@ -4597,7 +4891,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="40" spans="4:5">
+    <row r="40" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D40" s="9" t="s">
         <v>171</v>
       </c>
@@ -4605,7 +4899,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="41" spans="4:5">
+    <row r="41" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D41" s="9" t="s">
         <v>172</v>
       </c>
@@ -4613,7 +4907,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="42" spans="4:5">
+    <row r="42" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D42" s="9" t="s">
         <v>173</v>
       </c>
@@ -4621,7 +4915,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="43" spans="4:5">
+    <row r="43" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D43" s="9" t="s">
         <v>174</v>
       </c>
@@ -4629,7 +4923,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="44" spans="4:5">
+    <row r="44" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D44" s="9" t="s">
         <v>175</v>
       </c>
@@ -4637,7 +4931,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="45" spans="4:5">
+    <row r="45" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D45" s="9" t="s">
         <v>176</v>
       </c>
@@ -4645,7 +4939,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="46" spans="4:5">
+    <row r="46" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D46" s="9" t="s">
         <v>177</v>
       </c>
@@ -4653,7 +4947,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="47" spans="4:5">
+    <row r="47" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D47" s="9" t="s">
         <v>178</v>
       </c>
@@ -4661,7 +4955,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="48" spans="4:5">
+    <row r="48" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D48" s="9" t="s">
         <v>179</v>
       </c>
@@ -4669,7 +4963,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="49" spans="4:5">
+    <row r="49" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D49" s="9" t="s">
         <v>180</v>
       </c>
@@ -4677,7 +4971,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="50" spans="4:5">
+    <row r="50" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D50" s="9" t="s">
         <v>181</v>
       </c>
@@ -4685,7 +4979,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="51" spans="4:5">
+    <row r="51" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D51" s="9" t="s">
         <v>182</v>
       </c>
@@ -4693,7 +4987,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="52" spans="4:5">
+    <row r="52" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D52" s="9" t="s">
         <v>183</v>
       </c>
@@ -4701,7 +4995,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="53" spans="4:5">
+    <row r="53" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D53" s="9" t="s">
         <v>184</v>
       </c>
@@ -4709,7 +5003,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="54" spans="4:5">
+    <row r="54" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D54" s="9" t="s">
         <v>185</v>
       </c>
@@ -4717,7 +5011,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="55" spans="4:5">
+    <row r="55" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D55" s="9" t="s">
         <v>186</v>
       </c>
@@ -4725,7 +5019,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="56" spans="4:5">
+    <row r="56" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D56" s="9" t="s">
         <v>187</v>
       </c>
@@ -4733,7 +5027,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="57" spans="4:5">
+    <row r="57" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D57" s="9" t="s">
         <v>188</v>
       </c>
@@ -4741,7 +5035,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="58" spans="4:5">
+    <row r="58" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D58" s="9" t="s">
         <v>189</v>
       </c>
@@ -4749,7 +5043,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="59" spans="4:5">
+    <row r="59" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D59" s="9" t="s">
         <v>190</v>
       </c>
@@ -4757,7 +5051,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="60" spans="4:5">
+    <row r="60" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D60" s="9" t="s">
         <v>191</v>
       </c>
@@ -4765,7 +5059,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="61" spans="4:5">
+    <row r="61" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D61" s="9" t="s">
         <v>192</v>
       </c>
@@ -4773,7 +5067,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="62" spans="4:5">
+    <row r="62" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D62" s="9" t="s">
         <v>193</v>
       </c>
@@ -4781,7 +5075,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="63" spans="4:5" ht="40.5">
+    <row r="63" spans="4:5" ht="40.5" x14ac:dyDescent="0.15">
       <c r="D63" s="9" t="s">
         <v>194</v>
       </c>
@@ -4789,7 +5083,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="64" spans="4:5">
+    <row r="64" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D64" s="9" t="s">
         <v>195</v>
       </c>
@@ -4797,7 +5091,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="65" spans="4:5">
+    <row r="65" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D65" s="9" t="s">
         <v>196</v>
       </c>
@@ -4805,7 +5099,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="66" spans="4:5">
+    <row r="66" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D66" s="9" t="s">
         <v>197</v>
       </c>
@@ -4813,7 +5107,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="67" spans="4:5">
+    <row r="67" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D67" s="9" t="s">
         <v>198</v>
       </c>
@@ -4821,7 +5115,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="68" spans="4:5">
+    <row r="68" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D68" s="9" t="s">
         <v>199</v>
       </c>
@@ -4829,7 +5123,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="69" spans="4:5">
+    <row r="69" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D69" s="9" t="s">
         <v>200</v>
       </c>
@@ -4837,7 +5131,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="70" spans="4:5">
+    <row r="70" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D70" s="9" t="s">
         <v>201</v>
       </c>
@@ -4845,7 +5139,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="71" spans="4:5">
+    <row r="71" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D71" s="9" t="s">
         <v>202</v>
       </c>
@@ -4853,7 +5147,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="72" spans="4:5">
+    <row r="72" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D72" s="9" t="s">
         <v>203</v>
       </c>
@@ -4861,7 +5155,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="73" spans="4:5">
+    <row r="73" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D73" s="9" t="s">
         <v>204</v>
       </c>
@@ -4869,7 +5163,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="74" spans="4:5">
+    <row r="74" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D74" s="9" t="s">
         <v>205</v>
       </c>
@@ -4877,7 +5171,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="75" spans="4:5">
+    <row r="75" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D75" s="9" t="s">
         <v>206</v>
       </c>
@@ -4885,7 +5179,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="76" spans="4:5">
+    <row r="76" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D76" s="9" t="s">
         <v>207</v>
       </c>
@@ -4893,7 +5187,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="77" spans="4:5">
+    <row r="77" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D77" s="9" t="s">
         <v>208</v>
       </c>
@@ -4901,7 +5195,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="78" spans="4:5">
+    <row r="78" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D78" s="9" t="s">
         <v>209</v>
       </c>
@@ -4909,7 +5203,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="79" spans="4:5">
+    <row r="79" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D79" s="9" t="s">
         <v>210</v>
       </c>
@@ -4917,7 +5211,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="80" spans="4:5">
+    <row r="80" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D80" s="9" t="s">
         <v>211</v>
       </c>
@@ -4925,7 +5219,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="81" spans="4:5">
+    <row r="81" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D81" s="9" t="s">
         <v>212</v>
       </c>
@@ -4933,7 +5227,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="82" spans="4:5">
+    <row r="82" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D82" s="9" t="s">
         <v>213</v>
       </c>
@@ -4941,7 +5235,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="83" spans="4:5">
+    <row r="83" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D83" s="9" t="s">
         <v>214</v>
       </c>
@@ -4949,7 +5243,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="84" spans="4:5">
+    <row r="84" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D84" s="9" t="s">
         <v>215</v>
       </c>
@@ -4957,7 +5251,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="85" spans="4:5">
+    <row r="85" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D85" s="9" t="s">
         <v>216</v>
       </c>
@@ -4979,7 +5273,7 @@
       <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="3" width="3.375" style="1" customWidth="1"/>
     <col min="4" max="4" width="8" style="1" customWidth="1"/>
@@ -4990,30 +5284,30 @@
     <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8">
+    <row r="2" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B2" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D2" s="7"/>
       <c r="E2" s="2"/>
     </row>
-    <row r="3" spans="2:8">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.15">
       <c r="C3" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D3" s="7"/>
       <c r="E3" s="2"/>
     </row>
-    <row r="4" spans="2:8">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.15">
       <c r="D4" s="7"/>
       <c r="E4" s="2"/>
     </row>
-    <row r="5" spans="2:8" ht="27">
-      <c r="D5" s="32" t="s">
+    <row r="5" spans="2:8" ht="27" x14ac:dyDescent="0.15">
+      <c r="D5" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="33"/>
-      <c r="F5" s="34"/>
+      <c r="E5" s="34"/>
+      <c r="F5" s="35"/>
       <c r="G5" s="12" t="s">
         <v>14</v>
       </c>
@@ -5021,7 +5315,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="6" spans="2:8">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.15">
       <c r="D6" s="14">
         <v>1</v>
       </c>
@@ -5038,7 +5332,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="2:8">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.15">
       <c r="D7" s="14">
         <v>2</v>
       </c>
@@ -5055,7 +5349,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="2:8">
+    <row r="8" spans="2:8" x14ac:dyDescent="0.15">
       <c r="D8" s="14">
         <v>2</v>
       </c>
@@ -5072,7 +5366,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="2:8">
+    <row r="9" spans="2:8" x14ac:dyDescent="0.15">
       <c r="D9" s="14">
         <v>2</v>
       </c>
@@ -5089,7 +5383,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="2:8">
+    <row r="10" spans="2:8" x14ac:dyDescent="0.15">
       <c r="D10" s="14">
         <v>2</v>
       </c>
@@ -5106,7 +5400,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="2:8">
+    <row r="11" spans="2:8" x14ac:dyDescent="0.15">
       <c r="D11" s="14">
         <v>3</v>
       </c>
@@ -5123,7 +5417,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="2:8">
+    <row r="12" spans="2:8" x14ac:dyDescent="0.15">
       <c r="D12" s="14">
         <v>3</v>
       </c>
@@ -5140,7 +5434,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="2:8">
+    <row r="13" spans="2:8" x14ac:dyDescent="0.15">
       <c r="D13" s="14">
         <v>3</v>
       </c>
@@ -5157,7 +5451,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="2:8">
+    <row r="14" spans="2:8" x14ac:dyDescent="0.15">
       <c r="D14" s="14">
         <v>3</v>
       </c>
@@ -5174,7 +5468,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="2:8">
+    <row r="15" spans="2:8" x14ac:dyDescent="0.15">
       <c r="D15" s="14">
         <v>4</v>
       </c>
@@ -5191,7 +5485,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="2:8">
+    <row r="16" spans="2:8" x14ac:dyDescent="0.15">
       <c r="D16" s="14">
         <v>4</v>
       </c>
@@ -5208,7 +5502,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="17" spans="4:8">
+    <row r="17" spans="4:8" x14ac:dyDescent="0.15">
       <c r="D17" s="14">
         <v>4</v>
       </c>
@@ -5225,7 +5519,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="4:8">
+    <row r="18" spans="4:8" x14ac:dyDescent="0.15">
       <c r="D18" s="14">
         <v>5</v>
       </c>
@@ -5242,7 +5536,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="4:8">
+    <row r="19" spans="4:8" x14ac:dyDescent="0.15">
       <c r="D19" s="14">
         <v>5</v>
       </c>
@@ -5259,7 +5553,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="4:8">
+    <row r="20" spans="4:8" x14ac:dyDescent="0.15">
       <c r="D20" s="14">
         <v>5</v>
       </c>
@@ -5276,7 +5570,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="4:8">
+    <row r="21" spans="4:8" x14ac:dyDescent="0.15">
       <c r="D21" s="14">
         <v>5</v>
       </c>
@@ -5293,7 +5587,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="4:8">
+    <row r="22" spans="4:8" x14ac:dyDescent="0.15">
       <c r="D22" s="14">
         <v>5</v>
       </c>
@@ -5310,7 +5604,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="4:8">
+    <row r="23" spans="4:8" x14ac:dyDescent="0.15">
       <c r="D23" s="14">
         <v>5</v>
       </c>
@@ -5327,7 +5621,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="4:8">
+    <row r="24" spans="4:8" x14ac:dyDescent="0.15">
       <c r="D24" s="14">
         <v>5</v>
       </c>
@@ -5344,7 +5638,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="25" spans="4:8">
+    <row r="25" spans="4:8" x14ac:dyDescent="0.15">
       <c r="D25" s="14">
         <v>6</v>
       </c>
@@ -5361,7 +5655,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="26" spans="4:8">
+    <row r="26" spans="4:8" x14ac:dyDescent="0.15">
       <c r="D26" s="14">
         <v>7</v>
       </c>
@@ -5378,7 +5672,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="27" spans="4:8">
+    <row r="27" spans="4:8" x14ac:dyDescent="0.15">
       <c r="D27" s="14">
         <v>8</v>
       </c>
@@ -5395,7 +5689,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="28" spans="4:8">
+    <row r="28" spans="4:8" x14ac:dyDescent="0.15">
       <c r="D28" s="14">
         <v>9</v>
       </c>
@@ -5412,7 +5706,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="29" spans="4:8">
+    <row r="29" spans="4:8" x14ac:dyDescent="0.15">
       <c r="D29" s="14">
         <v>10</v>
       </c>
@@ -5429,7 +5723,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="30" spans="4:8">
+    <row r="30" spans="4:8" x14ac:dyDescent="0.15">
       <c r="D30" s="14">
         <v>11</v>
       </c>
@@ -5446,7 +5740,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="31" spans="4:8">
+    <row r="31" spans="4:8" x14ac:dyDescent="0.15">
       <c r="D31" s="14">
         <v>12</v>
       </c>
@@ -5463,7 +5757,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="32" spans="4:8">
+    <row r="32" spans="4:8" x14ac:dyDescent="0.15">
       <c r="D32" s="14">
         <v>12</v>
       </c>
@@ -5480,7 +5774,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="33" spans="4:8">
+    <row r="33" spans="4:8" x14ac:dyDescent="0.15">
       <c r="D33" s="14">
         <v>12</v>
       </c>
@@ -5497,7 +5791,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="34" spans="4:8">
+    <row r="34" spans="4:8" x14ac:dyDescent="0.15">
       <c r="D34" s="14">
         <v>12</v>
       </c>
@@ -5514,7 +5808,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="35" spans="4:8">
+    <row r="35" spans="4:8" x14ac:dyDescent="0.15">
       <c r="D35" s="14">
         <v>12</v>
       </c>
@@ -5531,7 +5825,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="36" spans="4:8">
+    <row r="36" spans="4:8" x14ac:dyDescent="0.15">
       <c r="D36" s="14">
         <v>12</v>
       </c>
@@ -5548,7 +5842,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="37" spans="4:8">
+    <row r="37" spans="4:8" x14ac:dyDescent="0.15">
       <c r="D37" s="14">
         <v>12</v>
       </c>
@@ -5565,7 +5859,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="38" spans="4:8">
+    <row r="38" spans="4:8" x14ac:dyDescent="0.15">
       <c r="D38" s="14">
         <v>12</v>
       </c>
@@ -5582,7 +5876,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="39" spans="4:8">
+    <row r="39" spans="4:8" x14ac:dyDescent="0.15">
       <c r="D39" s="14">
         <v>12</v>
       </c>
@@ -5599,7 +5893,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="40" spans="4:8">
+    <row r="40" spans="4:8" x14ac:dyDescent="0.15">
       <c r="D40" s="14">
         <v>13</v>
       </c>
@@ -5616,7 +5910,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="41" spans="4:8">
+    <row r="41" spans="4:8" x14ac:dyDescent="0.15">
       <c r="D41" s="14">
         <v>13</v>
       </c>
@@ -5633,7 +5927,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="42" spans="4:8">
+    <row r="42" spans="4:8" x14ac:dyDescent="0.15">
       <c r="D42" s="14">
         <v>13</v>
       </c>
@@ -5650,7 +5944,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="43" spans="4:8">
+    <row r="43" spans="4:8" x14ac:dyDescent="0.15">
       <c r="D43" s="14">
         <v>13</v>
       </c>
@@ -5667,7 +5961,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="44" spans="4:8">
+    <row r="44" spans="4:8" x14ac:dyDescent="0.15">
       <c r="D44" s="14">
         <v>13</v>
       </c>
@@ -5684,7 +5978,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="45" spans="4:8">
+    <row r="45" spans="4:8" x14ac:dyDescent="0.15">
       <c r="D45" s="14">
         <v>13</v>
       </c>
@@ -5701,7 +5995,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="46" spans="4:8">
+    <row r="46" spans="4:8" x14ac:dyDescent="0.15">
       <c r="D46" s="14">
         <v>13</v>
       </c>
@@ -5718,7 +6012,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="47" spans="4:8">
+    <row r="47" spans="4:8" x14ac:dyDescent="0.15">
       <c r="D47" s="14">
         <v>13</v>
       </c>
@@ -5735,7 +6029,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="48" spans="4:8">
+    <row r="48" spans="4:8" x14ac:dyDescent="0.15">
       <c r="D48" s="14">
         <v>13</v>
       </c>
@@ -5752,7 +6046,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="49" spans="4:8">
+    <row r="49" spans="4:8" x14ac:dyDescent="0.15">
       <c r="D49" s="14">
         <v>14</v>
       </c>
@@ -5769,7 +6063,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="50" spans="4:8">
+    <row r="50" spans="4:8" x14ac:dyDescent="0.15">
       <c r="D50" s="14">
         <v>15</v>
       </c>
@@ -5786,7 +6080,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="51" spans="4:8">
+    <row r="51" spans="4:8" x14ac:dyDescent="0.15">
       <c r="D51" s="14">
         <v>16</v>
       </c>
@@ -5803,7 +6097,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="52" spans="4:8">
+    <row r="52" spans="4:8" x14ac:dyDescent="0.15">
       <c r="D52" s="14">
         <v>17</v>
       </c>
@@ -5820,7 +6114,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="53" spans="4:8">
+    <row r="53" spans="4:8" x14ac:dyDescent="0.15">
       <c r="D53" s="14">
         <v>18</v>
       </c>
@@ -5837,7 +6131,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="54" spans="4:8">
+    <row r="54" spans="4:8" x14ac:dyDescent="0.15">
       <c r="D54" s="14">
         <v>19</v>
       </c>
@@ -5854,7 +6148,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="55" spans="4:8">
+    <row r="55" spans="4:8" x14ac:dyDescent="0.15">
       <c r="D55" s="14">
         <v>20</v>
       </c>
@@ -5871,7 +6165,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="56" spans="4:8">
+    <row r="56" spans="4:8" x14ac:dyDescent="0.15">
       <c r="D56" s="14">
         <v>21</v>
       </c>
@@ -5888,7 +6182,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="57" spans="4:8">
+    <row r="57" spans="4:8" x14ac:dyDescent="0.15">
       <c r="D57" s="14">
         <v>21</v>
       </c>
@@ -5905,7 +6199,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="58" spans="4:8">
+    <row r="58" spans="4:8" x14ac:dyDescent="0.15">
       <c r="D58" s="14">
         <v>21</v>
       </c>
@@ -5922,7 +6216,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="59" spans="4:8">
+    <row r="59" spans="4:8" x14ac:dyDescent="0.15">
       <c r="D59" s="14">
         <v>21</v>
       </c>
@@ -5939,7 +6233,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="60" spans="4:8">
+    <row r="60" spans="4:8" x14ac:dyDescent="0.15">
       <c r="D60" s="14">
         <v>21</v>
       </c>
@@ -5956,7 +6250,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="61" spans="4:8">
+    <row r="61" spans="4:8" x14ac:dyDescent="0.15">
       <c r="D61" s="14">
         <v>21</v>
       </c>
@@ -5973,7 +6267,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="62" spans="4:8">
+    <row r="62" spans="4:8" x14ac:dyDescent="0.15">
       <c r="D62" s="14">
         <v>21</v>
       </c>
@@ -5990,7 +6284,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="63" spans="4:8">
+    <row r="63" spans="4:8" x14ac:dyDescent="0.15">
       <c r="D63" s="14">
         <v>21</v>
       </c>
@@ -6007,7 +6301,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="64" spans="4:8">
+    <row r="64" spans="4:8" x14ac:dyDescent="0.15">
       <c r="D64" s="14">
         <v>21</v>
       </c>
@@ -6024,7 +6318,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="65" spans="4:8">
+    <row r="65" spans="4:8" x14ac:dyDescent="0.15">
       <c r="D65" s="14">
         <v>21</v>
       </c>
@@ -6041,7 +6335,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="66" spans="4:8">
+    <row r="66" spans="4:8" x14ac:dyDescent="0.15">
       <c r="D66" s="14">
         <v>21</v>
       </c>
@@ -6058,7 +6352,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="67" spans="4:8">
+    <row r="67" spans="4:8" x14ac:dyDescent="0.15">
       <c r="D67" s="14">
         <v>21</v>
       </c>
@@ -6075,7 +6369,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="68" spans="4:8">
+    <row r="68" spans="4:8" x14ac:dyDescent="0.15">
       <c r="D68" s="14">
         <v>21</v>
       </c>
@@ -6092,7 +6386,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="69" spans="4:8">
+    <row r="69" spans="4:8" x14ac:dyDescent="0.15">
       <c r="D69" s="14">
         <v>21</v>
       </c>
@@ -6109,7 +6403,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="70" spans="4:8">
+    <row r="70" spans="4:8" x14ac:dyDescent="0.15">
       <c r="D70" s="14">
         <v>21</v>
       </c>
@@ -6126,7 +6420,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="71" spans="4:8">
+    <row r="71" spans="4:8" x14ac:dyDescent="0.15">
       <c r="D71" s="14">
         <v>21</v>
       </c>
@@ -6143,7 +6437,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="72" spans="4:8">
+    <row r="72" spans="4:8" x14ac:dyDescent="0.15">
       <c r="D72" s="14">
         <v>21</v>
       </c>
@@ -6160,7 +6454,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="73" spans="4:8">
+    <row r="73" spans="4:8" x14ac:dyDescent="0.15">
       <c r="D73" s="14">
         <v>21</v>
       </c>
@@ -6177,7 +6471,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="74" spans="4:8">
+    <row r="74" spans="4:8" x14ac:dyDescent="0.15">
       <c r="D74" s="14">
         <v>21</v>
       </c>
@@ -6194,7 +6488,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="75" spans="4:8">
+    <row r="75" spans="4:8" x14ac:dyDescent="0.15">
       <c r="D75" s="14">
         <v>21</v>
       </c>
@@ -6211,7 +6505,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="76" spans="4:8">
+    <row r="76" spans="4:8" x14ac:dyDescent="0.15">
       <c r="D76" s="14">
         <v>21</v>
       </c>
@@ -6228,7 +6522,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="77" spans="4:8">
+    <row r="77" spans="4:8" x14ac:dyDescent="0.15">
       <c r="D77" s="14">
         <v>21</v>
       </c>
@@ -6245,7 +6539,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="78" spans="4:8">
+    <row r="78" spans="4:8" x14ac:dyDescent="0.15">
       <c r="D78" s="14">
         <v>22</v>
       </c>
@@ -6262,7 +6556,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="79" spans="4:8">
+    <row r="79" spans="4:8" x14ac:dyDescent="0.15">
       <c r="D79" s="14">
         <v>21</v>
       </c>
@@ -6279,7 +6573,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="80" spans="4:8">
+    <row r="80" spans="4:8" x14ac:dyDescent="0.15">
       <c r="D80" s="14">
         <v>21</v>
       </c>
@@ -6296,7 +6590,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="81" spans="4:8">
+    <row r="81" spans="4:8" x14ac:dyDescent="0.15">
       <c r="D81" s="14">
         <v>21</v>
       </c>
@@ -6313,7 +6607,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="82" spans="4:8">
+    <row r="82" spans="4:8" x14ac:dyDescent="0.15">
       <c r="D82" s="14">
         <v>21</v>
       </c>
@@ -6330,7 +6624,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="83" spans="4:8">
+    <row r="83" spans="4:8" x14ac:dyDescent="0.15">
       <c r="D83" s="14">
         <v>21</v>
       </c>
@@ -6347,7 +6641,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="84" spans="4:8">
+    <row r="84" spans="4:8" x14ac:dyDescent="0.15">
       <c r="D84" s="14">
         <v>21</v>
       </c>
@@ -6364,7 +6658,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="85" spans="4:8">
+    <row r="85" spans="4:8" x14ac:dyDescent="0.15">
       <c r="D85" s="14">
         <v>21</v>
       </c>
@@ -6381,7 +6675,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="86" spans="4:8">
+    <row r="86" spans="4:8" x14ac:dyDescent="0.15">
       <c r="D86" s="14">
         <v>21</v>
       </c>
@@ -6398,7 +6692,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="87" spans="4:8">
+    <row r="87" spans="4:8" x14ac:dyDescent="0.15">
       <c r="D87" s="14">
         <v>21</v>
       </c>
@@ -6415,7 +6709,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="88" spans="4:8">
+    <row r="88" spans="4:8" x14ac:dyDescent="0.15">
       <c r="D88" s="14">
         <v>21</v>
       </c>
@@ -6432,7 +6726,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="89" spans="4:8">
+    <row r="89" spans="4:8" x14ac:dyDescent="0.15">
       <c r="D89" s="14">
         <v>21</v>
       </c>
@@ -6449,7 +6743,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="90" spans="4:8">
+    <row r="90" spans="4:8" x14ac:dyDescent="0.15">
       <c r="D90" s="14">
         <v>24</v>
       </c>
@@ -6466,7 +6760,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="91" spans="4:8">
+    <row r="91" spans="4:8" x14ac:dyDescent="0.15">
       <c r="D91" s="14">
         <v>25</v>
       </c>
@@ -6483,7 +6777,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="92" spans="4:8">
+    <row r="92" spans="4:8" x14ac:dyDescent="0.15">
       <c r="D92" s="14">
         <v>26</v>
       </c>
@@ -6500,7 +6794,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="93" spans="4:8">
+    <row r="93" spans="4:8" x14ac:dyDescent="0.15">
       <c r="D93" s="14">
         <v>27</v>
       </c>
@@ -6530,34 +6824,34 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:F28"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" topLeftCell="D16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="2.625" style="18" customWidth="1"/>
     <col min="2" max="2" width="3.625" style="18" customWidth="1"/>
-    <col min="3" max="3" width="24.25" style="18" customWidth="1"/>
-    <col min="4" max="4" width="64.625" style="18" customWidth="1"/>
-    <col min="5" max="5" width="55.25" style="18" customWidth="1"/>
-    <col min="6" max="6" width="80.5" style="18" customWidth="1"/>
+    <col min="3" max="3" width="34.875" style="18" customWidth="1"/>
+    <col min="4" max="4" width="72.625" style="18" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="79" style="18" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="64.875" style="18" bestFit="1" customWidth="1"/>
     <col min="7" max="16384" width="9" style="18"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6">
+    <row r="2" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B2" s="18" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="2:6">
+    <row r="3" spans="2:6" x14ac:dyDescent="0.15">
       <c r="C3" s="18" t="s">
         <v>116</v>
       </c>
       <c r="D3" s="19"/>
       <c r="E3" s="20"/>
     </row>
-    <row r="5" spans="2:6" ht="27">
+    <row r="5" spans="2:6" ht="27" x14ac:dyDescent="0.15">
       <c r="C5" s="21" t="s">
         <v>117</v>
       </c>
@@ -6571,7 +6865,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="6" spans="2:6" s="26" customFormat="1" ht="134.25" customHeight="1">
+    <row r="6" spans="2:6" s="26" customFormat="1" ht="134.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C6" s="27" t="s">
         <v>250</v>
       </c>
@@ -6585,7 +6879,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="7" spans="2:6" ht="41.25" customHeight="1">
+    <row r="7" spans="2:6" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C7" s="15" t="s">
         <v>119</v>
       </c>
@@ -6599,7 +6893,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="8" spans="2:6" ht="41.25" customHeight="1">
+    <row r="8" spans="2:6" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C8" s="15" t="s">
         <v>120</v>
       </c>
@@ -6613,7 +6907,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="9" spans="2:6" ht="41.25" customHeight="1">
+    <row r="9" spans="2:6" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C9" s="15" t="s">
         <v>121</v>
       </c>
@@ -6627,7 +6921,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="10" spans="2:6" ht="41.25" customHeight="1">
+    <row r="10" spans="2:6" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C10" s="15" t="s">
         <v>122</v>
       </c>
@@ -6641,7 +6935,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="11" spans="2:6" ht="267.75" customHeight="1">
+    <row r="11" spans="2:6" ht="267.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C11" s="15" t="s">
         <v>123</v>
       </c>
@@ -6655,7 +6949,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="12" spans="2:6" ht="228.75" customHeight="1">
+    <row r="12" spans="2:6" ht="228.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C12" s="15" t="s">
         <v>124</v>
       </c>
@@ -6669,7 +6963,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="13" spans="2:6" ht="60" customHeight="1">
+    <row r="13" spans="2:6" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C13" s="15" t="s">
         <v>125</v>
       </c>
@@ -6683,7 +6977,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="14" spans="2:6" ht="109.5" customHeight="1">
+    <row r="14" spans="2:6" ht="109.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C14" s="15" t="s">
         <v>126</v>
       </c>
@@ -6697,7 +6991,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="15" spans="2:6" ht="60" customHeight="1">
+    <row r="15" spans="2:6" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C15" s="15" t="s">
         <v>244</v>
       </c>
@@ -6711,7 +7005,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="16" spans="2:6" ht="60" customHeight="1">
+    <row r="16" spans="2:6" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C16" s="15" t="s">
         <v>127</v>
       </c>
@@ -6725,7 +7019,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="17" spans="3:6" ht="169.5" customHeight="1">
+    <row r="17" spans="3:6" ht="169.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C17" s="15" t="s">
         <v>245</v>
       </c>
@@ -6739,67 +7033,83 @@
         <v>247</v>
       </c>
     </row>
-    <row r="18" spans="3:6">
-      <c r="C18" s="15"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="15"/>
-      <c r="F18" s="15"/>
-    </row>
-    <row r="19" spans="3:6">
-      <c r="C19" s="15"/>
-      <c r="D19" s="15"/>
-      <c r="E19" s="15"/>
-      <c r="F19" s="15"/>
-    </row>
-    <row r="20" spans="3:6">
+    <row r="18" spans="3:6" ht="108" x14ac:dyDescent="0.15">
+      <c r="C18" s="15" t="s">
+        <v>302</v>
+      </c>
+      <c r="D18" s="23" t="s">
+        <v>303</v>
+      </c>
+      <c r="E18" s="23" t="s">
+        <v>297</v>
+      </c>
+      <c r="F18" s="15" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="19" spans="3:6" ht="94.5" x14ac:dyDescent="0.15">
+      <c r="C19" s="15" t="s">
+        <v>301</v>
+      </c>
+      <c r="D19" s="15" t="s">
+        <v>299</v>
+      </c>
+      <c r="E19" s="23" t="s">
+        <v>300</v>
+      </c>
+      <c r="F19" s="23" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="20" spans="3:6" x14ac:dyDescent="0.15">
       <c r="C20" s="15"/>
       <c r="D20" s="15"/>
       <c r="E20" s="15"/>
       <c r="F20" s="15"/>
     </row>
-    <row r="21" spans="3:6">
+    <row r="21" spans="3:6" x14ac:dyDescent="0.15">
       <c r="C21" s="15"/>
       <c r="D21" s="15"/>
       <c r="E21" s="15"/>
       <c r="F21" s="15"/>
     </row>
-    <row r="22" spans="3:6">
+    <row r="22" spans="3:6" x14ac:dyDescent="0.15">
       <c r="C22" s="15"/>
       <c r="D22" s="15"/>
       <c r="E22" s="15"/>
       <c r="F22" s="15"/>
     </row>
-    <row r="23" spans="3:6">
+    <row r="23" spans="3:6" x14ac:dyDescent="0.15">
       <c r="C23" s="15"/>
       <c r="D23" s="15"/>
       <c r="E23" s="15"/>
       <c r="F23" s="15"/>
     </row>
-    <row r="24" spans="3:6">
+    <row r="24" spans="3:6" x14ac:dyDescent="0.15">
       <c r="C24" s="15"/>
       <c r="D24" s="15"/>
       <c r="E24" s="15"/>
       <c r="F24" s="15"/>
     </row>
-    <row r="25" spans="3:6">
+    <row r="25" spans="3:6" x14ac:dyDescent="0.15">
       <c r="C25" s="15"/>
       <c r="D25" s="15"/>
       <c r="E25" s="15"/>
       <c r="F25" s="15"/>
     </row>
-    <row r="26" spans="3:6">
+    <row r="26" spans="3:6" x14ac:dyDescent="0.15">
       <c r="C26" s="15"/>
       <c r="D26" s="15"/>
       <c r="E26" s="15"/>
       <c r="F26" s="15"/>
     </row>
-    <row r="27" spans="3:6">
+    <row r="27" spans="3:6" x14ac:dyDescent="0.15">
       <c r="C27" s="15"/>
       <c r="D27" s="15"/>
       <c r="E27" s="15"/>
       <c r="F27" s="15"/>
     </row>
-    <row r="28" spans="3:6">
+    <row r="28" spans="3:6" x14ac:dyDescent="0.15">
       <c r="C28" s="15"/>
       <c r="D28" s="15"/>
       <c r="E28" s="15"/>
@@ -6820,7 +7130,7 @@
       <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="3.375" style="1" customWidth="1"/>
     <col min="2" max="2" width="4.5" style="1" customWidth="1"/>
@@ -6828,155 +7138,155 @@
     <col min="4" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8">
+    <row r="2" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B2" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="2:8">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.15">
       <c r="C3" s="18" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="5" spans="2:8">
+    <row r="5" spans="2:8" x14ac:dyDescent="0.15">
       <c r="C5" s="1" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="6" spans="2:8">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.15">
       <c r="D6" s="1" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="7" spans="2:8">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.15">
       <c r="D7" s="1" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="8" spans="2:8">
+    <row r="8" spans="2:8" x14ac:dyDescent="0.15">
       <c r="D8" s="1" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="10" spans="2:8">
+    <row r="10" spans="2:8" x14ac:dyDescent="0.15">
       <c r="C10" s="1" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="11" spans="2:8">
+    <row r="11" spans="2:8" x14ac:dyDescent="0.15">
       <c r="D11" s="1" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="13" spans="2:8" ht="14.25" thickBot="1">
+    <row r="13" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="D13" s="1" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="14" spans="2:8" ht="14.25" thickBot="1">
-      <c r="D14" s="35" t="s">
+    <row r="14" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="D14" s="36" t="s">
         <v>275</v>
       </c>
-      <c r="E14" s="36"/>
-      <c r="F14" s="36"/>
-      <c r="G14" s="36"/>
-      <c r="H14" s="37"/>
-    </row>
-    <row r="16" spans="2:8" ht="14.25" thickBot="1">
+      <c r="E14" s="37"/>
+      <c r="F14" s="37"/>
+      <c r="G14" s="37"/>
+      <c r="H14" s="38"/>
+    </row>
+    <row r="16" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="D16" s="1" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="17" spans="3:8" ht="14.25" thickBot="1">
-      <c r="D17" s="35" t="s">
+    <row r="17" spans="3:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="D17" s="36" t="s">
         <v>280</v>
       </c>
-      <c r="E17" s="36"/>
-      <c r="F17" s="36"/>
-      <c r="G17" s="36"/>
-      <c r="H17" s="37"/>
-    </row>
-    <row r="18" spans="3:8">
+      <c r="E17" s="37"/>
+      <c r="F17" s="37"/>
+      <c r="G17" s="37"/>
+      <c r="H17" s="38"/>
+    </row>
+    <row r="18" spans="3:8" x14ac:dyDescent="0.15">
       <c r="D18" s="1" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="19" spans="3:8">
+    <row r="19" spans="3:8" x14ac:dyDescent="0.15">
       <c r="D19" s="1" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="20" spans="3:8">
+    <row r="20" spans="3:8" x14ac:dyDescent="0.15">
       <c r="D20" s="1" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="22" spans="3:8">
+    <row r="22" spans="3:8" x14ac:dyDescent="0.15">
       <c r="D22" s="1" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="23" spans="3:8">
+    <row r="23" spans="3:8" x14ac:dyDescent="0.15">
       <c r="D23" s="1" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="24" spans="3:8">
+    <row r="24" spans="3:8" x14ac:dyDescent="0.15">
       <c r="D24" s="1" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="25" spans="3:8">
+    <row r="25" spans="3:8" x14ac:dyDescent="0.15">
       <c r="D25" s="1" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="27" spans="3:8">
+    <row r="27" spans="3:8" x14ac:dyDescent="0.15">
       <c r="D27" s="1" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="29" spans="3:8" ht="14.25" thickBot="1">
+    <row r="29" spans="3:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="30" spans="3:8" ht="14.25" thickBot="1">
-      <c r="D30" s="35" t="s">
+    <row r="30" spans="3:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="D30" s="36" t="s">
         <v>238</v>
       </c>
-      <c r="E30" s="36"/>
-      <c r="F30" s="36"/>
-      <c r="G30" s="36"/>
-      <c r="H30" s="37"/>
-    </row>
-    <row r="32" spans="3:8">
+      <c r="E30" s="37"/>
+      <c r="F30" s="37"/>
+      <c r="G30" s="37"/>
+      <c r="H30" s="38"/>
+    </row>
+    <row r="32" spans="3:8" x14ac:dyDescent="0.15">
       <c r="D32" s="1" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="33" spans="3:8" ht="14.25" thickBot="1">
+    <row r="33" spans="3:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="34" spans="3:8">
-      <c r="D34" s="38" t="s">
+    <row r="34" spans="3:8" x14ac:dyDescent="0.15">
+      <c r="D34" s="39" t="s">
         <v>239</v>
       </c>
-      <c r="E34" s="39"/>
-      <c r="F34" s="39"/>
-      <c r="G34" s="39"/>
-      <c r="H34" s="40"/>
-    </row>
-    <row r="35" spans="3:8" ht="14.25" thickBot="1">
-      <c r="D35" s="41" t="s">
+      <c r="E34" s="40"/>
+      <c r="F34" s="40"/>
+      <c r="G34" s="40"/>
+      <c r="H34" s="41"/>
+    </row>
+    <row r="35" spans="3:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="D35" s="42" t="s">
         <v>240</v>
       </c>
-      <c r="E35" s="42"/>
-      <c r="F35" s="42"/>
-      <c r="G35" s="42"/>
-      <c r="H35" s="43"/>
+      <c r="E35" s="43"/>
+      <c r="F35" s="43"/>
+      <c r="G35" s="43"/>
+      <c r="H35" s="44"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -6995,163 +7305,163 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:I33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I36" sqref="I36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="3.5" style="1" customWidth="1"/>
     <col min="2" max="4" width="3.75" style="1" customWidth="1"/>
     <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B2" s="1" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="3" spans="2:9">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.15">
       <c r="C3" s="1" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="4" spans="2:9">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.15">
       <c r="C4" s="1" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="5" spans="2:9">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.15">
       <c r="C5" s="1" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="7" spans="2:9">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.15">
       <c r="C7" s="1" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="8" spans="2:9">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.15">
       <c r="D8" s="1" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="10" spans="2:9">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.15">
       <c r="C10" s="1" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="11" spans="2:9">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.15">
       <c r="D11" s="18" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="12" spans="2:9" ht="14.25" thickBot="1"/>
-    <row r="13" spans="2:9" ht="14.25" thickBot="1">
-      <c r="D13" s="35" t="s">
+    <row r="12" spans="2:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="13" spans="2:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="D13" s="36" t="s">
         <v>243</v>
       </c>
-      <c r="E13" s="36"/>
-      <c r="F13" s="36"/>
-      <c r="G13" s="36"/>
-      <c r="H13" s="36"/>
-      <c r="I13" s="37"/>
-    </row>
-    <row r="15" spans="2:9">
+      <c r="E13" s="37"/>
+      <c r="F13" s="37"/>
+      <c r="G13" s="37"/>
+      <c r="H13" s="37"/>
+      <c r="I13" s="38"/>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.15">
       <c r="D15" s="1" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="16" spans="2:9">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.15">
       <c r="D16" s="1" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="17" spans="3:9" ht="14.25" thickBot="1"/>
-    <row r="18" spans="3:9" ht="14.25" thickBot="1">
-      <c r="D18" s="35" t="s">
+    <row r="17" spans="3:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="18" spans="3:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="D18" s="36" t="s">
         <v>260</v>
       </c>
-      <c r="E18" s="36"/>
-      <c r="F18" s="36"/>
-      <c r="G18" s="36"/>
-      <c r="H18" s="36"/>
-      <c r="I18" s="37"/>
-    </row>
-    <row r="20" spans="3:9">
+      <c r="E18" s="37"/>
+      <c r="F18" s="37"/>
+      <c r="G18" s="37"/>
+      <c r="H18" s="37"/>
+      <c r="I18" s="38"/>
+    </row>
+    <row r="20" spans="3:9" x14ac:dyDescent="0.15">
       <c r="D20" s="1" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="22" spans="3:9">
+    <row r="22" spans="3:9" x14ac:dyDescent="0.15">
       <c r="C22" s="1" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="23" spans="3:9">
+    <row r="23" spans="3:9" x14ac:dyDescent="0.15">
       <c r="D23" s="18" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="24" spans="3:9" ht="14.25" thickBot="1"/>
-    <row r="25" spans="3:9">
-      <c r="D25" s="38" t="s">
+    <row r="24" spans="3:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="25" spans="3:9" x14ac:dyDescent="0.15">
+      <c r="D25" s="39" t="s">
         <v>293</v>
       </c>
-      <c r="E25" s="39"/>
-      <c r="F25" s="39"/>
-      <c r="G25" s="39"/>
-      <c r="H25" s="39"/>
-      <c r="I25" s="40"/>
-    </row>
-    <row r="26" spans="3:9" ht="14.25" thickBot="1">
-      <c r="D26" s="41" t="s">
+      <c r="E25" s="40"/>
+      <c r="F25" s="40"/>
+      <c r="G25" s="40"/>
+      <c r="H25" s="40"/>
+      <c r="I25" s="41"/>
+    </row>
+    <row r="26" spans="3:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="D26" s="42" t="s">
         <v>292</v>
       </c>
-      <c r="E26" s="42"/>
-      <c r="F26" s="42"/>
-      <c r="G26" s="42"/>
-      <c r="H26" s="42"/>
-      <c r="I26" s="43"/>
-    </row>
-    <row r="27" spans="3:9">
-      <c r="D27" s="44"/>
-      <c r="E27" s="44"/>
-      <c r="F27" s="44"/>
-      <c r="G27" s="44"/>
-      <c r="H27" s="44"/>
-      <c r="I27" s="44"/>
-    </row>
-    <row r="28" spans="3:9">
+      <c r="E26" s="43"/>
+      <c r="F26" s="43"/>
+      <c r="G26" s="43"/>
+      <c r="H26" s="43"/>
+      <c r="I26" s="44"/>
+    </row>
+    <row r="27" spans="3:9" x14ac:dyDescent="0.15">
+      <c r="D27" s="30"/>
+      <c r="E27" s="30"/>
+      <c r="F27" s="30"/>
+      <c r="G27" s="30"/>
+      <c r="H27" s="30"/>
+      <c r="I27" s="30"/>
+    </row>
+    <row r="28" spans="3:9" x14ac:dyDescent="0.15">
       <c r="D28" s="1" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="30" spans="3:9">
+    <row r="30" spans="3:9" x14ac:dyDescent="0.15">
       <c r="D30" s="18" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="31" spans="3:9" ht="14.25" thickBot="1"/>
-    <row r="32" spans="3:9">
-      <c r="D32" s="38" t="s">
+    <row r="31" spans="3:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="32" spans="3:9" x14ac:dyDescent="0.15">
+      <c r="D32" s="39" t="s">
         <v>293</v>
       </c>
-      <c r="E32" s="39"/>
-      <c r="F32" s="39"/>
-      <c r="G32" s="39"/>
-      <c r="H32" s="39"/>
-      <c r="I32" s="40"/>
-    </row>
-    <row r="33" spans="4:9" ht="14.25" thickBot="1">
-      <c r="D33" s="41" t="s">
+      <c r="E32" s="40"/>
+      <c r="F32" s="40"/>
+      <c r="G32" s="40"/>
+      <c r="H32" s="40"/>
+      <c r="I32" s="41"/>
+    </row>
+    <row r="33" spans="4:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="D33" s="42" t="s">
         <v>296</v>
       </c>
-      <c r="E33" s="42"/>
-      <c r="F33" s="42"/>
-      <c r="G33" s="42"/>
-      <c r="H33" s="42"/>
-      <c r="I33" s="43"/>
+      <c r="E33" s="43"/>
+      <c r="F33" s="43"/>
+      <c r="G33" s="43"/>
+      <c r="H33" s="43"/>
+      <c r="I33" s="44"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -7176,7 +7486,7 @@
       <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="4.375" style="1" customWidth="1"/>
     <col min="2" max="2" width="3.5" style="1" customWidth="1"/>
@@ -7184,12 +7494,12 @@
     <col min="4" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3">
+    <row r="2" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B2" s="1" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="3" spans="2:3">
+    <row r="3" spans="2:3" x14ac:dyDescent="0.15">
       <c r="C3" s="1" t="s">
         <v>256</v>
       </c>

--- a/マニュアル.xlsx
+++ b/マニュアル.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="105" windowWidth="28035" windowHeight="12540" activeTab="5"/>
+    <workbookView xWindow="360" yWindow="105" windowWidth="28035" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="タイトル" sheetId="3" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="648" uniqueCount="305">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="640" uniqueCount="297">
   <si>
     <t>１．はじめに</t>
     <phoneticPr fontId="2"/>
@@ -2104,64 +2104,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>本コマンド実行すると，エクセル起動し，</t>
-    <rPh sb="0" eb="1">
-      <t>ホン</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ジッコウ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>キドウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>しばらくすると(１分程度)，保存確認通知がポップアップされるため，</t>
-    <rPh sb="9" eb="10">
-      <t>フン</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>テイド</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>ホゾン</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>カクニン</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>ツウチ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>保存して終了する．</t>
-    <rPh sb="0" eb="2">
-      <t>ホゾン</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>シュウリョウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>gui_debugger配下に移動し，以下の２ファイルを開く．</t>
-    <rPh sb="12" eb="14">
-      <t>ハイカ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>イドウ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>イカ</t>
-    </rPh>
-    <rPh sb="28" eb="29">
-      <t>ヒラ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>$ sh create_debuginfo.sh ../&lt;DUMPファイル&gt;</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -2182,43 +2124,6 @@
     </rPh>
     <rPh sb="12" eb="14">
       <t>サクセイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>②-(3) 命令コードのコピー</t>
-    <rPh sb="6" eb="8">
-      <t>メイレイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>・asm.csv</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>・Debugger.xlsx</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>asm.csvの３行目～最終行を，Debugger.xlsxの「ASM」シートの５行目以降へ全コピー(書式はコピーしない)する．</t>
-    <rPh sb="9" eb="11">
-      <t>ギョウメ</t>
-    </rPh>
-    <rPh sb="12" eb="15">
-      <t>サイシュウギョウ</t>
-    </rPh>
-    <rPh sb="41" eb="43">
-      <t>ギョウメ</t>
-    </rPh>
-    <rPh sb="43" eb="45">
-      <t>イコウ</t>
-    </rPh>
-    <rPh sb="46" eb="47">
-      <t>ゼン</t>
-    </rPh>
-    <rPh sb="51" eb="53">
-      <t>ショシキ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -2574,10 +2479,9 @@
   <si>
     <t>カバレッジ状況を行単位で威嚇化するツールとして，以下がある．
 tools/get_coverage.sh
-本ツールを使用する場合は，gui_debugger/asm.csvをエクセルファイルとして
-tools配下に保存後，
+本ツールを使用する場合は，tools配下で，
 sh get_coverage.sh 
-を実行することで，CPUが実行したルートが緑色で塗りつぶされて視覚化される．</t>
+を実行すると，CPUが実行したルートが緑色で塗りつぶされて視覚化される．</t>
     <rPh sb="5" eb="7">
       <t>ジョウキョウ</t>
     </rPh>
@@ -2602,28 +2506,22 @@
     <rPh sb="63" eb="65">
       <t>バアイ</t>
     </rPh>
-    <rPh sb="105" eb="107">
+    <rPh sb="72" eb="74">
       <t>ハイカ</t>
     </rPh>
+    <rPh sb="98" eb="100">
+      <t>ジッコウ</t>
+    </rPh>
     <rPh sb="108" eb="110">
-      <t>ホゾン</t>
-    </rPh>
-    <rPh sb="110" eb="111">
-      <t>ゴ</t>
-    </rPh>
-    <rPh sb="134" eb="136">
       <t>ジッコウ</t>
     </rPh>
-    <rPh sb="146" eb="148">
-      <t>ジッコウ</t>
-    </rPh>
-    <rPh sb="154" eb="156">
+    <rPh sb="116" eb="118">
       <t>ミドリイロ</t>
     </rPh>
-    <rPh sb="157" eb="158">
+    <rPh sb="119" eb="120">
       <t>ヌ</t>
     </rPh>
-    <rPh sb="164" eb="167">
+    <rPh sb="126" eb="129">
       <t>シカクカ</t>
     </rPh>
     <phoneticPr fontId="2"/>
@@ -2633,7 +2531,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2674,6 +2572,23 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
@@ -2867,7 +2782,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3002,6 +2917,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4435,7 +4356,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B6:I12"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" zoomScaleSheetLayoutView="130" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" zoomScaleSheetLayoutView="130" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -4494,9 +4415,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:B10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -5269,9 +5188,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:H93"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
-    </sheetView>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -6824,9 +6741,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:F28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
-    </sheetView>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -6866,7 +6781,7 @@
       </c>
     </row>
     <row r="6" spans="2:6" s="26" customFormat="1" ht="134.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C6" s="27" t="s">
+      <c r="C6" s="45" t="s">
         <v>250</v>
       </c>
       <c r="D6" s="27" t="s">
@@ -6880,7 +6795,7 @@
       </c>
     </row>
     <row r="7" spans="2:6" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C7" s="15" t="s">
+      <c r="C7" s="46" t="s">
         <v>119</v>
       </c>
       <c r="D7" s="15" t="s">
@@ -6894,7 +6809,7 @@
       </c>
     </row>
     <row r="8" spans="2:6" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C8" s="15" t="s">
+      <c r="C8" s="46" t="s">
         <v>120</v>
       </c>
       <c r="D8" s="15" t="s">
@@ -6908,7 +6823,7 @@
       </c>
     </row>
     <row r="9" spans="2:6" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C9" s="15" t="s">
+      <c r="C9" s="46" t="s">
         <v>121</v>
       </c>
       <c r="D9" s="15" t="s">
@@ -6922,7 +6837,7 @@
       </c>
     </row>
     <row r="10" spans="2:6" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C10" s="15" t="s">
+      <c r="C10" s="46" t="s">
         <v>122</v>
       </c>
       <c r="D10" s="15" t="s">
@@ -6936,7 +6851,7 @@
       </c>
     </row>
     <row r="11" spans="2:6" ht="267.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C11" s="15" t="s">
+      <c r="C11" s="46" t="s">
         <v>123</v>
       </c>
       <c r="D11" s="23" t="s">
@@ -6950,7 +6865,7 @@
       </c>
     </row>
     <row r="12" spans="2:6" ht="228.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C12" s="15" t="s">
+      <c r="C12" s="46" t="s">
         <v>124</v>
       </c>
       <c r="D12" s="15" t="s">
@@ -6964,7 +6879,7 @@
       </c>
     </row>
     <row r="13" spans="2:6" ht="60" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C13" s="15" t="s">
+      <c r="C13" s="46" t="s">
         <v>125</v>
       </c>
       <c r="D13" s="15" t="s">
@@ -6978,7 +6893,7 @@
       </c>
     </row>
     <row r="14" spans="2:6" ht="109.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C14" s="15" t="s">
+      <c r="C14" s="46" t="s">
         <v>126</v>
       </c>
       <c r="D14" s="15" t="s">
@@ -6992,7 +6907,7 @@
       </c>
     </row>
     <row r="15" spans="2:6" ht="60" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C15" s="15" t="s">
+      <c r="C15" s="46" t="s">
         <v>244</v>
       </c>
       <c r="D15" s="15" t="s">
@@ -7006,7 +6921,7 @@
       </c>
     </row>
     <row r="16" spans="2:6" ht="60" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C16" s="15" t="s">
+      <c r="C16" s="46" t="s">
         <v>127</v>
       </c>
       <c r="D16" s="15" t="s">
@@ -7020,7 +6935,7 @@
       </c>
     </row>
     <row r="17" spans="3:6" ht="169.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C17" s="15" t="s">
+      <c r="C17" s="46" t="s">
         <v>245</v>
       </c>
       <c r="D17" s="15" t="s">
@@ -7033,84 +6948,84 @@
         <v>247</v>
       </c>
     </row>
-    <row r="18" spans="3:6" ht="108" x14ac:dyDescent="0.15">
-      <c r="C18" s="15" t="s">
-        <v>302</v>
+    <row r="18" spans="3:6" ht="94.5" x14ac:dyDescent="0.15">
+      <c r="C18" s="46" t="s">
+        <v>294</v>
       </c>
       <c r="D18" s="23" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="E18" s="23" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="F18" s="15" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="19" spans="3:6" ht="94.5" x14ac:dyDescent="0.15">
-      <c r="C19" s="15" t="s">
-        <v>301</v>
+        <v>290</v>
+      </c>
+    </row>
+    <row r="19" spans="3:6" ht="81" x14ac:dyDescent="0.15">
+      <c r="C19" s="46" t="s">
+        <v>293</v>
       </c>
       <c r="D19" s="15" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
       <c r="E19" s="23" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="F19" s="23" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="20" spans="3:6" x14ac:dyDescent="0.15">
-      <c r="C20" s="15"/>
+        <v>296</v>
+      </c>
+    </row>
+    <row r="20" spans="3:6" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="C20" s="46"/>
       <c r="D20" s="15"/>
       <c r="E20" s="15"/>
       <c r="F20" s="15"/>
     </row>
-    <row r="21" spans="3:6" x14ac:dyDescent="0.15">
-      <c r="C21" s="15"/>
+    <row r="21" spans="3:6" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="C21" s="46"/>
       <c r="D21" s="15"/>
       <c r="E21" s="15"/>
       <c r="F21" s="15"/>
     </row>
-    <row r="22" spans="3:6" x14ac:dyDescent="0.15">
-      <c r="C22" s="15"/>
+    <row r="22" spans="3:6" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="C22" s="46"/>
       <c r="D22" s="15"/>
       <c r="E22" s="15"/>
       <c r="F22" s="15"/>
     </row>
-    <row r="23" spans="3:6" x14ac:dyDescent="0.15">
-      <c r="C23" s="15"/>
+    <row r="23" spans="3:6" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="C23" s="46"/>
       <c r="D23" s="15"/>
       <c r="E23" s="15"/>
       <c r="F23" s="15"/>
     </row>
-    <row r="24" spans="3:6" x14ac:dyDescent="0.15">
-      <c r="C24" s="15"/>
+    <row r="24" spans="3:6" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="C24" s="46"/>
       <c r="D24" s="15"/>
       <c r="E24" s="15"/>
       <c r="F24" s="15"/>
     </row>
-    <row r="25" spans="3:6" x14ac:dyDescent="0.15">
-      <c r="C25" s="15"/>
+    <row r="25" spans="3:6" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="C25" s="46"/>
       <c r="D25" s="15"/>
       <c r="E25" s="15"/>
       <c r="F25" s="15"/>
     </row>
-    <row r="26" spans="3:6" x14ac:dyDescent="0.15">
-      <c r="C26" s="15"/>
+    <row r="26" spans="3:6" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="C26" s="46"/>
       <c r="D26" s="15"/>
       <c r="E26" s="15"/>
       <c r="F26" s="15"/>
     </row>
-    <row r="27" spans="3:6" x14ac:dyDescent="0.15">
-      <c r="C27" s="15"/>
+    <row r="27" spans="3:6" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="C27" s="46"/>
       <c r="D27" s="15"/>
       <c r="E27" s="15"/>
       <c r="F27" s="15"/>
     </row>
-    <row r="28" spans="3:6" x14ac:dyDescent="0.15">
-      <c r="C28" s="15"/>
+    <row r="28" spans="3:6" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="C28" s="46"/>
       <c r="D28" s="15"/>
       <c r="E28" s="15"/>
       <c r="F28" s="15"/>
@@ -7124,11 +7039,9 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:H35"/>
+  <dimension ref="B2:H25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -7180,7 +7093,7 @@
     </row>
     <row r="13" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="D13" s="1" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
     </row>
     <row r="14" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -7194,105 +7107,65 @@
     </row>
     <row r="16" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="D16" s="1" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
     </row>
     <row r="17" spans="3:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="D17" s="36" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="E17" s="37"/>
       <c r="F17" s="37"/>
       <c r="G17" s="37"/>
       <c r="H17" s="38"/>
     </row>
-    <row r="18" spans="3:8" x14ac:dyDescent="0.15">
-      <c r="D18" s="1" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="19" spans="3:8" x14ac:dyDescent="0.15">
-      <c r="D19" s="1" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="20" spans="3:8" x14ac:dyDescent="0.15">
-      <c r="D20" s="1" t="s">
-        <v>278</v>
-      </c>
+    <row r="19" spans="3:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="C19" s="1" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="20" spans="3:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="D20" s="36" t="s">
+        <v>238</v>
+      </c>
+      <c r="E20" s="37"/>
+      <c r="F20" s="37"/>
+      <c r="G20" s="37"/>
+      <c r="H20" s="38"/>
     </row>
     <row r="22" spans="3:8" x14ac:dyDescent="0.15">
       <c r="D22" s="1" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="23" spans="3:8" x14ac:dyDescent="0.15">
-      <c r="D23" s="1" t="s">
-        <v>279</v>
+        <v>267</v>
+      </c>
+    </row>
+    <row r="23" spans="3:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="C23" s="1" t="s">
+        <v>280</v>
       </c>
     </row>
     <row r="24" spans="3:8" x14ac:dyDescent="0.15">
-      <c r="D24" s="1" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="25" spans="3:8" x14ac:dyDescent="0.15">
-      <c r="D25" s="1" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="27" spans="3:8" x14ac:dyDescent="0.15">
-      <c r="D27" s="1" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="29" spans="3:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="C29" s="1" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="30" spans="3:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="D30" s="36" t="s">
-        <v>238</v>
-      </c>
-      <c r="E30" s="37"/>
-      <c r="F30" s="37"/>
-      <c r="G30" s="37"/>
-      <c r="H30" s="38"/>
-    </row>
-    <row r="32" spans="3:8" x14ac:dyDescent="0.15">
-      <c r="D32" s="1" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="33" spans="3:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="C33" s="1" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="34" spans="3:8" x14ac:dyDescent="0.15">
-      <c r="D34" s="39" t="s">
+      <c r="D24" s="39" t="s">
         <v>239</v>
       </c>
-      <c r="E34" s="40"/>
-      <c r="F34" s="40"/>
-      <c r="G34" s="40"/>
-      <c r="H34" s="41"/>
-    </row>
-    <row r="35" spans="3:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="D35" s="42" t="s">
+      <c r="E24" s="40"/>
+      <c r="F24" s="40"/>
+      <c r="G24" s="40"/>
+      <c r="H24" s="41"/>
+    </row>
+    <row r="25" spans="3:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="D25" s="42" t="s">
         <v>240</v>
       </c>
-      <c r="E35" s="43"/>
-      <c r="F35" s="43"/>
-      <c r="G35" s="43"/>
-      <c r="H35" s="44"/>
+      <c r="E25" s="43"/>
+      <c r="F25" s="43"/>
+      <c r="G25" s="43"/>
+      <c r="H25" s="44"/>
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="D30:H30"/>
-    <mergeCell ref="D34:H34"/>
-    <mergeCell ref="D35:H35"/>
+    <mergeCell ref="D20:H20"/>
+    <mergeCell ref="D24:H24"/>
+    <mergeCell ref="D25:H25"/>
     <mergeCell ref="D14:H14"/>
     <mergeCell ref="D17:H17"/>
   </mergeCells>
@@ -7305,9 +7178,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:I33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I36" sqref="I36"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -7343,7 +7214,7 @@
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.15">
       <c r="D8" s="1" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.15">
@@ -7395,18 +7266,18 @@
     </row>
     <row r="22" spans="3:9" x14ac:dyDescent="0.15">
       <c r="C22" s="1" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
     </row>
     <row r="23" spans="3:9" x14ac:dyDescent="0.15">
       <c r="D23" s="18" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
     </row>
     <row r="24" spans="3:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="25" spans="3:9" x14ac:dyDescent="0.15">
       <c r="D25" s="39" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="E25" s="40"/>
       <c r="F25" s="40"/>
@@ -7416,7 +7287,7 @@
     </row>
     <row r="26" spans="3:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="D26" s="42" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="E26" s="43"/>
       <c r="F26" s="43"/>
@@ -7434,18 +7305,18 @@
     </row>
     <row r="28" spans="3:9" x14ac:dyDescent="0.15">
       <c r="D28" s="1" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
     </row>
     <row r="30" spans="3:9" x14ac:dyDescent="0.15">
       <c r="D30" s="18" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
     </row>
     <row r="31" spans="3:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="32" spans="3:9" x14ac:dyDescent="0.15">
       <c r="D32" s="39" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="E32" s="40"/>
       <c r="F32" s="40"/>
@@ -7455,7 +7326,7 @@
     </row>
     <row r="33" spans="4:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="D33" s="42" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="E33" s="43"/>
       <c r="F33" s="43"/>
@@ -7482,9 +7353,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:C3"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
-    </sheetView>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>

--- a/マニュアル.xlsx
+++ b/マニュアル.xlsx
@@ -2304,10 +2304,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>-</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>CPU命令実行中に，実行した全命令アドレスを出力する機能</t>
     <rPh sb="3" eb="5">
       <t>メイレイ</t>
@@ -2477,7 +2473,7 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>カバレッジ状況を行単位で威嚇化するツールとして，以下がある．
+    <t>カバレッジ状況を行単位で視覚化するツールとして，以下がある．
 tools/get_coverage.sh
 本ツールを使用する場合は，tools配下で，
 sh get_coverage.sh 
@@ -2489,7 +2485,7 @@
       <t>ギョウタンイ</t>
     </rPh>
     <rPh sb="12" eb="14">
-      <t>イカク</t>
+      <t>シカク</t>
     </rPh>
     <rPh sb="14" eb="15">
       <t>カ</t>
@@ -2523,6 +2519,44 @@
     </rPh>
     <rPh sb="126" eb="129">
       <t>シカクカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>プロファイル情報をエクセル表に変換するツールとして，以下がある．
+tools/get_prof.sh
+本ツールを使用する場合は，tools配下で，
+sh get_prof.sh 
+を実行すると，prof.xlsxが生成される．</t>
+    <rPh sb="6" eb="8">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ヒョウ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ヘンカン</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="52" eb="53">
+      <t>ホン</t>
+    </rPh>
+    <rPh sb="57" eb="59">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="61" eb="63">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="70" eb="72">
+      <t>ハイカ</t>
+    </rPh>
+    <rPh sb="92" eb="94">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="108" eb="110">
+      <t>セイセイ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -2876,6 +2910,12 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2917,12 +2957,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4376,29 +4410,29 @@
       <c r="B11" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C11" s="31" t="s">
+      <c r="C11" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="D11" s="31"/>
-      <c r="E11" s="31"/>
-      <c r="F11" s="31"/>
-      <c r="G11" s="31"/>
-      <c r="H11" s="31"/>
-      <c r="I11" s="31"/>
+      <c r="D11" s="33"/>
+      <c r="E11" s="33"/>
+      <c r="F11" s="33"/>
+      <c r="G11" s="33"/>
+      <c r="H11" s="33"/>
+      <c r="I11" s="33"/>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B12" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C12" s="32" t="s">
+      <c r="C12" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="D12" s="32"/>
-      <c r="E12" s="32"/>
-      <c r="F12" s="32"/>
-      <c r="G12" s="32"/>
-      <c r="H12" s="32"/>
-      <c r="I12" s="32"/>
+      <c r="D12" s="34"/>
+      <c r="E12" s="34"/>
+      <c r="F12" s="34"/>
+      <c r="G12" s="34"/>
+      <c r="H12" s="34"/>
+      <c r="I12" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -5220,11 +5254,11 @@
       <c r="E4" s="2"/>
     </row>
     <row r="5" spans="2:8" ht="27" x14ac:dyDescent="0.15">
-      <c r="D5" s="33" t="s">
+      <c r="D5" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="34"/>
-      <c r="F5" s="35"/>
+      <c r="E5" s="36"/>
+      <c r="F5" s="37"/>
       <c r="G5" s="12" t="s">
         <v>14</v>
       </c>
@@ -6781,7 +6815,7 @@
       </c>
     </row>
     <row r="6" spans="2:6" s="26" customFormat="1" ht="134.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C6" s="45" t="s">
+      <c r="C6" s="31" t="s">
         <v>250</v>
       </c>
       <c r="D6" s="27" t="s">
@@ -6795,7 +6829,7 @@
       </c>
     </row>
     <row r="7" spans="2:6" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C7" s="46" t="s">
+      <c r="C7" s="32" t="s">
         <v>119</v>
       </c>
       <c r="D7" s="15" t="s">
@@ -6809,7 +6843,7 @@
       </c>
     </row>
     <row r="8" spans="2:6" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C8" s="46" t="s">
+      <c r="C8" s="32" t="s">
         <v>120</v>
       </c>
       <c r="D8" s="15" t="s">
@@ -6823,7 +6857,7 @@
       </c>
     </row>
     <row r="9" spans="2:6" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C9" s="46" t="s">
+      <c r="C9" s="32" t="s">
         <v>121</v>
       </c>
       <c r="D9" s="15" t="s">
@@ -6837,7 +6871,7 @@
       </c>
     </row>
     <row r="10" spans="2:6" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C10" s="46" t="s">
+      <c r="C10" s="32" t="s">
         <v>122</v>
       </c>
       <c r="D10" s="15" t="s">
@@ -6851,7 +6885,7 @@
       </c>
     </row>
     <row r="11" spans="2:6" ht="267.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C11" s="46" t="s">
+      <c r="C11" s="32" t="s">
         <v>123</v>
       </c>
       <c r="D11" s="23" t="s">
@@ -6865,7 +6899,7 @@
       </c>
     </row>
     <row r="12" spans="2:6" ht="228.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C12" s="46" t="s">
+      <c r="C12" s="32" t="s">
         <v>124</v>
       </c>
       <c r="D12" s="15" t="s">
@@ -6879,7 +6913,7 @@
       </c>
     </row>
     <row r="13" spans="2:6" ht="60" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C13" s="46" t="s">
+      <c r="C13" s="32" t="s">
         <v>125</v>
       </c>
       <c r="D13" s="15" t="s">
@@ -6893,7 +6927,7 @@
       </c>
     </row>
     <row r="14" spans="2:6" ht="109.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C14" s="46" t="s">
+      <c r="C14" s="32" t="s">
         <v>126</v>
       </c>
       <c r="D14" s="15" t="s">
@@ -6907,7 +6941,7 @@
       </c>
     </row>
     <row r="15" spans="2:6" ht="60" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C15" s="46" t="s">
+      <c r="C15" s="32" t="s">
         <v>244</v>
       </c>
       <c r="D15" s="15" t="s">
@@ -6921,7 +6955,7 @@
       </c>
     </row>
     <row r="16" spans="2:6" ht="60" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C16" s="46" t="s">
+      <c r="C16" s="32" t="s">
         <v>127</v>
       </c>
       <c r="D16" s="15" t="s">
@@ -6935,7 +6969,7 @@
       </c>
     </row>
     <row r="17" spans="3:6" ht="169.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C17" s="46" t="s">
+      <c r="C17" s="32" t="s">
         <v>245</v>
       </c>
       <c r="D17" s="15" t="s">
@@ -6949,83 +6983,83 @@
       </c>
     </row>
     <row r="18" spans="3:6" ht="94.5" x14ac:dyDescent="0.15">
-      <c r="C18" s="46" t="s">
+      <c r="C18" s="32" t="s">
+        <v>293</v>
+      </c>
+      <c r="D18" s="23" t="s">
         <v>294</v>
-      </c>
-      <c r="D18" s="23" t="s">
-        <v>295</v>
       </c>
       <c r="E18" s="23" t="s">
         <v>289</v>
       </c>
-      <c r="F18" s="15" t="s">
+      <c r="F18" s="23" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="19" spans="3:6" ht="81" x14ac:dyDescent="0.15">
+      <c r="C19" s="32" t="s">
+        <v>292</v>
+      </c>
+      <c r="D19" s="15" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="19" spans="3:6" ht="81" x14ac:dyDescent="0.15">
-      <c r="C19" s="46" t="s">
-        <v>293</v>
-      </c>
-      <c r="D19" s="15" t="s">
+      <c r="E19" s="23" t="s">
         <v>291</v>
       </c>
-      <c r="E19" s="23" t="s">
-        <v>292</v>
-      </c>
       <c r="F19" s="23" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="20" spans="3:6" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="C20" s="46"/>
+      <c r="C20" s="32"/>
       <c r="D20" s="15"/>
       <c r="E20" s="15"/>
       <c r="F20" s="15"/>
     </row>
     <row r="21" spans="3:6" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="C21" s="46"/>
+      <c r="C21" s="32"/>
       <c r="D21" s="15"/>
       <c r="E21" s="15"/>
       <c r="F21" s="15"/>
     </row>
     <row r="22" spans="3:6" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="C22" s="46"/>
+      <c r="C22" s="32"/>
       <c r="D22" s="15"/>
       <c r="E22" s="15"/>
       <c r="F22" s="15"/>
     </row>
     <row r="23" spans="3:6" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="C23" s="46"/>
+      <c r="C23" s="32"/>
       <c r="D23" s="15"/>
       <c r="E23" s="15"/>
       <c r="F23" s="15"/>
     </row>
     <row r="24" spans="3:6" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="C24" s="46"/>
+      <c r="C24" s="32"/>
       <c r="D24" s="15"/>
       <c r="E24" s="15"/>
       <c r="F24" s="15"/>
     </row>
     <row r="25" spans="3:6" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="C25" s="46"/>
+      <c r="C25" s="32"/>
       <c r="D25" s="15"/>
       <c r="E25" s="15"/>
       <c r="F25" s="15"/>
     </row>
     <row r="26" spans="3:6" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="C26" s="46"/>
+      <c r="C26" s="32"/>
       <c r="D26" s="15"/>
       <c r="E26" s="15"/>
       <c r="F26" s="15"/>
     </row>
     <row r="27" spans="3:6" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="C27" s="46"/>
+      <c r="C27" s="32"/>
       <c r="D27" s="15"/>
       <c r="E27" s="15"/>
       <c r="F27" s="15"/>
     </row>
     <row r="28" spans="3:6" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="C28" s="46"/>
+      <c r="C28" s="32"/>
       <c r="D28" s="15"/>
       <c r="E28" s="15"/>
       <c r="F28" s="15"/>
@@ -7097,13 +7131,13 @@
       </c>
     </row>
     <row r="14" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="D14" s="36" t="s">
+      <c r="D14" s="38" t="s">
         <v>275</v>
       </c>
-      <c r="E14" s="37"/>
-      <c r="F14" s="37"/>
-      <c r="G14" s="37"/>
-      <c r="H14" s="38"/>
+      <c r="E14" s="39"/>
+      <c r="F14" s="39"/>
+      <c r="G14" s="39"/>
+      <c r="H14" s="40"/>
     </row>
     <row r="16" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="D16" s="1" t="s">
@@ -7111,13 +7145,13 @@
       </c>
     </row>
     <row r="17" spans="3:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="D17" s="36" t="s">
+      <c r="D17" s="38" t="s">
         <v>276</v>
       </c>
-      <c r="E17" s="37"/>
-      <c r="F17" s="37"/>
-      <c r="G17" s="37"/>
-      <c r="H17" s="38"/>
+      <c r="E17" s="39"/>
+      <c r="F17" s="39"/>
+      <c r="G17" s="39"/>
+      <c r="H17" s="40"/>
     </row>
     <row r="19" spans="3:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
@@ -7125,13 +7159,13 @@
       </c>
     </row>
     <row r="20" spans="3:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="D20" s="36" t="s">
+      <c r="D20" s="38" t="s">
         <v>238</v>
       </c>
-      <c r="E20" s="37"/>
-      <c r="F20" s="37"/>
-      <c r="G20" s="37"/>
-      <c r="H20" s="38"/>
+      <c r="E20" s="39"/>
+      <c r="F20" s="39"/>
+      <c r="G20" s="39"/>
+      <c r="H20" s="40"/>
     </row>
     <row r="22" spans="3:8" x14ac:dyDescent="0.15">
       <c r="D22" s="1" t="s">
@@ -7144,22 +7178,22 @@
       </c>
     </row>
     <row r="24" spans="3:8" x14ac:dyDescent="0.15">
-      <c r="D24" s="39" t="s">
+      <c r="D24" s="41" t="s">
         <v>239</v>
       </c>
-      <c r="E24" s="40"/>
-      <c r="F24" s="40"/>
-      <c r="G24" s="40"/>
-      <c r="H24" s="41"/>
+      <c r="E24" s="42"/>
+      <c r="F24" s="42"/>
+      <c r="G24" s="42"/>
+      <c r="H24" s="43"/>
     </row>
     <row r="25" spans="3:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="D25" s="42" t="s">
+      <c r="D25" s="44" t="s">
         <v>240</v>
       </c>
-      <c r="E25" s="43"/>
-      <c r="F25" s="43"/>
-      <c r="G25" s="43"/>
-      <c r="H25" s="44"/>
+      <c r="E25" s="45"/>
+      <c r="F25" s="45"/>
+      <c r="G25" s="45"/>
+      <c r="H25" s="46"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -7229,14 +7263,14 @@
     </row>
     <row r="12" spans="2:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="13" spans="2:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="D13" s="36" t="s">
+      <c r="D13" s="38" t="s">
         <v>243</v>
       </c>
-      <c r="E13" s="37"/>
-      <c r="F13" s="37"/>
-      <c r="G13" s="37"/>
-      <c r="H13" s="37"/>
-      <c r="I13" s="38"/>
+      <c r="E13" s="39"/>
+      <c r="F13" s="39"/>
+      <c r="G13" s="39"/>
+      <c r="H13" s="39"/>
+      <c r="I13" s="40"/>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.15">
       <c r="D15" s="1" t="s">
@@ -7250,14 +7284,14 @@
     </row>
     <row r="17" spans="3:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="18" spans="3:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="D18" s="36" t="s">
+      <c r="D18" s="38" t="s">
         <v>260</v>
       </c>
-      <c r="E18" s="37"/>
-      <c r="F18" s="37"/>
-      <c r="G18" s="37"/>
-      <c r="H18" s="37"/>
-      <c r="I18" s="38"/>
+      <c r="E18" s="39"/>
+      <c r="F18" s="39"/>
+      <c r="G18" s="39"/>
+      <c r="H18" s="39"/>
+      <c r="I18" s="40"/>
     </row>
     <row r="20" spans="3:9" x14ac:dyDescent="0.15">
       <c r="D20" s="1" t="s">
@@ -7276,24 +7310,24 @@
     </row>
     <row r="24" spans="3:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="25" spans="3:9" x14ac:dyDescent="0.15">
-      <c r="D25" s="39" t="s">
+      <c r="D25" s="41" t="s">
         <v>285</v>
       </c>
-      <c r="E25" s="40"/>
-      <c r="F25" s="40"/>
-      <c r="G25" s="40"/>
-      <c r="H25" s="40"/>
-      <c r="I25" s="41"/>
+      <c r="E25" s="42"/>
+      <c r="F25" s="42"/>
+      <c r="G25" s="42"/>
+      <c r="H25" s="42"/>
+      <c r="I25" s="43"/>
     </row>
     <row r="26" spans="3:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="D26" s="42" t="s">
+      <c r="D26" s="44" t="s">
         <v>284</v>
       </c>
-      <c r="E26" s="43"/>
-      <c r="F26" s="43"/>
-      <c r="G26" s="43"/>
-      <c r="H26" s="43"/>
-      <c r="I26" s="44"/>
+      <c r="E26" s="45"/>
+      <c r="F26" s="45"/>
+      <c r="G26" s="45"/>
+      <c r="H26" s="45"/>
+      <c r="I26" s="46"/>
     </row>
     <row r="27" spans="3:9" x14ac:dyDescent="0.15">
       <c r="D27" s="30"/>
@@ -7315,24 +7349,24 @@
     </row>
     <row r="31" spans="3:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="32" spans="3:9" x14ac:dyDescent="0.15">
-      <c r="D32" s="39" t="s">
+      <c r="D32" s="41" t="s">
         <v>285</v>
       </c>
-      <c r="E32" s="40"/>
-      <c r="F32" s="40"/>
-      <c r="G32" s="40"/>
-      <c r="H32" s="40"/>
-      <c r="I32" s="41"/>
+      <c r="E32" s="42"/>
+      <c r="F32" s="42"/>
+      <c r="G32" s="42"/>
+      <c r="H32" s="42"/>
+      <c r="I32" s="43"/>
     </row>
     <row r="33" spans="4:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="D33" s="42" t="s">
+      <c r="D33" s="44" t="s">
         <v>288</v>
       </c>
-      <c r="E33" s="43"/>
-      <c r="F33" s="43"/>
-      <c r="G33" s="43"/>
-      <c r="H33" s="43"/>
-      <c r="I33" s="44"/>
+      <c r="E33" s="45"/>
+      <c r="F33" s="45"/>
+      <c r="G33" s="45"/>
+      <c r="H33" s="45"/>
+      <c r="I33" s="46"/>
     </row>
   </sheetData>
   <mergeCells count="6">

--- a/マニュアル.xlsx
+++ b/マニュアル.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="640" uniqueCount="297">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="648" uniqueCount="303">
   <si>
     <t>１．はじめに</t>
     <phoneticPr fontId="2"/>
@@ -2557,6 +2557,130 @@
     </rPh>
     <rPh sb="108" eb="110">
       <t>セイセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>総メモリ使用量出力機能</t>
+    <rPh sb="0" eb="1">
+      <t>ソウ</t>
+    </rPh>
+    <rPh sb="4" eb="7">
+      <t>シヨウリョウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>シュツリョク</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>変数単位のメモリ使用量出力機能</t>
+    <rPh sb="0" eb="2">
+      <t>ヘンスウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>タンイ</t>
+    </rPh>
+    <rPh sb="8" eb="11">
+      <t>シヨウリョウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>シュツリョク</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>総メモリ使用量を出力する機能</t>
+    <rPh sb="0" eb="1">
+      <t>ソウ</t>
+    </rPh>
+    <rPh sb="4" eb="7">
+      <t>シヨウリョウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>シュツリョク</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>総メモリ使用量を取得するツールとして，以下がある．
+tools/mem.sh　&lt;ELFファイル&gt;
+本ツールを使用する場合は，tools配下で，
+sh mem.sh 
+を実行すると，総メモリ使用量がmem.xlsxとして出力される</t>
+    <rPh sb="0" eb="1">
+      <t>ソウ</t>
+    </rPh>
+    <rPh sb="4" eb="7">
+      <t>シヨウリョウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="50" eb="51">
+      <t>ホン</t>
+    </rPh>
+    <rPh sb="55" eb="57">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="59" eb="61">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="68" eb="70">
+      <t>ハイカ</t>
+    </rPh>
+    <rPh sb="85" eb="87">
+      <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>各グローバル変数単位のメモリ使用量を出力する機能</t>
+    <rPh sb="0" eb="1">
+      <t>カク</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ヘンスウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>タンイ</t>
+    </rPh>
+    <rPh sb="14" eb="17">
+      <t>シヨウリョウ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>シュツリョク</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Debugger.xlsxの「GLOBAL」シートに全変数のメモリ使用量が出力されている．</t>
+    <rPh sb="26" eb="27">
+      <t>ゼン</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ヘンスウ</t>
+    </rPh>
+    <rPh sb="33" eb="36">
+      <t>シヨウリョウ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>シュツリョク</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -6781,7 +6905,7 @@
   <cols>
     <col min="1" max="1" width="2.625" style="18" customWidth="1"/>
     <col min="2" max="2" width="3.625" style="18" customWidth="1"/>
-    <col min="3" max="3" width="34.875" style="18" customWidth="1"/>
+    <col min="3" max="3" width="54.375" style="18" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="72.625" style="18" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="79" style="18" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="64.875" style="18" bestFit="1" customWidth="1"/>
@@ -7010,17 +7134,33 @@
         <v>295</v>
       </c>
     </row>
-    <row r="20" spans="3:6" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="C20" s="32"/>
-      <c r="D20" s="15"/>
-      <c r="E20" s="15"/>
-      <c r="F20" s="15"/>
+    <row r="20" spans="3:6" ht="81" x14ac:dyDescent="0.15">
+      <c r="C20" s="32" t="s">
+        <v>297</v>
+      </c>
+      <c r="D20" s="15" t="s">
+        <v>299</v>
+      </c>
+      <c r="E20" s="28" t="s">
+        <v>251</v>
+      </c>
+      <c r="F20" s="23" t="s">
+        <v>300</v>
+      </c>
     </row>
     <row r="21" spans="3:6" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="C21" s="32"/>
-      <c r="D21" s="15"/>
-      <c r="E21" s="15"/>
-      <c r="F21" s="15"/>
+      <c r="C21" s="32" t="s">
+        <v>298</v>
+      </c>
+      <c r="D21" s="15" t="s">
+        <v>301</v>
+      </c>
+      <c r="E21" s="28" t="s">
+        <v>251</v>
+      </c>
+      <c r="F21" s="15" t="s">
+        <v>302</v>
+      </c>
     </row>
     <row r="22" spans="3:6" ht="17.25" x14ac:dyDescent="0.15">
       <c r="C22" s="32"/>

--- a/マニュアル.xlsx
+++ b/マニュアル.xlsx
@@ -18,14 +18,14 @@
     <sheet name="付録" sheetId="9" r:id="rId9"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">タイトル!$A$1:$J$22</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">タイトル!$A$1:$J$23</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="648" uniqueCount="303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="661" uniqueCount="316">
   <si>
     <t>１．はじめに</t>
     <phoneticPr fontId="2"/>
@@ -1437,11 +1437,6 @@
   <si>
     <t>@DBG&gt;d 0x100
 deleted break point:0x100</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>@DBG&gt;n
-@DBG&gt;</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -2052,16 +2047,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>・DUMPファイル(objdump -dの出力結果)</t>
-    <rPh sb="21" eb="23">
-      <t>シュツリョク</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>ケッカ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>②デバッグ情報を作成する</t>
     <rPh sb="5" eb="7">
       <t>ジョウホウ</t>
@@ -2681,6 +2666,226 @@
     </rPh>
     <rPh sb="37" eb="39">
       <t>シュツリョク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>・DUMPファイル(Cコードがマージされたもの(SJIS))</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 本ファイルは，以下の方法で作成する．</t>
+    <rPh sb="1" eb="2">
+      <t>ホン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ホウホウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> # v850-elf-objdump.exe -S -d ELFファイル &gt; binary.dump</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 上記ファイル(binary.dump)をサクラエディタ等で開き，SJIS/LF形式で保存する．</t>
+    <rPh sb="1" eb="3">
+      <t>ジョウキ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>トウ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>ヒラ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>ケイシキ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>ホゾン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>関数復帰</t>
+    <rPh sb="0" eb="2">
+      <t>カンスウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>フッキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>関数の中をデバッグ中に，復帰させたいときに本コマンドを実行すると，呼び出し元に戻る</t>
+    <rPh sb="0" eb="2">
+      <t>カンスウ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>チュウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>フッキ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>ホン</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>ダ</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>モト</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>モド</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>r</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>@DBG&gt;r
+@CPU&gt;</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>CPUクロック時間表示機能</t>
+    <rPh sb="7" eb="9">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>CPUが起動してからのクロック時間を表示する．</t>
+    <rPh sb="4" eb="6">
+      <t>キドウ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>e</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>@DBG&gt;n
+@DBG&gt;</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>@DBG&gt;e
+clock = 371447
+@DBG&gt;n
+@DBG&gt;e
+clock = 371448</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>2016.07.04</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>・クロック時間表示機能を追加した(デバッグ機能一覧)
+・関数復帰コマンドを追加した(デバッグ機能一覧)
+・GUIでのアセンブラ命令表示形式を変更した(インストール手順)
+　※命令コードベースから関数コード＆アセンブラ命令表記に変更
+　※そのため，インストール手順としてDUMPファイルの作成方法を若干変更した．</t>
+    <rPh sb="5" eb="7">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>カンスウ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>フッキ</t>
+    </rPh>
+    <rPh sb="63" eb="65">
+      <t>メイレイ</t>
+    </rPh>
+    <rPh sb="65" eb="67">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="67" eb="69">
+      <t>ケイシキ</t>
+    </rPh>
+    <rPh sb="70" eb="72">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="81" eb="83">
+      <t>テジュン</t>
+    </rPh>
+    <rPh sb="87" eb="89">
+      <t>メイレイ</t>
+    </rPh>
+    <rPh sb="97" eb="99">
+      <t>カンスウ</t>
+    </rPh>
+    <rPh sb="108" eb="110">
+      <t>メイレイ</t>
+    </rPh>
+    <rPh sb="110" eb="112">
+      <t>ヒョウキ</t>
+    </rPh>
+    <rPh sb="113" eb="115">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="129" eb="131">
+      <t>テジュン</t>
+    </rPh>
+    <rPh sb="143" eb="145">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="145" eb="147">
+      <t>ホウホウ</t>
+    </rPh>
+    <rPh sb="148" eb="150">
+      <t>ジャッカン</t>
+    </rPh>
+    <rPh sb="150" eb="152">
+      <t>ヘンコウ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -2940,7 +3145,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2949,15 +3154,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFill="1">
       <alignment vertical="center"/>
@@ -3040,12 +3236,6 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -3081,6 +3271,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4512,55 +4714,72 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B6:I12"/>
+  <dimension ref="B6:I13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" zoomScaleSheetLayoutView="130" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" zoomScaleSheetLayoutView="130" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="6" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.75" style="1" customWidth="1"/>
-    <col min="3" max="8" width="9" style="1"/>
-    <col min="9" max="9" width="24" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="6" style="15" customWidth="1"/>
+    <col min="2" max="2" width="15.75" style="15" customWidth="1"/>
+    <col min="3" max="8" width="9" style="15"/>
+    <col min="9" max="9" width="24" style="15" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="15"/>
   </cols>
   <sheetData>
     <row r="6" spans="2:9" ht="42" x14ac:dyDescent="0.15">
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="42" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="C11" s="33" t="s">
+      <c r="C11" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="D11" s="33"/>
-      <c r="E11" s="33"/>
-      <c r="F11" s="33"/>
-      <c r="G11" s="33"/>
-      <c r="H11" s="33"/>
-      <c r="I11" s="33"/>
+      <c r="D11" s="43"/>
+      <c r="E11" s="43"/>
+      <c r="F11" s="43"/>
+      <c r="G11" s="43"/>
+      <c r="H11" s="43"/>
+      <c r="I11" s="43"/>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C12" s="34" t="s">
+      <c r="C12" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="D12" s="34"/>
-      <c r="E12" s="34"/>
-      <c r="F12" s="34"/>
-      <c r="G12" s="34"/>
-      <c r="H12" s="34"/>
-      <c r="I12" s="34"/>
+      <c r="D12" s="44"/>
+      <c r="E12" s="44"/>
+      <c r="F12" s="44"/>
+      <c r="G12" s="44"/>
+      <c r="H12" s="44"/>
+      <c r="I12" s="44"/>
+    </row>
+    <row r="13" spans="2:9" ht="76.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B13" s="12" t="s">
+        <v>314</v>
+      </c>
+      <c r="C13" s="45" t="s">
+        <v>315</v>
+      </c>
+      <c r="D13" s="44"/>
+      <c r="E13" s="44"/>
+      <c r="F13" s="44"/>
+      <c r="G13" s="44"/>
+      <c r="H13" s="44"/>
+      <c r="I13" s="44"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="C11:I11"/>
+    <mergeCell ref="C13:I13"/>
     <mergeCell ref="C12:I12"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
@@ -4583,7 +4802,7 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="3" t="s">
         <v>6</v>
       </c>
     </row>
@@ -4614,17 +4833,17 @@
     </row>
     <row r="8" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B8" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="9" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B9" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="10" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B10" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
   </sheetData>
@@ -4673,7 +4892,7 @@
     <col min="1" max="1" width="4.5" style="1" customWidth="1"/>
     <col min="2" max="2" width="3.125" style="1" customWidth="1"/>
     <col min="3" max="3" width="3.625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="43.125" style="7" customWidth="1"/>
+    <col min="4" max="4" width="43.125" style="4" customWidth="1"/>
     <col min="5" max="5" width="9" style="2"/>
     <col min="6" max="16384" width="9" style="1"/>
   </cols>
@@ -4689,650 +4908,650 @@
       </c>
     </row>
     <row r="5" spans="2:5" ht="27" x14ac:dyDescent="0.15">
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="10" t="s">
+      <c r="E5" s="7" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="E6" s="11" t="s">
+      <c r="E6" s="8" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="E7" s="11" t="s">
+      <c r="E7" s="8" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="D8" s="9" t="s">
+      <c r="D8" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="E8" s="11" t="s">
+      <c r="E8" s="8" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="D9" s="9" t="s">
+      <c r="D9" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="E9" s="11" t="s">
+      <c r="E9" s="8" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="D10" s="9" t="s">
+      <c r="D10" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="E10" s="11" t="s">
+      <c r="E10" s="8" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="D11" s="9" t="s">
+      <c r="D11" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="E11" s="11" t="s">
+      <c r="E11" s="8" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="D12" s="9" t="s">
+      <c r="D12" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="E12" s="11" t="s">
+      <c r="E12" s="8" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="D13" s="9" t="s">
+      <c r="D13" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="E13" s="11" t="s">
+      <c r="E13" s="8" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="D14" s="9" t="s">
+      <c r="D14" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="E14" s="11" t="s">
+      <c r="E14" s="8" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="D15" s="9" t="s">
+      <c r="D15" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="E15" s="11" t="s">
+      <c r="E15" s="8" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="D16" s="9" t="s">
+      <c r="D16" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="E16" s="11" t="s">
+      <c r="E16" s="8" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="17" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="D17" s="9" t="s">
+      <c r="D17" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="E17" s="11" t="s">
+      <c r="E17" s="8" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="18" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="D18" s="9" t="s">
+      <c r="D18" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="E18" s="11" t="s">
+      <c r="E18" s="8" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="19" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="D19" s="9" t="s">
+      <c r="D19" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="E19" s="11" t="s">
+      <c r="E19" s="8" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="20" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="D20" s="9" t="s">
+      <c r="D20" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="E20" s="11" t="s">
+      <c r="E20" s="8" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="21" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="D21" s="9" t="s">
+      <c r="D21" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="E21" s="11" t="s">
+      <c r="E21" s="8" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="22" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="D22" s="9" t="s">
+      <c r="D22" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="E22" s="11" t="s">
+      <c r="E22" s="8" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="23" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="D23" s="9" t="s">
+      <c r="D23" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="E23" s="11" t="s">
+      <c r="E23" s="8" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="24" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="D24" s="9" t="s">
+      <c r="D24" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="E24" s="11" t="s">
+      <c r="E24" s="8" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="25" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="D25" s="9" t="s">
+      <c r="D25" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="E25" s="11" t="s">
+      <c r="E25" s="8" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="26" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="D26" s="9" t="s">
+      <c r="D26" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="E26" s="11" t="s">
+      <c r="E26" s="8" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="27" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="D27" s="9" t="s">
+      <c r="D27" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="E27" s="11" t="s">
+      <c r="E27" s="8" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="28" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="D28" s="9" t="s">
+      <c r="D28" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="E28" s="11" t="s">
+      <c r="E28" s="8" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="29" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="D29" s="9" t="s">
+      <c r="D29" s="6" t="s">
         <v>160</v>
       </c>
-      <c r="E29" s="11" t="s">
+      <c r="E29" s="8" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="30" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="D30" s="9" t="s">
+      <c r="D30" s="6" t="s">
         <v>161</v>
       </c>
-      <c r="E30" s="11" t="s">
+      <c r="E30" s="8" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="31" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="D31" s="9" t="s">
+      <c r="D31" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="E31" s="11" t="s">
+      <c r="E31" s="8" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="32" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="D32" s="9" t="s">
+      <c r="D32" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="E32" s="11" t="s">
+      <c r="E32" s="8" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="33" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="D33" s="9" t="s">
+      <c r="D33" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="E33" s="11" t="s">
+      <c r="E33" s="8" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="34" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="D34" s="9" t="s">
+      <c r="D34" s="6" t="s">
         <v>165</v>
       </c>
-      <c r="E34" s="11" t="s">
+      <c r="E34" s="8" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="35" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="D35" s="9" t="s">
+      <c r="D35" s="6" t="s">
         <v>166</v>
       </c>
-      <c r="E35" s="11" t="s">
+      <c r="E35" s="8" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="36" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="D36" s="9" t="s">
+      <c r="D36" s="6" t="s">
         <v>167</v>
       </c>
-      <c r="E36" s="11" t="s">
+      <c r="E36" s="8" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="37" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="D37" s="9" t="s">
+      <c r="D37" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="E37" s="11" t="s">
+      <c r="E37" s="8" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="38" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="D38" s="9" t="s">
+      <c r="D38" s="6" t="s">
         <v>169</v>
       </c>
-      <c r="E38" s="11" t="s">
+      <c r="E38" s="8" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="39" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="D39" s="9" t="s">
+      <c r="D39" s="6" t="s">
         <v>170</v>
       </c>
-      <c r="E39" s="11" t="s">
+      <c r="E39" s="8" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="40" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="D40" s="9" t="s">
+      <c r="D40" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="E40" s="11" t="s">
+      <c r="E40" s="8" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="41" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="D41" s="9" t="s">
+      <c r="D41" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="E41" s="11" t="s">
+      <c r="E41" s="8" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="42" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="D42" s="9" t="s">
+      <c r="D42" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="E42" s="11" t="s">
+      <c r="E42" s="8" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="43" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="D43" s="9" t="s">
+      <c r="D43" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="E43" s="11" t="s">
+      <c r="E43" s="8" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="44" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="D44" s="9" t="s">
+      <c r="D44" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="E44" s="11" t="s">
+      <c r="E44" s="8" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="45" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="D45" s="9" t="s">
+      <c r="D45" s="6" t="s">
         <v>176</v>
       </c>
-      <c r="E45" s="11" t="s">
+      <c r="E45" s="8" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="46" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="D46" s="9" t="s">
+      <c r="D46" s="6" t="s">
         <v>177</v>
       </c>
-      <c r="E46" s="11" t="s">
+      <c r="E46" s="8" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="47" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="D47" s="9" t="s">
+      <c r="D47" s="6" t="s">
         <v>178</v>
       </c>
-      <c r="E47" s="11" t="s">
+      <c r="E47" s="8" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="48" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="D48" s="9" t="s">
+      <c r="D48" s="6" t="s">
         <v>179</v>
       </c>
-      <c r="E48" s="11" t="s">
+      <c r="E48" s="8" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="49" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="D49" s="9" t="s">
+      <c r="D49" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="E49" s="11" t="s">
+      <c r="E49" s="8" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="50" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="D50" s="9" t="s">
+      <c r="D50" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="E50" s="11" t="s">
+      <c r="E50" s="8" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="51" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="D51" s="9" t="s">
+      <c r="D51" s="6" t="s">
         <v>182</v>
       </c>
-      <c r="E51" s="11" t="s">
+      <c r="E51" s="8" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="52" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="D52" s="9" t="s">
+      <c r="D52" s="6" t="s">
         <v>183</v>
       </c>
-      <c r="E52" s="11" t="s">
+      <c r="E52" s="8" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="53" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="D53" s="9" t="s">
+      <c r="D53" s="6" t="s">
         <v>184</v>
       </c>
-      <c r="E53" s="11" t="s">
+      <c r="E53" s="8" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="54" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="D54" s="9" t="s">
+      <c r="D54" s="6" t="s">
         <v>185</v>
       </c>
-      <c r="E54" s="11" t="s">
+      <c r="E54" s="8" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="55" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="D55" s="9" t="s">
+      <c r="D55" s="6" t="s">
         <v>186</v>
       </c>
-      <c r="E55" s="11" t="s">
+      <c r="E55" s="8" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="56" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="D56" s="9" t="s">
+      <c r="D56" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="E56" s="11" t="s">
+      <c r="E56" s="8" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="57" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="D57" s="9" t="s">
+      <c r="D57" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="E57" s="11" t="s">
+      <c r="E57" s="8" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="58" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="D58" s="9" t="s">
+      <c r="D58" s="6" t="s">
         <v>189</v>
       </c>
-      <c r="E58" s="11" t="s">
+      <c r="E58" s="8" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="59" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="D59" s="9" t="s">
+      <c r="D59" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="E59" s="11" t="s">
+      <c r="E59" s="8" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="60" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="D60" s="9" t="s">
+      <c r="D60" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="E60" s="11" t="s">
+      <c r="E60" s="8" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="61" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="D61" s="9" t="s">
+      <c r="D61" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="E61" s="11" t="s">
+      <c r="E61" s="8" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="62" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="D62" s="9" t="s">
+      <c r="D62" s="6" t="s">
         <v>193</v>
       </c>
-      <c r="E62" s="11" t="s">
+      <c r="E62" s="8" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="63" spans="4:5" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="D63" s="9" t="s">
+      <c r="D63" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="E63" s="11" t="s">
+      <c r="E63" s="8" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="64" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="D64" s="9" t="s">
+      <c r="D64" s="6" t="s">
         <v>195</v>
       </c>
-      <c r="E64" s="11" t="s">
+      <c r="E64" s="8" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="65" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="D65" s="9" t="s">
+      <c r="D65" s="6" t="s">
         <v>196</v>
       </c>
-      <c r="E65" s="11" t="s">
+      <c r="E65" s="8" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="66" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="D66" s="9" t="s">
+      <c r="D66" s="6" t="s">
         <v>197</v>
       </c>
-      <c r="E66" s="11" t="s">
+      <c r="E66" s="8" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="67" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="D67" s="9" t="s">
+      <c r="D67" s="6" t="s">
         <v>198</v>
       </c>
-      <c r="E67" s="11" t="s">
+      <c r="E67" s="8" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="68" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="D68" s="9" t="s">
+      <c r="D68" s="6" t="s">
         <v>199</v>
       </c>
-      <c r="E68" s="11" t="s">
+      <c r="E68" s="8" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="69" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="D69" s="9" t="s">
+      <c r="D69" s="6" t="s">
         <v>200</v>
       </c>
-      <c r="E69" s="11" t="s">
+      <c r="E69" s="8" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="70" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="D70" s="9" t="s">
+      <c r="D70" s="6" t="s">
         <v>201</v>
       </c>
-      <c r="E70" s="11" t="s">
+      <c r="E70" s="8" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="71" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="D71" s="9" t="s">
+      <c r="D71" s="6" t="s">
         <v>202</v>
       </c>
-      <c r="E71" s="11" t="s">
+      <c r="E71" s="8" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="72" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="D72" s="9" t="s">
+      <c r="D72" s="6" t="s">
         <v>203</v>
       </c>
-      <c r="E72" s="11" t="s">
+      <c r="E72" s="8" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="73" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="D73" s="9" t="s">
+      <c r="D73" s="6" t="s">
         <v>204</v>
       </c>
-      <c r="E73" s="11" t="s">
+      <c r="E73" s="8" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="74" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="D74" s="9" t="s">
+      <c r="D74" s="6" t="s">
         <v>205</v>
       </c>
-      <c r="E74" s="11" t="s">
+      <c r="E74" s="8" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="75" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="D75" s="9" t="s">
+      <c r="D75" s="6" t="s">
         <v>206</v>
       </c>
-      <c r="E75" s="11" t="s">
+      <c r="E75" s="8" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="76" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="D76" s="9" t="s">
+      <c r="D76" s="6" t="s">
         <v>207</v>
       </c>
-      <c r="E76" s="11" t="s">
+      <c r="E76" s="8" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="77" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="D77" s="9" t="s">
+      <c r="D77" s="6" t="s">
         <v>208</v>
       </c>
-      <c r="E77" s="11" t="s">
+      <c r="E77" s="8" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="78" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="D78" s="9" t="s">
+      <c r="D78" s="6" t="s">
         <v>209</v>
       </c>
-      <c r="E78" s="11" t="s">
+      <c r="E78" s="8" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="79" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="D79" s="9" t="s">
+      <c r="D79" s="6" t="s">
         <v>210</v>
       </c>
-      <c r="E79" s="11" t="s">
+      <c r="E79" s="8" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="80" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="D80" s="9" t="s">
+      <c r="D80" s="6" t="s">
         <v>211</v>
       </c>
-      <c r="E80" s="11" t="s">
+      <c r="E80" s="8" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="81" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="D81" s="9" t="s">
+      <c r="D81" s="6" t="s">
         <v>212</v>
       </c>
-      <c r="E81" s="11" t="s">
+      <c r="E81" s="8" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="82" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="D82" s="9" t="s">
+      <c r="D82" s="6" t="s">
         <v>213</v>
       </c>
-      <c r="E82" s="11" t="s">
+      <c r="E82" s="8" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="83" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="D83" s="9" t="s">
+      <c r="D83" s="6" t="s">
         <v>214</v>
       </c>
-      <c r="E83" s="11" t="s">
+      <c r="E83" s="8" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="84" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="D84" s="9" t="s">
+      <c r="D84" s="6" t="s">
         <v>215</v>
       </c>
-      <c r="E84" s="11" t="s">
+      <c r="E84" s="8" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="85" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="D85" s="9" t="s">
+      <c r="D85" s="6" t="s">
         <v>216</v>
       </c>
-      <c r="E85" s="11" t="s">
+      <c r="E85" s="8" t="s">
         <v>17</v>
       </c>
     </row>
@@ -5363,1526 +5582,1526 @@
       <c r="B2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="7"/>
+      <c r="D2" s="4"/>
       <c r="E2" s="2"/>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.15">
       <c r="C3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="7"/>
+      <c r="D3" s="4"/>
       <c r="E3" s="2"/>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="D4" s="7"/>
+      <c r="D4" s="4"/>
       <c r="E4" s="2"/>
     </row>
     <row r="5" spans="2:8" ht="27" x14ac:dyDescent="0.15">
-      <c r="D5" s="35" t="s">
+      <c r="D5" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="36"/>
-      <c r="F5" s="37"/>
-      <c r="G5" s="12" t="s">
+      <c r="E5" s="31"/>
+      <c r="F5" s="32"/>
+      <c r="G5" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="H5" s="13" t="s">
+      <c r="H5" s="10" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="D6" s="14">
+      <c r="D6" s="11">
         <v>1</v>
       </c>
-      <c r="E6" s="15" t="s">
+      <c r="E6" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="F6" s="15" t="s">
+      <c r="F6" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="G6" s="14" t="s">
+      <c r="G6" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="H6" s="16" t="s">
+      <c r="H6" s="13" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="D7" s="14">
+      <c r="D7" s="11">
         <v>2</v>
       </c>
-      <c r="E7" s="15" t="s">
+      <c r="E7" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="F7" s="15" t="s">
+      <c r="F7" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="G7" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="H7" s="16" t="s">
+      <c r="G7" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H7" s="13" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="D8" s="14">
+      <c r="D8" s="11">
         <v>2</v>
       </c>
-      <c r="E8" s="15" t="s">
+      <c r="E8" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="F8" s="15" t="s">
+      <c r="F8" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="G8" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="H8" s="16" t="s">
+      <c r="G8" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H8" s="13" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="D9" s="14">
+      <c r="D9" s="11">
         <v>2</v>
       </c>
-      <c r="E9" s="15" t="s">
+      <c r="E9" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="F9" s="15" t="s">
+      <c r="F9" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="G9" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="H9" s="16" t="s">
+      <c r="G9" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H9" s="13" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="D10" s="14">
+      <c r="D10" s="11">
         <v>2</v>
       </c>
-      <c r="E10" s="15" t="s">
+      <c r="E10" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="F10" s="15" t="s">
+      <c r="F10" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="G10" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="H10" s="16" t="s">
+      <c r="G10" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H10" s="13" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="D11" s="14">
+      <c r="D11" s="11">
         <v>3</v>
       </c>
-      <c r="E11" s="15" t="s">
+      <c r="E11" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="F11" s="15" t="s">
+      <c r="F11" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="G11" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="H11" s="16" t="s">
+      <c r="G11" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H11" s="13" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="D12" s="14">
+      <c r="D12" s="11">
         <v>3</v>
       </c>
-      <c r="E12" s="15" t="s">
+      <c r="E12" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="F12" s="15" t="s">
+      <c r="F12" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="G12" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="H12" s="16" t="s">
+      <c r="G12" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H12" s="13" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="D13" s="14">
+      <c r="D13" s="11">
         <v>3</v>
       </c>
-      <c r="E13" s="15" t="s">
+      <c r="E13" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="F13" s="15" t="s">
+      <c r="F13" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="G13" s="14" t="s">
+      <c r="G13" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="H13" s="16" t="s">
+      <c r="H13" s="13" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="D14" s="14">
+      <c r="D14" s="11">
         <v>3</v>
       </c>
-      <c r="E14" s="15" t="s">
+      <c r="E14" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="F14" s="15" t="s">
+      <c r="F14" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="G14" s="14" t="s">
+      <c r="G14" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="H14" s="16" t="s">
+      <c r="H14" s="13" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="D15" s="14">
+      <c r="D15" s="11">
         <v>4</v>
       </c>
-      <c r="E15" s="15" t="s">
+      <c r="E15" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="F15" s="15" t="s">
+      <c r="F15" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="G15" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="H15" s="16" t="s">
+      <c r="G15" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H15" s="13" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="D16" s="14">
+      <c r="D16" s="11">
         <v>4</v>
       </c>
-      <c r="E16" s="15" t="s">
+      <c r="E16" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="F16" s="15" t="s">
+      <c r="F16" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="G16" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="H16" s="16" t="s">
+      <c r="G16" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H16" s="13" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="17" spans="4:8" x14ac:dyDescent="0.15">
-      <c r="D17" s="14">
+      <c r="D17" s="11">
         <v>4</v>
       </c>
-      <c r="E17" s="15" t="s">
+      <c r="E17" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="F17" s="15" t="s">
+      <c r="F17" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="G17" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="H17" s="16" t="s">
+      <c r="G17" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H17" s="13" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="18" spans="4:8" x14ac:dyDescent="0.15">
-      <c r="D18" s="14">
+      <c r="D18" s="11">
         <v>5</v>
       </c>
-      <c r="E18" s="15" t="s">
+      <c r="E18" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="F18" s="15" t="s">
+      <c r="F18" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="G18" s="14" t="s">
+      <c r="G18" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="H18" s="16" t="s">
+      <c r="H18" s="13" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="19" spans="4:8" x14ac:dyDescent="0.15">
-      <c r="D19" s="14">
+      <c r="D19" s="11">
         <v>5</v>
       </c>
-      <c r="E19" s="15" t="s">
+      <c r="E19" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="F19" s="15" t="s">
+      <c r="F19" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="G19" s="14" t="s">
+      <c r="G19" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="H19" s="16" t="s">
+      <c r="H19" s="13" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="20" spans="4:8" x14ac:dyDescent="0.15">
-      <c r="D20" s="14">
+      <c r="D20" s="11">
         <v>5</v>
       </c>
-      <c r="E20" s="15" t="s">
+      <c r="E20" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="F20" s="15" t="s">
+      <c r="F20" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="G20" s="14" t="s">
+      <c r="G20" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="H20" s="16" t="s">
+      <c r="H20" s="13" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="21" spans="4:8" x14ac:dyDescent="0.15">
-      <c r="D21" s="14">
+      <c r="D21" s="11">
         <v>5</v>
       </c>
-      <c r="E21" s="15" t="s">
+      <c r="E21" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="F21" s="15" t="s">
+      <c r="F21" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="G21" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="H21" s="16" t="s">
+      <c r="G21" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H21" s="13" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="22" spans="4:8" x14ac:dyDescent="0.15">
-      <c r="D22" s="14">
+      <c r="D22" s="11">
         <v>5</v>
       </c>
-      <c r="E22" s="15" t="s">
+      <c r="E22" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="F22" s="15" t="s">
+      <c r="F22" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="G22" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="H22" s="16" t="s">
+      <c r="G22" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H22" s="13" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="23" spans="4:8" x14ac:dyDescent="0.15">
-      <c r="D23" s="14">
+      <c r="D23" s="11">
         <v>5</v>
       </c>
-      <c r="E23" s="15" t="s">
+      <c r="E23" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="F23" s="15" t="s">
+      <c r="F23" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="G23" s="14" t="s">
+      <c r="G23" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="H23" s="16" t="s">
+      <c r="H23" s="13" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="24" spans="4:8" x14ac:dyDescent="0.15">
-      <c r="D24" s="14">
+      <c r="D24" s="11">
         <v>5</v>
       </c>
-      <c r="E24" s="15" t="s">
+      <c r="E24" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="F24" s="15" t="s">
+      <c r="F24" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="G24" s="14" t="s">
+      <c r="G24" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="H24" s="16" t="s">
+      <c r="H24" s="13" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="25" spans="4:8" x14ac:dyDescent="0.15">
-      <c r="D25" s="14">
+      <c r="D25" s="11">
         <v>6</v>
       </c>
-      <c r="E25" s="15" t="s">
+      <c r="E25" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="F25" s="15" t="s">
+      <c r="F25" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="G25" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="H25" s="16" t="s">
+      <c r="G25" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H25" s="13" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="26" spans="4:8" x14ac:dyDescent="0.15">
-      <c r="D26" s="14">
+      <c r="D26" s="11">
         <v>7</v>
       </c>
-      <c r="E26" s="15" t="s">
+      <c r="E26" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="F26" s="15" t="s">
+      <c r="F26" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="G26" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="H26" s="16" t="s">
+      <c r="G26" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H26" s="13" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="27" spans="4:8" x14ac:dyDescent="0.15">
-      <c r="D27" s="14">
+      <c r="D27" s="11">
         <v>8</v>
       </c>
-      <c r="E27" s="15" t="s">
+      <c r="E27" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="F27" s="15" t="s">
+      <c r="F27" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="G27" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="H27" s="16" t="s">
+      <c r="G27" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H27" s="13" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="28" spans="4:8" x14ac:dyDescent="0.15">
-      <c r="D28" s="14">
+      <c r="D28" s="11">
         <v>9</v>
       </c>
-      <c r="E28" s="15" t="s">
+      <c r="E28" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="F28" s="15" t="s">
+      <c r="F28" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="G28" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="H28" s="16" t="s">
+      <c r="G28" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H28" s="13" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="29" spans="4:8" x14ac:dyDescent="0.15">
-      <c r="D29" s="14">
+      <c r="D29" s="11">
         <v>10</v>
       </c>
-      <c r="E29" s="15" t="s">
+      <c r="E29" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="F29" s="15" t="s">
+      <c r="F29" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="G29" s="14" t="s">
+      <c r="G29" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="H29" s="16" t="s">
+      <c r="H29" s="13" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="30" spans="4:8" x14ac:dyDescent="0.15">
-      <c r="D30" s="14">
+      <c r="D30" s="11">
         <v>11</v>
       </c>
-      <c r="E30" s="15" t="s">
+      <c r="E30" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="F30" s="15" t="s">
+      <c r="F30" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="G30" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="H30" s="16" t="s">
+      <c r="G30" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H30" s="13" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="31" spans="4:8" x14ac:dyDescent="0.15">
-      <c r="D31" s="14">
+      <c r="D31" s="11">
         <v>12</v>
       </c>
-      <c r="E31" s="15" t="s">
+      <c r="E31" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="F31" s="15" t="s">
+      <c r="F31" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="G31" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="H31" s="17" t="s">
+      <c r="G31" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H31" s="14" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="32" spans="4:8" x14ac:dyDescent="0.15">
-      <c r="D32" s="14">
+      <c r="D32" s="11">
         <v>12</v>
       </c>
-      <c r="E32" s="15" t="s">
+      <c r="E32" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="F32" s="15" t="s">
+      <c r="F32" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="G32" s="14" t="s">
+      <c r="G32" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="H32" s="17" t="s">
+      <c r="H32" s="14" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="33" spans="4:8" x14ac:dyDescent="0.15">
-      <c r="D33" s="14">
+      <c r="D33" s="11">
         <v>12</v>
       </c>
-      <c r="E33" s="15" t="s">
+      <c r="E33" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="F33" s="15" t="s">
+      <c r="F33" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="G33" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="H33" s="16" t="s">
+      <c r="G33" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H33" s="13" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="34" spans="4:8" x14ac:dyDescent="0.15">
-      <c r="D34" s="14">
+      <c r="D34" s="11">
         <v>12</v>
       </c>
-      <c r="E34" s="15" t="s">
+      <c r="E34" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="F34" s="15" t="s">
+      <c r="F34" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="G34" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="H34" s="16" t="s">
+      <c r="G34" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H34" s="13" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="35" spans="4:8" x14ac:dyDescent="0.15">
-      <c r="D35" s="14">
+      <c r="D35" s="11">
         <v>12</v>
       </c>
-      <c r="E35" s="15" t="s">
+      <c r="E35" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="F35" s="15" t="s">
+      <c r="F35" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="G35" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="H35" s="16" t="s">
+      <c r="G35" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H35" s="13" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="36" spans="4:8" x14ac:dyDescent="0.15">
-      <c r="D36" s="14">
+      <c r="D36" s="11">
         <v>12</v>
       </c>
-      <c r="E36" s="15" t="s">
+      <c r="E36" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="F36" s="15" t="s">
+      <c r="F36" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="G36" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="H36" s="17" t="s">
+      <c r="G36" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H36" s="14" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="37" spans="4:8" x14ac:dyDescent="0.15">
-      <c r="D37" s="14">
+      <c r="D37" s="11">
         <v>12</v>
       </c>
-      <c r="E37" s="15" t="s">
+      <c r="E37" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="F37" s="15" t="s">
+      <c r="F37" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="G37" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="H37" s="16" t="s">
+      <c r="G37" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H37" s="13" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="38" spans="4:8" x14ac:dyDescent="0.15">
-      <c r="D38" s="14">
+      <c r="D38" s="11">
         <v>12</v>
       </c>
-      <c r="E38" s="15" t="s">
+      <c r="E38" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="F38" s="15" t="s">
+      <c r="F38" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="G38" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="H38" s="16" t="s">
+      <c r="G38" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H38" s="13" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="39" spans="4:8" x14ac:dyDescent="0.15">
-      <c r="D39" s="14">
+      <c r="D39" s="11">
         <v>12</v>
       </c>
-      <c r="E39" s="15" t="s">
+      <c r="E39" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="F39" s="15" t="s">
+      <c r="F39" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="G39" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="H39" s="16" t="s">
+      <c r="G39" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H39" s="13" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="40" spans="4:8" x14ac:dyDescent="0.15">
-      <c r="D40" s="14">
+      <c r="D40" s="11">
         <v>13</v>
       </c>
-      <c r="E40" s="15" t="s">
+      <c r="E40" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="F40" s="15" t="s">
+      <c r="F40" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="G40" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="H40" s="17" t="s">
+      <c r="G40" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H40" s="14" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="41" spans="4:8" x14ac:dyDescent="0.15">
-      <c r="D41" s="14">
+      <c r="D41" s="11">
         <v>13</v>
       </c>
-      <c r="E41" s="15" t="s">
+      <c r="E41" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="F41" s="15" t="s">
+      <c r="F41" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="G41" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="H41" s="17" t="s">
+      <c r="G41" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H41" s="14" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="42" spans="4:8" x14ac:dyDescent="0.15">
-      <c r="D42" s="14">
+      <c r="D42" s="11">
         <v>13</v>
       </c>
-      <c r="E42" s="15" t="s">
+      <c r="E42" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="F42" s="15" t="s">
+      <c r="F42" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="G42" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="H42" s="16" t="s">
+      <c r="G42" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H42" s="13" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="43" spans="4:8" x14ac:dyDescent="0.15">
-      <c r="D43" s="14">
+      <c r="D43" s="11">
         <v>13</v>
       </c>
-      <c r="E43" s="15" t="s">
+      <c r="E43" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="F43" s="15" t="s">
+      <c r="F43" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="G43" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="H43" s="16" t="s">
+      <c r="G43" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H43" s="13" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="44" spans="4:8" x14ac:dyDescent="0.15">
-      <c r="D44" s="14">
+      <c r="D44" s="11">
         <v>13</v>
       </c>
-      <c r="E44" s="15" t="s">
+      <c r="E44" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="F44" s="15" t="s">
+      <c r="F44" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="G44" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="H44" s="17" t="s">
+      <c r="G44" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H44" s="14" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="45" spans="4:8" x14ac:dyDescent="0.15">
-      <c r="D45" s="14">
+      <c r="D45" s="11">
         <v>13</v>
       </c>
-      <c r="E45" s="15" t="s">
+      <c r="E45" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="F45" s="15" t="s">
+      <c r="F45" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="G45" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="H45" s="16" t="s">
+      <c r="G45" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H45" s="13" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="46" spans="4:8" x14ac:dyDescent="0.15">
-      <c r="D46" s="14">
+      <c r="D46" s="11">
         <v>13</v>
       </c>
-      <c r="E46" s="15" t="s">
+      <c r="E46" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="F46" s="15" t="s">
+      <c r="F46" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="G46" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="H46" s="16" t="s">
+      <c r="G46" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H46" s="13" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="47" spans="4:8" x14ac:dyDescent="0.15">
-      <c r="D47" s="14">
+      <c r="D47" s="11">
         <v>13</v>
       </c>
-      <c r="E47" s="15" t="s">
+      <c r="E47" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="F47" s="15" t="s">
+      <c r="F47" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="G47" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="H47" s="16" t="s">
+      <c r="G47" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H47" s="13" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="48" spans="4:8" x14ac:dyDescent="0.15">
-      <c r="D48" s="14">
+      <c r="D48" s="11">
         <v>13</v>
       </c>
-      <c r="E48" s="15" t="s">
+      <c r="E48" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="F48" s="15" t="s">
+      <c r="F48" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="G48" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="H48" s="16" t="s">
+      <c r="G48" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H48" s="13" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="49" spans="4:8" x14ac:dyDescent="0.15">
-      <c r="D49" s="14">
+      <c r="D49" s="11">
         <v>14</v>
       </c>
-      <c r="E49" s="15" t="s">
+      <c r="E49" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="F49" s="15" t="s">
+      <c r="F49" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="G49" s="14" t="s">
+      <c r="G49" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="H49" s="17" t="s">
+      <c r="H49" s="14" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="50" spans="4:8" x14ac:dyDescent="0.15">
-      <c r="D50" s="14">
+      <c r="D50" s="11">
         <v>15</v>
       </c>
-      <c r="E50" s="15" t="s">
+      <c r="E50" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="F50" s="15" t="s">
+      <c r="F50" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="G50" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="H50" s="16" t="s">
+      <c r="G50" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H50" s="13" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="51" spans="4:8" x14ac:dyDescent="0.15">
-      <c r="D51" s="14">
+      <c r="D51" s="11">
         <v>16</v>
       </c>
-      <c r="E51" s="15" t="s">
+      <c r="E51" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="F51" s="15" t="s">
+      <c r="F51" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="G51" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="H51" s="16" t="s">
+      <c r="G51" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H51" s="13" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="52" spans="4:8" x14ac:dyDescent="0.15">
-      <c r="D52" s="14">
-        <v>17</v>
-      </c>
-      <c r="E52" s="15" t="s">
+      <c r="D52" s="11">
+        <v>17</v>
+      </c>
+      <c r="E52" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="F52" s="15" t="s">
+      <c r="F52" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="G52" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="H52" s="16" t="s">
+      <c r="G52" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H52" s="13" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="53" spans="4:8" x14ac:dyDescent="0.15">
-      <c r="D53" s="14">
+      <c r="D53" s="11">
         <v>18</v>
       </c>
-      <c r="E53" s="15" t="s">
+      <c r="E53" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="F53" s="15" t="s">
+      <c r="F53" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="G53" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="H53" s="16" t="s">
+      <c r="G53" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H53" s="13" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="54" spans="4:8" x14ac:dyDescent="0.15">
-      <c r="D54" s="14">
+      <c r="D54" s="11">
         <v>19</v>
       </c>
-      <c r="E54" s="15" t="s">
+      <c r="E54" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="F54" s="15" t="s">
+      <c r="F54" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="G54" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="H54" s="16" t="s">
+      <c r="G54" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H54" s="13" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="55" spans="4:8" x14ac:dyDescent="0.15">
-      <c r="D55" s="14">
+      <c r="D55" s="11">
         <v>20</v>
       </c>
-      <c r="E55" s="15" t="s">
+      <c r="E55" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="F55" s="15" t="s">
+      <c r="F55" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="G55" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="H55" s="16" t="s">
+      <c r="G55" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H55" s="13" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="56" spans="4:8" x14ac:dyDescent="0.15">
-      <c r="D56" s="14">
+      <c r="D56" s="11">
         <v>21</v>
       </c>
-      <c r="E56" s="15" t="s">
+      <c r="E56" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="F56" s="15" t="s">
+      <c r="F56" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="G56" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="H56" s="17" t="s">
+      <c r="G56" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H56" s="14" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="57" spans="4:8" x14ac:dyDescent="0.15">
-      <c r="D57" s="14">
+      <c r="D57" s="11">
         <v>21</v>
       </c>
-      <c r="E57" s="15" t="s">
+      <c r="E57" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="F57" s="15" t="s">
+      <c r="F57" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="G57" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="H57" s="17" t="s">
+      <c r="G57" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H57" s="14" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="58" spans="4:8" x14ac:dyDescent="0.15">
-      <c r="D58" s="14">
+      <c r="D58" s="11">
         <v>21</v>
       </c>
-      <c r="E58" s="15" t="s">
+      <c r="E58" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="F58" s="15" t="s">
+      <c r="F58" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="G58" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="H58" s="17" t="s">
+      <c r="G58" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H58" s="14" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="59" spans="4:8" x14ac:dyDescent="0.15">
-      <c r="D59" s="14">
+      <c r="D59" s="11">
         <v>21</v>
       </c>
-      <c r="E59" s="15" t="s">
+      <c r="E59" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="F59" s="15" t="s">
+      <c r="F59" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="G59" s="14" t="s">
+      <c r="G59" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="H59" s="16" t="s">
+      <c r="H59" s="13" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="60" spans="4:8" x14ac:dyDescent="0.15">
-      <c r="D60" s="14">
+      <c r="D60" s="11">
         <v>21</v>
       </c>
-      <c r="E60" s="15" t="s">
+      <c r="E60" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="F60" s="15" t="s">
+      <c r="F60" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="G60" s="14" t="s">
+      <c r="G60" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="H60" s="16" t="s">
+      <c r="H60" s="13" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="61" spans="4:8" x14ac:dyDescent="0.15">
-      <c r="D61" s="14">
+      <c r="D61" s="11">
         <v>21</v>
       </c>
-      <c r="E61" s="15" t="s">
+      <c r="E61" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="F61" s="15" t="s">
+      <c r="F61" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="G61" s="14" t="s">
+      <c r="G61" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="H61" s="16" t="s">
+      <c r="H61" s="13" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="62" spans="4:8" x14ac:dyDescent="0.15">
-      <c r="D62" s="14">
+      <c r="D62" s="11">
         <v>21</v>
       </c>
-      <c r="E62" s="15" t="s">
+      <c r="E62" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="F62" s="15" t="s">
+      <c r="F62" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="G62" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="H62" s="17" t="s">
+      <c r="G62" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H62" s="14" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="63" spans="4:8" x14ac:dyDescent="0.15">
-      <c r="D63" s="14">
+      <c r="D63" s="11">
         <v>21</v>
       </c>
-      <c r="E63" s="15" t="s">
+      <c r="E63" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="F63" s="15" t="s">
+      <c r="F63" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="G63" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="H63" s="17" t="s">
+      <c r="G63" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H63" s="14" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="64" spans="4:8" x14ac:dyDescent="0.15">
-      <c r="D64" s="14">
+      <c r="D64" s="11">
         <v>21</v>
       </c>
-      <c r="E64" s="15" t="s">
+      <c r="E64" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="F64" s="15" t="s">
+      <c r="F64" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="G64" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="H64" s="17" t="s">
+      <c r="G64" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H64" s="14" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="65" spans="4:8" x14ac:dyDescent="0.15">
-      <c r="D65" s="14">
+      <c r="D65" s="11">
         <v>21</v>
       </c>
-      <c r="E65" s="15" t="s">
+      <c r="E65" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="F65" s="15" t="s">
+      <c r="F65" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="G65" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="H65" s="17" t="s">
+      <c r="G65" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H65" s="14" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="66" spans="4:8" x14ac:dyDescent="0.15">
-      <c r="D66" s="14">
+      <c r="D66" s="11">
         <v>21</v>
       </c>
-      <c r="E66" s="15" t="s">
+      <c r="E66" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="F66" s="15" t="s">
+      <c r="F66" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="G66" s="14" t="s">
+      <c r="G66" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="H66" s="16" t="s">
+      <c r="H66" s="13" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="67" spans="4:8" x14ac:dyDescent="0.15">
-      <c r="D67" s="14">
+      <c r="D67" s="11">
         <v>21</v>
       </c>
-      <c r="E67" s="15" t="s">
+      <c r="E67" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="F67" s="15" t="s">
+      <c r="F67" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="G67" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="H67" s="17" t="s">
+      <c r="G67" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H67" s="14" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="68" spans="4:8" x14ac:dyDescent="0.15">
-      <c r="D68" s="14">
+      <c r="D68" s="11">
         <v>21</v>
       </c>
-      <c r="E68" s="15" t="s">
+      <c r="E68" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="F68" s="15" t="s">
+      <c r="F68" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="G68" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="H68" s="17" t="s">
+      <c r="G68" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H68" s="14" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="69" spans="4:8" x14ac:dyDescent="0.15">
-      <c r="D69" s="14">
+      <c r="D69" s="11">
         <v>21</v>
       </c>
-      <c r="E69" s="15" t="s">
+      <c r="E69" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="F69" s="15" t="s">
+      <c r="F69" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="G69" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="H69" s="17" t="s">
+      <c r="G69" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H69" s="14" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="70" spans="4:8" x14ac:dyDescent="0.15">
-      <c r="D70" s="14">
+      <c r="D70" s="11">
         <v>21</v>
       </c>
-      <c r="E70" s="15" t="s">
+      <c r="E70" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="F70" s="15" t="s">
+      <c r="F70" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="G70" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="H70" s="17" t="s">
+      <c r="G70" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H70" s="14" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="71" spans="4:8" x14ac:dyDescent="0.15">
-      <c r="D71" s="14">
+      <c r="D71" s="11">
         <v>21</v>
       </c>
-      <c r="E71" s="15" t="s">
+      <c r="E71" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="F71" s="15" t="s">
+      <c r="F71" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="G71" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="H71" s="17" t="s">
+      <c r="G71" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H71" s="14" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="72" spans="4:8" x14ac:dyDescent="0.15">
-      <c r="D72" s="14">
+      <c r="D72" s="11">
         <v>21</v>
       </c>
-      <c r="E72" s="15" t="s">
+      <c r="E72" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="F72" s="15" t="s">
+      <c r="F72" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="G72" s="14" t="s">
+      <c r="G72" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="H72" s="16" t="s">
+      <c r="H72" s="13" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="73" spans="4:8" x14ac:dyDescent="0.15">
-      <c r="D73" s="14">
+      <c r="D73" s="11">
         <v>21</v>
       </c>
-      <c r="E73" s="15" t="s">
+      <c r="E73" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="F73" s="15" t="s">
+      <c r="F73" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="G73" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="H73" s="17" t="s">
+      <c r="G73" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H73" s="14" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="74" spans="4:8" x14ac:dyDescent="0.15">
-      <c r="D74" s="14">
+      <c r="D74" s="11">
         <v>21</v>
       </c>
-      <c r="E74" s="15" t="s">
+      <c r="E74" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="F74" s="15" t="s">
+      <c r="F74" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="G74" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="H74" s="17" t="s">
+      <c r="G74" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H74" s="14" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="75" spans="4:8" x14ac:dyDescent="0.15">
-      <c r="D75" s="14">
+      <c r="D75" s="11">
         <v>21</v>
       </c>
-      <c r="E75" s="15" t="s">
+      <c r="E75" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="F75" s="15" t="s">
+      <c r="F75" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="G75" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="H75" s="17" t="s">
+      <c r="G75" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H75" s="14" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="76" spans="4:8" x14ac:dyDescent="0.15">
-      <c r="D76" s="14">
+      <c r="D76" s="11">
         <v>21</v>
       </c>
-      <c r="E76" s="15" t="s">
+      <c r="E76" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="F76" s="15" t="s">
+      <c r="F76" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="G76" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="H76" s="16" t="s">
+      <c r="G76" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H76" s="13" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="77" spans="4:8" x14ac:dyDescent="0.15">
-      <c r="D77" s="14">
+      <c r="D77" s="11">
         <v>21</v>
       </c>
-      <c r="E77" s="15" t="s">
+      <c r="E77" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="F77" s="15" t="s">
+      <c r="F77" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="G77" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="H77" s="16" t="s">
+      <c r="G77" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H77" s="13" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="78" spans="4:8" x14ac:dyDescent="0.15">
-      <c r="D78" s="14">
+      <c r="D78" s="11">
         <v>22</v>
       </c>
-      <c r="E78" s="15" t="s">
+      <c r="E78" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="F78" s="15" t="s">
+      <c r="F78" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="G78" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="H78" s="17" t="s">
+      <c r="G78" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H78" s="14" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="79" spans="4:8" x14ac:dyDescent="0.15">
-      <c r="D79" s="14">
+      <c r="D79" s="11">
         <v>21</v>
       </c>
-      <c r="E79" s="15" t="s">
+      <c r="E79" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="F79" s="15" t="s">
+      <c r="F79" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="G79" s="14" t="s">
+      <c r="G79" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="H79" s="16" t="s">
+      <c r="H79" s="13" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="80" spans="4:8" x14ac:dyDescent="0.15">
-      <c r="D80" s="14">
+      <c r="D80" s="11">
         <v>21</v>
       </c>
-      <c r="E80" s="15" t="s">
+      <c r="E80" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="F80" s="15" t="s">
+      <c r="F80" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="G80" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="H80" s="17" t="s">
+      <c r="G80" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H80" s="14" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="81" spans="4:8" x14ac:dyDescent="0.15">
-      <c r="D81" s="14">
+      <c r="D81" s="11">
         <v>21</v>
       </c>
-      <c r="E81" s="15" t="s">
+      <c r="E81" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="F81" s="15" t="s">
+      <c r="F81" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="G81" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="H81" s="17" t="s">
+      <c r="G81" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H81" s="14" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="82" spans="4:8" x14ac:dyDescent="0.15">
-      <c r="D82" s="14">
+      <c r="D82" s="11">
         <v>21</v>
       </c>
-      <c r="E82" s="15" t="s">
+      <c r="E82" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="F82" s="15" t="s">
+      <c r="F82" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="G82" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="H82" s="17" t="s">
+      <c r="G82" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H82" s="14" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="83" spans="4:8" x14ac:dyDescent="0.15">
-      <c r="D83" s="14">
+      <c r="D83" s="11">
         <v>21</v>
       </c>
-      <c r="E83" s="15" t="s">
+      <c r="E83" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="F83" s="15" t="s">
+      <c r="F83" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="G83" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="H83" s="17" t="s">
+      <c r="G83" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H83" s="14" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="84" spans="4:8" x14ac:dyDescent="0.15">
-      <c r="D84" s="14">
+      <c r="D84" s="11">
         <v>21</v>
       </c>
-      <c r="E84" s="15" t="s">
+      <c r="E84" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="F84" s="15" t="s">
+      <c r="F84" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="G84" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="H84" s="17" t="s">
+      <c r="G84" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H84" s="14" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="85" spans="4:8" x14ac:dyDescent="0.15">
-      <c r="D85" s="14">
+      <c r="D85" s="11">
         <v>21</v>
       </c>
-      <c r="E85" s="15" t="s">
+      <c r="E85" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="F85" s="15" t="s">
+      <c r="F85" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="G85" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="H85" s="17" t="s">
+      <c r="G85" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H85" s="14" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="86" spans="4:8" x14ac:dyDescent="0.15">
-      <c r="D86" s="14">
+      <c r="D86" s="11">
         <v>21</v>
       </c>
-      <c r="E86" s="15" t="s">
+      <c r="E86" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="F86" s="15" t="s">
+      <c r="F86" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="G86" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="H86" s="17" t="s">
+      <c r="G86" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H86" s="14" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="87" spans="4:8" x14ac:dyDescent="0.15">
-      <c r="D87" s="14">
+      <c r="D87" s="11">
         <v>21</v>
       </c>
-      <c r="E87" s="15" t="s">
+      <c r="E87" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="F87" s="15" t="s">
+      <c r="F87" s="12" t="s">
         <v>106</v>
       </c>
-      <c r="G87" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="H87" s="17" t="s">
+      <c r="G87" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H87" s="14" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="88" spans="4:8" x14ac:dyDescent="0.15">
-      <c r="D88" s="14">
+      <c r="D88" s="11">
         <v>21</v>
       </c>
-      <c r="E88" s="15" t="s">
+      <c r="E88" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="F88" s="15" t="s">
+      <c r="F88" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="G88" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="H88" s="17" t="s">
+      <c r="G88" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H88" s="14" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="89" spans="4:8" x14ac:dyDescent="0.15">
-      <c r="D89" s="14">
+      <c r="D89" s="11">
         <v>21</v>
       </c>
-      <c r="E89" s="15" t="s">
+      <c r="E89" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="F89" s="15" t="s">
+      <c r="F89" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="G89" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="H89" s="16" t="s">
+      <c r="G89" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H89" s="13" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="90" spans="4:8" x14ac:dyDescent="0.15">
-      <c r="D90" s="14">
+      <c r="D90" s="11">
         <v>24</v>
       </c>
-      <c r="E90" s="15" t="s">
+      <c r="E90" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="F90" s="15" t="s">
+      <c r="F90" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="G90" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="H90" s="16" t="s">
+      <c r="G90" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H90" s="13" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="91" spans="4:8" x14ac:dyDescent="0.15">
-      <c r="D91" s="14">
+      <c r="D91" s="11">
         <v>25</v>
       </c>
-      <c r="E91" s="15" t="s">
+      <c r="E91" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="F91" s="15" t="s">
+      <c r="F91" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="G91" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="H91" s="16" t="s">
+      <c r="G91" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H91" s="13" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="92" spans="4:8" x14ac:dyDescent="0.15">
-      <c r="D92" s="14">
+      <c r="D92" s="11">
         <v>26</v>
       </c>
-      <c r="E92" s="15" t="s">
+      <c r="E92" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="F92" s="15" t="s">
+      <c r="F92" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="G92" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="H92" s="16" t="s">
+      <c r="G92" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H92" s="13" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="93" spans="4:8" x14ac:dyDescent="0.15">
-      <c r="D93" s="14">
+      <c r="D93" s="11">
         <v>27</v>
       </c>
-      <c r="E93" s="15" t="s">
+      <c r="E93" s="12" t="s">
         <v>111</v>
       </c>
-      <c r="F93" s="15" t="s">
+      <c r="F93" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="G93" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="H93" s="16" t="s">
+      <c r="G93" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H93" s="13" t="s">
         <v>25</v>
       </c>
     </row>
@@ -6897,312 +7116,342 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:F28"/>
+  <dimension ref="B2:F30"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="2.625" style="18" customWidth="1"/>
-    <col min="2" max="2" width="3.625" style="18" customWidth="1"/>
-    <col min="3" max="3" width="54.375" style="18" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="72.625" style="18" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="79" style="18" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="64.875" style="18" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="18"/>
+    <col min="1" max="1" width="2.625" style="15" customWidth="1"/>
+    <col min="2" max="2" width="3.625" style="15" customWidth="1"/>
+    <col min="3" max="3" width="54.375" style="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="72.625" style="15" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="79" style="15" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="64.875" style="15" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="15"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="15" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="C3" s="18" t="s">
+      <c r="C3" s="15" t="s">
         <v>116</v>
       </c>
-      <c r="D3" s="19"/>
-      <c r="E3" s="20"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="17"/>
     </row>
     <row r="5" spans="2:6" ht="27" x14ac:dyDescent="0.15">
-      <c r="C5" s="21" t="s">
+      <c r="C5" s="18" t="s">
         <v>117</v>
       </c>
-      <c r="D5" s="21" t="s">
+      <c r="D5" s="18" t="s">
         <v>118</v>
       </c>
-      <c r="E5" s="22" t="s">
+      <c r="E5" s="19" t="s">
         <v>217</v>
       </c>
-      <c r="F5" s="21" t="s">
+      <c r="F5" s="18" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="6" spans="2:6" s="26" customFormat="1" ht="134.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C6" s="31" t="s">
+    <row r="6" spans="2:6" s="23" customFormat="1" ht="134.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C6" s="28" t="s">
+        <v>249</v>
+      </c>
+      <c r="D6" s="24" t="s">
+        <v>251</v>
+      </c>
+      <c r="E6" s="25" t="s">
         <v>250</v>
       </c>
-      <c r="D6" s="27" t="s">
+      <c r="F6" s="26" t="s">
         <v>252</v>
       </c>
-      <c r="E6" s="28" t="s">
-        <v>251</v>
-      </c>
-      <c r="F6" s="29" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="7" spans="2:6" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C7" s="32" t="s">
+    </row>
+    <row r="7" spans="2:6" s="23" customFormat="1" ht="93.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C7" s="28" t="s">
+        <v>309</v>
+      </c>
+      <c r="D7" s="24" t="s">
+        <v>310</v>
+      </c>
+      <c r="E7" s="25" t="s">
+        <v>311</v>
+      </c>
+      <c r="F7" s="26" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C8" s="29" t="s">
         <v>119</v>
       </c>
-      <c r="D7" s="15" t="s">
+      <c r="D8" s="12" t="s">
         <v>128</v>
       </c>
-      <c r="E7" s="15" t="s">
+      <c r="E8" s="12" t="s">
         <v>218</v>
       </c>
-      <c r="F7" s="24" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="8" spans="2:6" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C8" s="32" t="s">
+      <c r="F8" s="21" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C9" s="29" t="s">
         <v>120</v>
       </c>
-      <c r="D8" s="15" t="s">
+      <c r="D9" s="12" t="s">
         <v>129</v>
       </c>
-      <c r="E8" s="15" t="s">
+      <c r="E9" s="12" t="s">
         <v>219</v>
       </c>
-      <c r="F8" s="24" t="s">
+      <c r="F9" s="21" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="9" spans="2:6" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C9" s="32" t="s">
+    <row r="10" spans="2:6" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C10" s="29" t="s">
         <v>121</v>
       </c>
-      <c r="D9" s="15" t="s">
+      <c r="D10" s="12" t="s">
         <v>130</v>
       </c>
-      <c r="E9" s="15" t="s">
+      <c r="E10" s="12" t="s">
         <v>220</v>
       </c>
-      <c r="F9" s="24" t="s">
+      <c r="F10" s="21" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C11" s="29" t="s">
+        <v>122</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>221</v>
+      </c>
+      <c r="F11" s="21" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="10" spans="2:6" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C10" s="32" t="s">
-        <v>122</v>
-      </c>
-      <c r="D10" s="15" t="s">
-        <v>131</v>
-      </c>
-      <c r="E10" s="15" t="s">
-        <v>221</v>
-      </c>
-      <c r="F10" s="24" t="s">
+    <row r="12" spans="2:6" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C12" s="29" t="s">
+        <v>305</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>306</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>307</v>
+      </c>
+      <c r="F12" s="21" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" ht="267.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C13" s="29" t="s">
+        <v>123</v>
+      </c>
+      <c r="D13" s="20" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="11" spans="2:6" ht="267.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C11" s="32" t="s">
-        <v>123</v>
-      </c>
-      <c r="D11" s="23" t="s">
+      <c r="E13" s="20" t="s">
+        <v>267</v>
+      </c>
+      <c r="F13" s="21" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" ht="228.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C14" s="29" t="s">
+        <v>124</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="E14" s="20" t="s">
+        <v>227</v>
+      </c>
+      <c r="F14" s="21" t="s">
         <v>226</v>
       </c>
-      <c r="E11" s="23" t="s">
-        <v>268</v>
-      </c>
-      <c r="F11" s="24" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="12" spans="2:6" ht="228.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C12" s="32" t="s">
-        <v>124</v>
-      </c>
-      <c r="D12" s="15" t="s">
-        <v>132</v>
-      </c>
-      <c r="E12" s="23" t="s">
+    </row>
+    <row r="15" spans="2:6" ht="60" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C15" s="29" t="s">
+        <v>125</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="E15" s="12" t="s">
         <v>228</v>
       </c>
-      <c r="F12" s="24" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="13" spans="2:6" ht="60" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C13" s="32" t="s">
-        <v>125</v>
-      </c>
-      <c r="D13" s="15" t="s">
-        <v>133</v>
-      </c>
-      <c r="E13" s="15" t="s">
+      <c r="F15" s="21" t="s">
         <v>229</v>
       </c>
-      <c r="F13" s="24" t="s">
+    </row>
+    <row r="16" spans="2:6" ht="109.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C16" s="29" t="s">
+        <v>126</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="E16" s="20" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="14" spans="2:6" ht="109.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C14" s="32" t="s">
-        <v>126</v>
-      </c>
-      <c r="D14" s="15" t="s">
-        <v>134</v>
-      </c>
-      <c r="E14" s="23" t="s">
+      <c r="F16" s="21" t="s">
         <v>231</v>
       </c>
-      <c r="F14" s="24" t="s">
+    </row>
+    <row r="17" spans="3:6" ht="60" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C17" s="29" t="s">
+        <v>243</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="E17" s="20" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="15" spans="2:6" ht="60" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C15" s="32" t="s">
+      <c r="F17" s="22" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="18" spans="3:6" ht="60" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C18" s="29" t="s">
+        <v>127</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="E18" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="F18" s="21" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="19" spans="3:6" ht="169.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C19" s="29" t="s">
         <v>244</v>
       </c>
-      <c r="D15" s="15" t="s">
-        <v>135</v>
-      </c>
-      <c r="E15" s="23" t="s">
-        <v>233</v>
-      </c>
-      <c r="F15" s="25" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="16" spans="2:6" ht="60" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C16" s="32" t="s">
-        <v>127</v>
-      </c>
-      <c r="D16" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="E16" s="15" t="s">
-        <v>235</v>
-      </c>
-      <c r="F16" s="24" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="17" spans="3:6" ht="169.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C17" s="32" t="s">
+      <c r="D19" s="12" t="s">
         <v>245</v>
       </c>
-      <c r="D17" s="15" t="s">
+      <c r="E19" s="20" t="s">
+        <v>247</v>
+      </c>
+      <c r="F19" s="21" t="s">
         <v>246</v>
       </c>
-      <c r="E17" s="23" t="s">
-        <v>248</v>
-      </c>
-      <c r="F17" s="24" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="18" spans="3:6" ht="94.5" x14ac:dyDescent="0.15">
-      <c r="C18" s="32" t="s">
+    </row>
+    <row r="20" spans="3:6" ht="94.5" x14ac:dyDescent="0.15">
+      <c r="C20" s="29" t="s">
+        <v>291</v>
+      </c>
+      <c r="D20" s="20" t="s">
+        <v>292</v>
+      </c>
+      <c r="E20" s="20" t="s">
+        <v>287</v>
+      </c>
+      <c r="F20" s="20" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="21" spans="3:6" ht="81" x14ac:dyDescent="0.15">
+      <c r="C21" s="29" t="s">
+        <v>290</v>
+      </c>
+      <c r="D21" s="12" t="s">
+        <v>288</v>
+      </c>
+      <c r="E21" s="20" t="s">
+        <v>289</v>
+      </c>
+      <c r="F21" s="20" t="s">
         <v>293</v>
       </c>
-      <c r="D18" s="23" t="s">
-        <v>294</v>
-      </c>
-      <c r="E18" s="23" t="s">
-        <v>289</v>
-      </c>
-      <c r="F18" s="23" t="s">
+    </row>
+    <row r="22" spans="3:6" ht="81" x14ac:dyDescent="0.15">
+      <c r="C22" s="29" t="s">
+        <v>295</v>
+      </c>
+      <c r="D22" s="12" t="s">
+        <v>297</v>
+      </c>
+      <c r="E22" s="25" t="s">
+        <v>250</v>
+      </c>
+      <c r="F22" s="20" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="23" spans="3:6" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="C23" s="29" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="19" spans="3:6" ht="81" x14ac:dyDescent="0.15">
-      <c r="C19" s="32" t="s">
-        <v>292</v>
-      </c>
-      <c r="D19" s="15" t="s">
-        <v>290</v>
-      </c>
-      <c r="E19" s="23" t="s">
-        <v>291</v>
-      </c>
-      <c r="F19" s="23" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="20" spans="3:6" ht="81" x14ac:dyDescent="0.15">
-      <c r="C20" s="32" t="s">
-        <v>297</v>
-      </c>
-      <c r="D20" s="15" t="s">
+      <c r="D23" s="12" t="s">
         <v>299</v>
       </c>
-      <c r="E20" s="28" t="s">
-        <v>251</v>
-      </c>
-      <c r="F20" s="23" t="s">
+      <c r="E23" s="25" t="s">
+        <v>250</v>
+      </c>
+      <c r="F23" s="12" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="21" spans="3:6" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="C21" s="32" t="s">
-        <v>298</v>
-      </c>
-      <c r="D21" s="15" t="s">
-        <v>301</v>
-      </c>
-      <c r="E21" s="28" t="s">
-        <v>251</v>
-      </c>
-      <c r="F21" s="15" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="22" spans="3:6" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="C22" s="32"/>
-      <c r="D22" s="15"/>
-      <c r="E22" s="15"/>
-      <c r="F22" s="15"/>
-    </row>
-    <row r="23" spans="3:6" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="C23" s="32"/>
-      <c r="D23" s="15"/>
-      <c r="E23" s="15"/>
-      <c r="F23" s="15"/>
-    </row>
     <row r="24" spans="3:6" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="C24" s="32"/>
-      <c r="D24" s="15"/>
-      <c r="E24" s="15"/>
-      <c r="F24" s="15"/>
+      <c r="C24" s="29"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="12"/>
     </row>
     <row r="25" spans="3:6" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="C25" s="32"/>
-      <c r="D25" s="15"/>
-      <c r="E25" s="15"/>
-      <c r="F25" s="15"/>
+      <c r="C25" s="29"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="12"/>
     </row>
     <row r="26" spans="3:6" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="C26" s="32"/>
-      <c r="D26" s="15"/>
-      <c r="E26" s="15"/>
-      <c r="F26" s="15"/>
+      <c r="C26" s="29"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="12"/>
     </row>
     <row r="27" spans="3:6" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="C27" s="32"/>
-      <c r="D27" s="15"/>
-      <c r="E27" s="15"/>
-      <c r="F27" s="15"/>
+      <c r="C27" s="29"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="12"/>
     </row>
     <row r="28" spans="3:6" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="C28" s="32"/>
-      <c r="D28" s="15"/>
-      <c r="E28" s="15"/>
-      <c r="F28" s="15"/>
+      <c r="C28" s="29"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="12"/>
+      <c r="F28" s="12"/>
+    </row>
+    <row r="29" spans="3:6" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="C29" s="29"/>
+      <c r="D29" s="12"/>
+      <c r="E29" s="12"/>
+      <c r="F29" s="12"/>
+    </row>
+    <row r="30" spans="3:6" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="C30" s="29"/>
+      <c r="D30" s="12"/>
+      <c r="E30" s="12"/>
+      <c r="F30" s="12"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
@@ -7213,9 +7462,11 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:H25"/>
+  <dimension ref="B2:H28"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -7225,123 +7476,138 @@
     <col min="4" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B2" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="C3" s="18" t="s">
+    <row r="3" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C3" s="15" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C5" s="1" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="D6" s="1" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="D7" s="1" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="D8" s="1" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="D9" s="1" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="D10" s="1" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="D11" s="1" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C13" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="D14" s="1" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="D16" s="1" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="17" spans="3:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="D17" s="33" t="s">
+        <v>273</v>
+      </c>
+      <c r="E17" s="34"/>
+      <c r="F17" s="34"/>
+      <c r="G17" s="34"/>
+      <c r="H17" s="35"/>
+    </row>
+    <row r="19" spans="3:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="D19" s="1" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="20" spans="3:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="D20" s="33" t="s">
+        <v>274</v>
+      </c>
+      <c r="E20" s="34"/>
+      <c r="F20" s="34"/>
+      <c r="G20" s="34"/>
+      <c r="H20" s="35"/>
+    </row>
+    <row r="22" spans="3:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="C22" s="1" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="23" spans="3:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="D23" s="33" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="C5" s="1" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="D6" s="1" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="D7" s="1" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="D8" s="1" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="C10" s="1" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="D11" s="1" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="13" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="D13" s="1" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="14" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="D14" s="38" t="s">
-        <v>275</v>
-      </c>
-      <c r="E14" s="39"/>
-      <c r="F14" s="39"/>
-      <c r="G14" s="39"/>
-      <c r="H14" s="40"/>
-    </row>
-    <row r="16" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="D16" s="1" t="s">
+      <c r="E23" s="34"/>
+      <c r="F23" s="34"/>
+      <c r="G23" s="34"/>
+      <c r="H23" s="35"/>
+    </row>
+    <row r="25" spans="3:8" x14ac:dyDescent="0.15">
+      <c r="D25" s="1" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="26" spans="3:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="C26" s="1" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="17" spans="3:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="D17" s="38" t="s">
-        <v>276</v>
-      </c>
-      <c r="E17" s="39"/>
-      <c r="F17" s="39"/>
-      <c r="G17" s="39"/>
-      <c r="H17" s="40"/>
-    </row>
-    <row r="19" spans="3:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="C19" s="1" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="20" spans="3:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="D20" s="38" t="s">
+    <row r="27" spans="3:8" x14ac:dyDescent="0.15">
+      <c r="D27" s="36" t="s">
         <v>238</v>
       </c>
-      <c r="E20" s="39"/>
-      <c r="F20" s="39"/>
-      <c r="G20" s="39"/>
-      <c r="H20" s="40"/>
-    </row>
-    <row r="22" spans="3:8" x14ac:dyDescent="0.15">
-      <c r="D22" s="1" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="23" spans="3:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="C23" s="1" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="24" spans="3:8" x14ac:dyDescent="0.15">
-      <c r="D24" s="41" t="s">
+      <c r="E27" s="37"/>
+      <c r="F27" s="37"/>
+      <c r="G27" s="37"/>
+      <c r="H27" s="38"/>
+    </row>
+    <row r="28" spans="3:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="D28" s="39" t="s">
         <v>239</v>
       </c>
-      <c r="E24" s="42"/>
-      <c r="F24" s="42"/>
-      <c r="G24" s="42"/>
-      <c r="H24" s="43"/>
-    </row>
-    <row r="25" spans="3:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="D25" s="44" t="s">
-        <v>240</v>
-      </c>
-      <c r="E25" s="45"/>
-      <c r="F25" s="45"/>
-      <c r="G25" s="45"/>
-      <c r="H25" s="46"/>
+      <c r="E28" s="40"/>
+      <c r="F28" s="40"/>
+      <c r="G28" s="40"/>
+      <c r="H28" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="5">
+    <mergeCell ref="D23:H23"/>
+    <mergeCell ref="D27:H27"/>
+    <mergeCell ref="D28:H28"/>
+    <mergeCell ref="D17:H17"/>
     <mergeCell ref="D20:H20"/>
-    <mergeCell ref="D24:H24"/>
-    <mergeCell ref="D25:H25"/>
-    <mergeCell ref="D14:H14"/>
-    <mergeCell ref="D17:H17"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7363,150 +7629,150 @@
   <sheetData>
     <row r="2" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B2" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.15">
       <c r="C3" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.15">
       <c r="C4" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.15">
       <c r="C5" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.15">
       <c r="C7" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.15">
       <c r="D8" s="1" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.15">
       <c r="C10" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="D11" s="18" t="s">
-        <v>242</v>
+      <c r="D11" s="15" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="12" spans="2:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="13" spans="2:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="D13" s="38" t="s">
-        <v>243</v>
-      </c>
-      <c r="E13" s="39"/>
-      <c r="F13" s="39"/>
-      <c r="G13" s="39"/>
-      <c r="H13" s="39"/>
-      <c r="I13" s="40"/>
+      <c r="D13" s="33" t="s">
+        <v>242</v>
+      </c>
+      <c r="E13" s="34"/>
+      <c r="F13" s="34"/>
+      <c r="G13" s="34"/>
+      <c r="H13" s="34"/>
+      <c r="I13" s="35"/>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.15">
       <c r="D15" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.15">
       <c r="D16" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="17" spans="3:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="18" spans="3:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="D18" s="38" t="s">
-        <v>260</v>
-      </c>
-      <c r="E18" s="39"/>
-      <c r="F18" s="39"/>
-      <c r="G18" s="39"/>
-      <c r="H18" s="39"/>
-      <c r="I18" s="40"/>
+      <c r="D18" s="33" t="s">
+        <v>259</v>
+      </c>
+      <c r="E18" s="34"/>
+      <c r="F18" s="34"/>
+      <c r="G18" s="34"/>
+      <c r="H18" s="34"/>
+      <c r="I18" s="35"/>
     </row>
     <row r="20" spans="3:9" x14ac:dyDescent="0.15">
       <c r="D20" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="22" spans="3:9" x14ac:dyDescent="0.15">
       <c r="C22" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="23" spans="3:9" x14ac:dyDescent="0.15">
-      <c r="D23" s="18" t="s">
-        <v>283</v>
+      <c r="D23" s="15" t="s">
+        <v>281</v>
       </c>
     </row>
     <row r="24" spans="3:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="25" spans="3:9" x14ac:dyDescent="0.15">
-      <c r="D25" s="41" t="s">
-        <v>285</v>
-      </c>
-      <c r="E25" s="42"/>
-      <c r="F25" s="42"/>
-      <c r="G25" s="42"/>
-      <c r="H25" s="42"/>
-      <c r="I25" s="43"/>
+      <c r="D25" s="36" t="s">
+        <v>283</v>
+      </c>
+      <c r="E25" s="37"/>
+      <c r="F25" s="37"/>
+      <c r="G25" s="37"/>
+      <c r="H25" s="37"/>
+      <c r="I25" s="38"/>
     </row>
     <row r="26" spans="3:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="D26" s="44" t="s">
-        <v>284</v>
-      </c>
-      <c r="E26" s="45"/>
-      <c r="F26" s="45"/>
-      <c r="G26" s="45"/>
-      <c r="H26" s="45"/>
-      <c r="I26" s="46"/>
+      <c r="D26" s="39" t="s">
+        <v>282</v>
+      </c>
+      <c r="E26" s="40"/>
+      <c r="F26" s="40"/>
+      <c r="G26" s="40"/>
+      <c r="H26" s="40"/>
+      <c r="I26" s="41"/>
     </row>
     <row r="27" spans="3:9" x14ac:dyDescent="0.15">
-      <c r="D27" s="30"/>
-      <c r="E27" s="30"/>
-      <c r="F27" s="30"/>
-      <c r="G27" s="30"/>
-      <c r="H27" s="30"/>
-      <c r="I27" s="30"/>
+      <c r="D27" s="27"/>
+      <c r="E27" s="27"/>
+      <c r="F27" s="27"/>
+      <c r="G27" s="27"/>
+      <c r="H27" s="27"/>
+      <c r="I27" s="27"/>
     </row>
     <row r="28" spans="3:9" x14ac:dyDescent="0.15">
       <c r="D28" s="1" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="30" spans="3:9" x14ac:dyDescent="0.15">
-      <c r="D30" s="18" t="s">
-        <v>286</v>
+      <c r="D30" s="15" t="s">
+        <v>284</v>
       </c>
     </row>
     <row r="31" spans="3:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="32" spans="3:9" x14ac:dyDescent="0.15">
-      <c r="D32" s="41" t="s">
-        <v>285</v>
-      </c>
-      <c r="E32" s="42"/>
-      <c r="F32" s="42"/>
-      <c r="G32" s="42"/>
-      <c r="H32" s="42"/>
-      <c r="I32" s="43"/>
+      <c r="D32" s="36" t="s">
+        <v>283</v>
+      </c>
+      <c r="E32" s="37"/>
+      <c r="F32" s="37"/>
+      <c r="G32" s="37"/>
+      <c r="H32" s="37"/>
+      <c r="I32" s="38"/>
     </row>
     <row r="33" spans="4:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="D33" s="44" t="s">
-        <v>288</v>
-      </c>
-      <c r="E33" s="45"/>
-      <c r="F33" s="45"/>
-      <c r="G33" s="45"/>
-      <c r="H33" s="45"/>
-      <c r="I33" s="46"/>
+      <c r="D33" s="39" t="s">
+        <v>286</v>
+      </c>
+      <c r="E33" s="40"/>
+      <c r="F33" s="40"/>
+      <c r="G33" s="40"/>
+      <c r="H33" s="40"/>
+      <c r="I33" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -7539,12 +7805,12 @@
   <sheetData>
     <row r="2" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B2" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.15">
       <c r="C3" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
   </sheetData>

--- a/マニュアル.xlsx
+++ b/マニュアル.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project\yamaha\V850ES-FK3-EmuEnv\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="360" yWindow="105" windowWidth="28035" windowHeight="12540"/>
+    <workbookView xWindow="360" yWindow="105" windowWidth="28035" windowHeight="12540" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="タイトル" sheetId="3" r:id="rId1"/>
@@ -1570,39 +1575,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>A &lt;チャネル番号※10進数表記&gt;:&lt;ADデータ&gt;
-※&lt;チャネル番号&gt;：-1を指定した場合は全チャネルが対象となる</t>
-    <rPh sb="7" eb="9">
-      <t>バンゴウ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>シンスウ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>ヒョウキ</t>
-    </rPh>
-    <rPh sb="33" eb="35">
-      <t>バンゴウ</t>
-    </rPh>
-    <rPh sb="40" eb="42">
-      <t>シテイ</t>
-    </rPh>
-    <rPh sb="44" eb="46">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="47" eb="48">
-      <t>ゼン</t>
-    </rPh>
-    <rPh sb="53" eb="55">
-      <t>タイショウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>@DBG&gt;A 1:100</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>q</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -2690,10 +2662,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t xml:space="preserve"> # v850-elf-objdump.exe -S -d ELFファイル &gt; binary.dump</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t xml:space="preserve"> 上記ファイル(binary.dump)をサクラエディタ等で開き，SJIS/LF形式で保存する．</t>
     <rPh sb="1" eb="3">
       <t>ジョウキ</t>
@@ -2887,6 +2855,52 @@
     <rPh sb="150" eb="152">
       <t>ヘンコウ</t>
     </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> # v850-elf-objdump.exe -S -d ELFファイル &gt; binary.dump</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>A &lt;コントローラ番号※10進表記&gt;:&lt;チャネル番号※10進数表記&gt;:&lt;ADデータ&gt;
+※&lt;チャネル番号&gt;：-1を指定した場合は全チャネルが対象となる</t>
+    <rPh sb="9" eb="11">
+      <t>バンゴウ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>シン</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ヒョウキ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>バンゴウ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>シンスウ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ヒョウキ</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>バンゴウ</t>
+    </rPh>
+    <rPh sb="57" eb="59">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="61" eb="63">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="64" eb="65">
+      <t>ゼン</t>
+    </rPh>
+    <rPh sb="70" eb="72">
+      <t>タイショウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>@DBG&gt;A 0:1:100</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -3236,6 +3250,18 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -3272,18 +3298,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -3294,6 +3308,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -4428,7 +4445,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office ​​テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -4470,7 +4487,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4505,7 +4522,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4716,8 +4733,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B6:I13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" zoomScaleSheetLayoutView="130" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" zoomScaleSheetLayoutView="130" workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4730,7 +4747,7 @@
   </cols>
   <sheetData>
     <row r="6" spans="2:9" ht="42" x14ac:dyDescent="0.15">
-      <c r="B6" s="42" t="s">
+      <c r="B6" s="30" t="s">
         <v>1</v>
       </c>
     </row>
@@ -4738,43 +4755,43 @@
       <c r="B11" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="C11" s="43" t="s">
+      <c r="C11" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="D11" s="43"/>
-      <c r="E11" s="43"/>
-      <c r="F11" s="43"/>
-      <c r="G11" s="43"/>
-      <c r="H11" s="43"/>
-      <c r="I11" s="43"/>
+      <c r="D11" s="31"/>
+      <c r="E11" s="31"/>
+      <c r="F11" s="31"/>
+      <c r="G11" s="31"/>
+      <c r="H11" s="31"/>
+      <c r="I11" s="31"/>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B12" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C12" s="44" t="s">
+      <c r="C12" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="D12" s="44"/>
-      <c r="E12" s="44"/>
-      <c r="F12" s="44"/>
-      <c r="G12" s="44"/>
-      <c r="H12" s="44"/>
-      <c r="I12" s="44"/>
+      <c r="D12" s="33"/>
+      <c r="E12" s="33"/>
+      <c r="F12" s="33"/>
+      <c r="G12" s="33"/>
+      <c r="H12" s="33"/>
+      <c r="I12" s="33"/>
     </row>
     <row r="13" spans="2:9" ht="76.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B13" s="12" t="s">
-        <v>314</v>
-      </c>
-      <c r="C13" s="45" t="s">
-        <v>315</v>
-      </c>
-      <c r="D13" s="44"/>
-      <c r="E13" s="44"/>
-      <c r="F13" s="44"/>
-      <c r="G13" s="44"/>
-      <c r="H13" s="44"/>
-      <c r="I13" s="44"/>
+        <v>311</v>
+      </c>
+      <c r="C13" s="32" t="s">
+        <v>312</v>
+      </c>
+      <c r="D13" s="33"/>
+      <c r="E13" s="33"/>
+      <c r="F13" s="33"/>
+      <c r="G13" s="33"/>
+      <c r="H13" s="33"/>
+      <c r="I13" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -4833,17 +4850,17 @@
     </row>
     <row r="8" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B8" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="9" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B9" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="10" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B10" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
   </sheetData>
@@ -5597,11 +5614,11 @@
       <c r="E4" s="2"/>
     </row>
     <row r="5" spans="2:8" ht="27" x14ac:dyDescent="0.15">
-      <c r="D5" s="30" t="s">
+      <c r="D5" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="31"/>
-      <c r="F5" s="32"/>
+      <c r="E5" s="35"/>
+      <c r="F5" s="36"/>
       <c r="G5" s="9" t="s">
         <v>14</v>
       </c>
@@ -7118,8 +7135,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:F30"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="B13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7161,30 +7178,30 @@
     </row>
     <row r="6" spans="2:6" s="23" customFormat="1" ht="134.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C6" s="28" t="s">
+        <v>247</v>
+      </c>
+      <c r="D6" s="24" t="s">
         <v>249</v>
       </c>
-      <c r="D6" s="24" t="s">
-        <v>251</v>
-      </c>
       <c r="E6" s="25" t="s">
+        <v>248</v>
+      </c>
+      <c r="F6" s="26" t="s">
         <v>250</v>
-      </c>
-      <c r="F6" s="26" t="s">
-        <v>252</v>
       </c>
     </row>
     <row r="7" spans="2:6" s="23" customFormat="1" ht="93.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C7" s="28" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="D7" s="24" t="s">
+        <v>307</v>
+      </c>
+      <c r="E7" s="25" t="s">
+        <v>308</v>
+      </c>
+      <c r="F7" s="26" t="s">
         <v>310</v>
-      </c>
-      <c r="E7" s="25" t="s">
-        <v>311</v>
-      </c>
-      <c r="F7" s="26" t="s">
-        <v>313</v>
       </c>
     </row>
     <row r="8" spans="2:6" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -7198,7 +7215,7 @@
         <v>218</v>
       </c>
       <c r="F8" s="21" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="9" spans="2:6" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -7226,7 +7243,7 @@
         <v>220</v>
       </c>
       <c r="F10" s="21" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
     </row>
     <row r="11" spans="2:6" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -7245,16 +7262,16 @@
     </row>
     <row r="12" spans="2:6" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C12" s="29" t="s">
+        <v>302</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>303</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>304</v>
+      </c>
+      <c r="F12" s="21" t="s">
         <v>305</v>
-      </c>
-      <c r="D12" s="12" t="s">
-        <v>306</v>
-      </c>
-      <c r="E12" s="12" t="s">
-        <v>307</v>
-      </c>
-      <c r="F12" s="21" t="s">
-        <v>308</v>
       </c>
     </row>
     <row r="13" spans="2:6" ht="267.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -7265,10 +7282,10 @@
         <v>225</v>
       </c>
       <c r="E13" s="20" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="F13" s="21" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="14" spans="2:6" ht="228.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -7315,16 +7332,16 @@
     </row>
     <row r="17" spans="3:6" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C17" s="29" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D17" s="12" t="s">
         <v>135</v>
       </c>
       <c r="E17" s="20" t="s">
-        <v>232</v>
+        <v>314</v>
       </c>
       <c r="F17" s="22" t="s">
-        <v>233</v>
+        <v>315</v>
       </c>
     </row>
     <row r="18" spans="3:6" ht="60" customHeight="1" x14ac:dyDescent="0.15">
@@ -7335,80 +7352,80 @@
         <v>136</v>
       </c>
       <c r="E18" s="12" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="F18" s="21" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="19" spans="3:6" ht="169.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C19" s="29" t="s">
+        <v>242</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>243</v>
+      </c>
+      <c r="E19" s="20" t="s">
+        <v>245</v>
+      </c>
+      <c r="F19" s="21" t="s">
         <v>244</v>
-      </c>
-      <c r="D19" s="12" t="s">
-        <v>245</v>
-      </c>
-      <c r="E19" s="20" t="s">
-        <v>247</v>
-      </c>
-      <c r="F19" s="21" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="20" spans="3:6" ht="94.5" x14ac:dyDescent="0.15">
       <c r="C20" s="29" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D20" s="20" t="s">
+        <v>290</v>
+      </c>
+      <c r="E20" s="20" t="s">
+        <v>285</v>
+      </c>
+      <c r="F20" s="20" t="s">
         <v>292</v>
-      </c>
-      <c r="E20" s="20" t="s">
-        <v>287</v>
-      </c>
-      <c r="F20" s="20" t="s">
-        <v>294</v>
       </c>
     </row>
     <row r="21" spans="3:6" ht="81" x14ac:dyDescent="0.15">
       <c r="C21" s="29" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="D21" s="12" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E21" s="20" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="F21" s="20" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="22" spans="3:6" ht="81" x14ac:dyDescent="0.15">
       <c r="C22" s="29" t="s">
+        <v>293</v>
+      </c>
+      <c r="D22" s="12" t="s">
         <v>295</v>
       </c>
-      <c r="D22" s="12" t="s">
-        <v>297</v>
-      </c>
       <c r="E22" s="25" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="F22" s="20" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="23" spans="3:6" ht="17.25" x14ac:dyDescent="0.15">
       <c r="C23" s="29" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D23" s="12" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="E23" s="25" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="F23" s="12" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="24" spans="3:6" ht="17.25" x14ac:dyDescent="0.15">
@@ -7465,7 +7482,7 @@
   <dimension ref="B2:H28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="N26" sqref="N26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7483,123 +7500,123 @@
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.15">
       <c r="C3" s="15" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.15">
       <c r="C5" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.15">
       <c r="D6" s="1" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.15">
       <c r="D7" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.15">
       <c r="D8" s="1" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.15">
       <c r="D9" s="1" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.15">
       <c r="D10" s="1" t="s">
-        <v>303</v>
+        <v>313</v>
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.15">
       <c r="D11" s="1" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.15">
       <c r="C13" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.15">
       <c r="D14" s="1" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="16" spans="2:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="D16" s="1" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="17" spans="3:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="D17" s="33" t="s">
-        <v>273</v>
-      </c>
-      <c r="E17" s="34"/>
-      <c r="F17" s="34"/>
-      <c r="G17" s="34"/>
-      <c r="H17" s="35"/>
+      <c r="D17" s="37" t="s">
+        <v>271</v>
+      </c>
+      <c r="E17" s="38"/>
+      <c r="F17" s="38"/>
+      <c r="G17" s="38"/>
+      <c r="H17" s="39"/>
     </row>
     <row r="19" spans="3:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="D19" s="1" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="20" spans="3:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="D20" s="33" t="s">
-        <v>274</v>
-      </c>
-      <c r="E20" s="34"/>
-      <c r="F20" s="34"/>
-      <c r="G20" s="34"/>
-      <c r="H20" s="35"/>
+      <c r="D20" s="37" t="s">
+        <v>272</v>
+      </c>
+      <c r="E20" s="38"/>
+      <c r="F20" s="38"/>
+      <c r="G20" s="38"/>
+      <c r="H20" s="39"/>
     </row>
     <row r="22" spans="3:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="23" spans="3:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="D23" s="33" t="s">
-        <v>237</v>
-      </c>
-      <c r="E23" s="34"/>
-      <c r="F23" s="34"/>
-      <c r="G23" s="34"/>
-      <c r="H23" s="35"/>
+      <c r="D23" s="37" t="s">
+        <v>235</v>
+      </c>
+      <c r="E23" s="38"/>
+      <c r="F23" s="38"/>
+      <c r="G23" s="38"/>
+      <c r="H23" s="39"/>
     </row>
     <row r="25" spans="3:8" x14ac:dyDescent="0.15">
       <c r="D25" s="1" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="26" spans="3:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="27" spans="3:8" x14ac:dyDescent="0.15">
-      <c r="D27" s="36" t="s">
-        <v>238</v>
-      </c>
-      <c r="E27" s="37"/>
-      <c r="F27" s="37"/>
-      <c r="G27" s="37"/>
-      <c r="H27" s="38"/>
+      <c r="D27" s="40" t="s">
+        <v>236</v>
+      </c>
+      <c r="E27" s="41"/>
+      <c r="F27" s="41"/>
+      <c r="G27" s="41"/>
+      <c r="H27" s="42"/>
     </row>
     <row r="28" spans="3:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="D28" s="39" t="s">
-        <v>239</v>
-      </c>
-      <c r="E28" s="40"/>
-      <c r="F28" s="40"/>
-      <c r="G28" s="40"/>
-      <c r="H28" s="41"/>
+      <c r="D28" s="43" t="s">
+        <v>237</v>
+      </c>
+      <c r="E28" s="44"/>
+      <c r="F28" s="44"/>
+      <c r="G28" s="44"/>
+      <c r="H28" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -7629,111 +7646,111 @@
   <sheetData>
     <row r="2" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B2" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.15">
       <c r="C3" s="1" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.15">
       <c r="C4" s="1" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.15">
       <c r="C5" s="1" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.15">
       <c r="C7" s="1" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.15">
       <c r="D8" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.15">
       <c r="C10" s="1" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.15">
       <c r="D11" s="15" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="12" spans="2:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="13" spans="2:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="D13" s="33" t="s">
-        <v>242</v>
-      </c>
-      <c r="E13" s="34"/>
-      <c r="F13" s="34"/>
-      <c r="G13" s="34"/>
-      <c r="H13" s="34"/>
-      <c r="I13" s="35"/>
+      <c r="D13" s="37" t="s">
+        <v>240</v>
+      </c>
+      <c r="E13" s="38"/>
+      <c r="F13" s="38"/>
+      <c r="G13" s="38"/>
+      <c r="H13" s="38"/>
+      <c r="I13" s="39"/>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.15">
       <c r="D15" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.15">
       <c r="D16" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="17" spans="3:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="18" spans="3:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="D18" s="33" t="s">
-        <v>259</v>
-      </c>
-      <c r="E18" s="34"/>
-      <c r="F18" s="34"/>
-      <c r="G18" s="34"/>
-      <c r="H18" s="34"/>
-      <c r="I18" s="35"/>
+      <c r="D18" s="37" t="s">
+        <v>257</v>
+      </c>
+      <c r="E18" s="38"/>
+      <c r="F18" s="38"/>
+      <c r="G18" s="38"/>
+      <c r="H18" s="38"/>
+      <c r="I18" s="39"/>
     </row>
     <row r="20" spans="3:9" x14ac:dyDescent="0.15">
       <c r="D20" s="1" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="22" spans="3:9" x14ac:dyDescent="0.15">
       <c r="C22" s="1" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="23" spans="3:9" x14ac:dyDescent="0.15">
       <c r="D23" s="15" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="24" spans="3:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="25" spans="3:9" x14ac:dyDescent="0.15">
-      <c r="D25" s="36" t="s">
-        <v>283</v>
-      </c>
-      <c r="E25" s="37"/>
-      <c r="F25" s="37"/>
-      <c r="G25" s="37"/>
-      <c r="H25" s="37"/>
-      <c r="I25" s="38"/>
+      <c r="D25" s="40" t="s">
+        <v>281</v>
+      </c>
+      <c r="E25" s="41"/>
+      <c r="F25" s="41"/>
+      <c r="G25" s="41"/>
+      <c r="H25" s="41"/>
+      <c r="I25" s="42"/>
     </row>
     <row r="26" spans="3:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="D26" s="39" t="s">
-        <v>282</v>
-      </c>
-      <c r="E26" s="40"/>
-      <c r="F26" s="40"/>
-      <c r="G26" s="40"/>
-      <c r="H26" s="40"/>
-      <c r="I26" s="41"/>
+      <c r="D26" s="43" t="s">
+        <v>280</v>
+      </c>
+      <c r="E26" s="44"/>
+      <c r="F26" s="44"/>
+      <c r="G26" s="44"/>
+      <c r="H26" s="44"/>
+      <c r="I26" s="45"/>
     </row>
     <row r="27" spans="3:9" x14ac:dyDescent="0.15">
       <c r="D27" s="27"/>
@@ -7745,34 +7762,34 @@
     </row>
     <row r="28" spans="3:9" x14ac:dyDescent="0.15">
       <c r="D28" s="1" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="30" spans="3:9" x14ac:dyDescent="0.15">
       <c r="D30" s="15" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="31" spans="3:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="32" spans="3:9" x14ac:dyDescent="0.15">
-      <c r="D32" s="36" t="s">
-        <v>283</v>
-      </c>
-      <c r="E32" s="37"/>
-      <c r="F32" s="37"/>
-      <c r="G32" s="37"/>
-      <c r="H32" s="37"/>
-      <c r="I32" s="38"/>
+      <c r="D32" s="40" t="s">
+        <v>281</v>
+      </c>
+      <c r="E32" s="41"/>
+      <c r="F32" s="41"/>
+      <c r="G32" s="41"/>
+      <c r="H32" s="41"/>
+      <c r="I32" s="42"/>
     </row>
     <row r="33" spans="4:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="D33" s="39" t="s">
-        <v>286</v>
-      </c>
-      <c r="E33" s="40"/>
-      <c r="F33" s="40"/>
-      <c r="G33" s="40"/>
-      <c r="H33" s="40"/>
-      <c r="I33" s="41"/>
+      <c r="D33" s="43" t="s">
+        <v>284</v>
+      </c>
+      <c r="E33" s="44"/>
+      <c r="F33" s="44"/>
+      <c r="G33" s="44"/>
+      <c r="H33" s="44"/>
+      <c r="I33" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -7805,12 +7822,12 @@
   <sheetData>
     <row r="2" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B2" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.15">
       <c r="C3" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
   </sheetData>

--- a/マニュアル.xlsx
+++ b/マニュアル.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project\yamaha\V850ES-FK3-EmuEnv\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="360" yWindow="105" windowWidth="28035" windowHeight="12540" activeTab="5"/>
+    <workbookView xWindow="360" yWindow="105" windowWidth="28035" windowHeight="12540" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="タイトル" sheetId="3" r:id="rId1"/>
@@ -23,6 +18,7 @@
     <sheet name="付録" sheetId="9" r:id="rId9"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">命令一覧!$D$5:$E$85</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">タイトル!$A$1:$J$23</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
@@ -2908,7 +2904,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2972,7 +2968,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2987,6 +2983,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3159,7 +3161,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3297,6 +3299,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4445,7 +4453,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office ​​テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -4487,7 +4495,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4522,7 +4530,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4737,7 +4745,7 @@
       <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="6" style="15" customWidth="1"/>
     <col min="2" max="2" width="15.75" style="15" customWidth="1"/>
@@ -4746,12 +4754,12 @@
     <col min="10" max="16384" width="9" style="15"/>
   </cols>
   <sheetData>
-    <row r="6" spans="2:9" ht="42" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:9" ht="42">
       <c r="B6" s="30" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:9">
       <c r="B11" s="18" t="s">
         <v>2</v>
       </c>
@@ -4765,7 +4773,7 @@
       <c r="H11" s="31"/>
       <c r="I11" s="31"/>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:9">
       <c r="B12" s="12" t="s">
         <v>3</v>
       </c>
@@ -4779,7 +4787,7 @@
       <c r="H12" s="33"/>
       <c r="I12" s="33"/>
     </row>
-    <row r="13" spans="2:9" ht="76.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="2:9" ht="76.5" customHeight="1">
       <c r="B13" s="12" t="s">
         <v>311</v>
       </c>
@@ -4811,54 +4819,54 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="4.125" style="1" customWidth="1"/>
     <col min="2" max="2" width="18.75" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:2">
       <c r="B2" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:2">
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:2">
       <c r="B4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:2">
       <c r="B5" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:2">
       <c r="B6" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:2">
       <c r="B7" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:2">
       <c r="B8" s="1" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="9" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:2">
       <c r="B9" s="1" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="10" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:2">
       <c r="B10" s="1" t="s">
         <v>252</v>
       </c>
@@ -4875,19 +4883,19 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="4.625" style="1" customWidth="1"/>
     <col min="2" max="2" width="3.375" style="1" customWidth="1"/>
     <col min="3" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:3">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:3">
       <c r="C3" s="1" t="s">
         <v>7</v>
       </c>
@@ -4902,9 +4910,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:E85"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="4.5" style="1" customWidth="1"/>
     <col min="2" max="2" width="3.125" style="1" customWidth="1"/>
@@ -4914,17 +4924,17 @@
     <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:5">
       <c r="B2" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:5">
       <c r="C3" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="2:5" ht="27" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:5" ht="27">
       <c r="D5" s="5" t="s">
         <v>13</v>
       </c>
@@ -4932,7 +4942,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:5">
       <c r="D6" s="6" t="s">
         <v>137</v>
       </c>
@@ -4940,15 +4950,15 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:5">
       <c r="D7" s="6" t="s">
         <v>138</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.15">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5">
       <c r="D8" s="6" t="s">
         <v>139</v>
       </c>
@@ -4956,15 +4966,15 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="D9" s="6" t="s">
+    <row r="9" spans="2:5">
+      <c r="D9" s="46" t="s">
         <v>140</v>
       </c>
-      <c r="E9" s="8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="E9" s="47" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5">
       <c r="D10" s="6" t="s">
         <v>141</v>
       </c>
@@ -4972,7 +4982,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:5">
       <c r="D11" s="6" t="s">
         <v>142</v>
       </c>
@@ -4980,15 +4990,15 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="D12" s="6" t="s">
+    <row r="12" spans="2:5">
+      <c r="D12" s="46" t="s">
         <v>143</v>
       </c>
-      <c r="E12" s="8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="E12" s="47" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5">
       <c r="D13" s="6" t="s">
         <v>144</v>
       </c>
@@ -4996,15 +5006,15 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="D14" s="6" t="s">
+    <row r="14" spans="2:5">
+      <c r="D14" s="46" t="s">
         <v>145</v>
       </c>
-      <c r="E14" s="8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="E14" s="47" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5">
       <c r="D15" s="6" t="s">
         <v>146</v>
       </c>
@@ -5012,7 +5022,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="16" spans="2:5">
       <c r="D16" s="6" t="s">
         <v>147</v>
       </c>
@@ -5020,7 +5030,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="17" spans="4:5">
       <c r="D17" s="6" t="s">
         <v>148</v>
       </c>
@@ -5028,7 +5038,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="18" spans="4:5">
       <c r="D18" s="6" t="s">
         <v>149</v>
       </c>
@@ -5036,7 +5046,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="19" spans="4:5">
       <c r="D19" s="6" t="s">
         <v>150</v>
       </c>
@@ -5044,7 +5054,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="20" spans="4:5">
       <c r="D20" s="6" t="s">
         <v>151</v>
       </c>
@@ -5052,7 +5062,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="21" spans="4:5">
       <c r="D21" s="6" t="s">
         <v>152</v>
       </c>
@@ -5060,15 +5070,15 @@
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="D22" s="6" t="s">
+    <row r="22" spans="4:5">
+      <c r="D22" s="46" t="s">
         <v>153</v>
       </c>
-      <c r="E22" s="8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="23" spans="4:5" x14ac:dyDescent="0.15">
+      <c r="E22" s="47" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="4:5">
       <c r="D23" s="6" t="s">
         <v>154</v>
       </c>
@@ -5076,7 +5086,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="24" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="24" spans="4:5">
       <c r="D24" s="6" t="s">
         <v>155</v>
       </c>
@@ -5084,15 +5094,15 @@
         <v>16</v>
       </c>
     </row>
-    <row r="25" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="D25" s="6" t="s">
+    <row r="25" spans="4:5">
+      <c r="D25" s="46" t="s">
         <v>156</v>
       </c>
-      <c r="E25" s="8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="26" spans="4:5" x14ac:dyDescent="0.15">
+      <c r="E25" s="47" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="26" spans="4:5">
       <c r="D26" s="6" t="s">
         <v>157</v>
       </c>
@@ -5100,7 +5110,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="27" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="27" spans="4:5">
       <c r="D27" s="6" t="s">
         <v>158</v>
       </c>
@@ -5108,15 +5118,15 @@
         <v>16</v>
       </c>
     </row>
-    <row r="28" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="D28" s="6" t="s">
+    <row r="28" spans="4:5">
+      <c r="D28" s="46" t="s">
         <v>159</v>
       </c>
-      <c r="E28" s="8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="29" spans="4:5" x14ac:dyDescent="0.15">
+      <c r="E28" s="47" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="29" spans="4:5">
       <c r="D29" s="6" t="s">
         <v>160</v>
       </c>
@@ -5124,39 +5134,39 @@
         <v>16</v>
       </c>
     </row>
-    <row r="30" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="D30" s="6" t="s">
+    <row r="30" spans="4:5">
+      <c r="D30" s="46" t="s">
         <v>161</v>
       </c>
-      <c r="E30" s="8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="31" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="D31" s="6" t="s">
+      <c r="E30" s="47" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="31" spans="4:5">
+      <c r="D31" s="46" t="s">
         <v>162</v>
       </c>
-      <c r="E31" s="8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="32" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="D32" s="6" t="s">
+      <c r="E31" s="47" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="32" spans="4:5">
+      <c r="D32" s="46" t="s">
         <v>163</v>
       </c>
-      <c r="E32" s="8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="33" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="D33" s="6" t="s">
+      <c r="E32" s="47" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="33" spans="4:5">
+      <c r="D33" s="46" t="s">
         <v>164</v>
       </c>
-      <c r="E33" s="8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="34" spans="4:5" x14ac:dyDescent="0.15">
+      <c r="E33" s="47" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="34" spans="4:5">
       <c r="D34" s="6" t="s">
         <v>165</v>
       </c>
@@ -5164,7 +5174,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="35" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="35" spans="4:5">
       <c r="D35" s="6" t="s">
         <v>166</v>
       </c>
@@ -5172,7 +5182,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="36" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="36" spans="4:5">
       <c r="D36" s="6" t="s">
         <v>167</v>
       </c>
@@ -5180,7 +5190,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="37" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="37" spans="4:5">
       <c r="D37" s="6" t="s">
         <v>168</v>
       </c>
@@ -5188,7 +5198,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="38" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="38" spans="4:5">
       <c r="D38" s="6" t="s">
         <v>169</v>
       </c>
@@ -5196,7 +5206,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="39" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="39" spans="4:5">
       <c r="D39" s="6" t="s">
         <v>170</v>
       </c>
@@ -5204,7 +5214,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="40" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="40" spans="4:5">
       <c r="D40" s="6" t="s">
         <v>171</v>
       </c>
@@ -5212,7 +5222,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="41" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="41" spans="4:5">
       <c r="D41" s="6" t="s">
         <v>172</v>
       </c>
@@ -5220,15 +5230,15 @@
         <v>16</v>
       </c>
     </row>
-    <row r="42" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="D42" s="6" t="s">
+    <row r="42" spans="4:5">
+      <c r="D42" s="46" t="s">
         <v>173</v>
       </c>
-      <c r="E42" s="8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="43" spans="4:5" x14ac:dyDescent="0.15">
+      <c r="E42" s="47" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="43" spans="4:5">
       <c r="D43" s="6" t="s">
         <v>174</v>
       </c>
@@ -5236,15 +5246,15 @@
         <v>16</v>
       </c>
     </row>
-    <row r="44" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="D44" s="6" t="s">
+    <row r="44" spans="4:5">
+      <c r="D44" s="46" t="s">
         <v>175</v>
       </c>
-      <c r="E44" s="8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="45" spans="4:5" x14ac:dyDescent="0.15">
+      <c r="E44" s="47" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="45" spans="4:5">
       <c r="D45" s="6" t="s">
         <v>176</v>
       </c>
@@ -5252,7 +5262,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="46" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="46" spans="4:5">
       <c r="D46" s="6" t="s">
         <v>177</v>
       </c>
@@ -5260,7 +5270,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="47" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="47" spans="4:5">
       <c r="D47" s="6" t="s">
         <v>178</v>
       </c>
@@ -5268,7 +5278,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="48" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="48" spans="4:5">
       <c r="D48" s="6" t="s">
         <v>179</v>
       </c>
@@ -5276,7 +5286,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="49" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="49" spans="4:5">
       <c r="D49" s="6" t="s">
         <v>180</v>
       </c>
@@ -5284,7 +5294,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="50" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="50" spans="4:5">
       <c r="D50" s="6" t="s">
         <v>181</v>
       </c>
@@ -5292,7 +5302,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="51" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="51" spans="4:5">
       <c r="D51" s="6" t="s">
         <v>182</v>
       </c>
@@ -5300,7 +5310,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="52" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="52" spans="4:5">
       <c r="D52" s="6" t="s">
         <v>183</v>
       </c>
@@ -5308,7 +5318,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="53" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="53" spans="4:5">
       <c r="D53" s="6" t="s">
         <v>184</v>
       </c>
@@ -5316,7 +5326,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="54" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="54" spans="4:5">
       <c r="D54" s="6" t="s">
         <v>185</v>
       </c>
@@ -5324,7 +5334,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="55" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="55" spans="4:5">
       <c r="D55" s="6" t="s">
         <v>186</v>
       </c>
@@ -5332,7 +5342,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="56" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="56" spans="4:5">
       <c r="D56" s="6" t="s">
         <v>187</v>
       </c>
@@ -5340,7 +5350,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="57" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="57" spans="4:5">
       <c r="D57" s="6" t="s">
         <v>188</v>
       </c>
@@ -5348,7 +5358,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="58" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="58" spans="4:5">
       <c r="D58" s="6" t="s">
         <v>189</v>
       </c>
@@ -5356,7 +5366,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="59" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="59" spans="4:5">
       <c r="D59" s="6" t="s">
         <v>190</v>
       </c>
@@ -5364,7 +5374,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="60" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="60" spans="4:5">
       <c r="D60" s="6" t="s">
         <v>191</v>
       </c>
@@ -5372,7 +5382,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="61" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="61" spans="4:5">
       <c r="D61" s="6" t="s">
         <v>192</v>
       </c>
@@ -5380,7 +5390,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="62" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="62" spans="4:5">
       <c r="D62" s="6" t="s">
         <v>193</v>
       </c>
@@ -5388,7 +5398,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="63" spans="4:5" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="63" spans="4:5" ht="40.5">
       <c r="D63" s="6" t="s">
         <v>194</v>
       </c>
@@ -5396,15 +5406,15 @@
         <v>16</v>
       </c>
     </row>
-    <row r="64" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="64" spans="4:5">
       <c r="D64" s="6" t="s">
         <v>195</v>
       </c>
       <c r="E64" s="8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="65" spans="4:5" x14ac:dyDescent="0.15">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="65" spans="4:5">
       <c r="D65" s="6" t="s">
         <v>196</v>
       </c>
@@ -5412,7 +5422,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="66" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="66" spans="4:5">
       <c r="D66" s="6" t="s">
         <v>197</v>
       </c>
@@ -5420,15 +5430,15 @@
         <v>16</v>
       </c>
     </row>
-    <row r="67" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="D67" s="6" t="s">
+    <row r="67" spans="4:5">
+      <c r="D67" s="46" t="s">
         <v>198</v>
       </c>
-      <c r="E67" s="8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="68" spans="4:5" x14ac:dyDescent="0.15">
+      <c r="E67" s="47" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="68" spans="4:5">
       <c r="D68" s="6" t="s">
         <v>199</v>
       </c>
@@ -5436,39 +5446,39 @@
         <v>17</v>
       </c>
     </row>
-    <row r="69" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="D69" s="6" t="s">
+    <row r="69" spans="4:5">
+      <c r="D69" s="46" t="s">
         <v>200</v>
       </c>
-      <c r="E69" s="8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="70" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="D70" s="6" t="s">
+      <c r="E69" s="47" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="70" spans="4:5">
+      <c r="D70" s="46" t="s">
         <v>201</v>
       </c>
-      <c r="E70" s="8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="71" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="D71" s="6" t="s">
+      <c r="E70" s="47" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="71" spans="4:5">
+      <c r="D71" s="46" t="s">
         <v>202</v>
       </c>
-      <c r="E71" s="8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="72" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="D72" s="6" t="s">
+      <c r="E71" s="47" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="72" spans="4:5">
+      <c r="D72" s="46" t="s">
         <v>203</v>
       </c>
-      <c r="E72" s="8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="73" spans="4:5" x14ac:dyDescent="0.15">
+      <c r="E72" s="47" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="73" spans="4:5">
       <c r="D73" s="6" t="s">
         <v>204</v>
       </c>
@@ -5476,15 +5486,15 @@
         <v>16</v>
       </c>
     </row>
-    <row r="74" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="D74" s="6" t="s">
+    <row r="74" spans="4:5">
+      <c r="D74" s="46" t="s">
         <v>205</v>
       </c>
-      <c r="E74" s="8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="75" spans="4:5" x14ac:dyDescent="0.15">
+      <c r="E74" s="47" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="75" spans="4:5">
       <c r="D75" s="6" t="s">
         <v>206</v>
       </c>
@@ -5492,7 +5502,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="76" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="76" spans="4:5">
       <c r="D76" s="6" t="s">
         <v>207</v>
       </c>
@@ -5500,7 +5510,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="77" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="77" spans="4:5">
       <c r="D77" s="6" t="s">
         <v>208</v>
       </c>
@@ -5508,7 +5518,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="78" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="78" spans="4:5">
       <c r="D78" s="6" t="s">
         <v>209</v>
       </c>
@@ -5516,15 +5526,15 @@
         <v>16</v>
       </c>
     </row>
-    <row r="79" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="D79" s="6" t="s">
+    <row r="79" spans="4:5">
+      <c r="D79" s="46" t="s">
         <v>210</v>
       </c>
-      <c r="E79" s="8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="80" spans="4:5" x14ac:dyDescent="0.15">
+      <c r="E79" s="47" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="80" spans="4:5">
       <c r="D80" s="6" t="s">
         <v>211</v>
       </c>
@@ -5532,7 +5542,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="81" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="81" spans="4:5">
       <c r="D81" s="6" t="s">
         <v>212</v>
       </c>
@@ -5540,15 +5550,15 @@
         <v>16</v>
       </c>
     </row>
-    <row r="82" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="82" spans="4:5">
       <c r="D82" s="6" t="s">
         <v>213</v>
       </c>
       <c r="E82" s="8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="83" spans="4:5" x14ac:dyDescent="0.15">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="83" spans="4:5">
       <c r="D83" s="6" t="s">
         <v>214</v>
       </c>
@@ -5556,7 +5566,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="84" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="84" spans="4:5">
       <c r="D84" s="6" t="s">
         <v>215</v>
       </c>
@@ -5564,7 +5574,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="85" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="85" spans="4:5">
       <c r="D85" s="6" t="s">
         <v>216</v>
       </c>
@@ -5573,6 +5583,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="D5:E85"/>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5584,7 +5595,7 @@
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="3" width="3.375" style="1" customWidth="1"/>
     <col min="4" max="4" width="8" style="1" customWidth="1"/>
@@ -5595,25 +5606,25 @@
     <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:8">
       <c r="B2" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="2"/>
     </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:8">
       <c r="C3" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="2"/>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:8">
       <c r="D4" s="4"/>
       <c r="E4" s="2"/>
     </row>
-    <row r="5" spans="2:8" ht="27" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:8" ht="27">
       <c r="D5" s="34" t="s">
         <v>19</v>
       </c>
@@ -5626,7 +5637,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:8">
       <c r="D6" s="11">
         <v>1</v>
       </c>
@@ -5643,7 +5654,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:8">
       <c r="D7" s="11">
         <v>2</v>
       </c>
@@ -5660,7 +5671,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:8">
       <c r="D8" s="11">
         <v>2</v>
       </c>
@@ -5677,7 +5688,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:8">
       <c r="D9" s="11">
         <v>2</v>
       </c>
@@ -5694,7 +5705,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:8">
       <c r="D10" s="11">
         <v>2</v>
       </c>
@@ -5711,7 +5722,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:8">
       <c r="D11" s="11">
         <v>3</v>
       </c>
@@ -5728,7 +5739,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:8">
       <c r="D12" s="11">
         <v>3</v>
       </c>
@@ -5745,7 +5756,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="13" spans="2:8">
       <c r="D13" s="11">
         <v>3</v>
       </c>
@@ -5762,7 +5773,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="14" spans="2:8">
       <c r="D14" s="11">
         <v>3</v>
       </c>
@@ -5779,7 +5790,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="15" spans="2:8">
       <c r="D15" s="11">
         <v>4</v>
       </c>
@@ -5796,7 +5807,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="16" spans="2:8">
       <c r="D16" s="11">
         <v>4</v>
       </c>
@@ -5813,7 +5824,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="17" spans="4:8" x14ac:dyDescent="0.15">
+    <row r="17" spans="4:8">
       <c r="D17" s="11">
         <v>4</v>
       </c>
@@ -5830,7 +5841,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="4:8" x14ac:dyDescent="0.15">
+    <row r="18" spans="4:8">
       <c r="D18" s="11">
         <v>5</v>
       </c>
@@ -5847,7 +5858,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="4:8" x14ac:dyDescent="0.15">
+    <row r="19" spans="4:8">
       <c r="D19" s="11">
         <v>5</v>
       </c>
@@ -5864,7 +5875,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="4:8" x14ac:dyDescent="0.15">
+    <row r="20" spans="4:8">
       <c r="D20" s="11">
         <v>5</v>
       </c>
@@ -5881,7 +5892,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="4:8" x14ac:dyDescent="0.15">
+    <row r="21" spans="4:8">
       <c r="D21" s="11">
         <v>5</v>
       </c>
@@ -5898,7 +5909,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="4:8" x14ac:dyDescent="0.15">
+    <row r="22" spans="4:8">
       <c r="D22" s="11">
         <v>5</v>
       </c>
@@ -5915,7 +5926,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="4:8" x14ac:dyDescent="0.15">
+    <row r="23" spans="4:8">
       <c r="D23" s="11">
         <v>5</v>
       </c>
@@ -5932,7 +5943,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="4:8" x14ac:dyDescent="0.15">
+    <row r="24" spans="4:8">
       <c r="D24" s="11">
         <v>5</v>
       </c>
@@ -5949,7 +5960,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="25" spans="4:8" x14ac:dyDescent="0.15">
+    <row r="25" spans="4:8">
       <c r="D25" s="11">
         <v>6</v>
       </c>
@@ -5966,7 +5977,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="26" spans="4:8" x14ac:dyDescent="0.15">
+    <row r="26" spans="4:8">
       <c r="D26" s="11">
         <v>7</v>
       </c>
@@ -5983,7 +5994,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="27" spans="4:8" x14ac:dyDescent="0.15">
+    <row r="27" spans="4:8">
       <c r="D27" s="11">
         <v>8</v>
       </c>
@@ -6000,7 +6011,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="28" spans="4:8" x14ac:dyDescent="0.15">
+    <row r="28" spans="4:8">
       <c r="D28" s="11">
         <v>9</v>
       </c>
@@ -6017,7 +6028,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="29" spans="4:8" x14ac:dyDescent="0.15">
+    <row r="29" spans="4:8">
       <c r="D29" s="11">
         <v>10</v>
       </c>
@@ -6034,7 +6045,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="30" spans="4:8" x14ac:dyDescent="0.15">
+    <row r="30" spans="4:8">
       <c r="D30" s="11">
         <v>11</v>
       </c>
@@ -6051,7 +6062,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="31" spans="4:8" x14ac:dyDescent="0.15">
+    <row r="31" spans="4:8">
       <c r="D31" s="11">
         <v>12</v>
       </c>
@@ -6068,7 +6079,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="32" spans="4:8" x14ac:dyDescent="0.15">
+    <row r="32" spans="4:8">
       <c r="D32" s="11">
         <v>12</v>
       </c>
@@ -6085,7 +6096,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="33" spans="4:8" x14ac:dyDescent="0.15">
+    <row r="33" spans="4:8">
       <c r="D33" s="11">
         <v>12</v>
       </c>
@@ -6102,7 +6113,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="34" spans="4:8" x14ac:dyDescent="0.15">
+    <row r="34" spans="4:8">
       <c r="D34" s="11">
         <v>12</v>
       </c>
@@ -6119,7 +6130,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="35" spans="4:8" x14ac:dyDescent="0.15">
+    <row r="35" spans="4:8">
       <c r="D35" s="11">
         <v>12</v>
       </c>
@@ -6136,7 +6147,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="36" spans="4:8" x14ac:dyDescent="0.15">
+    <row r="36" spans="4:8">
       <c r="D36" s="11">
         <v>12</v>
       </c>
@@ -6153,7 +6164,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="37" spans="4:8" x14ac:dyDescent="0.15">
+    <row r="37" spans="4:8">
       <c r="D37" s="11">
         <v>12</v>
       </c>
@@ -6170,7 +6181,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="38" spans="4:8" x14ac:dyDescent="0.15">
+    <row r="38" spans="4:8">
       <c r="D38" s="11">
         <v>12</v>
       </c>
@@ -6187,7 +6198,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="39" spans="4:8" x14ac:dyDescent="0.15">
+    <row r="39" spans="4:8">
       <c r="D39" s="11">
         <v>12</v>
       </c>
@@ -6204,7 +6215,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="40" spans="4:8" x14ac:dyDescent="0.15">
+    <row r="40" spans="4:8">
       <c r="D40" s="11">
         <v>13</v>
       </c>
@@ -6221,7 +6232,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="41" spans="4:8" x14ac:dyDescent="0.15">
+    <row r="41" spans="4:8">
       <c r="D41" s="11">
         <v>13</v>
       </c>
@@ -6238,7 +6249,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="42" spans="4:8" x14ac:dyDescent="0.15">
+    <row r="42" spans="4:8">
       <c r="D42" s="11">
         <v>13</v>
       </c>
@@ -6255,7 +6266,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="43" spans="4:8" x14ac:dyDescent="0.15">
+    <row r="43" spans="4:8">
       <c r="D43" s="11">
         <v>13</v>
       </c>
@@ -6272,7 +6283,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="44" spans="4:8" x14ac:dyDescent="0.15">
+    <row r="44" spans="4:8">
       <c r="D44" s="11">
         <v>13</v>
       </c>
@@ -6289,7 +6300,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="45" spans="4:8" x14ac:dyDescent="0.15">
+    <row r="45" spans="4:8">
       <c r="D45" s="11">
         <v>13</v>
       </c>
@@ -6306,7 +6317,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="46" spans="4:8" x14ac:dyDescent="0.15">
+    <row r="46" spans="4:8">
       <c r="D46" s="11">
         <v>13</v>
       </c>
@@ -6323,7 +6334,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="47" spans="4:8" x14ac:dyDescent="0.15">
+    <row r="47" spans="4:8">
       <c r="D47" s="11">
         <v>13</v>
       </c>
@@ -6340,7 +6351,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="48" spans="4:8" x14ac:dyDescent="0.15">
+    <row r="48" spans="4:8">
       <c r="D48" s="11">
         <v>13</v>
       </c>
@@ -6357,7 +6368,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="49" spans="4:8" x14ac:dyDescent="0.15">
+    <row r="49" spans="4:8">
       <c r="D49" s="11">
         <v>14</v>
       </c>
@@ -6374,7 +6385,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="50" spans="4:8" x14ac:dyDescent="0.15">
+    <row r="50" spans="4:8">
       <c r="D50" s="11">
         <v>15</v>
       </c>
@@ -6391,7 +6402,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="51" spans="4:8" x14ac:dyDescent="0.15">
+    <row r="51" spans="4:8">
       <c r="D51" s="11">
         <v>16</v>
       </c>
@@ -6408,7 +6419,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="52" spans="4:8" x14ac:dyDescent="0.15">
+    <row r="52" spans="4:8">
       <c r="D52" s="11">
         <v>17</v>
       </c>
@@ -6425,7 +6436,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="53" spans="4:8" x14ac:dyDescent="0.15">
+    <row r="53" spans="4:8">
       <c r="D53" s="11">
         <v>18</v>
       </c>
@@ -6442,7 +6453,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="54" spans="4:8" x14ac:dyDescent="0.15">
+    <row r="54" spans="4:8">
       <c r="D54" s="11">
         <v>19</v>
       </c>
@@ -6459,7 +6470,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="55" spans="4:8" x14ac:dyDescent="0.15">
+    <row r="55" spans="4:8">
       <c r="D55" s="11">
         <v>20</v>
       </c>
@@ -6476,7 +6487,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="56" spans="4:8" x14ac:dyDescent="0.15">
+    <row r="56" spans="4:8">
       <c r="D56" s="11">
         <v>21</v>
       </c>
@@ -6493,7 +6504,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="57" spans="4:8" x14ac:dyDescent="0.15">
+    <row r="57" spans="4:8">
       <c r="D57" s="11">
         <v>21</v>
       </c>
@@ -6510,7 +6521,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="58" spans="4:8" x14ac:dyDescent="0.15">
+    <row r="58" spans="4:8">
       <c r="D58" s="11">
         <v>21</v>
       </c>
@@ -6527,7 +6538,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="59" spans="4:8" x14ac:dyDescent="0.15">
+    <row r="59" spans="4:8">
       <c r="D59" s="11">
         <v>21</v>
       </c>
@@ -6544,7 +6555,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="60" spans="4:8" x14ac:dyDescent="0.15">
+    <row r="60" spans="4:8">
       <c r="D60" s="11">
         <v>21</v>
       </c>
@@ -6561,7 +6572,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="61" spans="4:8" x14ac:dyDescent="0.15">
+    <row r="61" spans="4:8">
       <c r="D61" s="11">
         <v>21</v>
       </c>
@@ -6578,7 +6589,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="62" spans="4:8" x14ac:dyDescent="0.15">
+    <row r="62" spans="4:8">
       <c r="D62" s="11">
         <v>21</v>
       </c>
@@ -6595,7 +6606,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="63" spans="4:8" x14ac:dyDescent="0.15">
+    <row r="63" spans="4:8">
       <c r="D63" s="11">
         <v>21</v>
       </c>
@@ -6612,7 +6623,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="64" spans="4:8" x14ac:dyDescent="0.15">
+    <row r="64" spans="4:8">
       <c r="D64" s="11">
         <v>21</v>
       </c>
@@ -6629,7 +6640,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="65" spans="4:8" x14ac:dyDescent="0.15">
+    <row r="65" spans="4:8">
       <c r="D65" s="11">
         <v>21</v>
       </c>
@@ -6646,7 +6657,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="66" spans="4:8" x14ac:dyDescent="0.15">
+    <row r="66" spans="4:8">
       <c r="D66" s="11">
         <v>21</v>
       </c>
@@ -6663,7 +6674,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="67" spans="4:8" x14ac:dyDescent="0.15">
+    <row r="67" spans="4:8">
       <c r="D67" s="11">
         <v>21</v>
       </c>
@@ -6680,7 +6691,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="68" spans="4:8" x14ac:dyDescent="0.15">
+    <row r="68" spans="4:8">
       <c r="D68" s="11">
         <v>21</v>
       </c>
@@ -6697,7 +6708,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="69" spans="4:8" x14ac:dyDescent="0.15">
+    <row r="69" spans="4:8">
       <c r="D69" s="11">
         <v>21</v>
       </c>
@@ -6714,7 +6725,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="70" spans="4:8" x14ac:dyDescent="0.15">
+    <row r="70" spans="4:8">
       <c r="D70" s="11">
         <v>21</v>
       </c>
@@ -6731,7 +6742,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="71" spans="4:8" x14ac:dyDescent="0.15">
+    <row r="71" spans="4:8">
       <c r="D71" s="11">
         <v>21</v>
       </c>
@@ -6748,7 +6759,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="72" spans="4:8" x14ac:dyDescent="0.15">
+    <row r="72" spans="4:8">
       <c r="D72" s="11">
         <v>21</v>
       </c>
@@ -6765,7 +6776,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="73" spans="4:8" x14ac:dyDescent="0.15">
+    <row r="73" spans="4:8">
       <c r="D73" s="11">
         <v>21</v>
       </c>
@@ -6782,7 +6793,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="74" spans="4:8" x14ac:dyDescent="0.15">
+    <row r="74" spans="4:8">
       <c r="D74" s="11">
         <v>21</v>
       </c>
@@ -6799,7 +6810,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="75" spans="4:8" x14ac:dyDescent="0.15">
+    <row r="75" spans="4:8">
       <c r="D75" s="11">
         <v>21</v>
       </c>
@@ -6816,7 +6827,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="76" spans="4:8" x14ac:dyDescent="0.15">
+    <row r="76" spans="4:8">
       <c r="D76" s="11">
         <v>21</v>
       </c>
@@ -6833,7 +6844,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="77" spans="4:8" x14ac:dyDescent="0.15">
+    <row r="77" spans="4:8">
       <c r="D77" s="11">
         <v>21</v>
       </c>
@@ -6850,7 +6861,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="78" spans="4:8" x14ac:dyDescent="0.15">
+    <row r="78" spans="4:8">
       <c r="D78" s="11">
         <v>22</v>
       </c>
@@ -6867,7 +6878,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="79" spans="4:8" x14ac:dyDescent="0.15">
+    <row r="79" spans="4:8">
       <c r="D79" s="11">
         <v>21</v>
       </c>
@@ -6884,7 +6895,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="80" spans="4:8" x14ac:dyDescent="0.15">
+    <row r="80" spans="4:8">
       <c r="D80" s="11">
         <v>21</v>
       </c>
@@ -6901,7 +6912,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="81" spans="4:8" x14ac:dyDescent="0.15">
+    <row r="81" spans="4:8">
       <c r="D81" s="11">
         <v>21</v>
       </c>
@@ -6918,7 +6929,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="82" spans="4:8" x14ac:dyDescent="0.15">
+    <row r="82" spans="4:8">
       <c r="D82" s="11">
         <v>21</v>
       </c>
@@ -6935,7 +6946,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="83" spans="4:8" x14ac:dyDescent="0.15">
+    <row r="83" spans="4:8">
       <c r="D83" s="11">
         <v>21</v>
       </c>
@@ -6952,7 +6963,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="84" spans="4:8" x14ac:dyDescent="0.15">
+    <row r="84" spans="4:8">
       <c r="D84" s="11">
         <v>21</v>
       </c>
@@ -6969,7 +6980,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="85" spans="4:8" x14ac:dyDescent="0.15">
+    <row r="85" spans="4:8">
       <c r="D85" s="11">
         <v>21</v>
       </c>
@@ -6986,7 +6997,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="86" spans="4:8" x14ac:dyDescent="0.15">
+    <row r="86" spans="4:8">
       <c r="D86" s="11">
         <v>21</v>
       </c>
@@ -7003,7 +7014,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="87" spans="4:8" x14ac:dyDescent="0.15">
+    <row r="87" spans="4:8">
       <c r="D87" s="11">
         <v>21</v>
       </c>
@@ -7020,7 +7031,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="88" spans="4:8" x14ac:dyDescent="0.15">
+    <row r="88" spans="4:8">
       <c r="D88" s="11">
         <v>21</v>
       </c>
@@ -7037,7 +7048,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="89" spans="4:8" x14ac:dyDescent="0.15">
+    <row r="89" spans="4:8">
       <c r="D89" s="11">
         <v>21</v>
       </c>
@@ -7054,7 +7065,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="90" spans="4:8" x14ac:dyDescent="0.15">
+    <row r="90" spans="4:8">
       <c r="D90" s="11">
         <v>24</v>
       </c>
@@ -7071,7 +7082,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="91" spans="4:8" x14ac:dyDescent="0.15">
+    <row r="91" spans="4:8">
       <c r="D91" s="11">
         <v>25</v>
       </c>
@@ -7088,7 +7099,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="92" spans="4:8" x14ac:dyDescent="0.15">
+    <row r="92" spans="4:8">
       <c r="D92" s="11">
         <v>26</v>
       </c>
@@ -7105,7 +7116,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="93" spans="4:8" x14ac:dyDescent="0.15">
+    <row r="93" spans="4:8">
       <c r="D93" s="11">
         <v>27</v>
       </c>
@@ -7135,11 +7146,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:F30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="B13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="2.625" style="15" customWidth="1"/>
     <col min="2" max="2" width="3.625" style="15" customWidth="1"/>
@@ -7150,19 +7161,19 @@
     <col min="7" max="16384" width="9" style="15"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:6">
       <c r="B2" s="15" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:6">
       <c r="C3" s="15" t="s">
         <v>116</v>
       </c>
       <c r="D3" s="16"/>
       <c r="E3" s="17"/>
     </row>
-    <row r="5" spans="2:6" ht="27" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:6" ht="27">
       <c r="C5" s="18" t="s">
         <v>117</v>
       </c>
@@ -7176,7 +7187,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="6" spans="2:6" s="23" customFormat="1" ht="134.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:6" s="23" customFormat="1" ht="134.25" customHeight="1">
       <c r="C6" s="28" t="s">
         <v>247</v>
       </c>
@@ -7190,7 +7201,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="7" spans="2:6" s="23" customFormat="1" ht="93.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:6" s="23" customFormat="1" ht="93.75" customHeight="1">
       <c r="C7" s="28" t="s">
         <v>306</v>
       </c>
@@ -7204,7 +7215,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="8" spans="2:6" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:6" ht="41.25" customHeight="1">
       <c r="C8" s="29" t="s">
         <v>119</v>
       </c>
@@ -7218,7 +7229,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="9" spans="2:6" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:6" ht="41.25" customHeight="1">
       <c r="C9" s="29" t="s">
         <v>120</v>
       </c>
@@ -7232,7 +7243,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="10" spans="2:6" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:6" ht="41.25" customHeight="1">
       <c r="C10" s="29" t="s">
         <v>121</v>
       </c>
@@ -7246,7 +7257,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="11" spans="2:6" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:6" ht="41.25" customHeight="1">
       <c r="C11" s="29" t="s">
         <v>122</v>
       </c>
@@ -7260,7 +7271,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="12" spans="2:6" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:6" ht="41.25" customHeight="1">
       <c r="C12" s="29" t="s">
         <v>302</v>
       </c>
@@ -7274,7 +7285,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="13" spans="2:6" ht="267.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="2:6" ht="267.75" customHeight="1">
       <c r="C13" s="29" t="s">
         <v>123</v>
       </c>
@@ -7288,7 +7299,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="14" spans="2:6" ht="228.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="2:6" ht="228.75" customHeight="1">
       <c r="C14" s="29" t="s">
         <v>124</v>
       </c>
@@ -7302,7 +7313,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="15" spans="2:6" ht="60" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="2:6" ht="60" customHeight="1">
       <c r="C15" s="29" t="s">
         <v>125</v>
       </c>
@@ -7316,7 +7327,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="16" spans="2:6" ht="109.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="2:6" ht="109.5" customHeight="1">
       <c r="C16" s="29" t="s">
         <v>126</v>
       </c>
@@ -7330,7 +7341,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="17" spans="3:6" ht="60" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="3:6" ht="60" customHeight="1">
       <c r="C17" s="29" t="s">
         <v>241</v>
       </c>
@@ -7344,7 +7355,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="18" spans="3:6" ht="60" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="3:6" ht="60" customHeight="1">
       <c r="C18" s="29" t="s">
         <v>127</v>
       </c>
@@ -7358,7 +7369,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="19" spans="3:6" ht="169.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="3:6" ht="169.5" customHeight="1">
       <c r="C19" s="29" t="s">
         <v>242</v>
       </c>
@@ -7372,7 +7383,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="20" spans="3:6" ht="94.5" x14ac:dyDescent="0.15">
+    <row r="20" spans="3:6" ht="94.5">
       <c r="C20" s="29" t="s">
         <v>289</v>
       </c>
@@ -7386,7 +7397,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="21" spans="3:6" ht="81" x14ac:dyDescent="0.15">
+    <row r="21" spans="3:6" ht="81">
       <c r="C21" s="29" t="s">
         <v>288</v>
       </c>
@@ -7400,7 +7411,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="22" spans="3:6" ht="81" x14ac:dyDescent="0.15">
+    <row r="22" spans="3:6" ht="81">
       <c r="C22" s="29" t="s">
         <v>293</v>
       </c>
@@ -7414,7 +7425,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="23" spans="3:6" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="23" spans="3:6" ht="17.25">
       <c r="C23" s="29" t="s">
         <v>294</v>
       </c>
@@ -7428,43 +7439,43 @@
         <v>298</v>
       </c>
     </row>
-    <row r="24" spans="3:6" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="24" spans="3:6" ht="17.25">
       <c r="C24" s="29"/>
       <c r="D24" s="12"/>
       <c r="E24" s="12"/>
       <c r="F24" s="12"/>
     </row>
-    <row r="25" spans="3:6" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="25" spans="3:6" ht="17.25">
       <c r="C25" s="29"/>
       <c r="D25" s="12"/>
       <c r="E25" s="12"/>
       <c r="F25" s="12"/>
     </row>
-    <row r="26" spans="3:6" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="26" spans="3:6" ht="17.25">
       <c r="C26" s="29"/>
       <c r="D26" s="12"/>
       <c r="E26" s="12"/>
       <c r="F26" s="12"/>
     </row>
-    <row r="27" spans="3:6" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="27" spans="3:6" ht="17.25">
       <c r="C27" s="29"/>
       <c r="D27" s="12"/>
       <c r="E27" s="12"/>
       <c r="F27" s="12"/>
     </row>
-    <row r="28" spans="3:6" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="28" spans="3:6" ht="17.25">
       <c r="C28" s="29"/>
       <c r="D28" s="12"/>
       <c r="E28" s="12"/>
       <c r="F28" s="12"/>
     </row>
-    <row r="29" spans="3:6" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="29" spans="3:6" ht="17.25">
       <c r="C29" s="29"/>
       <c r="D29" s="12"/>
       <c r="E29" s="12"/>
       <c r="F29" s="12"/>
     </row>
-    <row r="30" spans="3:6" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="30" spans="3:6" ht="17.25">
       <c r="C30" s="29"/>
       <c r="D30" s="12"/>
       <c r="E30" s="12"/>
@@ -7485,7 +7496,7 @@
       <selection activeCell="N26" sqref="N26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="3.375" style="1" customWidth="1"/>
     <col min="2" max="2" width="4.5" style="1" customWidth="1"/>
@@ -7493,67 +7504,67 @@
     <col min="4" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:4">
       <c r="B2" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:4">
       <c r="C3" s="15" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:4">
       <c r="C5" s="1" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:4">
       <c r="D6" s="1" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:4">
       <c r="D7" s="1" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:4">
       <c r="D8" s="1" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:4">
       <c r="D9" s="1" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:4">
       <c r="D10" s="1" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:4">
       <c r="D11" s="1" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="13" spans="2:4">
       <c r="C13" s="1" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="14" spans="2:4">
       <c r="D14" s="1" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="16" spans="2:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:4" ht="14.25" thickBot="1">
       <c r="D16" s="1" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="17" spans="3:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="3:8" ht="14.25" thickBot="1">
       <c r="D17" s="37" t="s">
         <v>271</v>
       </c>
@@ -7562,12 +7573,12 @@
       <c r="G17" s="38"/>
       <c r="H17" s="39"/>
     </row>
-    <row r="19" spans="3:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:8" ht="14.25" thickBot="1">
       <c r="D19" s="1" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="20" spans="3:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="3:8" ht="14.25" thickBot="1">
       <c r="D20" s="37" t="s">
         <v>272</v>
       </c>
@@ -7576,12 +7587,12 @@
       <c r="G20" s="38"/>
       <c r="H20" s="39"/>
     </row>
-    <row r="22" spans="3:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:8" ht="14.25" thickBot="1">
       <c r="C22" s="1" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="23" spans="3:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:8" ht="14.25" thickBot="1">
       <c r="D23" s="37" t="s">
         <v>235</v>
       </c>
@@ -7590,17 +7601,17 @@
       <c r="G23" s="38"/>
       <c r="H23" s="39"/>
     </row>
-    <row r="25" spans="3:8" x14ac:dyDescent="0.15">
+    <row r="25" spans="3:8">
       <c r="D25" s="1" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="26" spans="3:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="3:8" ht="14.25" thickBot="1">
       <c r="C26" s="1" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="27" spans="3:8" x14ac:dyDescent="0.15">
+    <row r="27" spans="3:8">
       <c r="D27" s="40" t="s">
         <v>236</v>
       </c>
@@ -7609,7 +7620,7 @@
       <c r="G27" s="41"/>
       <c r="H27" s="42"/>
     </row>
-    <row r="28" spans="3:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:8" ht="14.25" thickBot="1">
       <c r="D28" s="43" t="s">
         <v>237</v>
       </c>
@@ -7637,55 +7648,55 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="3.5" style="1" customWidth="1"/>
     <col min="2" max="4" width="3.75" style="1" customWidth="1"/>
     <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:9">
       <c r="B2" s="1" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:9">
       <c r="C3" s="1" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:9">
       <c r="C4" s="1" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:9">
       <c r="C5" s="1" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:9">
       <c r="C7" s="1" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:9">
       <c r="D8" s="1" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:9">
       <c r="C10" s="1" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:9">
       <c r="D11" s="15" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="12" spans="2:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="13" spans="2:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:9" ht="14.25" thickBot="1"/>
+    <row r="13" spans="2:9" ht="14.25" thickBot="1">
       <c r="D13" s="37" t="s">
         <v>240</v>
       </c>
@@ -7695,18 +7706,18 @@
       <c r="H13" s="38"/>
       <c r="I13" s="39"/>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="15" spans="2:9">
       <c r="D15" s="1" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="16" spans="2:9">
       <c r="D16" s="1" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="17" spans="3:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="18" spans="3:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="3:9" ht="14.25" thickBot="1"/>
+    <row r="18" spans="3:9" ht="14.25" thickBot="1">
       <c r="D18" s="37" t="s">
         <v>257</v>
       </c>
@@ -7716,23 +7727,23 @@
       <c r="H18" s="38"/>
       <c r="I18" s="39"/>
     </row>
-    <row r="20" spans="3:9" x14ac:dyDescent="0.15">
+    <row r="20" spans="3:9">
       <c r="D20" s="1" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="22" spans="3:9" x14ac:dyDescent="0.15">
+    <row r="22" spans="3:9">
       <c r="C22" s="1" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="23" spans="3:9" x14ac:dyDescent="0.15">
+    <row r="23" spans="3:9">
       <c r="D23" s="15" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="24" spans="3:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="25" spans="3:9" x14ac:dyDescent="0.15">
+    <row r="24" spans="3:9" ht="14.25" thickBot="1"/>
+    <row r="25" spans="3:9">
       <c r="D25" s="40" t="s">
         <v>281</v>
       </c>
@@ -7742,7 +7753,7 @@
       <c r="H25" s="41"/>
       <c r="I25" s="42"/>
     </row>
-    <row r="26" spans="3:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="3:9" ht="14.25" thickBot="1">
       <c r="D26" s="43" t="s">
         <v>280</v>
       </c>
@@ -7752,7 +7763,7 @@
       <c r="H26" s="44"/>
       <c r="I26" s="45"/>
     </row>
-    <row r="27" spans="3:9" x14ac:dyDescent="0.15">
+    <row r="27" spans="3:9">
       <c r="D27" s="27"/>
       <c r="E27" s="27"/>
       <c r="F27" s="27"/>
@@ -7760,18 +7771,18 @@
       <c r="H27" s="27"/>
       <c r="I27" s="27"/>
     </row>
-    <row r="28" spans="3:9" x14ac:dyDescent="0.15">
+    <row r="28" spans="3:9">
       <c r="D28" s="1" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="30" spans="3:9" x14ac:dyDescent="0.15">
+    <row r="30" spans="3:9">
       <c r="D30" s="15" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="31" spans="3:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="32" spans="3:9" x14ac:dyDescent="0.15">
+    <row r="31" spans="3:9" ht="14.25" thickBot="1"/>
+    <row r="32" spans="3:9">
       <c r="D32" s="40" t="s">
         <v>281</v>
       </c>
@@ -7781,7 +7792,7 @@
       <c r="H32" s="41"/>
       <c r="I32" s="42"/>
     </row>
-    <row r="33" spans="4:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="4:9" ht="14.25" thickBot="1">
       <c r="D33" s="43" t="s">
         <v>284</v>
       </c>
@@ -7812,7 +7823,7 @@
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="4.375" style="1" customWidth="1"/>
     <col min="2" max="2" width="3.5" style="1" customWidth="1"/>
@@ -7820,12 +7831,12 @@
     <col min="4" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:3">
       <c r="B2" s="1" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:3">
       <c r="C3" s="1" t="s">
         <v>253</v>
       </c>

--- a/マニュアル.xlsx
+++ b/マニュアル.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="661" uniqueCount="316">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="661" uniqueCount="317">
   <si>
     <t>１．はじめに</t>
     <phoneticPr fontId="2"/>
@@ -2897,6 +2897,10 @@
   </si>
   <si>
     <t>@DBG&gt;A 0:1:100</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>△</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -3255,6 +3259,12 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -3299,12 +3309,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4763,43 +4767,43 @@
       <c r="B11" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="C11" s="31" t="s">
+      <c r="C11" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="D11" s="31"/>
-      <c r="E11" s="31"/>
-      <c r="F11" s="31"/>
-      <c r="G11" s="31"/>
-      <c r="H11" s="31"/>
-      <c r="I11" s="31"/>
+      <c r="D11" s="33"/>
+      <c r="E11" s="33"/>
+      <c r="F11" s="33"/>
+      <c r="G11" s="33"/>
+      <c r="H11" s="33"/>
+      <c r="I11" s="33"/>
     </row>
     <row r="12" spans="2:9">
       <c r="B12" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C12" s="33" t="s">
+      <c r="C12" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="D12" s="33"/>
-      <c r="E12" s="33"/>
-      <c r="F12" s="33"/>
-      <c r="G12" s="33"/>
-      <c r="H12" s="33"/>
-      <c r="I12" s="33"/>
+      <c r="D12" s="35"/>
+      <c r="E12" s="35"/>
+      <c r="F12" s="35"/>
+      <c r="G12" s="35"/>
+      <c r="H12" s="35"/>
+      <c r="I12" s="35"/>
     </row>
     <row r="13" spans="2:9" ht="76.5" customHeight="1">
       <c r="B13" s="12" t="s">
         <v>311</v>
       </c>
-      <c r="C13" s="32" t="s">
+      <c r="C13" s="34" t="s">
         <v>312</v>
       </c>
-      <c r="D13" s="33"/>
-      <c r="E13" s="33"/>
-      <c r="F13" s="33"/>
-      <c r="G13" s="33"/>
-      <c r="H13" s="33"/>
-      <c r="I13" s="33"/>
+      <c r="D13" s="35"/>
+      <c r="E13" s="35"/>
+      <c r="F13" s="35"/>
+      <c r="G13" s="35"/>
+      <c r="H13" s="35"/>
+      <c r="I13" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -4908,10 +4912,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
   <dimension ref="B2:E85"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4942,7 +4947,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="2:5">
+    <row r="6" spans="2:5" hidden="1">
       <c r="D6" s="6" t="s">
         <v>137</v>
       </c>
@@ -4950,7 +4955,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="2:5">
+    <row r="7" spans="2:5" hidden="1">
       <c r="D7" s="6" t="s">
         <v>138</v>
       </c>
@@ -4958,7 +4963,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="2:5">
+    <row r="8" spans="2:5" hidden="1">
       <c r="D8" s="6" t="s">
         <v>139</v>
       </c>
@@ -4967,14 +4972,14 @@
       </c>
     </row>
     <row r="9" spans="2:5">
-      <c r="D9" s="46" t="s">
+      <c r="D9" s="31" t="s">
         <v>140</v>
       </c>
-      <c r="E9" s="47" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="2:5">
+      <c r="E9" s="32" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" hidden="1">
       <c r="D10" s="6" t="s">
         <v>141</v>
       </c>
@@ -4982,7 +4987,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="2:5">
+    <row r="11" spans="2:5" hidden="1">
       <c r="D11" s="6" t="s">
         <v>142</v>
       </c>
@@ -4991,14 +4996,14 @@
       </c>
     </row>
     <row r="12" spans="2:5">
-      <c r="D12" s="46" t="s">
+      <c r="D12" s="31" t="s">
         <v>143</v>
       </c>
-      <c r="E12" s="47" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" spans="2:5">
+      <c r="E12" s="32" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" hidden="1">
       <c r="D13" s="6" t="s">
         <v>144</v>
       </c>
@@ -5007,14 +5012,14 @@
       </c>
     </row>
     <row r="14" spans="2:5">
-      <c r="D14" s="46" t="s">
+      <c r="D14" s="31" t="s">
         <v>145</v>
       </c>
-      <c r="E14" s="47" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="15" spans="2:5">
+      <c r="E14" s="32" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" hidden="1">
       <c r="D15" s="6" t="s">
         <v>146</v>
       </c>
@@ -5022,7 +5027,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="2:5">
+    <row r="16" spans="2:5" hidden="1">
       <c r="D16" s="6" t="s">
         <v>147</v>
       </c>
@@ -5030,7 +5035,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="4:5">
+    <row r="17" spans="4:5" hidden="1">
       <c r="D17" s="6" t="s">
         <v>148</v>
       </c>
@@ -5038,7 +5043,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="4:5">
+    <row r="18" spans="4:5" hidden="1">
       <c r="D18" s="6" t="s">
         <v>149</v>
       </c>
@@ -5046,7 +5051,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="4:5">
+    <row r="19" spans="4:5" hidden="1">
       <c r="D19" s="6" t="s">
         <v>150</v>
       </c>
@@ -5054,7 +5059,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="4:5">
+    <row r="20" spans="4:5" hidden="1">
       <c r="D20" s="6" t="s">
         <v>151</v>
       </c>
@@ -5062,7 +5067,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="4:5">
+    <row r="21" spans="4:5" hidden="1">
       <c r="D21" s="6" t="s">
         <v>152</v>
       </c>
@@ -5071,14 +5076,14 @@
       </c>
     </row>
     <row r="22" spans="4:5">
-      <c r="D22" s="46" t="s">
+      <c r="D22" s="31" t="s">
         <v>153</v>
       </c>
-      <c r="E22" s="47" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="23" spans="4:5">
+      <c r="E22" s="32" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="23" spans="4:5" hidden="1">
       <c r="D23" s="6" t="s">
         <v>154</v>
       </c>
@@ -5086,7 +5091,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="24" spans="4:5">
+    <row r="24" spans="4:5" hidden="1">
       <c r="D24" s="6" t="s">
         <v>155</v>
       </c>
@@ -5095,14 +5100,14 @@
       </c>
     </row>
     <row r="25" spans="4:5">
-      <c r="D25" s="46" t="s">
+      <c r="D25" s="31" t="s">
         <v>156</v>
       </c>
-      <c r="E25" s="47" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="26" spans="4:5">
+      <c r="E25" s="32" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="26" spans="4:5" hidden="1">
       <c r="D26" s="6" t="s">
         <v>157</v>
       </c>
@@ -5110,7 +5115,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="27" spans="4:5">
+    <row r="27" spans="4:5" hidden="1">
       <c r="D27" s="6" t="s">
         <v>158</v>
       </c>
@@ -5119,14 +5124,14 @@
       </c>
     </row>
     <row r="28" spans="4:5">
-      <c r="D28" s="46" t="s">
+      <c r="D28" s="31" t="s">
         <v>159</v>
       </c>
-      <c r="E28" s="47" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="29" spans="4:5">
+      <c r="E28" s="32" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="29" spans="4:5" hidden="1">
       <c r="D29" s="6" t="s">
         <v>160</v>
       </c>
@@ -5135,38 +5140,38 @@
       </c>
     </row>
     <row r="30" spans="4:5">
-      <c r="D30" s="46" t="s">
+      <c r="D30" s="31" t="s">
         <v>161</v>
       </c>
-      <c r="E30" s="47" t="s">
-        <v>17</v>
+      <c r="E30" s="32" t="s">
+        <v>316</v>
       </c>
     </row>
     <row r="31" spans="4:5">
-      <c r="D31" s="46" t="s">
+      <c r="D31" s="31" t="s">
         <v>162</v>
       </c>
-      <c r="E31" s="47" t="s">
-        <v>17</v>
+      <c r="E31" s="32" t="s">
+        <v>316</v>
       </c>
     </row>
     <row r="32" spans="4:5">
-      <c r="D32" s="46" t="s">
+      <c r="D32" s="31" t="s">
         <v>163</v>
       </c>
-      <c r="E32" s="47" t="s">
-        <v>17</v>
+      <c r="E32" s="32" t="s">
+        <v>316</v>
       </c>
     </row>
     <row r="33" spans="4:5">
-      <c r="D33" s="46" t="s">
+      <c r="D33" s="31" t="s">
         <v>164</v>
       </c>
-      <c r="E33" s="47" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="34" spans="4:5">
+      <c r="E33" s="32" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="34" spans="4:5" hidden="1">
       <c r="D34" s="6" t="s">
         <v>165</v>
       </c>
@@ -5174,7 +5179,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="35" spans="4:5">
+    <row r="35" spans="4:5" hidden="1">
       <c r="D35" s="6" t="s">
         <v>166</v>
       </c>
@@ -5182,7 +5187,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="36" spans="4:5">
+    <row r="36" spans="4:5" hidden="1">
       <c r="D36" s="6" t="s">
         <v>167</v>
       </c>
@@ -5190,7 +5195,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="37" spans="4:5">
+    <row r="37" spans="4:5" hidden="1">
       <c r="D37" s="6" t="s">
         <v>168</v>
       </c>
@@ -5198,7 +5203,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="38" spans="4:5">
+    <row r="38" spans="4:5" hidden="1">
       <c r="D38" s="6" t="s">
         <v>169</v>
       </c>
@@ -5206,7 +5211,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="39" spans="4:5">
+    <row r="39" spans="4:5" hidden="1">
       <c r="D39" s="6" t="s">
         <v>170</v>
       </c>
@@ -5214,7 +5219,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="40" spans="4:5">
+    <row r="40" spans="4:5" hidden="1">
       <c r="D40" s="6" t="s">
         <v>171</v>
       </c>
@@ -5222,7 +5227,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="41" spans="4:5">
+    <row r="41" spans="4:5" hidden="1">
       <c r="D41" s="6" t="s">
         <v>172</v>
       </c>
@@ -5231,14 +5236,14 @@
       </c>
     </row>
     <row r="42" spans="4:5">
-      <c r="D42" s="46" t="s">
+      <c r="D42" s="31" t="s">
         <v>173</v>
       </c>
-      <c r="E42" s="47" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="43" spans="4:5">
+      <c r="E42" s="32" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="43" spans="4:5" hidden="1">
       <c r="D43" s="6" t="s">
         <v>174</v>
       </c>
@@ -5247,14 +5252,14 @@
       </c>
     </row>
     <row r="44" spans="4:5">
-      <c r="D44" s="46" t="s">
+      <c r="D44" s="31" t="s">
         <v>175</v>
       </c>
-      <c r="E44" s="47" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="45" spans="4:5">
+      <c r="E44" s="32" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="45" spans="4:5" hidden="1">
       <c r="D45" s="6" t="s">
         <v>176</v>
       </c>
@@ -5262,7 +5267,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="46" spans="4:5">
+    <row r="46" spans="4:5" hidden="1">
       <c r="D46" s="6" t="s">
         <v>177</v>
       </c>
@@ -5270,7 +5275,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="47" spans="4:5">
+    <row r="47" spans="4:5" hidden="1">
       <c r="D47" s="6" t="s">
         <v>178</v>
       </c>
@@ -5278,7 +5283,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="48" spans="4:5">
+    <row r="48" spans="4:5" hidden="1">
       <c r="D48" s="6" t="s">
         <v>179</v>
       </c>
@@ -5286,7 +5291,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="49" spans="4:5">
+    <row r="49" spans="4:5" hidden="1">
       <c r="D49" s="6" t="s">
         <v>180</v>
       </c>
@@ -5294,7 +5299,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="50" spans="4:5">
+    <row r="50" spans="4:5" hidden="1">
       <c r="D50" s="6" t="s">
         <v>181</v>
       </c>
@@ -5302,7 +5307,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="51" spans="4:5">
+    <row r="51" spans="4:5" hidden="1">
       <c r="D51" s="6" t="s">
         <v>182</v>
       </c>
@@ -5310,7 +5315,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="52" spans="4:5">
+    <row r="52" spans="4:5" hidden="1">
       <c r="D52" s="6" t="s">
         <v>183</v>
       </c>
@@ -5318,7 +5323,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="53" spans="4:5">
+    <row r="53" spans="4:5" hidden="1">
       <c r="D53" s="6" t="s">
         <v>184</v>
       </c>
@@ -5326,7 +5331,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="54" spans="4:5">
+    <row r="54" spans="4:5" hidden="1">
       <c r="D54" s="6" t="s">
         <v>185</v>
       </c>
@@ -5334,7 +5339,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="55" spans="4:5">
+    <row r="55" spans="4:5" hidden="1">
       <c r="D55" s="6" t="s">
         <v>186</v>
       </c>
@@ -5342,7 +5347,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="56" spans="4:5">
+    <row r="56" spans="4:5" hidden="1">
       <c r="D56" s="6" t="s">
         <v>187</v>
       </c>
@@ -5350,7 +5355,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="57" spans="4:5">
+    <row r="57" spans="4:5" hidden="1">
       <c r="D57" s="6" t="s">
         <v>188</v>
       </c>
@@ -5358,7 +5363,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="58" spans="4:5">
+    <row r="58" spans="4:5" hidden="1">
       <c r="D58" s="6" t="s">
         <v>189</v>
       </c>
@@ -5366,7 +5371,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="59" spans="4:5">
+    <row r="59" spans="4:5" hidden="1">
       <c r="D59" s="6" t="s">
         <v>190</v>
       </c>
@@ -5374,7 +5379,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="60" spans="4:5">
+    <row r="60" spans="4:5" hidden="1">
       <c r="D60" s="6" t="s">
         <v>191</v>
       </c>
@@ -5382,7 +5387,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="61" spans="4:5">
+    <row r="61" spans="4:5" hidden="1">
       <c r="D61" s="6" t="s">
         <v>192</v>
       </c>
@@ -5390,7 +5395,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="62" spans="4:5">
+    <row r="62" spans="4:5" hidden="1">
       <c r="D62" s="6" t="s">
         <v>193</v>
       </c>
@@ -5398,7 +5403,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="63" spans="4:5" ht="40.5">
+    <row r="63" spans="4:5" ht="40.5" hidden="1">
       <c r="D63" s="6" t="s">
         <v>194</v>
       </c>
@@ -5406,7 +5411,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="64" spans="4:5">
+    <row r="64" spans="4:5" hidden="1">
       <c r="D64" s="6" t="s">
         <v>195</v>
       </c>
@@ -5414,7 +5419,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="65" spans="4:5">
+    <row r="65" spans="4:5" hidden="1">
       <c r="D65" s="6" t="s">
         <v>196</v>
       </c>
@@ -5422,7 +5427,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="66" spans="4:5">
+    <row r="66" spans="4:5" hidden="1">
       <c r="D66" s="6" t="s">
         <v>197</v>
       </c>
@@ -5431,14 +5436,14 @@
       </c>
     </row>
     <row r="67" spans="4:5">
-      <c r="D67" s="46" t="s">
+      <c r="D67" s="31" t="s">
         <v>198</v>
       </c>
-      <c r="E67" s="47" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="68" spans="4:5">
+      <c r="E67" s="32" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="68" spans="4:5" hidden="1">
       <c r="D68" s="6" t="s">
         <v>199</v>
       </c>
@@ -5447,38 +5452,38 @@
       </c>
     </row>
     <row r="69" spans="4:5">
-      <c r="D69" s="46" t="s">
+      <c r="D69" s="31" t="s">
         <v>200</v>
       </c>
-      <c r="E69" s="47" t="s">
-        <v>17</v>
+      <c r="E69" s="32" t="s">
+        <v>316</v>
       </c>
     </row>
     <row r="70" spans="4:5">
-      <c r="D70" s="46" t="s">
+      <c r="D70" s="31" t="s">
         <v>201</v>
       </c>
-      <c r="E70" s="47" t="s">
-        <v>17</v>
+      <c r="E70" s="32" t="s">
+        <v>316</v>
       </c>
     </row>
     <row r="71" spans="4:5">
-      <c r="D71" s="46" t="s">
+      <c r="D71" s="31" t="s">
         <v>202</v>
       </c>
-      <c r="E71" s="47" t="s">
-        <v>17</v>
+      <c r="E71" s="32" t="s">
+        <v>316</v>
       </c>
     </row>
     <row r="72" spans="4:5">
-      <c r="D72" s="46" t="s">
+      <c r="D72" s="31" t="s">
         <v>203</v>
       </c>
-      <c r="E72" s="47" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="73" spans="4:5">
+      <c r="E72" s="32" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="73" spans="4:5" hidden="1">
       <c r="D73" s="6" t="s">
         <v>204</v>
       </c>
@@ -5486,15 +5491,15 @@
         <v>16</v>
       </c>
     </row>
-    <row r="74" spans="4:5">
-      <c r="D74" s="46" t="s">
+    <row r="74" spans="4:5" hidden="1">
+      <c r="D74" s="6" t="s">
         <v>205</v>
       </c>
-      <c r="E74" s="47" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="75" spans="4:5">
+      <c r="E74" s="8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="75" spans="4:5" hidden="1">
       <c r="D75" s="6" t="s">
         <v>206</v>
       </c>
@@ -5502,7 +5507,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="76" spans="4:5">
+    <row r="76" spans="4:5" hidden="1">
       <c r="D76" s="6" t="s">
         <v>207</v>
       </c>
@@ -5510,7 +5515,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="77" spans="4:5">
+    <row r="77" spans="4:5" hidden="1">
       <c r="D77" s="6" t="s">
         <v>208</v>
       </c>
@@ -5518,7 +5523,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="78" spans="4:5">
+    <row r="78" spans="4:5" hidden="1">
       <c r="D78" s="6" t="s">
         <v>209</v>
       </c>
@@ -5526,15 +5531,15 @@
         <v>16</v>
       </c>
     </row>
-    <row r="79" spans="4:5">
-      <c r="D79" s="46" t="s">
+    <row r="79" spans="4:5" hidden="1">
+      <c r="D79" s="6" t="s">
         <v>210</v>
       </c>
-      <c r="E79" s="47" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="80" spans="4:5">
+      <c r="E79" s="8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="80" spans="4:5" hidden="1">
       <c r="D80" s="6" t="s">
         <v>211</v>
       </c>
@@ -5542,7 +5547,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="81" spans="4:5">
+    <row r="81" spans="4:5" hidden="1">
       <c r="D81" s="6" t="s">
         <v>212</v>
       </c>
@@ -5550,7 +5555,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="82" spans="4:5">
+    <row r="82" spans="4:5" hidden="1">
       <c r="D82" s="6" t="s">
         <v>213</v>
       </c>
@@ -5558,7 +5563,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="83" spans="4:5">
+    <row r="83" spans="4:5" hidden="1">
       <c r="D83" s="6" t="s">
         <v>214</v>
       </c>
@@ -5566,7 +5571,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="84" spans="4:5">
+    <row r="84" spans="4:5" hidden="1">
       <c r="D84" s="6" t="s">
         <v>215</v>
       </c>
@@ -5574,7 +5579,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="85" spans="4:5">
+    <row r="85" spans="4:5" hidden="1">
       <c r="D85" s="6" t="s">
         <v>216</v>
       </c>
@@ -5583,7 +5588,13 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="D5:E85"/>
+  <autoFilter ref="D5:E85">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="△"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5625,11 +5636,11 @@
       <c r="E4" s="2"/>
     </row>
     <row r="5" spans="2:8" ht="27">
-      <c r="D5" s="34" t="s">
+      <c r="D5" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="35"/>
-      <c r="F5" s="36"/>
+      <c r="E5" s="37"/>
+      <c r="F5" s="38"/>
       <c r="G5" s="9" t="s">
         <v>14</v>
       </c>
@@ -7565,13 +7576,13 @@
       </c>
     </row>
     <row r="17" spans="3:8" ht="14.25" thickBot="1">
-      <c r="D17" s="37" t="s">
+      <c r="D17" s="39" t="s">
         <v>271</v>
       </c>
-      <c r="E17" s="38"/>
-      <c r="F17" s="38"/>
-      <c r="G17" s="38"/>
-      <c r="H17" s="39"/>
+      <c r="E17" s="40"/>
+      <c r="F17" s="40"/>
+      <c r="G17" s="40"/>
+      <c r="H17" s="41"/>
     </row>
     <row r="19" spans="3:8" ht="14.25" thickBot="1">
       <c r="D19" s="1" t="s">
@@ -7579,13 +7590,13 @@
       </c>
     </row>
     <row r="20" spans="3:8" ht="14.25" thickBot="1">
-      <c r="D20" s="37" t="s">
+      <c r="D20" s="39" t="s">
         <v>272</v>
       </c>
-      <c r="E20" s="38"/>
-      <c r="F20" s="38"/>
-      <c r="G20" s="38"/>
-      <c r="H20" s="39"/>
+      <c r="E20" s="40"/>
+      <c r="F20" s="40"/>
+      <c r="G20" s="40"/>
+      <c r="H20" s="41"/>
     </row>
     <row r="22" spans="3:8" ht="14.25" thickBot="1">
       <c r="C22" s="1" t="s">
@@ -7593,13 +7604,13 @@
       </c>
     </row>
     <row r="23" spans="3:8" ht="14.25" thickBot="1">
-      <c r="D23" s="37" t="s">
+      <c r="D23" s="39" t="s">
         <v>235</v>
       </c>
-      <c r="E23" s="38"/>
-      <c r="F23" s="38"/>
-      <c r="G23" s="38"/>
-      <c r="H23" s="39"/>
+      <c r="E23" s="40"/>
+      <c r="F23" s="40"/>
+      <c r="G23" s="40"/>
+      <c r="H23" s="41"/>
     </row>
     <row r="25" spans="3:8">
       <c r="D25" s="1" t="s">
@@ -7612,22 +7623,22 @@
       </c>
     </row>
     <row r="27" spans="3:8">
-      <c r="D27" s="40" t="s">
+      <c r="D27" s="42" t="s">
         <v>236</v>
       </c>
-      <c r="E27" s="41"/>
-      <c r="F27" s="41"/>
-      <c r="G27" s="41"/>
-      <c r="H27" s="42"/>
+      <c r="E27" s="43"/>
+      <c r="F27" s="43"/>
+      <c r="G27" s="43"/>
+      <c r="H27" s="44"/>
     </row>
     <row r="28" spans="3:8" ht="14.25" thickBot="1">
-      <c r="D28" s="43" t="s">
+      <c r="D28" s="45" t="s">
         <v>237</v>
       </c>
-      <c r="E28" s="44"/>
-      <c r="F28" s="44"/>
-      <c r="G28" s="44"/>
-      <c r="H28" s="45"/>
+      <c r="E28" s="46"/>
+      <c r="F28" s="46"/>
+      <c r="G28" s="46"/>
+      <c r="H28" s="47"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -7697,14 +7708,14 @@
     </row>
     <row r="12" spans="2:9" ht="14.25" thickBot="1"/>
     <row r="13" spans="2:9" ht="14.25" thickBot="1">
-      <c r="D13" s="37" t="s">
+      <c r="D13" s="39" t="s">
         <v>240</v>
       </c>
-      <c r="E13" s="38"/>
-      <c r="F13" s="38"/>
-      <c r="G13" s="38"/>
-      <c r="H13" s="38"/>
-      <c r="I13" s="39"/>
+      <c r="E13" s="40"/>
+      <c r="F13" s="40"/>
+      <c r="G13" s="40"/>
+      <c r="H13" s="40"/>
+      <c r="I13" s="41"/>
     </row>
     <row r="15" spans="2:9">
       <c r="D15" s="1" t="s">
@@ -7718,14 +7729,14 @@
     </row>
     <row r="17" spans="3:9" ht="14.25" thickBot="1"/>
     <row r="18" spans="3:9" ht="14.25" thickBot="1">
-      <c r="D18" s="37" t="s">
+      <c r="D18" s="39" t="s">
         <v>257</v>
       </c>
-      <c r="E18" s="38"/>
-      <c r="F18" s="38"/>
-      <c r="G18" s="38"/>
-      <c r="H18" s="38"/>
-      <c r="I18" s="39"/>
+      <c r="E18" s="40"/>
+      <c r="F18" s="40"/>
+      <c r="G18" s="40"/>
+      <c r="H18" s="40"/>
+      <c r="I18" s="41"/>
     </row>
     <row r="20" spans="3:9">
       <c r="D20" s="1" t="s">
@@ -7744,24 +7755,24 @@
     </row>
     <row r="24" spans="3:9" ht="14.25" thickBot="1"/>
     <row r="25" spans="3:9">
-      <c r="D25" s="40" t="s">
+      <c r="D25" s="42" t="s">
         <v>281</v>
       </c>
-      <c r="E25" s="41"/>
-      <c r="F25" s="41"/>
-      <c r="G25" s="41"/>
-      <c r="H25" s="41"/>
-      <c r="I25" s="42"/>
+      <c r="E25" s="43"/>
+      <c r="F25" s="43"/>
+      <c r="G25" s="43"/>
+      <c r="H25" s="43"/>
+      <c r="I25" s="44"/>
     </row>
     <row r="26" spans="3:9" ht="14.25" thickBot="1">
-      <c r="D26" s="43" t="s">
+      <c r="D26" s="45" t="s">
         <v>280</v>
       </c>
-      <c r="E26" s="44"/>
-      <c r="F26" s="44"/>
-      <c r="G26" s="44"/>
-      <c r="H26" s="44"/>
-      <c r="I26" s="45"/>
+      <c r="E26" s="46"/>
+      <c r="F26" s="46"/>
+      <c r="G26" s="46"/>
+      <c r="H26" s="46"/>
+      <c r="I26" s="47"/>
     </row>
     <row r="27" spans="3:9">
       <c r="D27" s="27"/>
@@ -7783,24 +7794,24 @@
     </row>
     <row r="31" spans="3:9" ht="14.25" thickBot="1"/>
     <row r="32" spans="3:9">
-      <c r="D32" s="40" t="s">
+      <c r="D32" s="42" t="s">
         <v>281</v>
       </c>
-      <c r="E32" s="41"/>
-      <c r="F32" s="41"/>
-      <c r="G32" s="41"/>
-      <c r="H32" s="41"/>
-      <c r="I32" s="42"/>
+      <c r="E32" s="43"/>
+      <c r="F32" s="43"/>
+      <c r="G32" s="43"/>
+      <c r="H32" s="43"/>
+      <c r="I32" s="44"/>
     </row>
     <row r="33" spans="4:9" ht="14.25" thickBot="1">
-      <c r="D33" s="43" t="s">
+      <c r="D33" s="45" t="s">
         <v>284</v>
       </c>
-      <c r="E33" s="44"/>
-      <c r="F33" s="44"/>
-      <c r="G33" s="44"/>
-      <c r="H33" s="44"/>
-      <c r="I33" s="45"/>
+      <c r="E33" s="46"/>
+      <c r="F33" s="46"/>
+      <c r="G33" s="46"/>
+      <c r="H33" s="46"/>
+      <c r="I33" s="47"/>
     </row>
   </sheetData>
   <mergeCells count="6">

--- a/マニュアル.xlsx
+++ b/マニュアル.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="661" uniqueCount="317">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="661" uniqueCount="318">
   <si>
     <t>１．はじめに</t>
     <phoneticPr fontId="2"/>
@@ -1244,9 +1244,6 @@
   </si>
   <si>
     <t>SATADD ：Saturated add</t>
-  </si>
-  <si>
-    <t>SATSUB ：Saturated subtract</t>
   </si>
   <si>
     <t>SATSUBI ：Saturated subtract immediate</t>
@@ -2901,6 +2898,14 @@
   </si>
   <si>
     <t>△</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>SATSUB ：Saturated subtract</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>○</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -4793,10 +4798,10 @@
     </row>
     <row r="13" spans="2:9" ht="76.5" customHeight="1">
       <c r="B13" s="12" t="s">
+        <v>310</v>
+      </c>
+      <c r="C13" s="34" t="s">
         <v>311</v>
-      </c>
-      <c r="C13" s="34" t="s">
-        <v>312</v>
       </c>
       <c r="D13" s="35"/>
       <c r="E13" s="35"/>
@@ -4862,17 +4867,17 @@
     </row>
     <row r="8" spans="2:2">
       <c r="B8" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="9" spans="2:2">
       <c r="B9" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="10" spans="2:2">
       <c r="B10" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
   </sheetData>
@@ -4916,7 +4921,7 @@
   <dimension ref="B2:E85"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G32" sqref="G32"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4976,7 +4981,7 @@
         <v>140</v>
       </c>
       <c r="E9" s="32" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="10" spans="2:5" hidden="1">
@@ -5000,7 +5005,7 @@
         <v>143</v>
       </c>
       <c r="E12" s="32" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="13" spans="2:5" hidden="1">
@@ -5016,7 +5021,7 @@
         <v>145</v>
       </c>
       <c r="E14" s="32" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="15" spans="2:5" hidden="1">
@@ -5080,7 +5085,7 @@
         <v>153</v>
       </c>
       <c r="E22" s="32" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="23" spans="4:5" hidden="1">
@@ -5104,7 +5109,7 @@
         <v>156</v>
       </c>
       <c r="E25" s="32" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="26" spans="4:5" hidden="1">
@@ -5124,11 +5129,11 @@
       </c>
     </row>
     <row r="28" spans="4:5">
-      <c r="D28" s="31" t="s">
+      <c r="D28" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="E28" s="32" t="s">
-        <v>316</v>
+      <c r="E28" s="8" t="s">
+        <v>317</v>
       </c>
     </row>
     <row r="29" spans="4:5" hidden="1">
@@ -5144,7 +5149,7 @@
         <v>161</v>
       </c>
       <c r="E30" s="32" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="31" spans="4:5">
@@ -5152,7 +5157,7 @@
         <v>162</v>
       </c>
       <c r="E31" s="32" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="32" spans="4:5">
@@ -5160,7 +5165,7 @@
         <v>163</v>
       </c>
       <c r="E32" s="32" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="33" spans="4:5">
@@ -5168,7 +5173,7 @@
         <v>164</v>
       </c>
       <c r="E33" s="32" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="34" spans="4:5" hidden="1">
@@ -5237,15 +5242,15 @@
     </row>
     <row r="42" spans="4:5">
       <c r="D42" s="31" t="s">
-        <v>173</v>
+        <v>316</v>
       </c>
       <c r="E42" s="32" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="43" spans="4:5" hidden="1">
       <c r="D43" s="6" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E43" s="8" t="s">
         <v>16</v>
@@ -5253,15 +5258,15 @@
     </row>
     <row r="44" spans="4:5">
       <c r="D44" s="31" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E44" s="32" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="45" spans="4:5" hidden="1">
       <c r="D45" s="6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E45" s="8" t="s">
         <v>16</v>
@@ -5269,7 +5274,7 @@
     </row>
     <row r="46" spans="4:5" hidden="1">
       <c r="D46" s="6" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E46" s="8" t="s">
         <v>16</v>
@@ -5277,7 +5282,7 @@
     </row>
     <row r="47" spans="4:5" hidden="1">
       <c r="D47" s="6" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E47" s="8" t="s">
         <v>17</v>
@@ -5285,7 +5290,7 @@
     </row>
     <row r="48" spans="4:5" hidden="1">
       <c r="D48" s="6" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E48" s="8" t="s">
         <v>17</v>
@@ -5293,7 +5298,7 @@
     </row>
     <row r="49" spans="4:5" hidden="1">
       <c r="D49" s="6" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E49" s="8" t="s">
         <v>17</v>
@@ -5301,7 +5306,7 @@
     </row>
     <row r="50" spans="4:5" hidden="1">
       <c r="D50" s="6" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E50" s="8" t="s">
         <v>16</v>
@@ -5309,7 +5314,7 @@
     </row>
     <row r="51" spans="4:5" hidden="1">
       <c r="D51" s="6" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E51" s="8" t="s">
         <v>16</v>
@@ -5317,7 +5322,7 @@
     </row>
     <row r="52" spans="4:5" hidden="1">
       <c r="D52" s="6" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E52" s="8" t="s">
         <v>16</v>
@@ -5325,7 +5330,7 @@
     </row>
     <row r="53" spans="4:5" hidden="1">
       <c r="D53" s="6" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E53" s="8" t="s">
         <v>16</v>
@@ -5333,7 +5338,7 @@
     </row>
     <row r="54" spans="4:5" hidden="1">
       <c r="D54" s="6" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E54" s="8" t="s">
         <v>16</v>
@@ -5341,7 +5346,7 @@
     </row>
     <row r="55" spans="4:5" hidden="1">
       <c r="D55" s="6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E55" s="8" t="s">
         <v>16</v>
@@ -5349,7 +5354,7 @@
     </row>
     <row r="56" spans="4:5" hidden="1">
       <c r="D56" s="6" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E56" s="8" t="s">
         <v>16</v>
@@ -5357,7 +5362,7 @@
     </row>
     <row r="57" spans="4:5" hidden="1">
       <c r="D57" s="6" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E57" s="8" t="s">
         <v>16</v>
@@ -5365,7 +5370,7 @@
     </row>
     <row r="58" spans="4:5" hidden="1">
       <c r="D58" s="6" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E58" s="8" t="s">
         <v>16</v>
@@ -5373,7 +5378,7 @@
     </row>
     <row r="59" spans="4:5" hidden="1">
       <c r="D59" s="6" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E59" s="8" t="s">
         <v>16</v>
@@ -5381,7 +5386,7 @@
     </row>
     <row r="60" spans="4:5" hidden="1">
       <c r="D60" s="6" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E60" s="8" t="s">
         <v>16</v>
@@ -5389,7 +5394,7 @@
     </row>
     <row r="61" spans="4:5" hidden="1">
       <c r="D61" s="6" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E61" s="8" t="s">
         <v>16</v>
@@ -5397,7 +5402,7 @@
     </row>
     <row r="62" spans="4:5" hidden="1">
       <c r="D62" s="6" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E62" s="8" t="s">
         <v>16</v>
@@ -5405,7 +5410,7 @@
     </row>
     <row r="63" spans="4:5" ht="40.5" hidden="1">
       <c r="D63" s="6" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E63" s="8" t="s">
         <v>16</v>
@@ -5413,7 +5418,7 @@
     </row>
     <row r="64" spans="4:5" hidden="1">
       <c r="D64" s="6" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E64" s="8" t="s">
         <v>16</v>
@@ -5421,7 +5426,7 @@
     </row>
     <row r="65" spans="4:5" hidden="1">
       <c r="D65" s="6" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E65" s="8" t="s">
         <v>16</v>
@@ -5429,7 +5434,7 @@
     </row>
     <row r="66" spans="4:5" hidden="1">
       <c r="D66" s="6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E66" s="8" t="s">
         <v>16</v>
@@ -5437,15 +5442,15 @@
     </row>
     <row r="67" spans="4:5">
       <c r="D67" s="31" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E67" s="32" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="68" spans="4:5" hidden="1">
       <c r="D68" s="6" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E68" s="8" t="s">
         <v>17</v>
@@ -5453,39 +5458,39 @@
     </row>
     <row r="69" spans="4:5">
       <c r="D69" s="31" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E69" s="32" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="70" spans="4:5">
       <c r="D70" s="31" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E70" s="32" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="71" spans="4:5">
       <c r="D71" s="31" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E71" s="32" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="72" spans="4:5">
       <c r="D72" s="31" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E72" s="32" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="73" spans="4:5" hidden="1">
       <c r="D73" s="6" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E73" s="8" t="s">
         <v>16</v>
@@ -5493,7 +5498,7 @@
     </row>
     <row r="74" spans="4:5" hidden="1">
       <c r="D74" s="6" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E74" s="8" t="s">
         <v>16</v>
@@ -5501,7 +5506,7 @@
     </row>
     <row r="75" spans="4:5" hidden="1">
       <c r="D75" s="6" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E75" s="8" t="s">
         <v>16</v>
@@ -5509,7 +5514,7 @@
     </row>
     <row r="76" spans="4:5" hidden="1">
       <c r="D76" s="6" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E76" s="8" t="s">
         <v>16</v>
@@ -5517,7 +5522,7 @@
     </row>
     <row r="77" spans="4:5" hidden="1">
       <c r="D77" s="6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E77" s="8" t="s">
         <v>16</v>
@@ -5525,7 +5530,7 @@
     </row>
     <row r="78" spans="4:5" hidden="1">
       <c r="D78" s="6" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E78" s="8" t="s">
         <v>16</v>
@@ -5533,7 +5538,7 @@
     </row>
     <row r="79" spans="4:5" hidden="1">
       <c r="D79" s="6" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E79" s="8" t="s">
         <v>16</v>
@@ -5541,7 +5546,7 @@
     </row>
     <row r="80" spans="4:5" hidden="1">
       <c r="D80" s="6" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E80" s="8" t="s">
         <v>16</v>
@@ -5549,7 +5554,7 @@
     </row>
     <row r="81" spans="4:5" hidden="1">
       <c r="D81" s="6" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E81" s="8" t="s">
         <v>16</v>
@@ -5557,7 +5562,7 @@
     </row>
     <row r="82" spans="4:5" hidden="1">
       <c r="D82" s="6" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E82" s="8" t="s">
         <v>16</v>
@@ -5565,7 +5570,7 @@
     </row>
     <row r="83" spans="4:5" hidden="1">
       <c r="D83" s="6" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E83" s="8" t="s">
         <v>16</v>
@@ -5573,7 +5578,7 @@
     </row>
     <row r="84" spans="4:5" hidden="1">
       <c r="D84" s="6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E84" s="8" t="s">
         <v>17</v>
@@ -5581,7 +5586,7 @@
     </row>
     <row r="85" spans="4:5" hidden="1">
       <c r="D85" s="6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E85" s="8" t="s">
         <v>17</v>
@@ -7192,38 +7197,38 @@
         <v>118</v>
       </c>
       <c r="E5" s="19" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F5" s="18" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="6" spans="2:6" s="23" customFormat="1" ht="134.25" customHeight="1">
       <c r="C6" s="28" t="s">
+        <v>246</v>
+      </c>
+      <c r="D6" s="24" t="s">
+        <v>248</v>
+      </c>
+      <c r="E6" s="25" t="s">
         <v>247</v>
       </c>
-      <c r="D6" s="24" t="s">
+      <c r="F6" s="26" t="s">
         <v>249</v>
-      </c>
-      <c r="E6" s="25" t="s">
-        <v>248</v>
-      </c>
-      <c r="F6" s="26" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="7" spans="2:6" s="23" customFormat="1" ht="93.75" customHeight="1">
       <c r="C7" s="28" t="s">
+        <v>305</v>
+      </c>
+      <c r="D7" s="24" t="s">
         <v>306</v>
       </c>
-      <c r="D7" s="24" t="s">
+      <c r="E7" s="25" t="s">
         <v>307</v>
       </c>
-      <c r="E7" s="25" t="s">
-        <v>308</v>
-      </c>
       <c r="F7" s="26" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="8" spans="2:6" ht="41.25" customHeight="1">
@@ -7234,10 +7239,10 @@
         <v>128</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F8" s="21" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="9" spans="2:6" ht="41.25" customHeight="1">
@@ -7248,10 +7253,10 @@
         <v>129</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F9" s="21" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="10" spans="2:6" ht="41.25" customHeight="1">
@@ -7262,10 +7267,10 @@
         <v>130</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F10" s="21" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="11" spans="2:6" ht="41.25" customHeight="1">
@@ -7276,24 +7281,24 @@
         <v>131</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F11" s="21" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="12" spans="2:6" ht="41.25" customHeight="1">
       <c r="C12" s="29" t="s">
+        <v>301</v>
+      </c>
+      <c r="D12" s="12" t="s">
         <v>302</v>
       </c>
-      <c r="D12" s="12" t="s">
+      <c r="E12" s="12" t="s">
         <v>303</v>
       </c>
-      <c r="E12" s="12" t="s">
+      <c r="F12" s="21" t="s">
         <v>304</v>
-      </c>
-      <c r="F12" s="21" t="s">
-        <v>305</v>
       </c>
     </row>
     <row r="13" spans="2:6" ht="267.75" customHeight="1">
@@ -7301,13 +7306,13 @@
         <v>123</v>
       </c>
       <c r="D13" s="20" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E13" s="20" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F13" s="21" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="14" spans="2:6" ht="228.75" customHeight="1">
@@ -7318,10 +7323,10 @@
         <v>132</v>
       </c>
       <c r="E14" s="20" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F14" s="21" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="15" spans="2:6" ht="60" customHeight="1">
@@ -7332,10 +7337,10 @@
         <v>133</v>
       </c>
       <c r="E15" s="12" t="s">
+        <v>227</v>
+      </c>
+      <c r="F15" s="21" t="s">
         <v>228</v>
-      </c>
-      <c r="F15" s="21" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="16" spans="2:6" ht="109.5" customHeight="1">
@@ -7346,24 +7351,24 @@
         <v>134</v>
       </c>
       <c r="E16" s="20" t="s">
+        <v>229</v>
+      </c>
+      <c r="F16" s="21" t="s">
         <v>230</v>
-      </c>
-      <c r="F16" s="21" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="17" spans="3:6" ht="60" customHeight="1">
       <c r="C17" s="29" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D17" s="12" t="s">
         <v>135</v>
       </c>
       <c r="E17" s="20" t="s">
+        <v>313</v>
+      </c>
+      <c r="F17" s="22" t="s">
         <v>314</v>
-      </c>
-      <c r="F17" s="22" t="s">
-        <v>315</v>
       </c>
     </row>
     <row r="18" spans="3:6" ht="60" customHeight="1">
@@ -7374,80 +7379,80 @@
         <v>136</v>
       </c>
       <c r="E18" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="F18" s="21" t="s">
         <v>232</v>
-      </c>
-      <c r="F18" s="21" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="19" spans="3:6" ht="169.5" customHeight="1">
       <c r="C19" s="29" t="s">
+        <v>241</v>
+      </c>
+      <c r="D19" s="12" t="s">
         <v>242</v>
       </c>
-      <c r="D19" s="12" t="s">
+      <c r="E19" s="20" t="s">
+        <v>244</v>
+      </c>
+      <c r="F19" s="21" t="s">
         <v>243</v>
-      </c>
-      <c r="E19" s="20" t="s">
-        <v>245</v>
-      </c>
-      <c r="F19" s="21" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="20" spans="3:6" ht="94.5">
       <c r="C20" s="29" t="s">
+        <v>288</v>
+      </c>
+      <c r="D20" s="20" t="s">
         <v>289</v>
       </c>
-      <c r="D20" s="20" t="s">
-        <v>290</v>
-      </c>
       <c r="E20" s="20" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="F20" s="20" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="21" spans="3:6" ht="81">
       <c r="C21" s="29" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D21" s="12" t="s">
+        <v>285</v>
+      </c>
+      <c r="E21" s="20" t="s">
         <v>286</v>
       </c>
-      <c r="E21" s="20" t="s">
-        <v>287</v>
-      </c>
       <c r="F21" s="20" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="22" spans="3:6" ht="81">
       <c r="C22" s="29" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D22" s="12" t="s">
+        <v>294</v>
+      </c>
+      <c r="E22" s="25" t="s">
+        <v>247</v>
+      </c>
+      <c r="F22" s="20" t="s">
         <v>295</v>
-      </c>
-      <c r="E22" s="25" t="s">
-        <v>248</v>
-      </c>
-      <c r="F22" s="20" t="s">
-        <v>296</v>
       </c>
     </row>
     <row r="23" spans="3:6" ht="17.25">
       <c r="C23" s="29" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D23" s="12" t="s">
+        <v>296</v>
+      </c>
+      <c r="E23" s="25" t="s">
+        <v>247</v>
+      </c>
+      <c r="F23" s="12" t="s">
         <v>297</v>
-      </c>
-      <c r="E23" s="25" t="s">
-        <v>248</v>
-      </c>
-      <c r="F23" s="12" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="24" spans="3:6" ht="17.25">
@@ -7522,62 +7527,62 @@
     </row>
     <row r="3" spans="2:4">
       <c r="C3" s="15" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="5" spans="2:4">
       <c r="C5" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="6" spans="2:4">
       <c r="D6" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="7" spans="2:4">
       <c r="D7" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="8" spans="2:4">
       <c r="D8" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="9" spans="2:4">
       <c r="D9" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="10" spans="2:4">
       <c r="D10" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="11" spans="2:4">
       <c r="D11" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="13" spans="2:4">
       <c r="C13" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="14" spans="2:4">
       <c r="D14" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="16" spans="2:4" ht="14.25" thickBot="1">
       <c r="D16" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="17" spans="3:8" ht="14.25" thickBot="1">
       <c r="D17" s="39" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E17" s="40"/>
       <c r="F17" s="40"/>
@@ -7586,12 +7591,12 @@
     </row>
     <row r="19" spans="3:8" ht="14.25" thickBot="1">
       <c r="D19" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="20" spans="3:8" ht="14.25" thickBot="1">
       <c r="D20" s="39" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E20" s="40"/>
       <c r="F20" s="40"/>
@@ -7600,12 +7605,12 @@
     </row>
     <row r="22" spans="3:8" ht="14.25" thickBot="1">
       <c r="C22" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="23" spans="3:8" ht="14.25" thickBot="1">
       <c r="D23" s="39" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E23" s="40"/>
       <c r="F23" s="40"/>
@@ -7614,17 +7619,17 @@
     </row>
     <row r="25" spans="3:8">
       <c r="D25" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="26" spans="3:8" ht="14.25" thickBot="1">
       <c r="C26" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="27" spans="3:8">
       <c r="D27" s="42" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E27" s="43"/>
       <c r="F27" s="43"/>
@@ -7633,7 +7638,7 @@
     </row>
     <row r="28" spans="3:8" ht="14.25" thickBot="1">
       <c r="D28" s="45" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E28" s="46"/>
       <c r="F28" s="46"/>
@@ -7668,48 +7673,48 @@
   <sheetData>
     <row r="2" spans="2:9">
       <c r="B2" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="3" spans="2:9">
       <c r="C3" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="4" spans="2:9">
       <c r="C4" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="5" spans="2:9">
       <c r="C5" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="7" spans="2:9">
       <c r="C7" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="8" spans="2:9">
       <c r="D8" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="10" spans="2:9">
       <c r="C10" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="11" spans="2:9">
       <c r="D11" s="15" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="12" spans="2:9" ht="14.25" thickBot="1"/>
     <row r="13" spans="2:9" ht="14.25" thickBot="1">
       <c r="D13" s="39" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E13" s="40"/>
       <c r="F13" s="40"/>
@@ -7719,18 +7724,18 @@
     </row>
     <row r="15" spans="2:9">
       <c r="D15" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="16" spans="2:9">
       <c r="D16" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="17" spans="3:9" ht="14.25" thickBot="1"/>
     <row r="18" spans="3:9" ht="14.25" thickBot="1">
       <c r="D18" s="39" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E18" s="40"/>
       <c r="F18" s="40"/>
@@ -7740,23 +7745,23 @@
     </row>
     <row r="20" spans="3:9">
       <c r="D20" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="22" spans="3:9">
       <c r="C22" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="23" spans="3:9">
       <c r="D23" s="15" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="24" spans="3:9" ht="14.25" thickBot="1"/>
     <row r="25" spans="3:9">
       <c r="D25" s="42" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E25" s="43"/>
       <c r="F25" s="43"/>
@@ -7766,7 +7771,7 @@
     </row>
     <row r="26" spans="3:9" ht="14.25" thickBot="1">
       <c r="D26" s="45" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E26" s="46"/>
       <c r="F26" s="46"/>
@@ -7784,18 +7789,18 @@
     </row>
     <row r="28" spans="3:9">
       <c r="D28" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="30" spans="3:9">
       <c r="D30" s="15" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="31" spans="3:9" ht="14.25" thickBot="1"/>
     <row r="32" spans="3:9">
       <c r="D32" s="42" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E32" s="43"/>
       <c r="F32" s="43"/>
@@ -7805,7 +7810,7 @@
     </row>
     <row r="33" spans="4:9" ht="14.25" thickBot="1">
       <c r="D33" s="45" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E33" s="46"/>
       <c r="F33" s="46"/>
@@ -7844,12 +7849,12 @@
   <sheetData>
     <row r="2" spans="2:3">
       <c r="B2" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="3" spans="2:3">
       <c r="C3" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
   </sheetData>

--- a/マニュアル.xlsx
+++ b/マニュアル.xlsx
@@ -4917,11 +4917,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
   <dimension ref="B2:E85"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="D88" sqref="D88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4952,7 +4951,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="2:5" hidden="1">
+    <row r="6" spans="2:5">
       <c r="D6" s="6" t="s">
         <v>137</v>
       </c>
@@ -4960,7 +4959,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="2:5" hidden="1">
+    <row r="7" spans="2:5">
       <c r="D7" s="6" t="s">
         <v>138</v>
       </c>
@@ -4968,7 +4967,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="2:5" hidden="1">
+    <row r="8" spans="2:5">
       <c r="D8" s="6" t="s">
         <v>139</v>
       </c>
@@ -4977,14 +4976,14 @@
       </c>
     </row>
     <row r="9" spans="2:5">
-      <c r="D9" s="31" t="s">
+      <c r="D9" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="E9" s="32" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="10" spans="2:5" hidden="1">
+      <c r="E9" s="8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5">
       <c r="D10" s="6" t="s">
         <v>141</v>
       </c>
@@ -4992,7 +4991,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="2:5" hidden="1">
+    <row r="11" spans="2:5">
       <c r="D11" s="6" t="s">
         <v>142</v>
       </c>
@@ -5001,14 +5000,14 @@
       </c>
     </row>
     <row r="12" spans="2:5">
-      <c r="D12" s="31" t="s">
+      <c r="D12" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="E12" s="32" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="13" spans="2:5" hidden="1">
+      <c r="E12" s="8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5">
       <c r="D13" s="6" t="s">
         <v>144</v>
       </c>
@@ -5024,7 +5023,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="15" spans="2:5" hidden="1">
+    <row r="15" spans="2:5">
       <c r="D15" s="6" t="s">
         <v>146</v>
       </c>
@@ -5032,7 +5031,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="2:5" hidden="1">
+    <row r="16" spans="2:5">
       <c r="D16" s="6" t="s">
         <v>147</v>
       </c>
@@ -5040,7 +5039,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="4:5" hidden="1">
+    <row r="17" spans="4:5">
       <c r="D17" s="6" t="s">
         <v>148</v>
       </c>
@@ -5048,7 +5047,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="4:5" hidden="1">
+    <row r="18" spans="4:5">
       <c r="D18" s="6" t="s">
         <v>149</v>
       </c>
@@ -5056,7 +5055,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="4:5" hidden="1">
+    <row r="19" spans="4:5">
       <c r="D19" s="6" t="s">
         <v>150</v>
       </c>
@@ -5064,7 +5063,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="4:5" hidden="1">
+    <row r="20" spans="4:5">
       <c r="D20" s="6" t="s">
         <v>151</v>
       </c>
@@ -5072,7 +5071,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="4:5" hidden="1">
+    <row r="21" spans="4:5">
       <c r="D21" s="6" t="s">
         <v>152</v>
       </c>
@@ -5081,14 +5080,14 @@
       </c>
     </row>
     <row r="22" spans="4:5">
-      <c r="D22" s="31" t="s">
+      <c r="D22" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="E22" s="32" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="23" spans="4:5" hidden="1">
+      <c r="E22" s="8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" spans="4:5">
       <c r="D23" s="6" t="s">
         <v>154</v>
       </c>
@@ -5096,7 +5095,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="24" spans="4:5" hidden="1">
+    <row r="24" spans="4:5">
       <c r="D24" s="6" t="s">
         <v>155</v>
       </c>
@@ -5112,7 +5111,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="26" spans="4:5" hidden="1">
+    <row r="26" spans="4:5">
       <c r="D26" s="6" t="s">
         <v>157</v>
       </c>
@@ -5120,7 +5119,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="27" spans="4:5" hidden="1">
+    <row r="27" spans="4:5">
       <c r="D27" s="6" t="s">
         <v>158</v>
       </c>
@@ -5136,7 +5135,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="29" spans="4:5" hidden="1">
+    <row r="29" spans="4:5">
       <c r="D29" s="6" t="s">
         <v>160</v>
       </c>
@@ -5169,14 +5168,14 @@
       </c>
     </row>
     <row r="33" spans="4:5">
-      <c r="D33" s="31" t="s">
+      <c r="D33" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="E33" s="32" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="34" spans="4:5" hidden="1">
+      <c r="E33" s="8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="34" spans="4:5">
       <c r="D34" s="6" t="s">
         <v>165</v>
       </c>
@@ -5184,7 +5183,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="35" spans="4:5" hidden="1">
+    <row r="35" spans="4:5">
       <c r="D35" s="6" t="s">
         <v>166</v>
       </c>
@@ -5192,7 +5191,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="36" spans="4:5" hidden="1">
+    <row r="36" spans="4:5">
       <c r="D36" s="6" t="s">
         <v>167</v>
       </c>
@@ -5200,7 +5199,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="37" spans="4:5" hidden="1">
+    <row r="37" spans="4:5">
       <c r="D37" s="6" t="s">
         <v>168</v>
       </c>
@@ -5208,7 +5207,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="38" spans="4:5" hidden="1">
+    <row r="38" spans="4:5">
       <c r="D38" s="6" t="s">
         <v>169</v>
       </c>
@@ -5216,7 +5215,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="39" spans="4:5" hidden="1">
+    <row r="39" spans="4:5">
       <c r="D39" s="6" t="s">
         <v>170</v>
       </c>
@@ -5224,7 +5223,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="40" spans="4:5" hidden="1">
+    <row r="40" spans="4:5">
       <c r="D40" s="6" t="s">
         <v>171</v>
       </c>
@@ -5232,7 +5231,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="41" spans="4:5" hidden="1">
+    <row r="41" spans="4:5">
       <c r="D41" s="6" t="s">
         <v>172</v>
       </c>
@@ -5241,14 +5240,14 @@
       </c>
     </row>
     <row r="42" spans="4:5">
-      <c r="D42" s="31" t="s">
+      <c r="D42" s="6" t="s">
         <v>316</v>
       </c>
-      <c r="E42" s="32" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="43" spans="4:5" hidden="1">
+      <c r="E42" s="8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="43" spans="4:5">
       <c r="D43" s="6" t="s">
         <v>173</v>
       </c>
@@ -5264,7 +5263,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="45" spans="4:5" hidden="1">
+    <row r="45" spans="4:5">
       <c r="D45" s="6" t="s">
         <v>175</v>
       </c>
@@ -5272,7 +5271,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="46" spans="4:5" hidden="1">
+    <row r="46" spans="4:5">
       <c r="D46" s="6" t="s">
         <v>176</v>
       </c>
@@ -5280,7 +5279,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="47" spans="4:5" hidden="1">
+    <row r="47" spans="4:5">
       <c r="D47" s="6" t="s">
         <v>177</v>
       </c>
@@ -5288,7 +5287,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="48" spans="4:5" hidden="1">
+    <row r="48" spans="4:5">
       <c r="D48" s="6" t="s">
         <v>178</v>
       </c>
@@ -5296,7 +5295,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="49" spans="4:5" hidden="1">
+    <row r="49" spans="4:5">
       <c r="D49" s="6" t="s">
         <v>179</v>
       </c>
@@ -5304,7 +5303,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="50" spans="4:5" hidden="1">
+    <row r="50" spans="4:5">
       <c r="D50" s="6" t="s">
         <v>180</v>
       </c>
@@ -5312,7 +5311,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="51" spans="4:5" hidden="1">
+    <row r="51" spans="4:5">
       <c r="D51" s="6" t="s">
         <v>181</v>
       </c>
@@ -5320,7 +5319,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="52" spans="4:5" hidden="1">
+    <row r="52" spans="4:5">
       <c r="D52" s="6" t="s">
         <v>182</v>
       </c>
@@ -5328,7 +5327,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="53" spans="4:5" hidden="1">
+    <row r="53" spans="4:5">
       <c r="D53" s="6" t="s">
         <v>183</v>
       </c>
@@ -5336,7 +5335,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="54" spans="4:5" hidden="1">
+    <row r="54" spans="4:5">
       <c r="D54" s="6" t="s">
         <v>184</v>
       </c>
@@ -5344,7 +5343,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="55" spans="4:5" hidden="1">
+    <row r="55" spans="4:5">
       <c r="D55" s="6" t="s">
         <v>185</v>
       </c>
@@ -5352,7 +5351,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="56" spans="4:5" hidden="1">
+    <row r="56" spans="4:5">
       <c r="D56" s="6" t="s">
         <v>186</v>
       </c>
@@ -5360,7 +5359,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="57" spans="4:5" hidden="1">
+    <row r="57" spans="4:5">
       <c r="D57" s="6" t="s">
         <v>187</v>
       </c>
@@ -5368,7 +5367,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="58" spans="4:5" hidden="1">
+    <row r="58" spans="4:5">
       <c r="D58" s="6" t="s">
         <v>188</v>
       </c>
@@ -5376,7 +5375,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="59" spans="4:5" hidden="1">
+    <row r="59" spans="4:5">
       <c r="D59" s="6" t="s">
         <v>189</v>
       </c>
@@ -5384,7 +5383,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="60" spans="4:5" hidden="1">
+    <row r="60" spans="4:5">
       <c r="D60" s="6" t="s">
         <v>190</v>
       </c>
@@ -5392,7 +5391,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="61" spans="4:5" hidden="1">
+    <row r="61" spans="4:5">
       <c r="D61" s="6" t="s">
         <v>191</v>
       </c>
@@ -5400,7 +5399,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="62" spans="4:5" hidden="1">
+    <row r="62" spans="4:5">
       <c r="D62" s="6" t="s">
         <v>192</v>
       </c>
@@ -5408,7 +5407,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="63" spans="4:5" ht="40.5" hidden="1">
+    <row r="63" spans="4:5" ht="40.5">
       <c r="D63" s="6" t="s">
         <v>193</v>
       </c>
@@ -5416,7 +5415,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="64" spans="4:5" hidden="1">
+    <row r="64" spans="4:5">
       <c r="D64" s="6" t="s">
         <v>194</v>
       </c>
@@ -5424,7 +5423,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="65" spans="4:5" hidden="1">
+    <row r="65" spans="4:5">
       <c r="D65" s="6" t="s">
         <v>195</v>
       </c>
@@ -5432,7 +5431,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="66" spans="4:5" hidden="1">
+    <row r="66" spans="4:5">
       <c r="D66" s="6" t="s">
         <v>196</v>
       </c>
@@ -5448,7 +5447,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="68" spans="4:5" hidden="1">
+    <row r="68" spans="4:5">
       <c r="D68" s="6" t="s">
         <v>198</v>
       </c>
@@ -5473,22 +5472,22 @@
       </c>
     </row>
     <row r="71" spans="4:5">
-      <c r="D71" s="31" t="s">
+      <c r="D71" s="6" t="s">
         <v>201</v>
       </c>
-      <c r="E71" s="32" t="s">
-        <v>315</v>
+      <c r="E71" s="8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="72" spans="4:5">
-      <c r="D72" s="31" t="s">
+      <c r="D72" s="6" t="s">
         <v>202</v>
       </c>
-      <c r="E72" s="32" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="73" spans="4:5" hidden="1">
+      <c r="E72" s="8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="73" spans="4:5">
       <c r="D73" s="6" t="s">
         <v>203</v>
       </c>
@@ -5496,7 +5495,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="74" spans="4:5" hidden="1">
+    <row r="74" spans="4:5">
       <c r="D74" s="6" t="s">
         <v>204</v>
       </c>
@@ -5504,7 +5503,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="75" spans="4:5" hidden="1">
+    <row r="75" spans="4:5">
       <c r="D75" s="6" t="s">
         <v>205</v>
       </c>
@@ -5512,7 +5511,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="76" spans="4:5" hidden="1">
+    <row r="76" spans="4:5">
       <c r="D76" s="6" t="s">
         <v>206</v>
       </c>
@@ -5520,7 +5519,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="77" spans="4:5" hidden="1">
+    <row r="77" spans="4:5">
       <c r="D77" s="6" t="s">
         <v>207</v>
       </c>
@@ -5528,7 +5527,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="78" spans="4:5" hidden="1">
+    <row r="78" spans="4:5">
       <c r="D78" s="6" t="s">
         <v>208</v>
       </c>
@@ -5536,7 +5535,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="79" spans="4:5" hidden="1">
+    <row r="79" spans="4:5">
       <c r="D79" s="6" t="s">
         <v>209</v>
       </c>
@@ -5544,7 +5543,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="80" spans="4:5" hidden="1">
+    <row r="80" spans="4:5">
       <c r="D80" s="6" t="s">
         <v>210</v>
       </c>
@@ -5552,7 +5551,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="81" spans="4:5" hidden="1">
+    <row r="81" spans="4:5">
       <c r="D81" s="6" t="s">
         <v>211</v>
       </c>
@@ -5560,7 +5559,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="82" spans="4:5" hidden="1">
+    <row r="82" spans="4:5">
       <c r="D82" s="6" t="s">
         <v>212</v>
       </c>
@@ -5568,7 +5567,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="83" spans="4:5" hidden="1">
+    <row r="83" spans="4:5">
       <c r="D83" s="6" t="s">
         <v>213</v>
       </c>
@@ -5576,7 +5575,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="84" spans="4:5" hidden="1">
+    <row r="84" spans="4:5">
       <c r="D84" s="6" t="s">
         <v>214</v>
       </c>
@@ -5584,7 +5583,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="85" spans="4:5" hidden="1">
+    <row r="85" spans="4:5">
       <c r="D85" s="6" t="s">
         <v>215</v>
       </c>
@@ -5593,13 +5592,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="D5:E85">
-    <filterColumn colId="1">
-      <filters>
-        <filter val="△"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="D5:E85"/>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/マニュアル.xlsx
+++ b/マニュアル.xlsx
@@ -4919,8 +4919,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:E85"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D88" sqref="D88"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -5016,11 +5016,11 @@
       </c>
     </row>
     <row r="14" spans="2:5">
-      <c r="D14" s="31" t="s">
+      <c r="D14" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="E14" s="32" t="s">
-        <v>315</v>
+      <c r="E14" s="8" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="2:5">
@@ -5104,11 +5104,11 @@
       </c>
     </row>
     <row r="25" spans="4:5">
-      <c r="D25" s="31" t="s">
+      <c r="D25" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="E25" s="32" t="s">
-        <v>315</v>
+      <c r="E25" s="8" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="26" spans="4:5">

--- a/マニュアル.xlsx
+++ b/マニュアル.xlsx
@@ -4919,8 +4919,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:E85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -5144,11 +5144,11 @@
       </c>
     </row>
     <row r="30" spans="4:5">
-      <c r="D30" s="31" t="s">
+      <c r="D30" s="6" t="s">
         <v>161</v>
       </c>
-      <c r="E30" s="32" t="s">
-        <v>315</v>
+      <c r="E30" s="8" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="31" spans="4:5">

--- a/マニュアル.xlsx
+++ b/マニュアル.xlsx
@@ -4919,8 +4919,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:E85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -5160,11 +5160,11 @@
       </c>
     </row>
     <row r="32" spans="4:5">
-      <c r="D32" s="31" t="s">
+      <c r="D32" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="E32" s="32" t="s">
-        <v>315</v>
+      <c r="E32" s="8" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="33" spans="4:5">

--- a/マニュアル.xlsx
+++ b/マニュアル.xlsx
@@ -4919,8 +4919,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:E85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -5152,11 +5152,11 @@
       </c>
     </row>
     <row r="31" spans="4:5">
-      <c r="D31" s="31" t="s">
+      <c r="D31" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="E31" s="32" t="s">
-        <v>315</v>
+      <c r="E31" s="8" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="32" spans="4:5">

--- a/マニュアル.xlsx
+++ b/マニュアル.xlsx
@@ -4919,8 +4919,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:E85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="D79" sqref="D79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -5256,11 +5256,11 @@
       </c>
     </row>
     <row r="44" spans="4:5">
-      <c r="D44" s="31" t="s">
+      <c r="D44" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="E44" s="32" t="s">
-        <v>315</v>
+      <c r="E44" s="8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="45" spans="4:5">
@@ -5456,11 +5456,11 @@
       </c>
     </row>
     <row r="69" spans="4:5">
-      <c r="D69" s="31" t="s">
+      <c r="D69" s="6" t="s">
         <v>199</v>
       </c>
-      <c r="E69" s="32" t="s">
-        <v>315</v>
+      <c r="E69" s="8" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="70" spans="4:5">

--- a/マニュアル.xlsx
+++ b/マニュアル.xlsx
@@ -4920,7 +4920,7 @@
   <dimension ref="B2:E85"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="D79" sqref="D79"/>
+      <selection activeCell="D63" sqref="D63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -5440,11 +5440,11 @@
       </c>
     </row>
     <row r="67" spans="4:5">
-      <c r="D67" s="31" t="s">
+      <c r="D67" s="6" t="s">
         <v>197</v>
       </c>
-      <c r="E67" s="32" t="s">
-        <v>315</v>
+      <c r="E67" s="8" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="68" spans="4:5">

--- a/マニュアル.xlsx
+++ b/マニュアル.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="661" uniqueCount="318">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="661" uniqueCount="317">
   <si>
     <t>１．はじめに</t>
     <phoneticPr fontId="2"/>
@@ -2894,10 +2894,6 @@
   </si>
   <si>
     <t>@DBG&gt;A 0:1:100</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>△</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -2977,7 +2973,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2992,12 +2988,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3170,7 +3160,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3263,12 +3253,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -4772,43 +4756,43 @@
       <c r="B11" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="C11" s="33" t="s">
+      <c r="C11" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="D11" s="33"/>
-      <c r="E11" s="33"/>
-      <c r="F11" s="33"/>
-      <c r="G11" s="33"/>
-      <c r="H11" s="33"/>
-      <c r="I11" s="33"/>
+      <c r="D11" s="31"/>
+      <c r="E11" s="31"/>
+      <c r="F11" s="31"/>
+      <c r="G11" s="31"/>
+      <c r="H11" s="31"/>
+      <c r="I11" s="31"/>
     </row>
     <row r="12" spans="2:9">
       <c r="B12" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C12" s="35" t="s">
+      <c r="C12" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="D12" s="35"/>
-      <c r="E12" s="35"/>
-      <c r="F12" s="35"/>
-      <c r="G12" s="35"/>
-      <c r="H12" s="35"/>
-      <c r="I12" s="35"/>
+      <c r="D12" s="33"/>
+      <c r="E12" s="33"/>
+      <c r="F12" s="33"/>
+      <c r="G12" s="33"/>
+      <c r="H12" s="33"/>
+      <c r="I12" s="33"/>
     </row>
     <row r="13" spans="2:9" ht="76.5" customHeight="1">
       <c r="B13" s="12" t="s">
         <v>310</v>
       </c>
-      <c r="C13" s="34" t="s">
+      <c r="C13" s="32" t="s">
         <v>311</v>
       </c>
-      <c r="D13" s="35"/>
-      <c r="E13" s="35"/>
-      <c r="F13" s="35"/>
-      <c r="G13" s="35"/>
-      <c r="H13" s="35"/>
-      <c r="I13" s="35"/>
+      <c r="D13" s="33"/>
+      <c r="E13" s="33"/>
+      <c r="F13" s="33"/>
+      <c r="G13" s="33"/>
+      <c r="H13" s="33"/>
+      <c r="I13" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -4920,7 +4904,7 @@
   <dimension ref="B2:E85"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="D63" sqref="D63"/>
+      <selection activeCell="D66" sqref="D66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -5132,7 +5116,7 @@
         <v>159</v>
       </c>
       <c r="E28" s="8" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="29" spans="4:5">
@@ -5241,7 +5225,7 @@
     </row>
     <row r="42" spans="4:5">
       <c r="D42" s="6" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E42" s="8" t="s">
         <v>16</v>
@@ -5464,11 +5448,11 @@
       </c>
     </row>
     <row r="70" spans="4:5">
-      <c r="D70" s="31" t="s">
+      <c r="D70" s="6" t="s">
         <v>200</v>
       </c>
-      <c r="E70" s="32" t="s">
-        <v>315</v>
+      <c r="E70" s="8" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="71" spans="4:5">
@@ -5634,11 +5618,11 @@
       <c r="E4" s="2"/>
     </row>
     <row r="5" spans="2:8" ht="27">
-      <c r="D5" s="36" t="s">
+      <c r="D5" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="37"/>
-      <c r="F5" s="38"/>
+      <c r="E5" s="35"/>
+      <c r="F5" s="36"/>
       <c r="G5" s="9" t="s">
         <v>14</v>
       </c>
@@ -7574,13 +7558,13 @@
       </c>
     </row>
     <row r="17" spans="3:8" ht="14.25" thickBot="1">
-      <c r="D17" s="39" t="s">
+      <c r="D17" s="37" t="s">
         <v>270</v>
       </c>
-      <c r="E17" s="40"/>
-      <c r="F17" s="40"/>
-      <c r="G17" s="40"/>
-      <c r="H17" s="41"/>
+      <c r="E17" s="38"/>
+      <c r="F17" s="38"/>
+      <c r="G17" s="38"/>
+      <c r="H17" s="39"/>
     </row>
     <row r="19" spans="3:8" ht="14.25" thickBot="1">
       <c r="D19" s="1" t="s">
@@ -7588,13 +7572,13 @@
       </c>
     </row>
     <row r="20" spans="3:8" ht="14.25" thickBot="1">
-      <c r="D20" s="39" t="s">
+      <c r="D20" s="37" t="s">
         <v>271</v>
       </c>
-      <c r="E20" s="40"/>
-      <c r="F20" s="40"/>
-      <c r="G20" s="40"/>
-      <c r="H20" s="41"/>
+      <c r="E20" s="38"/>
+      <c r="F20" s="38"/>
+      <c r="G20" s="38"/>
+      <c r="H20" s="39"/>
     </row>
     <row r="22" spans="3:8" ht="14.25" thickBot="1">
       <c r="C22" s="1" t="s">
@@ -7602,13 +7586,13 @@
       </c>
     </row>
     <row r="23" spans="3:8" ht="14.25" thickBot="1">
-      <c r="D23" s="39" t="s">
+      <c r="D23" s="37" t="s">
         <v>234</v>
       </c>
-      <c r="E23" s="40"/>
-      <c r="F23" s="40"/>
-      <c r="G23" s="40"/>
-      <c r="H23" s="41"/>
+      <c r="E23" s="38"/>
+      <c r="F23" s="38"/>
+      <c r="G23" s="38"/>
+      <c r="H23" s="39"/>
     </row>
     <row r="25" spans="3:8">
       <c r="D25" s="1" t="s">
@@ -7621,22 +7605,22 @@
       </c>
     </row>
     <row r="27" spans="3:8">
-      <c r="D27" s="42" t="s">
+      <c r="D27" s="40" t="s">
         <v>235</v>
       </c>
-      <c r="E27" s="43"/>
-      <c r="F27" s="43"/>
-      <c r="G27" s="43"/>
-      <c r="H27" s="44"/>
+      <c r="E27" s="41"/>
+      <c r="F27" s="41"/>
+      <c r="G27" s="41"/>
+      <c r="H27" s="42"/>
     </row>
     <row r="28" spans="3:8" ht="14.25" thickBot="1">
-      <c r="D28" s="45" t="s">
+      <c r="D28" s="43" t="s">
         <v>236</v>
       </c>
-      <c r="E28" s="46"/>
-      <c r="F28" s="46"/>
-      <c r="G28" s="46"/>
-      <c r="H28" s="47"/>
+      <c r="E28" s="44"/>
+      <c r="F28" s="44"/>
+      <c r="G28" s="44"/>
+      <c r="H28" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -7706,14 +7690,14 @@
     </row>
     <row r="12" spans="2:9" ht="14.25" thickBot="1"/>
     <row r="13" spans="2:9" ht="14.25" thickBot="1">
-      <c r="D13" s="39" t="s">
+      <c r="D13" s="37" t="s">
         <v>239</v>
       </c>
-      <c r="E13" s="40"/>
-      <c r="F13" s="40"/>
-      <c r="G13" s="40"/>
-      <c r="H13" s="40"/>
-      <c r="I13" s="41"/>
+      <c r="E13" s="38"/>
+      <c r="F13" s="38"/>
+      <c r="G13" s="38"/>
+      <c r="H13" s="38"/>
+      <c r="I13" s="39"/>
     </row>
     <row r="15" spans="2:9">
       <c r="D15" s="1" t="s">
@@ -7727,14 +7711,14 @@
     </row>
     <row r="17" spans="3:9" ht="14.25" thickBot="1"/>
     <row r="18" spans="3:9" ht="14.25" thickBot="1">
-      <c r="D18" s="39" t="s">
+      <c r="D18" s="37" t="s">
         <v>256</v>
       </c>
-      <c r="E18" s="40"/>
-      <c r="F18" s="40"/>
-      <c r="G18" s="40"/>
-      <c r="H18" s="40"/>
-      <c r="I18" s="41"/>
+      <c r="E18" s="38"/>
+      <c r="F18" s="38"/>
+      <c r="G18" s="38"/>
+      <c r="H18" s="38"/>
+      <c r="I18" s="39"/>
     </row>
     <row r="20" spans="3:9">
       <c r="D20" s="1" t="s">
@@ -7753,24 +7737,24 @@
     </row>
     <row r="24" spans="3:9" ht="14.25" thickBot="1"/>
     <row r="25" spans="3:9">
-      <c r="D25" s="42" t="s">
+      <c r="D25" s="40" t="s">
         <v>280</v>
       </c>
-      <c r="E25" s="43"/>
-      <c r="F25" s="43"/>
-      <c r="G25" s="43"/>
-      <c r="H25" s="43"/>
-      <c r="I25" s="44"/>
+      <c r="E25" s="41"/>
+      <c r="F25" s="41"/>
+      <c r="G25" s="41"/>
+      <c r="H25" s="41"/>
+      <c r="I25" s="42"/>
     </row>
     <row r="26" spans="3:9" ht="14.25" thickBot="1">
-      <c r="D26" s="45" t="s">
+      <c r="D26" s="43" t="s">
         <v>279</v>
       </c>
-      <c r="E26" s="46"/>
-      <c r="F26" s="46"/>
-      <c r="G26" s="46"/>
-      <c r="H26" s="46"/>
-      <c r="I26" s="47"/>
+      <c r="E26" s="44"/>
+      <c r="F26" s="44"/>
+      <c r="G26" s="44"/>
+      <c r="H26" s="44"/>
+      <c r="I26" s="45"/>
     </row>
     <row r="27" spans="3:9">
       <c r="D27" s="27"/>
@@ -7792,24 +7776,24 @@
     </row>
     <row r="31" spans="3:9" ht="14.25" thickBot="1"/>
     <row r="32" spans="3:9">
-      <c r="D32" s="42" t="s">
+      <c r="D32" s="40" t="s">
         <v>280</v>
       </c>
-      <c r="E32" s="43"/>
-      <c r="F32" s="43"/>
-      <c r="G32" s="43"/>
-      <c r="H32" s="43"/>
-      <c r="I32" s="44"/>
+      <c r="E32" s="41"/>
+      <c r="F32" s="41"/>
+      <c r="G32" s="41"/>
+      <c r="H32" s="41"/>
+      <c r="I32" s="42"/>
     </row>
     <row r="33" spans="4:9" ht="14.25" thickBot="1">
-      <c r="D33" s="45" t="s">
+      <c r="D33" s="43" t="s">
         <v>283</v>
       </c>
-      <c r="E33" s="46"/>
-      <c r="F33" s="46"/>
-      <c r="G33" s="46"/>
-      <c r="H33" s="46"/>
-      <c r="I33" s="47"/>
+      <c r="E33" s="44"/>
+      <c r="F33" s="44"/>
+      <c r="G33" s="44"/>
+      <c r="H33" s="44"/>
+      <c r="I33" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="6">

--- a/マニュアル.xlsx
+++ b/マニュアル.xlsx
@@ -4903,8 +4903,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:E85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="D66" sqref="D66"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -5436,7 +5436,7 @@
         <v>198</v>
       </c>
       <c r="E68" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="69" spans="4:5">

--- a/マニュアル.xlsx
+++ b/マニュアル.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="105" windowWidth="28035" windowHeight="12540" activeTab="3"/>
+    <workbookView xWindow="360" yWindow="105" windowWidth="28035" windowHeight="12540" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="タイトル" sheetId="3" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="661" uniqueCount="317">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="669" uniqueCount="323">
   <si>
     <t>１．はじめに</t>
     <phoneticPr fontId="2"/>
@@ -1631,10 +1631,6 @@
     <rPh sb="16" eb="17">
       <t>トオ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>$./cpu_emulator.exe &lt;バイナリファイル&gt; 2&gt; stderr.txt</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -1998,16 +1994,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>・バイナリファイル(機械語命令)</t>
-    <rPh sb="10" eb="13">
-      <t>キカイゴ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>メイレイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>・ELFファイル</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -2045,34 +2031,6 @@
       <t>ジョウホウ</t>
     </rPh>
     <rPh sb="51" eb="53">
-      <t>サクセイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>$ sh elf2symbol.sh ../&lt;ELFファイル&gt;</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>$ sh create_debuginfo.sh ../&lt;DUMPファイル&gt;</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>②-(1) シンボル情報作成</t>
-    <rPh sb="10" eb="12">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>サクセイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>②-(2) デバッガ情報作成</t>
-    <rPh sb="10" eb="12">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
       <t>サクセイ</t>
     </rPh>
     <phoneticPr fontId="2"/>
@@ -2635,45 +2593,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>・DUMPファイル(Cコードがマージされたもの(SJIS))</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 本ファイルは，以下の方法で作成する．</t>
-    <rPh sb="1" eb="2">
-      <t>ホン</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>イカ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ホウホウ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>サクセイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 上記ファイル(binary.dump)をサクラエディタ等で開き，SJIS/LF形式で保存する．</t>
-    <rPh sb="1" eb="3">
-      <t>ジョウキ</t>
-    </rPh>
-    <rPh sb="28" eb="29">
-      <t>トウ</t>
-    </rPh>
-    <rPh sb="30" eb="31">
-      <t>ヒラ</t>
-    </rPh>
-    <rPh sb="40" eb="42">
-      <t>ケイシキ</t>
-    </rPh>
-    <rPh sb="43" eb="45">
-      <t>ホゾン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>関数復帰</t>
     <rPh sb="0" eb="2">
       <t>カンスウ</t>
@@ -2851,10 +2770,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t xml:space="preserve"> # v850-elf-objdump.exe -S -d ELFファイル &gt; binary.dump</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>A &lt;コントローラ番号※10進表記&gt;:&lt;チャネル番号※10進数表記&gt;:&lt;ADデータ&gt;
 ※&lt;チャネル番号&gt;：-1を指定した場合は全チャネルが対象となる</t>
     <rPh sb="9" eb="11">
@@ -2902,6 +2817,109 @@
   </si>
   <si>
     <t>○</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>$ sh conv.sh ../&lt;ELFファイル&gt;</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>$./cpu_emulator.exe &lt;バイナリファイル&gt; 2&gt; stderr.txt</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>※バイナリファイルは，②の手順を実施すると，「&lt;ELFファイル名&gt;.bin」という名前で自動生成される．</t>
+    <rPh sb="13" eb="15">
+      <t>テジュン</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ジッシ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>ナマエ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>ジドウ</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>セイセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>[1] ruby</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>本エミュレータを使用するには，以下の環境インストールされている必要がある．</t>
+    <rPh sb="0" eb="1">
+      <t>ホン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>カンキョウ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>　　動作確認バージョン</t>
+    <rPh sb="2" eb="4">
+      <t>ドウサ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>[3] gcc</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>　　・pthread</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">      mingw32-libpthreadgc</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">      mingw32-libpthread-old</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">      mingw32-pthreads-w32</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>[2] MinGW64</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>[4] ライブラリ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>　　　　・ruby 1.9.3p547 (2014-05-14 revision 45962) [i386-mingw32]</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    　・MINGW32_NT-6.1 TMO 1.0.17(0.48/3/2) 2011-04-24 23:39 i686 Msys</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>　　　　・gcc.exe (GCC) 4.7.2</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -2909,7 +2927,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4738,7 +4756,7 @@
       <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="6" style="15" customWidth="1"/>
     <col min="2" max="2" width="15.75" style="15" customWidth="1"/>
@@ -4747,12 +4765,12 @@
     <col min="10" max="16384" width="9" style="15"/>
   </cols>
   <sheetData>
-    <row r="6" spans="2:9" ht="42">
+    <row r="6" spans="2:9" ht="42" x14ac:dyDescent="0.15">
       <c r="B6" s="30" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="2:9">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B11" s="18" t="s">
         <v>2</v>
       </c>
@@ -4766,7 +4784,7 @@
       <c r="H11" s="31"/>
       <c r="I11" s="31"/>
     </row>
-    <row r="12" spans="2:9">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B12" s="12" t="s">
         <v>3</v>
       </c>
@@ -4780,12 +4798,12 @@
       <c r="H12" s="33"/>
       <c r="I12" s="33"/>
     </row>
-    <row r="13" spans="2:9" ht="76.5" customHeight="1">
+    <row r="13" spans="2:9" ht="76.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B13" s="12" t="s">
-        <v>310</v>
+        <v>301</v>
       </c>
       <c r="C13" s="32" t="s">
-        <v>311</v>
+        <v>302</v>
       </c>
       <c r="D13" s="33"/>
       <c r="E13" s="33"/>
@@ -4812,56 +4830,56 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="4.125" style="1" customWidth="1"/>
     <col min="2" max="2" width="18.75" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:2">
+    <row r="2" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B2" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="2:2">
+    <row r="3" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="2:2">
+    <row r="4" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="2:2">
+    <row r="5" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B5" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="2:2">
+    <row r="6" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B6" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="2:2">
+    <row r="7" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B7" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="2:2">
+    <row r="8" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B8" s="1" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="9" spans="2:2">
+    <row r="9" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B9" s="1" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B10" s="1" t="s">
         <v>250</v>
-      </c>
-    </row>
-    <row r="10" spans="2:2">
-      <c r="B10" s="1" t="s">
-        <v>251</v>
       </c>
     </row>
   </sheetData>
@@ -4876,19 +4894,19 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="4.625" style="1" customWidth="1"/>
     <col min="2" max="2" width="3.375" style="1" customWidth="1"/>
     <col min="3" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3">
+    <row r="2" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:3">
+    <row r="3" spans="2:3" x14ac:dyDescent="0.15">
       <c r="C3" s="1" t="s">
         <v>7</v>
       </c>
@@ -4903,11 +4921,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:E85"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="4.5" style="1" customWidth="1"/>
     <col min="2" max="2" width="3.125" style="1" customWidth="1"/>
@@ -4917,17 +4935,17 @@
     <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5">
+    <row r="2" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B2" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="2:5">
+    <row r="3" spans="2:5" x14ac:dyDescent="0.15">
       <c r="C3" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="2:5" ht="27">
+    <row r="5" spans="2:5" ht="27" x14ac:dyDescent="0.15">
       <c r="D5" s="5" t="s">
         <v>13</v>
       </c>
@@ -4935,7 +4953,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="2:5">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.15">
       <c r="D6" s="6" t="s">
         <v>137</v>
       </c>
@@ -4943,7 +4961,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="2:5">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.15">
       <c r="D7" s="6" t="s">
         <v>138</v>
       </c>
@@ -4951,7 +4969,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="2:5">
+    <row r="8" spans="2:5" x14ac:dyDescent="0.15">
       <c r="D8" s="6" t="s">
         <v>139</v>
       </c>
@@ -4959,7 +4977,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="2:5">
+    <row r="9" spans="2:5" x14ac:dyDescent="0.15">
       <c r="D9" s="6" t="s">
         <v>140</v>
       </c>
@@ -4967,7 +4985,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="2:5">
+    <row r="10" spans="2:5" x14ac:dyDescent="0.15">
       <c r="D10" s="6" t="s">
         <v>141</v>
       </c>
@@ -4975,7 +4993,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="2:5">
+    <row r="11" spans="2:5" x14ac:dyDescent="0.15">
       <c r="D11" s="6" t="s">
         <v>142</v>
       </c>
@@ -4983,7 +5001,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="2:5">
+    <row r="12" spans="2:5" x14ac:dyDescent="0.15">
       <c r="D12" s="6" t="s">
         <v>143</v>
       </c>
@@ -4991,7 +5009,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="2:5">
+    <row r="13" spans="2:5" x14ac:dyDescent="0.15">
       <c r="D13" s="6" t="s">
         <v>144</v>
       </c>
@@ -4999,7 +5017,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="2:5">
+    <row r="14" spans="2:5" x14ac:dyDescent="0.15">
       <c r="D14" s="6" t="s">
         <v>145</v>
       </c>
@@ -5007,7 +5025,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="2:5">
+    <row r="15" spans="2:5" x14ac:dyDescent="0.15">
       <c r="D15" s="6" t="s">
         <v>146</v>
       </c>
@@ -5015,7 +5033,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="2:5">
+    <row r="16" spans="2:5" x14ac:dyDescent="0.15">
       <c r="D16" s="6" t="s">
         <v>147</v>
       </c>
@@ -5023,7 +5041,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="4:5">
+    <row r="17" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D17" s="6" t="s">
         <v>148</v>
       </c>
@@ -5031,7 +5049,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="4:5">
+    <row r="18" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D18" s="6" t="s">
         <v>149</v>
       </c>
@@ -5039,7 +5057,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="4:5">
+    <row r="19" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D19" s="6" t="s">
         <v>150</v>
       </c>
@@ -5047,7 +5065,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="4:5">
+    <row r="20" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D20" s="6" t="s">
         <v>151</v>
       </c>
@@ -5055,7 +5073,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="4:5">
+    <row r="21" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D21" s="6" t="s">
         <v>152</v>
       </c>
@@ -5063,7 +5081,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="4:5">
+    <row r="22" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D22" s="6" t="s">
         <v>153</v>
       </c>
@@ -5071,7 +5089,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="23" spans="4:5">
+    <row r="23" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D23" s="6" t="s">
         <v>154</v>
       </c>
@@ -5079,7 +5097,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="24" spans="4:5">
+    <row r="24" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D24" s="6" t="s">
         <v>155</v>
       </c>
@@ -5087,7 +5105,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="25" spans="4:5">
+    <row r="25" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D25" s="6" t="s">
         <v>156</v>
       </c>
@@ -5095,7 +5113,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="26" spans="4:5">
+    <row r="26" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D26" s="6" t="s">
         <v>157</v>
       </c>
@@ -5103,7 +5121,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="27" spans="4:5">
+    <row r="27" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D27" s="6" t="s">
         <v>158</v>
       </c>
@@ -5111,15 +5129,15 @@
         <v>16</v>
       </c>
     </row>
-    <row r="28" spans="4:5">
+    <row r="28" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D28" s="6" t="s">
         <v>159</v>
       </c>
       <c r="E28" s="8" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="29" spans="4:5">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="29" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D29" s="6" t="s">
         <v>160</v>
       </c>
@@ -5127,7 +5145,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="30" spans="4:5">
+    <row r="30" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D30" s="6" t="s">
         <v>161</v>
       </c>
@@ -5135,7 +5153,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="31" spans="4:5">
+    <row r="31" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D31" s="6" t="s">
         <v>162</v>
       </c>
@@ -5143,7 +5161,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="32" spans="4:5">
+    <row r="32" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D32" s="6" t="s">
         <v>163</v>
       </c>
@@ -5151,7 +5169,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="33" spans="4:5">
+    <row r="33" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D33" s="6" t="s">
         <v>164</v>
       </c>
@@ -5159,7 +5177,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="34" spans="4:5">
+    <row r="34" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D34" s="6" t="s">
         <v>165</v>
       </c>
@@ -5167,7 +5185,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="35" spans="4:5">
+    <row r="35" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D35" s="6" t="s">
         <v>166</v>
       </c>
@@ -5175,7 +5193,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="36" spans="4:5">
+    <row r="36" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D36" s="6" t="s">
         <v>167</v>
       </c>
@@ -5183,7 +5201,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="37" spans="4:5">
+    <row r="37" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D37" s="6" t="s">
         <v>168</v>
       </c>
@@ -5191,7 +5209,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="38" spans="4:5">
+    <row r="38" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D38" s="6" t="s">
         <v>169</v>
       </c>
@@ -5199,7 +5217,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="39" spans="4:5">
+    <row r="39" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D39" s="6" t="s">
         <v>170</v>
       </c>
@@ -5207,7 +5225,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="40" spans="4:5">
+    <row r="40" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D40" s="6" t="s">
         <v>171</v>
       </c>
@@ -5215,7 +5233,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="41" spans="4:5">
+    <row r="41" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D41" s="6" t="s">
         <v>172</v>
       </c>
@@ -5223,15 +5241,15 @@
         <v>16</v>
       </c>
     </row>
-    <row r="42" spans="4:5">
+    <row r="42" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D42" s="6" t="s">
-        <v>315</v>
+        <v>305</v>
       </c>
       <c r="E42" s="8" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="43" spans="4:5">
+    <row r="43" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D43" s="6" t="s">
         <v>173</v>
       </c>
@@ -5239,7 +5257,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="44" spans="4:5">
+    <row r="44" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D44" s="6" t="s">
         <v>174</v>
       </c>
@@ -5247,7 +5265,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="45" spans="4:5">
+    <row r="45" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D45" s="6" t="s">
         <v>175</v>
       </c>
@@ -5255,7 +5273,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="46" spans="4:5">
+    <row r="46" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D46" s="6" t="s">
         <v>176</v>
       </c>
@@ -5263,7 +5281,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="47" spans="4:5">
+    <row r="47" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D47" s="6" t="s">
         <v>177</v>
       </c>
@@ -5271,7 +5289,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="48" spans="4:5">
+    <row r="48" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D48" s="6" t="s">
         <v>178</v>
       </c>
@@ -5279,7 +5297,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="49" spans="4:5">
+    <row r="49" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D49" s="6" t="s">
         <v>179</v>
       </c>
@@ -5287,7 +5305,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="50" spans="4:5">
+    <row r="50" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D50" s="6" t="s">
         <v>180</v>
       </c>
@@ -5295,7 +5313,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="51" spans="4:5">
+    <row r="51" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D51" s="6" t="s">
         <v>181</v>
       </c>
@@ -5303,7 +5321,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="52" spans="4:5">
+    <row r="52" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D52" s="6" t="s">
         <v>182</v>
       </c>
@@ -5311,7 +5329,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="53" spans="4:5">
+    <row r="53" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D53" s="6" t="s">
         <v>183</v>
       </c>
@@ -5319,7 +5337,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="54" spans="4:5">
+    <row r="54" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D54" s="6" t="s">
         <v>184</v>
       </c>
@@ -5327,7 +5345,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="55" spans="4:5">
+    <row r="55" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D55" s="6" t="s">
         <v>185</v>
       </c>
@@ -5335,7 +5353,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="56" spans="4:5">
+    <row r="56" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D56" s="6" t="s">
         <v>186</v>
       </c>
@@ -5343,7 +5361,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="57" spans="4:5">
+    <row r="57" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D57" s="6" t="s">
         <v>187</v>
       </c>
@@ -5351,7 +5369,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="58" spans="4:5">
+    <row r="58" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D58" s="6" t="s">
         <v>188</v>
       </c>
@@ -5359,7 +5377,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="59" spans="4:5">
+    <row r="59" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D59" s="6" t="s">
         <v>189</v>
       </c>
@@ -5367,7 +5385,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="60" spans="4:5">
+    <row r="60" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D60" s="6" t="s">
         <v>190</v>
       </c>
@@ -5375,7 +5393,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="61" spans="4:5">
+    <row r="61" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D61" s="6" t="s">
         <v>191</v>
       </c>
@@ -5383,7 +5401,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="62" spans="4:5">
+    <row r="62" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D62" s="6" t="s">
         <v>192</v>
       </c>
@@ -5391,7 +5409,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="63" spans="4:5" ht="40.5">
+    <row r="63" spans="4:5" ht="40.5" x14ac:dyDescent="0.15">
       <c r="D63" s="6" t="s">
         <v>193</v>
       </c>
@@ -5399,7 +5417,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="64" spans="4:5">
+    <row r="64" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D64" s="6" t="s">
         <v>194</v>
       </c>
@@ -5407,7 +5425,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="65" spans="4:5">
+    <row r="65" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D65" s="6" t="s">
         <v>195</v>
       </c>
@@ -5415,7 +5433,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="66" spans="4:5">
+    <row r="66" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D66" s="6" t="s">
         <v>196</v>
       </c>
@@ -5423,7 +5441,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="67" spans="4:5">
+    <row r="67" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D67" s="6" t="s">
         <v>197</v>
       </c>
@@ -5431,7 +5449,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="68" spans="4:5">
+    <row r="68" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D68" s="6" t="s">
         <v>198</v>
       </c>
@@ -5439,7 +5457,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="69" spans="4:5">
+    <row r="69" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D69" s="6" t="s">
         <v>199</v>
       </c>
@@ -5447,7 +5465,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="70" spans="4:5">
+    <row r="70" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D70" s="6" t="s">
         <v>200</v>
       </c>
@@ -5455,7 +5473,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="71" spans="4:5">
+    <row r="71" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D71" s="6" t="s">
         <v>201</v>
       </c>
@@ -5463,7 +5481,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="72" spans="4:5">
+    <row r="72" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D72" s="6" t="s">
         <v>202</v>
       </c>
@@ -5471,7 +5489,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="73" spans="4:5">
+    <row r="73" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D73" s="6" t="s">
         <v>203</v>
       </c>
@@ -5479,7 +5497,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="74" spans="4:5">
+    <row r="74" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D74" s="6" t="s">
         <v>204</v>
       </c>
@@ -5487,7 +5505,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="75" spans="4:5">
+    <row r="75" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D75" s="6" t="s">
         <v>205</v>
       </c>
@@ -5495,7 +5513,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="76" spans="4:5">
+    <row r="76" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D76" s="6" t="s">
         <v>206</v>
       </c>
@@ -5503,7 +5521,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="77" spans="4:5">
+    <row r="77" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D77" s="6" t="s">
         <v>207</v>
       </c>
@@ -5511,7 +5529,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="78" spans="4:5">
+    <row r="78" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D78" s="6" t="s">
         <v>208</v>
       </c>
@@ -5519,7 +5537,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="79" spans="4:5">
+    <row r="79" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D79" s="6" t="s">
         <v>209</v>
       </c>
@@ -5527,7 +5545,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="80" spans="4:5">
+    <row r="80" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D80" s="6" t="s">
         <v>210</v>
       </c>
@@ -5535,7 +5553,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="81" spans="4:5">
+    <row r="81" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D81" s="6" t="s">
         <v>211</v>
       </c>
@@ -5543,7 +5561,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="82" spans="4:5">
+    <row r="82" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D82" s="6" t="s">
         <v>212</v>
       </c>
@@ -5551,7 +5569,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="83" spans="4:5">
+    <row r="83" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D83" s="6" t="s">
         <v>213</v>
       </c>
@@ -5559,7 +5577,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="84" spans="4:5">
+    <row r="84" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D84" s="6" t="s">
         <v>214</v>
       </c>
@@ -5567,7 +5585,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="85" spans="4:5">
+    <row r="85" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D85" s="6" t="s">
         <v>215</v>
       </c>
@@ -5588,7 +5606,7 @@
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="3" width="3.375" style="1" customWidth="1"/>
     <col min="4" max="4" width="8" style="1" customWidth="1"/>
@@ -5599,25 +5617,25 @@
     <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8">
+    <row r="2" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B2" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="2"/>
     </row>
-    <row r="3" spans="2:8">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.15">
       <c r="C3" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="2"/>
     </row>
-    <row r="4" spans="2:8">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.15">
       <c r="D4" s="4"/>
       <c r="E4" s="2"/>
     </row>
-    <row r="5" spans="2:8" ht="27">
+    <row r="5" spans="2:8" ht="27" x14ac:dyDescent="0.15">
       <c r="D5" s="34" t="s">
         <v>19</v>
       </c>
@@ -5630,7 +5648,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="6" spans="2:8">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.15">
       <c r="D6" s="11">
         <v>1</v>
       </c>
@@ -5647,7 +5665,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="2:8">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.15">
       <c r="D7" s="11">
         <v>2</v>
       </c>
@@ -5664,7 +5682,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="2:8">
+    <row r="8" spans="2:8" x14ac:dyDescent="0.15">
       <c r="D8" s="11">
         <v>2</v>
       </c>
@@ -5681,7 +5699,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="2:8">
+    <row r="9" spans="2:8" x14ac:dyDescent="0.15">
       <c r="D9" s="11">
         <v>2</v>
       </c>
@@ -5698,7 +5716,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="2:8">
+    <row r="10" spans="2:8" x14ac:dyDescent="0.15">
       <c r="D10" s="11">
         <v>2</v>
       </c>
@@ -5715,7 +5733,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="2:8">
+    <row r="11" spans="2:8" x14ac:dyDescent="0.15">
       <c r="D11" s="11">
         <v>3</v>
       </c>
@@ -5732,7 +5750,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="2:8">
+    <row r="12" spans="2:8" x14ac:dyDescent="0.15">
       <c r="D12" s="11">
         <v>3</v>
       </c>
@@ -5749,7 +5767,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="2:8">
+    <row r="13" spans="2:8" x14ac:dyDescent="0.15">
       <c r="D13" s="11">
         <v>3</v>
       </c>
@@ -5766,7 +5784,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="2:8">
+    <row r="14" spans="2:8" x14ac:dyDescent="0.15">
       <c r="D14" s="11">
         <v>3</v>
       </c>
@@ -5783,7 +5801,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="2:8">
+    <row r="15" spans="2:8" x14ac:dyDescent="0.15">
       <c r="D15" s="11">
         <v>4</v>
       </c>
@@ -5800,7 +5818,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="2:8">
+    <row r="16" spans="2:8" x14ac:dyDescent="0.15">
       <c r="D16" s="11">
         <v>4</v>
       </c>
@@ -5817,7 +5835,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="17" spans="4:8">
+    <row r="17" spans="4:8" x14ac:dyDescent="0.15">
       <c r="D17" s="11">
         <v>4</v>
       </c>
@@ -5834,7 +5852,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="4:8">
+    <row r="18" spans="4:8" x14ac:dyDescent="0.15">
       <c r="D18" s="11">
         <v>5</v>
       </c>
@@ -5851,7 +5869,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="4:8">
+    <row r="19" spans="4:8" x14ac:dyDescent="0.15">
       <c r="D19" s="11">
         <v>5</v>
       </c>
@@ -5868,7 +5886,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="4:8">
+    <row r="20" spans="4:8" x14ac:dyDescent="0.15">
       <c r="D20" s="11">
         <v>5</v>
       </c>
@@ -5885,7 +5903,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="4:8">
+    <row r="21" spans="4:8" x14ac:dyDescent="0.15">
       <c r="D21" s="11">
         <v>5</v>
       </c>
@@ -5902,7 +5920,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="4:8">
+    <row r="22" spans="4:8" x14ac:dyDescent="0.15">
       <c r="D22" s="11">
         <v>5</v>
       </c>
@@ -5919,7 +5937,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="4:8">
+    <row r="23" spans="4:8" x14ac:dyDescent="0.15">
       <c r="D23" s="11">
         <v>5</v>
       </c>
@@ -5936,7 +5954,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="4:8">
+    <row r="24" spans="4:8" x14ac:dyDescent="0.15">
       <c r="D24" s="11">
         <v>5</v>
       </c>
@@ -5953,7 +5971,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="25" spans="4:8">
+    <row r="25" spans="4:8" x14ac:dyDescent="0.15">
       <c r="D25" s="11">
         <v>6</v>
       </c>
@@ -5970,7 +5988,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="26" spans="4:8">
+    <row r="26" spans="4:8" x14ac:dyDescent="0.15">
       <c r="D26" s="11">
         <v>7</v>
       </c>
@@ -5987,7 +6005,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="27" spans="4:8">
+    <row r="27" spans="4:8" x14ac:dyDescent="0.15">
       <c r="D27" s="11">
         <v>8</v>
       </c>
@@ -6004,7 +6022,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="28" spans="4:8">
+    <row r="28" spans="4:8" x14ac:dyDescent="0.15">
       <c r="D28" s="11">
         <v>9</v>
       </c>
@@ -6021,7 +6039,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="29" spans="4:8">
+    <row r="29" spans="4:8" x14ac:dyDescent="0.15">
       <c r="D29" s="11">
         <v>10</v>
       </c>
@@ -6038,7 +6056,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="30" spans="4:8">
+    <row r="30" spans="4:8" x14ac:dyDescent="0.15">
       <c r="D30" s="11">
         <v>11</v>
       </c>
@@ -6055,7 +6073,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="31" spans="4:8">
+    <row r="31" spans="4:8" x14ac:dyDescent="0.15">
       <c r="D31" s="11">
         <v>12</v>
       </c>
@@ -6072,7 +6090,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="32" spans="4:8">
+    <row r="32" spans="4:8" x14ac:dyDescent="0.15">
       <c r="D32" s="11">
         <v>12</v>
       </c>
@@ -6089,7 +6107,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="33" spans="4:8">
+    <row r="33" spans="4:8" x14ac:dyDescent="0.15">
       <c r="D33" s="11">
         <v>12</v>
       </c>
@@ -6106,7 +6124,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="34" spans="4:8">
+    <row r="34" spans="4:8" x14ac:dyDescent="0.15">
       <c r="D34" s="11">
         <v>12</v>
       </c>
@@ -6123,7 +6141,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="35" spans="4:8">
+    <row r="35" spans="4:8" x14ac:dyDescent="0.15">
       <c r="D35" s="11">
         <v>12</v>
       </c>
@@ -6140,7 +6158,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="36" spans="4:8">
+    <row r="36" spans="4:8" x14ac:dyDescent="0.15">
       <c r="D36" s="11">
         <v>12</v>
       </c>
@@ -6157,7 +6175,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="37" spans="4:8">
+    <row r="37" spans="4:8" x14ac:dyDescent="0.15">
       <c r="D37" s="11">
         <v>12</v>
       </c>
@@ -6174,7 +6192,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="38" spans="4:8">
+    <row r="38" spans="4:8" x14ac:dyDescent="0.15">
       <c r="D38" s="11">
         <v>12</v>
       </c>
@@ -6191,7 +6209,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="39" spans="4:8">
+    <row r="39" spans="4:8" x14ac:dyDescent="0.15">
       <c r="D39" s="11">
         <v>12</v>
       </c>
@@ -6208,7 +6226,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="40" spans="4:8">
+    <row r="40" spans="4:8" x14ac:dyDescent="0.15">
       <c r="D40" s="11">
         <v>13</v>
       </c>
@@ -6225,7 +6243,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="41" spans="4:8">
+    <row r="41" spans="4:8" x14ac:dyDescent="0.15">
       <c r="D41" s="11">
         <v>13</v>
       </c>
@@ -6242,7 +6260,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="42" spans="4:8">
+    <row r="42" spans="4:8" x14ac:dyDescent="0.15">
       <c r="D42" s="11">
         <v>13</v>
       </c>
@@ -6259,7 +6277,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="43" spans="4:8">
+    <row r="43" spans="4:8" x14ac:dyDescent="0.15">
       <c r="D43" s="11">
         <v>13</v>
       </c>
@@ -6276,7 +6294,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="44" spans="4:8">
+    <row r="44" spans="4:8" x14ac:dyDescent="0.15">
       <c r="D44" s="11">
         <v>13</v>
       </c>
@@ -6293,7 +6311,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="45" spans="4:8">
+    <row r="45" spans="4:8" x14ac:dyDescent="0.15">
       <c r="D45" s="11">
         <v>13</v>
       </c>
@@ -6310,7 +6328,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="46" spans="4:8">
+    <row r="46" spans="4:8" x14ac:dyDescent="0.15">
       <c r="D46" s="11">
         <v>13</v>
       </c>
@@ -6327,7 +6345,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="47" spans="4:8">
+    <row r="47" spans="4:8" x14ac:dyDescent="0.15">
       <c r="D47" s="11">
         <v>13</v>
       </c>
@@ -6344,7 +6362,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="48" spans="4:8">
+    <row r="48" spans="4:8" x14ac:dyDescent="0.15">
       <c r="D48" s="11">
         <v>13</v>
       </c>
@@ -6361,7 +6379,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="49" spans="4:8">
+    <row r="49" spans="4:8" x14ac:dyDescent="0.15">
       <c r="D49" s="11">
         <v>14</v>
       </c>
@@ -6378,7 +6396,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="50" spans="4:8">
+    <row r="50" spans="4:8" x14ac:dyDescent="0.15">
       <c r="D50" s="11">
         <v>15</v>
       </c>
@@ -6395,7 +6413,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="51" spans="4:8">
+    <row r="51" spans="4:8" x14ac:dyDescent="0.15">
       <c r="D51" s="11">
         <v>16</v>
       </c>
@@ -6412,7 +6430,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="52" spans="4:8">
+    <row r="52" spans="4:8" x14ac:dyDescent="0.15">
       <c r="D52" s="11">
         <v>17</v>
       </c>
@@ -6429,7 +6447,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="53" spans="4:8">
+    <row r="53" spans="4:8" x14ac:dyDescent="0.15">
       <c r="D53" s="11">
         <v>18</v>
       </c>
@@ -6446,7 +6464,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="54" spans="4:8">
+    <row r="54" spans="4:8" x14ac:dyDescent="0.15">
       <c r="D54" s="11">
         <v>19</v>
       </c>
@@ -6463,7 +6481,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="55" spans="4:8">
+    <row r="55" spans="4:8" x14ac:dyDescent="0.15">
       <c r="D55" s="11">
         <v>20</v>
       </c>
@@ -6480,7 +6498,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="56" spans="4:8">
+    <row r="56" spans="4:8" x14ac:dyDescent="0.15">
       <c r="D56" s="11">
         <v>21</v>
       </c>
@@ -6497,7 +6515,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="57" spans="4:8">
+    <row r="57" spans="4:8" x14ac:dyDescent="0.15">
       <c r="D57" s="11">
         <v>21</v>
       </c>
@@ -6514,7 +6532,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="58" spans="4:8">
+    <row r="58" spans="4:8" x14ac:dyDescent="0.15">
       <c r="D58" s="11">
         <v>21</v>
       </c>
@@ -6531,7 +6549,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="59" spans="4:8">
+    <row r="59" spans="4:8" x14ac:dyDescent="0.15">
       <c r="D59" s="11">
         <v>21</v>
       </c>
@@ -6548,7 +6566,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="60" spans="4:8">
+    <row r="60" spans="4:8" x14ac:dyDescent="0.15">
       <c r="D60" s="11">
         <v>21</v>
       </c>
@@ -6565,7 +6583,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="61" spans="4:8">
+    <row r="61" spans="4:8" x14ac:dyDescent="0.15">
       <c r="D61" s="11">
         <v>21</v>
       </c>
@@ -6582,7 +6600,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="62" spans="4:8">
+    <row r="62" spans="4:8" x14ac:dyDescent="0.15">
       <c r="D62" s="11">
         <v>21</v>
       </c>
@@ -6599,7 +6617,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="63" spans="4:8">
+    <row r="63" spans="4:8" x14ac:dyDescent="0.15">
       <c r="D63" s="11">
         <v>21</v>
       </c>
@@ -6616,7 +6634,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="64" spans="4:8">
+    <row r="64" spans="4:8" x14ac:dyDescent="0.15">
       <c r="D64" s="11">
         <v>21</v>
       </c>
@@ -6633,7 +6651,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="65" spans="4:8">
+    <row r="65" spans="4:8" x14ac:dyDescent="0.15">
       <c r="D65" s="11">
         <v>21</v>
       </c>
@@ -6650,7 +6668,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="66" spans="4:8">
+    <row r="66" spans="4:8" x14ac:dyDescent="0.15">
       <c r="D66" s="11">
         <v>21</v>
       </c>
@@ -6667,7 +6685,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="67" spans="4:8">
+    <row r="67" spans="4:8" x14ac:dyDescent="0.15">
       <c r="D67" s="11">
         <v>21</v>
       </c>
@@ -6684,7 +6702,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="68" spans="4:8">
+    <row r="68" spans="4:8" x14ac:dyDescent="0.15">
       <c r="D68" s="11">
         <v>21</v>
       </c>
@@ -6701,7 +6719,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="69" spans="4:8">
+    <row r="69" spans="4:8" x14ac:dyDescent="0.15">
       <c r="D69" s="11">
         <v>21</v>
       </c>
@@ -6718,7 +6736,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="70" spans="4:8">
+    <row r="70" spans="4:8" x14ac:dyDescent="0.15">
       <c r="D70" s="11">
         <v>21</v>
       </c>
@@ -6735,7 +6753,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="71" spans="4:8">
+    <row r="71" spans="4:8" x14ac:dyDescent="0.15">
       <c r="D71" s="11">
         <v>21</v>
       </c>
@@ -6752,7 +6770,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="72" spans="4:8">
+    <row r="72" spans="4:8" x14ac:dyDescent="0.15">
       <c r="D72" s="11">
         <v>21</v>
       </c>
@@ -6769,7 +6787,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="73" spans="4:8">
+    <row r="73" spans="4:8" x14ac:dyDescent="0.15">
       <c r="D73" s="11">
         <v>21</v>
       </c>
@@ -6786,7 +6804,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="74" spans="4:8">
+    <row r="74" spans="4:8" x14ac:dyDescent="0.15">
       <c r="D74" s="11">
         <v>21</v>
       </c>
@@ -6803,7 +6821,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="75" spans="4:8">
+    <row r="75" spans="4:8" x14ac:dyDescent="0.15">
       <c r="D75" s="11">
         <v>21</v>
       </c>
@@ -6820,7 +6838,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="76" spans="4:8">
+    <row r="76" spans="4:8" x14ac:dyDescent="0.15">
       <c r="D76" s="11">
         <v>21</v>
       </c>
@@ -6837,7 +6855,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="77" spans="4:8">
+    <row r="77" spans="4:8" x14ac:dyDescent="0.15">
       <c r="D77" s="11">
         <v>21</v>
       </c>
@@ -6854,7 +6872,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="78" spans="4:8">
+    <row r="78" spans="4:8" x14ac:dyDescent="0.15">
       <c r="D78" s="11">
         <v>22</v>
       </c>
@@ -6871,7 +6889,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="79" spans="4:8">
+    <row r="79" spans="4:8" x14ac:dyDescent="0.15">
       <c r="D79" s="11">
         <v>21</v>
       </c>
@@ -6888,7 +6906,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="80" spans="4:8">
+    <row r="80" spans="4:8" x14ac:dyDescent="0.15">
       <c r="D80" s="11">
         <v>21</v>
       </c>
@@ -6905,7 +6923,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="81" spans="4:8">
+    <row r="81" spans="4:8" x14ac:dyDescent="0.15">
       <c r="D81" s="11">
         <v>21</v>
       </c>
@@ -6922,7 +6940,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="82" spans="4:8">
+    <row r="82" spans="4:8" x14ac:dyDescent="0.15">
       <c r="D82" s="11">
         <v>21</v>
       </c>
@@ -6939,7 +6957,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="83" spans="4:8">
+    <row r="83" spans="4:8" x14ac:dyDescent="0.15">
       <c r="D83" s="11">
         <v>21</v>
       </c>
@@ -6956,7 +6974,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="84" spans="4:8">
+    <row r="84" spans="4:8" x14ac:dyDescent="0.15">
       <c r="D84" s="11">
         <v>21</v>
       </c>
@@ -6973,7 +6991,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="85" spans="4:8">
+    <row r="85" spans="4:8" x14ac:dyDescent="0.15">
       <c r="D85" s="11">
         <v>21</v>
       </c>
@@ -6990,7 +7008,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="86" spans="4:8">
+    <row r="86" spans="4:8" x14ac:dyDescent="0.15">
       <c r="D86" s="11">
         <v>21</v>
       </c>
@@ -7007,7 +7025,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="87" spans="4:8">
+    <row r="87" spans="4:8" x14ac:dyDescent="0.15">
       <c r="D87" s="11">
         <v>21</v>
       </c>
@@ -7024,7 +7042,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="88" spans="4:8">
+    <row r="88" spans="4:8" x14ac:dyDescent="0.15">
       <c r="D88" s="11">
         <v>21</v>
       </c>
@@ -7041,7 +7059,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="89" spans="4:8">
+    <row r="89" spans="4:8" x14ac:dyDescent="0.15">
       <c r="D89" s="11">
         <v>21</v>
       </c>
@@ -7058,7 +7076,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="90" spans="4:8">
+    <row r="90" spans="4:8" x14ac:dyDescent="0.15">
       <c r="D90" s="11">
         <v>24</v>
       </c>
@@ -7075,7 +7093,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="91" spans="4:8">
+    <row r="91" spans="4:8" x14ac:dyDescent="0.15">
       <c r="D91" s="11">
         <v>25</v>
       </c>
@@ -7092,7 +7110,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="92" spans="4:8">
+    <row r="92" spans="4:8" x14ac:dyDescent="0.15">
       <c r="D92" s="11">
         <v>26</v>
       </c>
@@ -7109,7 +7127,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="93" spans="4:8">
+    <row r="93" spans="4:8" x14ac:dyDescent="0.15">
       <c r="D93" s="11">
         <v>27</v>
       </c>
@@ -7139,11 +7157,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:F30"/>
   <sheetViews>
-    <sheetView topLeftCell="B13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="2.625" style="15" customWidth="1"/>
     <col min="2" max="2" width="3.625" style="15" customWidth="1"/>
@@ -7154,19 +7172,19 @@
     <col min="7" max="16384" width="9" style="15"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6">
+    <row r="2" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B2" s="15" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="2:6">
+    <row r="3" spans="2:6" x14ac:dyDescent="0.15">
       <c r="C3" s="15" t="s">
         <v>116</v>
       </c>
       <c r="D3" s="16"/>
       <c r="E3" s="17"/>
     </row>
-    <row r="5" spans="2:6" ht="27">
+    <row r="5" spans="2:6" ht="27" x14ac:dyDescent="0.15">
       <c r="C5" s="18" t="s">
         <v>117</v>
       </c>
@@ -7180,35 +7198,35 @@
         <v>221</v>
       </c>
     </row>
-    <row r="6" spans="2:6" s="23" customFormat="1" ht="134.25" customHeight="1">
+    <row r="6" spans="2:6" s="23" customFormat="1" ht="134.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C6" s="28" t="s">
+        <v>245</v>
+      </c>
+      <c r="D6" s="24" t="s">
+        <v>247</v>
+      </c>
+      <c r="E6" s="25" t="s">
         <v>246</v>
       </c>
-      <c r="D6" s="24" t="s">
+      <c r="F6" s="26" t="s">
         <v>248</v>
       </c>
-      <c r="E6" s="25" t="s">
-        <v>247</v>
-      </c>
-      <c r="F6" s="26" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="7" spans="2:6" s="23" customFormat="1" ht="93.75" customHeight="1">
+    </row>
+    <row r="7" spans="2:6" s="23" customFormat="1" ht="93.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C7" s="28" t="s">
-        <v>305</v>
+        <v>296</v>
       </c>
       <c r="D7" s="24" t="s">
-        <v>306</v>
+        <v>297</v>
       </c>
       <c r="E7" s="25" t="s">
-        <v>307</v>
+        <v>298</v>
       </c>
       <c r="F7" s="26" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="8" spans="2:6" ht="41.25" customHeight="1">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C8" s="29" t="s">
         <v>119</v>
       </c>
@@ -7219,10 +7237,10 @@
         <v>217</v>
       </c>
       <c r="F8" s="21" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="9" spans="2:6" ht="41.25" customHeight="1">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C9" s="29" t="s">
         <v>120</v>
       </c>
@@ -7236,7 +7254,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="10" spans="2:6" ht="41.25" customHeight="1">
+    <row r="10" spans="2:6" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C10" s="29" t="s">
         <v>121</v>
       </c>
@@ -7247,10 +7265,10 @@
         <v>219</v>
       </c>
       <c r="F10" s="21" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="11" spans="2:6" ht="41.25" customHeight="1">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C11" s="29" t="s">
         <v>122</v>
       </c>
@@ -7264,21 +7282,21 @@
         <v>223</v>
       </c>
     </row>
-    <row r="12" spans="2:6" ht="41.25" customHeight="1">
+    <row r="12" spans="2:6" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C12" s="29" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="E12" s="12" t="s">
-        <v>303</v>
+        <v>294</v>
       </c>
       <c r="F12" s="21" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="13" spans="2:6" ht="267.75" customHeight="1">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" ht="267.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C13" s="29" t="s">
         <v>123</v>
       </c>
@@ -7286,13 +7304,13 @@
         <v>224</v>
       </c>
       <c r="E13" s="20" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F13" s="21" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="14" spans="2:6" ht="228.75" customHeight="1">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" ht="228.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C14" s="29" t="s">
         <v>124</v>
       </c>
@@ -7306,7 +7324,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="15" spans="2:6" ht="60" customHeight="1">
+    <row r="15" spans="2:6" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C15" s="29" t="s">
         <v>125</v>
       </c>
@@ -7320,7 +7338,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="16" spans="2:6" ht="109.5" customHeight="1">
+    <row r="16" spans="2:6" ht="109.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C16" s="29" t="s">
         <v>126</v>
       </c>
@@ -7334,21 +7352,21 @@
         <v>230</v>
       </c>
     </row>
-    <row r="17" spans="3:6" ht="60" customHeight="1">
+    <row r="17" spans="3:6" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C17" s="29" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D17" s="12" t="s">
         <v>135</v>
       </c>
       <c r="E17" s="20" t="s">
-        <v>313</v>
+        <v>303</v>
       </c>
       <c r="F17" s="22" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="18" spans="3:6" ht="60" customHeight="1">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="18" spans="3:6" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C18" s="29" t="s">
         <v>127</v>
       </c>
@@ -7362,113 +7380,113 @@
         <v>232</v>
       </c>
     </row>
-    <row r="19" spans="3:6" ht="169.5" customHeight="1">
+    <row r="19" spans="3:6" ht="169.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C19" s="29" t="s">
+        <v>240</v>
+      </c>
+      <c r="D19" s="12" t="s">
         <v>241</v>
       </c>
-      <c r="D19" s="12" t="s">
+      <c r="E19" s="20" t="s">
+        <v>243</v>
+      </c>
+      <c r="F19" s="21" t="s">
         <v>242</v>
       </c>
-      <c r="E19" s="20" t="s">
-        <v>244</v>
-      </c>
-      <c r="F19" s="21" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="20" spans="3:6" ht="94.5">
+    </row>
+    <row r="20" spans="3:6" ht="94.5" x14ac:dyDescent="0.15">
       <c r="C20" s="29" t="s">
+        <v>282</v>
+      </c>
+      <c r="D20" s="20" t="s">
+        <v>283</v>
+      </c>
+      <c r="E20" s="20" t="s">
+        <v>278</v>
+      </c>
+      <c r="F20" s="20" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="21" spans="3:6" ht="81" x14ac:dyDescent="0.15">
+      <c r="C21" s="29" t="s">
+        <v>281</v>
+      </c>
+      <c r="D21" s="12" t="s">
+        <v>279</v>
+      </c>
+      <c r="E21" s="20" t="s">
+        <v>280</v>
+      </c>
+      <c r="F21" s="20" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="22" spans="3:6" ht="81" x14ac:dyDescent="0.15">
+      <c r="C22" s="29" t="s">
+        <v>286</v>
+      </c>
+      <c r="D22" s="12" t="s">
         <v>288</v>
       </c>
-      <c r="D20" s="20" t="s">
+      <c r="E22" s="25" t="s">
+        <v>246</v>
+      </c>
+      <c r="F22" s="20" t="s">
         <v>289</v>
       </c>
-      <c r="E20" s="20" t="s">
-        <v>284</v>
-      </c>
-      <c r="F20" s="20" t="s">
+    </row>
+    <row r="23" spans="3:6" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="C23" s="29" t="s">
+        <v>287</v>
+      </c>
+      <c r="D23" s="12" t="s">
+        <v>290</v>
+      </c>
+      <c r="E23" s="25" t="s">
+        <v>246</v>
+      </c>
+      <c r="F23" s="12" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="21" spans="3:6" ht="81">
-      <c r="C21" s="29" t="s">
-        <v>287</v>
-      </c>
-      <c r="D21" s="12" t="s">
-        <v>285</v>
-      </c>
-      <c r="E21" s="20" t="s">
-        <v>286</v>
-      </c>
-      <c r="F21" s="20" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="22" spans="3:6" ht="81">
-      <c r="C22" s="29" t="s">
-        <v>292</v>
-      </c>
-      <c r="D22" s="12" t="s">
-        <v>294</v>
-      </c>
-      <c r="E22" s="25" t="s">
-        <v>247</v>
-      </c>
-      <c r="F22" s="20" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="23" spans="3:6" ht="17.25">
-      <c r="C23" s="29" t="s">
-        <v>293</v>
-      </c>
-      <c r="D23" s="12" t="s">
-        <v>296</v>
-      </c>
-      <c r="E23" s="25" t="s">
-        <v>247</v>
-      </c>
-      <c r="F23" s="12" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="24" spans="3:6" ht="17.25">
+    <row r="24" spans="3:6" ht="17.25" x14ac:dyDescent="0.15">
       <c r="C24" s="29"/>
       <c r="D24" s="12"/>
       <c r="E24" s="12"/>
       <c r="F24" s="12"/>
     </row>
-    <row r="25" spans="3:6" ht="17.25">
+    <row r="25" spans="3:6" ht="17.25" x14ac:dyDescent="0.15">
       <c r="C25" s="29"/>
       <c r="D25" s="12"/>
       <c r="E25" s="12"/>
       <c r="F25" s="12"/>
     </row>
-    <row r="26" spans="3:6" ht="17.25">
+    <row r="26" spans="3:6" ht="17.25" x14ac:dyDescent="0.15">
       <c r="C26" s="29"/>
       <c r="D26" s="12"/>
       <c r="E26" s="12"/>
       <c r="F26" s="12"/>
     </row>
-    <row r="27" spans="3:6" ht="17.25">
+    <row r="27" spans="3:6" ht="17.25" x14ac:dyDescent="0.15">
       <c r="C27" s="29"/>
       <c r="D27" s="12"/>
       <c r="E27" s="12"/>
       <c r="F27" s="12"/>
     </row>
-    <row r="28" spans="3:6" ht="17.25">
+    <row r="28" spans="3:6" ht="17.25" x14ac:dyDescent="0.15">
       <c r="C28" s="29"/>
       <c r="D28" s="12"/>
       <c r="E28" s="12"/>
       <c r="F28" s="12"/>
     </row>
-    <row r="29" spans="3:6" ht="17.25">
+    <row r="29" spans="3:6" ht="17.25" x14ac:dyDescent="0.15">
       <c r="C29" s="29"/>
       <c r="D29" s="12"/>
       <c r="E29" s="12"/>
       <c r="F29" s="12"/>
     </row>
-    <row r="30" spans="3:6" ht="17.25">
+    <row r="30" spans="3:6" ht="17.25" x14ac:dyDescent="0.15">
       <c r="C30" s="29"/>
       <c r="D30" s="12"/>
       <c r="E30" s="12"/>
@@ -7483,13 +7501,13 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:H28"/>
+  <dimension ref="B2:H40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N26" sqref="N26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="3.375" style="1" customWidth="1"/>
     <col min="2" max="2" width="4.5" style="1" customWidth="1"/>
@@ -7497,138 +7515,174 @@
     <col min="4" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4">
+    <row r="2" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B2" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="2:4">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.15">
       <c r="C3" s="15" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="5" spans="2:4">
+    <row r="5" spans="2:8" x14ac:dyDescent="0.15">
       <c r="C5" s="1" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="D6" s="1" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="6" spans="2:4">
-      <c r="D6" s="1" t="s">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="D7" s="1" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="C9" s="1" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="7" spans="2:4">
-      <c r="D7" s="1" t="s">
+    <row r="10" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="D10" s="1" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="8" spans="2:4">
-      <c r="D8" s="1" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="9" spans="2:4">
-      <c r="D9" s="1" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="10" spans="2:4">
-      <c r="D10" s="1" t="s">
+    <row r="11" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="12" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="D12" s="37" t="s">
+        <v>307</v>
+      </c>
+      <c r="E12" s="38"/>
+      <c r="F12" s="38"/>
+      <c r="G12" s="38"/>
+      <c r="H12" s="39"/>
+    </row>
+    <row r="14" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="C14" s="1" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="D15" s="37" t="s">
+        <v>234</v>
+      </c>
+      <c r="E15" s="38"/>
+      <c r="F15" s="38"/>
+      <c r="G15" s="38"/>
+      <c r="H15" s="39"/>
+    </row>
+    <row r="17" spans="3:8" x14ac:dyDescent="0.15">
+      <c r="D17" s="1" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="18" spans="3:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="C18" s="1" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="19" spans="3:8" x14ac:dyDescent="0.15">
+      <c r="D19" s="40" t="s">
+        <v>235</v>
+      </c>
+      <c r="E19" s="41"/>
+      <c r="F19" s="41"/>
+      <c r="G19" s="41"/>
+      <c r="H19" s="42"/>
+    </row>
+    <row r="20" spans="3:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="D20" s="43" t="s">
+        <v>236</v>
+      </c>
+      <c r="E20" s="44"/>
+      <c r="F20" s="44"/>
+      <c r="G20" s="44"/>
+      <c r="H20" s="45"/>
+    </row>
+    <row r="23" spans="3:8" x14ac:dyDescent="0.15">
+      <c r="C23" s="1" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="24" spans="3:8" x14ac:dyDescent="0.15">
+      <c r="D24" s="1" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="25" spans="3:8" x14ac:dyDescent="0.15">
+      <c r="D25" s="1" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="11" spans="2:4">
-      <c r="D11" s="1" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="13" spans="2:4">
-      <c r="C13" s="1" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="14" spans="2:4">
-      <c r="D14" s="1" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="16" spans="2:4" ht="14.25" thickBot="1">
-      <c r="D16" s="1" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="17" spans="3:8" ht="14.25" thickBot="1">
-      <c r="D17" s="37" t="s">
-        <v>270</v>
-      </c>
-      <c r="E17" s="38"/>
-      <c r="F17" s="38"/>
-      <c r="G17" s="38"/>
-      <c r="H17" s="39"/>
-    </row>
-    <row r="19" spans="3:8" ht="14.25" thickBot="1">
-      <c r="D19" s="1" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="20" spans="3:8" ht="14.25" thickBot="1">
-      <c r="D20" s="37" t="s">
-        <v>271</v>
-      </c>
-      <c r="E20" s="38"/>
-      <c r="F20" s="38"/>
-      <c r="G20" s="38"/>
-      <c r="H20" s="39"/>
-    </row>
-    <row r="22" spans="3:8" ht="14.25" thickBot="1">
-      <c r="C22" s="1" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="23" spans="3:8" ht="14.25" thickBot="1">
-      <c r="D23" s="37" t="s">
-        <v>234</v>
-      </c>
-      <c r="E23" s="38"/>
-      <c r="F23" s="38"/>
-      <c r="G23" s="38"/>
-      <c r="H23" s="39"/>
-    </row>
-    <row r="25" spans="3:8">
-      <c r="D25" s="1" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="26" spans="3:8" ht="14.25" thickBot="1">
-      <c r="C26" s="1" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="27" spans="3:8">
-      <c r="D27" s="40" t="s">
-        <v>235</v>
-      </c>
-      <c r="E27" s="41"/>
-      <c r="F27" s="41"/>
-      <c r="G27" s="41"/>
-      <c r="H27" s="42"/>
-    </row>
-    <row r="28" spans="3:8" ht="14.25" thickBot="1">
-      <c r="D28" s="43" t="s">
-        <v>236</v>
-      </c>
-      <c r="E28" s="44"/>
-      <c r="F28" s="44"/>
-      <c r="G28" s="44"/>
-      <c r="H28" s="45"/>
+    <row r="26" spans="3:8" x14ac:dyDescent="0.15">
+      <c r="D26" s="1" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="28" spans="3:8" x14ac:dyDescent="0.15">
+      <c r="D28" s="1" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="29" spans="3:8" x14ac:dyDescent="0.15">
+      <c r="D29" s="1" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="30" spans="3:8" x14ac:dyDescent="0.15">
+      <c r="D30" s="1" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="32" spans="3:8" x14ac:dyDescent="0.15">
+      <c r="D32" s="1" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="33" spans="4:4" x14ac:dyDescent="0.15">
+      <c r="D33" s="1" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="34" spans="4:4" x14ac:dyDescent="0.15">
+      <c r="D34" s="1" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="36" spans="4:4" x14ac:dyDescent="0.15">
+      <c r="D36" s="1" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="37" spans="4:4" x14ac:dyDescent="0.15">
+      <c r="D37" s="1" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="38" spans="4:4" x14ac:dyDescent="0.15">
+      <c r="D38" s="1" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="39" spans="4:4" x14ac:dyDescent="0.15">
+      <c r="D39" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="40" spans="4:4" x14ac:dyDescent="0.15">
+      <c r="D40" s="1" t="s">
+        <v>317</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="D23:H23"/>
-    <mergeCell ref="D27:H27"/>
-    <mergeCell ref="D28:H28"/>
-    <mergeCell ref="D17:H17"/>
+  <mergeCells count="4">
+    <mergeCell ref="D15:H15"/>
+    <mergeCell ref="D19:H19"/>
     <mergeCell ref="D20:H20"/>
+    <mergeCell ref="D12:H12"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7639,59 +7693,61 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:I33"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H27" sqref="H27"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="3.5" style="1" customWidth="1"/>
     <col min="2" max="4" width="3.75" style="1" customWidth="1"/>
     <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B2" s="1" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="3" spans="2:9">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.15">
       <c r="C3" s="1" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="C4" s="1" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="4" spans="2:9">
-      <c r="C4" s="1" t="s">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="C5" s="1" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="5" spans="2:9">
-      <c r="C5" s="1" t="s">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="C7" s="1" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="7" spans="2:9">
-      <c r="C7" s="1" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="8" spans="2:9">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.15">
       <c r="D8" s="1" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="10" spans="2:9">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.15">
       <c r="C10" s="1" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="11" spans="2:9">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.15">
       <c r="D11" s="15" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="12" spans="2:9" ht="14.25" thickBot="1"/>
-    <row r="13" spans="2:9" ht="14.25" thickBot="1">
+    <row r="12" spans="2:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="13" spans="2:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="D13" s="37" t="s">
-        <v>239</v>
+        <v>308</v>
       </c>
       <c r="E13" s="38"/>
       <c r="F13" s="38"/>
@@ -7699,20 +7755,20 @@
       <c r="H13" s="38"/>
       <c r="I13" s="39"/>
     </row>
-    <row r="15" spans="2:9">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.15">
       <c r="D15" s="1" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="D16" s="1" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="16" spans="2:9">
-      <c r="D16" s="1" t="s">
+    <row r="17" spans="3:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="18" spans="3:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="D18" s="37" t="s">
         <v>255</v>
-      </c>
-    </row>
-    <row r="17" spans="3:9" ht="14.25" thickBot="1"/>
-    <row r="18" spans="3:9" ht="14.25" thickBot="1">
-      <c r="D18" s="37" t="s">
-        <v>256</v>
       </c>
       <c r="E18" s="38"/>
       <c r="F18" s="38"/>
@@ -7720,25 +7776,25 @@
       <c r="H18" s="38"/>
       <c r="I18" s="39"/>
     </row>
-    <row r="20" spans="3:9">
+    <row r="20" spans="3:9" x14ac:dyDescent="0.15">
       <c r="D20" s="1" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="22" spans="3:9">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="22" spans="3:9" x14ac:dyDescent="0.15">
       <c r="C22" s="1" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="23" spans="3:9">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="23" spans="3:9" x14ac:dyDescent="0.15">
       <c r="D23" s="15" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="24" spans="3:9" ht="14.25" thickBot="1"/>
-    <row r="25" spans="3:9">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="24" spans="3:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="25" spans="3:9" x14ac:dyDescent="0.15">
       <c r="D25" s="40" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="E25" s="41"/>
       <c r="F25" s="41"/>
@@ -7746,9 +7802,9 @@
       <c r="H25" s="41"/>
       <c r="I25" s="42"/>
     </row>
-    <row r="26" spans="3:9" ht="14.25" thickBot="1">
+    <row r="26" spans="3:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="D26" s="43" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="E26" s="44"/>
       <c r="F26" s="44"/>
@@ -7756,7 +7812,7 @@
       <c r="H26" s="44"/>
       <c r="I26" s="45"/>
     </row>
-    <row r="27" spans="3:9">
+    <row r="27" spans="3:9" x14ac:dyDescent="0.15">
       <c r="D27" s="27"/>
       <c r="E27" s="27"/>
       <c r="F27" s="27"/>
@@ -7764,20 +7820,20 @@
       <c r="H27" s="27"/>
       <c r="I27" s="27"/>
     </row>
-    <row r="28" spans="3:9">
+    <row r="28" spans="3:9" x14ac:dyDescent="0.15">
       <c r="D28" s="1" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="30" spans="3:9">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="30" spans="3:9" x14ac:dyDescent="0.15">
       <c r="D30" s="15" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="31" spans="3:9" ht="14.25" thickBot="1"/>
-    <row r="32" spans="3:9">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="31" spans="3:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="32" spans="3:9" x14ac:dyDescent="0.15">
       <c r="D32" s="40" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="E32" s="41"/>
       <c r="F32" s="41"/>
@@ -7785,9 +7841,9 @@
       <c r="H32" s="41"/>
       <c r="I32" s="42"/>
     </row>
-    <row r="33" spans="4:9" ht="14.25" thickBot="1">
+    <row r="33" spans="4:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="D33" s="43" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="E33" s="44"/>
       <c r="F33" s="44"/>
@@ -7816,7 +7872,7 @@
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="4.375" style="1" customWidth="1"/>
     <col min="2" max="2" width="3.5" style="1" customWidth="1"/>
@@ -7824,14 +7880,14 @@
     <col min="4" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3">
+    <row r="2" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B2" s="1" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="3" spans="2:3">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.15">
       <c r="C3" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
   </sheetData>

--- a/マニュアル.xlsx
+++ b/マニュアル.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="105" windowWidth="28035" windowHeight="12540" activeTab="6"/>
+    <workbookView xWindow="360" yWindow="105" windowWidth="28035" windowHeight="12540" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="タイトル" sheetId="3" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="付録" sheetId="9" r:id="rId9"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">命令一覧!$D$5:$E$85</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">命令一覧!$D$5:$F$85</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">タイトル!$A$1:$J$23</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="669" uniqueCount="323">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="831" uniqueCount="330">
   <si>
     <t>１．はじめに</t>
     <phoneticPr fontId="2"/>
@@ -2922,12 +2922,53 @@
     <t>　　　　・gcc.exe (GCC) 4.7.2</t>
     <phoneticPr fontId="2"/>
   </si>
+  <si>
+    <t>(未対応)</t>
+    <rPh sb="1" eb="4">
+      <t>ミタイオウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>mov</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>テストプログラム
+(テストフォルダ名)</t>
+    <rPh sb="17" eb="18">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>テスト担当者</t>
+    <rPh sb="3" eb="6">
+      <t>タントウシャ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>森</t>
+    <rPh sb="0" eb="1">
+      <t>モリ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3178,7 +3219,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3193,18 +3234,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -3316,6 +3345,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4756,61 +4788,61 @@
       <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="6" style="15" customWidth="1"/>
-    <col min="2" max="2" width="15.75" style="15" customWidth="1"/>
-    <col min="3" max="8" width="9" style="15"/>
-    <col min="9" max="9" width="24" style="15" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="15"/>
+    <col min="1" max="1" width="6" style="11" customWidth="1"/>
+    <col min="2" max="2" width="15.75" style="11" customWidth="1"/>
+    <col min="3" max="8" width="9" style="11"/>
+    <col min="9" max="9" width="24" style="11" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="11"/>
   </cols>
   <sheetData>
-    <row r="6" spans="2:9" ht="42" x14ac:dyDescent="0.15">
-      <c r="B6" s="30" t="s">
+    <row r="6" spans="2:9" ht="42">
+      <c r="B6" s="26" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B11" s="18" t="s">
+    <row r="11" spans="2:9">
+      <c r="B11" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="C11" s="31" t="s">
+      <c r="C11" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="D11" s="31"/>
-      <c r="E11" s="31"/>
-      <c r="F11" s="31"/>
-      <c r="G11" s="31"/>
-      <c r="H11" s="31"/>
-      <c r="I11" s="31"/>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B12" s="12" t="s">
+      <c r="D11" s="27"/>
+      <c r="E11" s="27"/>
+      <c r="F11" s="27"/>
+      <c r="G11" s="27"/>
+      <c r="H11" s="27"/>
+      <c r="I11" s="27"/>
+    </row>
+    <row r="12" spans="2:9">
+      <c r="B12" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C12" s="33" t="s">
+      <c r="C12" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="D12" s="33"/>
-      <c r="E12" s="33"/>
-      <c r="F12" s="33"/>
-      <c r="G12" s="33"/>
-      <c r="H12" s="33"/>
-      <c r="I12" s="33"/>
-    </row>
-    <row r="13" spans="2:9" ht="76.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="12" t="s">
+      <c r="D12" s="29"/>
+      <c r="E12" s="29"/>
+      <c r="F12" s="29"/>
+      <c r="G12" s="29"/>
+      <c r="H12" s="29"/>
+      <c r="I12" s="29"/>
+    </row>
+    <row r="13" spans="2:9" ht="76.5" customHeight="1">
+      <c r="B13" s="8" t="s">
         <v>301</v>
       </c>
-      <c r="C13" s="32" t="s">
+      <c r="C13" s="28" t="s">
         <v>302</v>
       </c>
-      <c r="D13" s="33"/>
-      <c r="E13" s="33"/>
-      <c r="F13" s="33"/>
-      <c r="G13" s="33"/>
-      <c r="H13" s="33"/>
-      <c r="I13" s="33"/>
+      <c r="D13" s="29"/>
+      <c r="E13" s="29"/>
+      <c r="F13" s="29"/>
+      <c r="G13" s="29"/>
+      <c r="H13" s="29"/>
+      <c r="I13" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -4830,54 +4862,54 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="4.125" style="1" customWidth="1"/>
     <col min="2" max="2" width="18.75" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:2">
       <c r="B2" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:2">
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:2">
       <c r="B4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:2">
       <c r="B5" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:2">
       <c r="B6" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:2">
       <c r="B7" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:2">
       <c r="B8" s="1" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="9" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:2">
       <c r="B9" s="1" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="10" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:2">
       <c r="B10" s="1" t="s">
         <v>250</v>
       </c>
@@ -4894,19 +4926,19 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="4.625" style="1" customWidth="1"/>
     <col min="2" max="2" width="3.375" style="1" customWidth="1"/>
     <col min="3" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:3">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:3">
       <c r="C3" s="1" t="s">
         <v>7</v>
       </c>
@@ -4919,682 +4951,1170 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:E85"/>
+  <dimension ref="B2:G85"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="4.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="3.125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="3.625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="43.125" style="4" customWidth="1"/>
-    <col min="5" max="5" width="9" style="2"/>
-    <col min="6" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="4.5" style="11" customWidth="1"/>
+    <col min="2" max="2" width="3.125" style="11" customWidth="1"/>
+    <col min="3" max="3" width="3.625" style="11" customWidth="1"/>
+    <col min="4" max="4" width="43.125" style="12" customWidth="1"/>
+    <col min="5" max="5" width="9" style="13"/>
+    <col min="6" max="6" width="18.375" style="13" customWidth="1"/>
+    <col min="7" max="7" width="13.875" style="13" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="11"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B2" s="1" t="s">
+    <row r="2" spans="2:7">
+      <c r="B2" s="11" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="C3" s="1" t="s">
+    <row r="3" spans="2:7">
+      <c r="C3" s="11" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="2:5" ht="27" x14ac:dyDescent="0.15">
-      <c r="D5" s="5" t="s">
+    <row r="5" spans="2:7" ht="27">
+      <c r="D5" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="5" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="D6" s="6" t="s">
+      <c r="F5" s="5" t="s">
+        <v>327</v>
+      </c>
+      <c r="G5" s="42" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7">
+      <c r="D6" s="16" t="s">
         <v>137</v>
       </c>
-      <c r="E6" s="8" t="s">
+      <c r="E6" s="7" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="D7" s="6" t="s">
+      <c r="F6" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7">
+      <c r="D7" s="16" t="s">
         <v>138</v>
       </c>
-      <c r="E7" s="8" t="s">
+      <c r="E7" s="7" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="D8" s="6" t="s">
+      <c r="F7" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7">
+      <c r="D8" s="16" t="s">
         <v>139</v>
       </c>
-      <c r="E8" s="8" t="s">
+      <c r="E8" s="7" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="D9" s="6" t="s">
+      <c r="F8" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7">
+      <c r="D9" s="16" t="s">
         <v>140</v>
       </c>
-      <c r="E9" s="8" t="s">
+      <c r="E9" s="7" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="D10" s="6" t="s">
+      <c r="F9" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7">
+      <c r="D10" s="16" t="s">
         <v>141</v>
       </c>
-      <c r="E10" s="8" t="s">
+      <c r="E10" s="7" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="D11" s="6" t="s">
+      <c r="F10" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7">
+      <c r="D11" s="16" t="s">
         <v>142</v>
       </c>
-      <c r="E11" s="8" t="s">
+      <c r="E11" s="7" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="D12" s="6" t="s">
+      <c r="F11" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7">
+      <c r="D12" s="16" t="s">
         <v>143</v>
       </c>
-      <c r="E12" s="8" t="s">
+      <c r="E12" s="7" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="D13" s="6" t="s">
+      <c r="F12" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7">
+      <c r="D13" s="16" t="s">
         <v>144</v>
       </c>
-      <c r="E13" s="8" t="s">
+      <c r="E13" s="7" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="D14" s="6" t="s">
+      <c r="F13" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7">
+      <c r="D14" s="16" t="s">
         <v>145</v>
       </c>
-      <c r="E14" s="8" t="s">
+      <c r="E14" s="7" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="D15" s="6" t="s">
+      <c r="F14" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7">
+      <c r="D15" s="16" t="s">
         <v>146</v>
       </c>
-      <c r="E15" s="8" t="s">
+      <c r="E15" s="7" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="D16" s="6" t="s">
+      <c r="F15" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7">
+      <c r="D16" s="16" t="s">
         <v>147</v>
       </c>
-      <c r="E16" s="8" t="s">
+      <c r="E16" s="7" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="17" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="D17" s="6" t="s">
+      <c r="F16" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="17" spans="4:7">
+      <c r="D17" s="16" t="s">
         <v>148</v>
       </c>
-      <c r="E17" s="8" t="s">
+      <c r="E17" s="7" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="D18" s="6" t="s">
+      <c r="F17" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="18" spans="4:7">
+      <c r="D18" s="16" t="s">
         <v>149</v>
       </c>
-      <c r="E18" s="8" t="s">
+      <c r="E18" s="7" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="D19" s="6" t="s">
+      <c r="F18" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="19" spans="4:7">
+      <c r="D19" s="16" t="s">
         <v>150</v>
       </c>
-      <c r="E19" s="8" t="s">
+      <c r="E19" s="7" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="20" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="D20" s="6" t="s">
+      <c r="F19" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="20" spans="4:7">
+      <c r="D20" s="16" t="s">
         <v>151</v>
       </c>
-      <c r="E20" s="8" t="s">
+      <c r="E20" s="7" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="21" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="D21" s="6" t="s">
+      <c r="F20" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="21" spans="4:7">
+      <c r="D21" s="16" t="s">
         <v>152</v>
       </c>
-      <c r="E21" s="8" t="s">
+      <c r="E21" s="7" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="22" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="D22" s="6" t="s">
+      <c r="F21" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="22" spans="4:7">
+      <c r="D22" s="16" t="s">
         <v>153</v>
       </c>
-      <c r="E22" s="8" t="s">
+      <c r="E22" s="7" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="23" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="D23" s="6" t="s">
+      <c r="F22" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="23" spans="4:7">
+      <c r="D23" s="16" t="s">
         <v>154</v>
       </c>
-      <c r="E23" s="8" t="s">
+      <c r="E23" s="7" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="24" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="D24" s="6" t="s">
+      <c r="F23" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="24" spans="4:7">
+      <c r="D24" s="16" t="s">
         <v>155</v>
       </c>
-      <c r="E24" s="8" t="s">
+      <c r="E24" s="7" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="25" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="D25" s="6" t="s">
+      <c r="F24" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="25" spans="4:7">
+      <c r="D25" s="16" t="s">
         <v>156</v>
       </c>
-      <c r="E25" s="8" t="s">
+      <c r="E25" s="7" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="26" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="D26" s="6" t="s">
+      <c r="F25" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="26" spans="4:7">
+      <c r="D26" s="16" t="s">
         <v>157</v>
       </c>
-      <c r="E26" s="8" t="s">
+      <c r="E26" s="7" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="27" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="D27" s="6" t="s">
+      <c r="F26" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="27" spans="4:7">
+      <c r="D27" s="16" t="s">
         <v>158</v>
       </c>
-      <c r="E27" s="8" t="s">
+      <c r="E27" s="7" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="28" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="D28" s="6" t="s">
+      <c r="F27" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="28" spans="4:7">
+      <c r="D28" s="16" t="s">
         <v>159</v>
       </c>
-      <c r="E28" s="8" t="s">
+      <c r="E28" s="7" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="29" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="D29" s="6" t="s">
+      <c r="F28" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="29" spans="4:7">
+      <c r="D29" s="16" t="s">
         <v>160</v>
       </c>
-      <c r="E29" s="8" t="s">
+      <c r="E29" s="7" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="30" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="D30" s="6" t="s">
+      <c r="F29" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="30" spans="4:7">
+      <c r="D30" s="16" t="s">
         <v>161</v>
       </c>
-      <c r="E30" s="8" t="s">
+      <c r="E30" s="7" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="31" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="D31" s="6" t="s">
+      <c r="F30" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="31" spans="4:7">
+      <c r="D31" s="16" t="s">
         <v>162</v>
       </c>
-      <c r="E31" s="8" t="s">
+      <c r="E31" s="7" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="32" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="D32" s="6" t="s">
+      <c r="F31" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="32" spans="4:7">
+      <c r="D32" s="16" t="s">
         <v>163</v>
       </c>
-      <c r="E32" s="8" t="s">
+      <c r="E32" s="7" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="33" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="D33" s="6" t="s">
+      <c r="F32" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="33" spans="4:7">
+      <c r="D33" s="16" t="s">
         <v>164</v>
       </c>
-      <c r="E33" s="8" t="s">
+      <c r="E33" s="7" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="34" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="D34" s="6" t="s">
+      <c r="F33" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="34" spans="4:7">
+      <c r="D34" s="16" t="s">
         <v>165</v>
       </c>
-      <c r="E34" s="8" t="s">
+      <c r="E34" s="7" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="35" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="D35" s="6" t="s">
+      <c r="F34" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="35" spans="4:7">
+      <c r="D35" s="16" t="s">
         <v>166</v>
       </c>
-      <c r="E35" s="8" t="s">
+      <c r="E35" s="7" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="36" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="D36" s="6" t="s">
+      <c r="F35" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="36" spans="4:7">
+      <c r="D36" s="16" t="s">
         <v>167</v>
       </c>
-      <c r="E36" s="8" t="s">
+      <c r="E36" s="7" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="37" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="D37" s="6" t="s">
+      <c r="F36" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="G36" s="7" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="37" spans="4:7">
+      <c r="D37" s="16" t="s">
         <v>168</v>
       </c>
-      <c r="E37" s="8" t="s">
+      <c r="E37" s="7" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="38" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="D38" s="6" t="s">
+      <c r="F37" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="G37" s="7" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="38" spans="4:7">
+      <c r="D38" s="16" t="s">
         <v>169</v>
       </c>
-      <c r="E38" s="8" t="s">
+      <c r="E38" s="7" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="39" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="D39" s="6" t="s">
+      <c r="F38" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="G38" s="7" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="39" spans="4:7">
+      <c r="D39" s="16" t="s">
         <v>170</v>
       </c>
-      <c r="E39" s="8" t="s">
+      <c r="E39" s="7" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="40" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="D40" s="6" t="s">
+      <c r="F39" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="G39" s="7" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="40" spans="4:7">
+      <c r="D40" s="16" t="s">
         <v>171</v>
       </c>
-      <c r="E40" s="8" t="s">
+      <c r="E40" s="7" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="41" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="D41" s="6" t="s">
+      <c r="F40" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="G40" s="7" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="41" spans="4:7">
+      <c r="D41" s="16" t="s">
         <v>172</v>
       </c>
-      <c r="E41" s="8" t="s">
+      <c r="E41" s="7" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="42" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="D42" s="6" t="s">
+      <c r="F41" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="G41" s="7" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="42" spans="4:7">
+      <c r="D42" s="16" t="s">
         <v>305</v>
       </c>
-      <c r="E42" s="8" t="s">
+      <c r="E42" s="7" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="43" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="D43" s="6" t="s">
+      <c r="F42" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="G42" s="7" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="43" spans="4:7">
+      <c r="D43" s="16" t="s">
         <v>173</v>
       </c>
-      <c r="E43" s="8" t="s">
+      <c r="E43" s="7" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="44" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="D44" s="6" t="s">
+      <c r="F43" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="G43" s="7" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="44" spans="4:7">
+      <c r="D44" s="16" t="s">
         <v>174</v>
       </c>
-      <c r="E44" s="8" t="s">
+      <c r="E44" s="7" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="45" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="D45" s="6" t="s">
+      <c r="F44" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="G44" s="7" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="45" spans="4:7">
+      <c r="D45" s="16" t="s">
         <v>175</v>
       </c>
-      <c r="E45" s="8" t="s">
+      <c r="E45" s="7" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="46" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="D46" s="6" t="s">
+      <c r="F45" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="G45" s="7" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="46" spans="4:7">
+      <c r="D46" s="16" t="s">
         <v>176</v>
       </c>
-      <c r="E46" s="8" t="s">
+      <c r="E46" s="7" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="47" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="D47" s="6" t="s">
+      <c r="F46" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="G46" s="7" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="47" spans="4:7">
+      <c r="D47" s="16" t="s">
         <v>177</v>
       </c>
-      <c r="E47" s="8" t="s">
+      <c r="E47" s="7" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="48" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="D48" s="6" t="s">
+      <c r="F47" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="G47" s="7" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="48" spans="4:7">
+      <c r="D48" s="16" t="s">
         <v>178</v>
       </c>
-      <c r="E48" s="8" t="s">
+      <c r="E48" s="7" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="49" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="D49" s="6" t="s">
+      <c r="F48" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="G48" s="7" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="49" spans="4:7">
+      <c r="D49" s="16" t="s">
         <v>179</v>
       </c>
-      <c r="E49" s="8" t="s">
+      <c r="E49" s="7" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="50" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="D50" s="6" t="s">
+      <c r="F49" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="G49" s="7" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="50" spans="4:7">
+      <c r="D50" s="16" t="s">
         <v>180</v>
       </c>
-      <c r="E50" s="8" t="s">
+      <c r="E50" s="7" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="51" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="D51" s="6" t="s">
+      <c r="F50" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="G50" s="7" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="51" spans="4:7">
+      <c r="D51" s="16" t="s">
         <v>181</v>
       </c>
-      <c r="E51" s="8" t="s">
+      <c r="E51" s="7" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="52" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="D52" s="6" t="s">
+      <c r="F51" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="G51" s="7" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="52" spans="4:7">
+      <c r="D52" s="16" t="s">
         <v>182</v>
       </c>
-      <c r="E52" s="8" t="s">
+      <c r="E52" s="7" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="53" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="D53" s="6" t="s">
+      <c r="F52" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="G52" s="7" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="53" spans="4:7">
+      <c r="D53" s="16" t="s">
         <v>183</v>
       </c>
-      <c r="E53" s="8" t="s">
+      <c r="E53" s="7" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="54" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="D54" s="6" t="s">
+      <c r="F53" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="G53" s="7" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="54" spans="4:7">
+      <c r="D54" s="16" t="s">
         <v>184</v>
       </c>
-      <c r="E54" s="8" t="s">
+      <c r="E54" s="7" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="55" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="D55" s="6" t="s">
+      <c r="F54" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="G54" s="7" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="55" spans="4:7">
+      <c r="D55" s="16" t="s">
         <v>185</v>
       </c>
-      <c r="E55" s="8" t="s">
+      <c r="E55" s="7" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="56" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="D56" s="6" t="s">
+      <c r="F55" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="G55" s="7" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="56" spans="4:7">
+      <c r="D56" s="16" t="s">
         <v>186</v>
       </c>
-      <c r="E56" s="8" t="s">
+      <c r="E56" s="7" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="57" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="D57" s="6" t="s">
+      <c r="F56" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="G56" s="7" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="57" spans="4:7">
+      <c r="D57" s="16" t="s">
         <v>187</v>
       </c>
-      <c r="E57" s="8" t="s">
+      <c r="E57" s="7" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="58" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="D58" s="6" t="s">
+      <c r="F57" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="G57" s="7" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="58" spans="4:7">
+      <c r="D58" s="16" t="s">
         <v>188</v>
       </c>
-      <c r="E58" s="8" t="s">
+      <c r="E58" s="7" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="59" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="D59" s="6" t="s">
+      <c r="F58" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="G58" s="7" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="59" spans="4:7">
+      <c r="D59" s="16" t="s">
         <v>189</v>
       </c>
-      <c r="E59" s="8" t="s">
+      <c r="E59" s="7" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="60" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="D60" s="6" t="s">
+      <c r="F59" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="G59" s="7" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="60" spans="4:7">
+      <c r="D60" s="16" t="s">
         <v>190</v>
       </c>
-      <c r="E60" s="8" t="s">
+      <c r="E60" s="7" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="61" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="D61" s="6" t="s">
+      <c r="F60" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="G60" s="7" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="61" spans="4:7">
+      <c r="D61" s="16" t="s">
         <v>191</v>
       </c>
-      <c r="E61" s="8" t="s">
+      <c r="E61" s="7" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="62" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="D62" s="6" t="s">
+      <c r="F61" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="G61" s="7" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="62" spans="4:7">
+      <c r="D62" s="16" t="s">
         <v>192</v>
       </c>
-      <c r="E62" s="8" t="s">
+      <c r="E62" s="7" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="63" spans="4:5" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="D63" s="6" t="s">
+      <c r="F62" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="G62" s="7" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="63" spans="4:7" ht="40.5">
+      <c r="D63" s="16" t="s">
         <v>193</v>
       </c>
-      <c r="E63" s="8" t="s">
+      <c r="E63" s="7" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="64" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="D64" s="6" t="s">
+      <c r="F63" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="G63" s="7" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="64" spans="4:7">
+      <c r="D64" s="16" t="s">
         <v>194</v>
       </c>
-      <c r="E64" s="8" t="s">
+      <c r="E64" s="7" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="65" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="D65" s="6" t="s">
+      <c r="F64" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="G64" s="7" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="65" spans="4:7">
+      <c r="D65" s="16" t="s">
         <v>195</v>
       </c>
-      <c r="E65" s="8" t="s">
+      <c r="E65" s="7" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="66" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="D66" s="6" t="s">
+      <c r="F65" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="G65" s="7" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="66" spans="4:7">
+      <c r="D66" s="16" t="s">
         <v>196</v>
       </c>
-      <c r="E66" s="8" t="s">
+      <c r="E66" s="7" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="67" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="D67" s="6" t="s">
+      <c r="F66" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="G66" s="7" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="67" spans="4:7">
+      <c r="D67" s="16" t="s">
         <v>197</v>
       </c>
-      <c r="E67" s="8" t="s">
+      <c r="E67" s="7" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="68" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="D68" s="6" t="s">
+      <c r="F67" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="G67" s="7" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="68" spans="4:7">
+      <c r="D68" s="16" t="s">
         <v>198</v>
       </c>
-      <c r="E68" s="8" t="s">
+      <c r="E68" s="7" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="69" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="D69" s="6" t="s">
+      <c r="F68" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="G68" s="7" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="69" spans="4:7">
+      <c r="D69" s="16" t="s">
         <v>199</v>
       </c>
-      <c r="E69" s="8" t="s">
+      <c r="E69" s="7" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="70" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="D70" s="6" t="s">
+      <c r="F69" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="G69" s="7" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="70" spans="4:7">
+      <c r="D70" s="16" t="s">
         <v>200</v>
       </c>
-      <c r="E70" s="8" t="s">
+      <c r="E70" s="7" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="71" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="D71" s="6" t="s">
+      <c r="F70" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="G70" s="7" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="71" spans="4:7">
+      <c r="D71" s="16" t="s">
         <v>201</v>
       </c>
-      <c r="E71" s="8" t="s">
+      <c r="E71" s="7" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="72" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="D72" s="6" t="s">
+      <c r="F71" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="G71" s="7" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="72" spans="4:7">
+      <c r="D72" s="16" t="s">
         <v>202</v>
       </c>
-      <c r="E72" s="8" t="s">
+      <c r="E72" s="7" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="73" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="D73" s="6" t="s">
+      <c r="F72" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="G72" s="7" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="73" spans="4:7">
+      <c r="D73" s="16" t="s">
         <v>203</v>
       </c>
-      <c r="E73" s="8" t="s">
+      <c r="E73" s="7" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="74" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="D74" s="6" t="s">
+      <c r="F73" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="G73" s="7" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="74" spans="4:7">
+      <c r="D74" s="16" t="s">
         <v>204</v>
       </c>
-      <c r="E74" s="8" t="s">
+      <c r="E74" s="7" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="75" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="D75" s="6" t="s">
+      <c r="F74" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="G74" s="7" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="75" spans="4:7">
+      <c r="D75" s="16" t="s">
         <v>205</v>
       </c>
-      <c r="E75" s="8" t="s">
+      <c r="E75" s="7" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="76" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="D76" s="6" t="s">
+      <c r="F75" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="G75" s="7" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="76" spans="4:7">
+      <c r="D76" s="16" t="s">
         <v>206</v>
       </c>
-      <c r="E76" s="8" t="s">
+      <c r="E76" s="7" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="77" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="D77" s="6" t="s">
+      <c r="F76" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="G76" s="7" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="77" spans="4:7">
+      <c r="D77" s="16" t="s">
         <v>207</v>
       </c>
-      <c r="E77" s="8" t="s">
+      <c r="E77" s="7" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="78" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="D78" s="6" t="s">
+      <c r="F77" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="G77" s="7" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="78" spans="4:7">
+      <c r="D78" s="16" t="s">
         <v>208</v>
       </c>
-      <c r="E78" s="8" t="s">
+      <c r="E78" s="7" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="79" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="D79" s="6" t="s">
+      <c r="F78" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="G78" s="7" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="79" spans="4:7">
+      <c r="D79" s="16" t="s">
         <v>209</v>
       </c>
-      <c r="E79" s="8" t="s">
+      <c r="E79" s="7" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="80" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="D80" s="6" t="s">
+      <c r="F79" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="G79" s="7" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="80" spans="4:7">
+      <c r="D80" s="16" t="s">
         <v>210</v>
       </c>
-      <c r="E80" s="8" t="s">
+      <c r="E80" s="7" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="81" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="D81" s="6" t="s">
+      <c r="F80" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="G80" s="7" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="81" spans="4:7">
+      <c r="D81" s="16" t="s">
         <v>211</v>
       </c>
-      <c r="E81" s="8" t="s">
+      <c r="E81" s="7" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="82" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="D82" s="6" t="s">
+      <c r="F81" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="G81" s="7" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="82" spans="4:7">
+      <c r="D82" s="16" t="s">
         <v>212</v>
       </c>
-      <c r="E82" s="8" t="s">
+      <c r="E82" s="7" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="83" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="D83" s="6" t="s">
+      <c r="F82" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="G82" s="7" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="83" spans="4:7">
+      <c r="D83" s="16" t="s">
         <v>213</v>
       </c>
-      <c r="E83" s="8" t="s">
+      <c r="E83" s="7" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="84" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="D84" s="6" t="s">
+      <c r="F83" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="G83" s="7" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="84" spans="4:7">
+      <c r="D84" s="16" t="s">
         <v>214</v>
       </c>
-      <c r="E84" s="8" t="s">
+      <c r="E84" s="7" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="85" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="D85" s="6" t="s">
+      <c r="F84" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="G84" s="7" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="85" spans="4:7">
+      <c r="D85" s="16" t="s">
         <v>215</v>
       </c>
-      <c r="E85" s="8" t="s">
+      <c r="E85" s="7" t="s">
         <v>17</v>
       </c>
+      <c r="F85" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="G85" s="7" t="s">
+        <v>324</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="D5:E85"/>
+  <autoFilter ref="D5:F85"/>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5606,7 +6126,7 @@
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="3" width="3.375" style="1" customWidth="1"/>
     <col min="4" max="4" width="8" style="1" customWidth="1"/>
@@ -5617,1530 +6137,1530 @@
     <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:8">
       <c r="B2" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="2"/>
     </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:8">
       <c r="C3" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="2"/>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:8">
       <c r="D4" s="4"/>
       <c r="E4" s="2"/>
     </row>
-    <row r="5" spans="2:8" ht="27" x14ac:dyDescent="0.15">
-      <c r="D5" s="34" t="s">
+    <row r="5" spans="2:8" ht="27">
+      <c r="D5" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="35"/>
-      <c r="F5" s="36"/>
-      <c r="G5" s="9" t="s">
+      <c r="E5" s="31"/>
+      <c r="F5" s="32"/>
+      <c r="G5" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="H5" s="10" t="s">
+      <c r="H5" s="6" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="D6" s="11">
+    <row r="6" spans="2:8">
+      <c r="D6" s="7">
         <v>1</v>
       </c>
-      <c r="E6" s="12" t="s">
+      <c r="E6" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="F6" s="12" t="s">
+      <c r="F6" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="G6" s="11" t="s">
+      <c r="G6" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="H6" s="13" t="s">
+      <c r="H6" s="9" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="D7" s="11">
+    <row r="7" spans="2:8">
+      <c r="D7" s="7">
         <v>2</v>
       </c>
-      <c r="E7" s="12" t="s">
+      <c r="E7" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="F7" s="12" t="s">
+      <c r="F7" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="G7" s="11" t="s">
+      <c r="G7" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="H7" s="13" t="s">
+      <c r="H7" s="9" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="D8" s="11">
+    <row r="8" spans="2:8">
+      <c r="D8" s="7">
         <v>2</v>
       </c>
-      <c r="E8" s="12" t="s">
+      <c r="E8" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="F8" s="12" t="s">
+      <c r="F8" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="G8" s="11" t="s">
+      <c r="G8" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="H8" s="13" t="s">
+      <c r="H8" s="9" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="D9" s="11">
+    <row r="9" spans="2:8">
+      <c r="D9" s="7">
         <v>2</v>
       </c>
-      <c r="E9" s="12" t="s">
+      <c r="E9" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="F9" s="12" t="s">
+      <c r="F9" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="G9" s="11" t="s">
+      <c r="G9" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="H9" s="13" t="s">
+      <c r="H9" s="9" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="D10" s="11">
+    <row r="10" spans="2:8">
+      <c r="D10" s="7">
         <v>2</v>
       </c>
-      <c r="E10" s="12" t="s">
+      <c r="E10" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="F10" s="12" t="s">
+      <c r="F10" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="G10" s="11" t="s">
+      <c r="G10" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="H10" s="13" t="s">
+      <c r="H10" s="9" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="D11" s="11">
+    <row r="11" spans="2:8">
+      <c r="D11" s="7">
         <v>3</v>
       </c>
-      <c r="E11" s="12" t="s">
+      <c r="E11" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="F11" s="12" t="s">
+      <c r="F11" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="G11" s="11" t="s">
+      <c r="G11" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="H11" s="13" t="s">
+      <c r="H11" s="9" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="D12" s="11">
+    <row r="12" spans="2:8">
+      <c r="D12" s="7">
         <v>3</v>
       </c>
-      <c r="E12" s="12" t="s">
+      <c r="E12" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="F12" s="12" t="s">
+      <c r="F12" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="G12" s="11" t="s">
+      <c r="G12" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="H12" s="13" t="s">
+      <c r="H12" s="9" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="D13" s="11">
+    <row r="13" spans="2:8">
+      <c r="D13" s="7">
         <v>3</v>
       </c>
-      <c r="E13" s="12" t="s">
+      <c r="E13" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="F13" s="12" t="s">
+      <c r="F13" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="G13" s="11" t="s">
+      <c r="G13" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="H13" s="13" t="s">
+      <c r="H13" s="9" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="D14" s="11">
+    <row r="14" spans="2:8">
+      <c r="D14" s="7">
         <v>3</v>
       </c>
-      <c r="E14" s="12" t="s">
+      <c r="E14" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="F14" s="12" t="s">
+      <c r="F14" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="G14" s="11" t="s">
+      <c r="G14" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="H14" s="13" t="s">
+      <c r="H14" s="9" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="D15" s="11">
+    <row r="15" spans="2:8">
+      <c r="D15" s="7">
         <v>4</v>
       </c>
-      <c r="E15" s="12" t="s">
+      <c r="E15" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="F15" s="12" t="s">
+      <c r="F15" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="G15" s="11" t="s">
+      <c r="G15" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="H15" s="13" t="s">
+      <c r="H15" s="9" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="D16" s="11">
+    <row r="16" spans="2:8">
+      <c r="D16" s="7">
         <v>4</v>
       </c>
-      <c r="E16" s="12" t="s">
+      <c r="E16" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="F16" s="12" t="s">
+      <c r="F16" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="G16" s="11" t="s">
+      <c r="G16" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="H16" s="13" t="s">
+      <c r="H16" s="9" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="17" spans="4:8" x14ac:dyDescent="0.15">
-      <c r="D17" s="11">
+    <row r="17" spans="4:8">
+      <c r="D17" s="7">
         <v>4</v>
       </c>
-      <c r="E17" s="12" t="s">
+      <c r="E17" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="F17" s="12" t="s">
+      <c r="F17" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="G17" s="11" t="s">
+      <c r="G17" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="H17" s="13" t="s">
+      <c r="H17" s="9" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="4:8" x14ac:dyDescent="0.15">
-      <c r="D18" s="11">
+    <row r="18" spans="4:8">
+      <c r="D18" s="7">
         <v>5</v>
       </c>
-      <c r="E18" s="12" t="s">
+      <c r="E18" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="F18" s="12" t="s">
+      <c r="F18" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="G18" s="11" t="s">
+      <c r="G18" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="H18" s="13" t="s">
+      <c r="H18" s="9" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="4:8" x14ac:dyDescent="0.15">
-      <c r="D19" s="11">
+    <row r="19" spans="4:8">
+      <c r="D19" s="7">
         <v>5</v>
       </c>
-      <c r="E19" s="12" t="s">
+      <c r="E19" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="F19" s="12" t="s">
+      <c r="F19" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="G19" s="11" t="s">
+      <c r="G19" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="H19" s="13" t="s">
+      <c r="H19" s="9" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="4:8" x14ac:dyDescent="0.15">
-      <c r="D20" s="11">
+    <row r="20" spans="4:8">
+      <c r="D20" s="7">
         <v>5</v>
       </c>
-      <c r="E20" s="12" t="s">
+      <c r="E20" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="F20" s="12" t="s">
+      <c r="F20" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="G20" s="11" t="s">
+      <c r="G20" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="H20" s="13" t="s">
+      <c r="H20" s="9" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="4:8" x14ac:dyDescent="0.15">
-      <c r="D21" s="11">
+    <row r="21" spans="4:8">
+      <c r="D21" s="7">
         <v>5</v>
       </c>
-      <c r="E21" s="12" t="s">
+      <c r="E21" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="F21" s="12" t="s">
+      <c r="F21" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="G21" s="11" t="s">
+      <c r="G21" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="H21" s="13" t="s">
+      <c r="H21" s="9" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="4:8" x14ac:dyDescent="0.15">
-      <c r="D22" s="11">
+    <row r="22" spans="4:8">
+      <c r="D22" s="7">
         <v>5</v>
       </c>
-      <c r="E22" s="12" t="s">
+      <c r="E22" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="F22" s="12" t="s">
+      <c r="F22" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="G22" s="11" t="s">
+      <c r="G22" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="H22" s="13" t="s">
+      <c r="H22" s="9" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="4:8" x14ac:dyDescent="0.15">
-      <c r="D23" s="11">
+    <row r="23" spans="4:8">
+      <c r="D23" s="7">
         <v>5</v>
       </c>
-      <c r="E23" s="12" t="s">
+      <c r="E23" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="F23" s="12" t="s">
+      <c r="F23" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="G23" s="11" t="s">
+      <c r="G23" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="H23" s="13" t="s">
+      <c r="H23" s="9" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="4:8" x14ac:dyDescent="0.15">
-      <c r="D24" s="11">
+    <row r="24" spans="4:8">
+      <c r="D24" s="7">
         <v>5</v>
       </c>
-      <c r="E24" s="12" t="s">
+      <c r="E24" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="F24" s="12" t="s">
+      <c r="F24" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="G24" s="11" t="s">
+      <c r="G24" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="H24" s="13" t="s">
+      <c r="H24" s="9" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="25" spans="4:8" x14ac:dyDescent="0.15">
-      <c r="D25" s="11">
+    <row r="25" spans="4:8">
+      <c r="D25" s="7">
         <v>6</v>
       </c>
-      <c r="E25" s="12" t="s">
+      <c r="E25" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="F25" s="12" t="s">
+      <c r="F25" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="G25" s="11" t="s">
+      <c r="G25" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="H25" s="13" t="s">
+      <c r="H25" s="9" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="26" spans="4:8" x14ac:dyDescent="0.15">
-      <c r="D26" s="11">
+    <row r="26" spans="4:8">
+      <c r="D26" s="7">
         <v>7</v>
       </c>
-      <c r="E26" s="12" t="s">
+      <c r="E26" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="F26" s="12" t="s">
+      <c r="F26" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="G26" s="11" t="s">
+      <c r="G26" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="H26" s="13" t="s">
+      <c r="H26" s="9" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="27" spans="4:8" x14ac:dyDescent="0.15">
-      <c r="D27" s="11">
+    <row r="27" spans="4:8">
+      <c r="D27" s="7">
         <v>8</v>
       </c>
-      <c r="E27" s="12" t="s">
+      <c r="E27" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="F27" s="12" t="s">
+      <c r="F27" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="G27" s="11" t="s">
+      <c r="G27" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="H27" s="13" t="s">
+      <c r="H27" s="9" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="28" spans="4:8" x14ac:dyDescent="0.15">
-      <c r="D28" s="11">
+    <row r="28" spans="4:8">
+      <c r="D28" s="7">
         <v>9</v>
       </c>
-      <c r="E28" s="12" t="s">
+      <c r="E28" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="F28" s="12" t="s">
+      <c r="F28" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="G28" s="11" t="s">
+      <c r="G28" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="H28" s="13" t="s">
+      <c r="H28" s="9" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="29" spans="4:8" x14ac:dyDescent="0.15">
-      <c r="D29" s="11">
+    <row r="29" spans="4:8">
+      <c r="D29" s="7">
         <v>10</v>
       </c>
-      <c r="E29" s="12" t="s">
+      <c r="E29" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="F29" s="12" t="s">
+      <c r="F29" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="G29" s="11" t="s">
+      <c r="G29" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="H29" s="13" t="s">
+      <c r="H29" s="9" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="30" spans="4:8" x14ac:dyDescent="0.15">
-      <c r="D30" s="11">
+    <row r="30" spans="4:8">
+      <c r="D30" s="7">
         <v>11</v>
       </c>
-      <c r="E30" s="12" t="s">
+      <c r="E30" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="F30" s="12" t="s">
+      <c r="F30" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="G30" s="11" t="s">
+      <c r="G30" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="H30" s="13" t="s">
+      <c r="H30" s="9" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="31" spans="4:8" x14ac:dyDescent="0.15">
-      <c r="D31" s="11">
+    <row r="31" spans="4:8">
+      <c r="D31" s="7">
         <v>12</v>
       </c>
-      <c r="E31" s="12" t="s">
+      <c r="E31" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="F31" s="12" t="s">
+      <c r="F31" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="G31" s="11" t="s">
+      <c r="G31" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="H31" s="14" t="s">
+      <c r="H31" s="10" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="32" spans="4:8" x14ac:dyDescent="0.15">
-      <c r="D32" s="11">
+    <row r="32" spans="4:8">
+      <c r="D32" s="7">
         <v>12</v>
       </c>
-      <c r="E32" s="12" t="s">
+      <c r="E32" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="F32" s="12" t="s">
+      <c r="F32" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="G32" s="11" t="s">
+      <c r="G32" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="H32" s="14" t="s">
+      <c r="H32" s="10" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="33" spans="4:8" x14ac:dyDescent="0.15">
-      <c r="D33" s="11">
+    <row r="33" spans="4:8">
+      <c r="D33" s="7">
         <v>12</v>
       </c>
-      <c r="E33" s="12" t="s">
+      <c r="E33" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="F33" s="12" t="s">
+      <c r="F33" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="G33" s="11" t="s">
+      <c r="G33" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="H33" s="13" t="s">
+      <c r="H33" s="9" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="34" spans="4:8" x14ac:dyDescent="0.15">
-      <c r="D34" s="11">
+    <row r="34" spans="4:8">
+      <c r="D34" s="7">
         <v>12</v>
       </c>
-      <c r="E34" s="12" t="s">
+      <c r="E34" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="F34" s="12" t="s">
+      <c r="F34" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="G34" s="11" t="s">
+      <c r="G34" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="H34" s="13" t="s">
+      <c r="H34" s="9" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="35" spans="4:8" x14ac:dyDescent="0.15">
-      <c r="D35" s="11">
+    <row r="35" spans="4:8">
+      <c r="D35" s="7">
         <v>12</v>
       </c>
-      <c r="E35" s="12" t="s">
+      <c r="E35" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="F35" s="12" t="s">
+      <c r="F35" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="G35" s="11" t="s">
+      <c r="G35" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="H35" s="13" t="s">
+      <c r="H35" s="9" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="36" spans="4:8" x14ac:dyDescent="0.15">
-      <c r="D36" s="11">
+    <row r="36" spans="4:8">
+      <c r="D36" s="7">
         <v>12</v>
       </c>
-      <c r="E36" s="12" t="s">
+      <c r="E36" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="F36" s="12" t="s">
+      <c r="F36" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="G36" s="11" t="s">
+      <c r="G36" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="H36" s="14" t="s">
+      <c r="H36" s="10" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="37" spans="4:8" x14ac:dyDescent="0.15">
-      <c r="D37" s="11">
+    <row r="37" spans="4:8">
+      <c r="D37" s="7">
         <v>12</v>
       </c>
-      <c r="E37" s="12" t="s">
+      <c r="E37" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="F37" s="12" t="s">
+      <c r="F37" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="G37" s="11" t="s">
+      <c r="G37" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="H37" s="13" t="s">
+      <c r="H37" s="9" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="38" spans="4:8" x14ac:dyDescent="0.15">
-      <c r="D38" s="11">
+    <row r="38" spans="4:8">
+      <c r="D38" s="7">
         <v>12</v>
       </c>
-      <c r="E38" s="12" t="s">
+      <c r="E38" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="F38" s="12" t="s">
+      <c r="F38" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="G38" s="11" t="s">
+      <c r="G38" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="H38" s="13" t="s">
+      <c r="H38" s="9" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="39" spans="4:8" x14ac:dyDescent="0.15">
-      <c r="D39" s="11">
+    <row r="39" spans="4:8">
+      <c r="D39" s="7">
         <v>12</v>
       </c>
-      <c r="E39" s="12" t="s">
+      <c r="E39" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="F39" s="12" t="s">
+      <c r="F39" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="G39" s="11" t="s">
+      <c r="G39" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="H39" s="13" t="s">
+      <c r="H39" s="9" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="40" spans="4:8" x14ac:dyDescent="0.15">
-      <c r="D40" s="11">
+    <row r="40" spans="4:8">
+      <c r="D40" s="7">
         <v>13</v>
       </c>
-      <c r="E40" s="12" t="s">
+      <c r="E40" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="F40" s="12" t="s">
+      <c r="F40" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="G40" s="11" t="s">
+      <c r="G40" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="H40" s="14" t="s">
+      <c r="H40" s="10" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="41" spans="4:8" x14ac:dyDescent="0.15">
-      <c r="D41" s="11">
+    <row r="41" spans="4:8">
+      <c r="D41" s="7">
         <v>13</v>
       </c>
-      <c r="E41" s="12" t="s">
+      <c r="E41" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="F41" s="12" t="s">
+      <c r="F41" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="G41" s="11" t="s">
+      <c r="G41" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="H41" s="14" t="s">
+      <c r="H41" s="10" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="42" spans="4:8" x14ac:dyDescent="0.15">
-      <c r="D42" s="11">
+    <row r="42" spans="4:8">
+      <c r="D42" s="7">
         <v>13</v>
       </c>
-      <c r="E42" s="12" t="s">
+      <c r="E42" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="F42" s="12" t="s">
+      <c r="F42" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="G42" s="11" t="s">
+      <c r="G42" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="H42" s="13" t="s">
+      <c r="H42" s="9" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="43" spans="4:8" x14ac:dyDescent="0.15">
-      <c r="D43" s="11">
+    <row r="43" spans="4:8">
+      <c r="D43" s="7">
         <v>13</v>
       </c>
-      <c r="E43" s="12" t="s">
+      <c r="E43" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="F43" s="12" t="s">
+      <c r="F43" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="G43" s="11" t="s">
+      <c r="G43" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="H43" s="13" t="s">
+      <c r="H43" s="9" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="44" spans="4:8" x14ac:dyDescent="0.15">
-      <c r="D44" s="11">
+    <row r="44" spans="4:8">
+      <c r="D44" s="7">
         <v>13</v>
       </c>
-      <c r="E44" s="12" t="s">
+      <c r="E44" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="F44" s="12" t="s">
+      <c r="F44" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="G44" s="11" t="s">
+      <c r="G44" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="H44" s="14" t="s">
+      <c r="H44" s="10" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="45" spans="4:8" x14ac:dyDescent="0.15">
-      <c r="D45" s="11">
+    <row r="45" spans="4:8">
+      <c r="D45" s="7">
         <v>13</v>
       </c>
-      <c r="E45" s="12" t="s">
+      <c r="E45" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="F45" s="12" t="s">
+      <c r="F45" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="G45" s="11" t="s">
+      <c r="G45" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="H45" s="13" t="s">
+      <c r="H45" s="9" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="46" spans="4:8" x14ac:dyDescent="0.15">
-      <c r="D46" s="11">
+    <row r="46" spans="4:8">
+      <c r="D46" s="7">
         <v>13</v>
       </c>
-      <c r="E46" s="12" t="s">
+      <c r="E46" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="F46" s="12" t="s">
+      <c r="F46" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="G46" s="11" t="s">
+      <c r="G46" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="H46" s="13" t="s">
+      <c r="H46" s="9" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="47" spans="4:8" x14ac:dyDescent="0.15">
-      <c r="D47" s="11">
+    <row r="47" spans="4:8">
+      <c r="D47" s="7">
         <v>13</v>
       </c>
-      <c r="E47" s="12" t="s">
+      <c r="E47" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="F47" s="12" t="s">
+      <c r="F47" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="G47" s="11" t="s">
+      <c r="G47" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="H47" s="13" t="s">
+      <c r="H47" s="9" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="48" spans="4:8" x14ac:dyDescent="0.15">
-      <c r="D48" s="11">
+    <row r="48" spans="4:8">
+      <c r="D48" s="7">
         <v>13</v>
       </c>
-      <c r="E48" s="12" t="s">
+      <c r="E48" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="F48" s="12" t="s">
+      <c r="F48" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="G48" s="11" t="s">
+      <c r="G48" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="H48" s="13" t="s">
+      <c r="H48" s="9" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="49" spans="4:8" x14ac:dyDescent="0.15">
-      <c r="D49" s="11">
+    <row r="49" spans="4:8">
+      <c r="D49" s="7">
         <v>14</v>
       </c>
-      <c r="E49" s="12" t="s">
+      <c r="E49" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="F49" s="12" t="s">
+      <c r="F49" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="G49" s="11" t="s">
+      <c r="G49" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="H49" s="14" t="s">
+      <c r="H49" s="10" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="50" spans="4:8" x14ac:dyDescent="0.15">
-      <c r="D50" s="11">
+    <row r="50" spans="4:8">
+      <c r="D50" s="7">
         <v>15</v>
       </c>
-      <c r="E50" s="12" t="s">
+      <c r="E50" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="F50" s="12" t="s">
+      <c r="F50" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="G50" s="11" t="s">
+      <c r="G50" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="H50" s="13" t="s">
+      <c r="H50" s="9" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="51" spans="4:8" x14ac:dyDescent="0.15">
-      <c r="D51" s="11">
+    <row r="51" spans="4:8">
+      <c r="D51" s="7">
         <v>16</v>
       </c>
-      <c r="E51" s="12" t="s">
+      <c r="E51" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="F51" s="12" t="s">
+      <c r="F51" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="G51" s="11" t="s">
+      <c r="G51" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="H51" s="13" t="s">
+      <c r="H51" s="9" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="52" spans="4:8" x14ac:dyDescent="0.15">
-      <c r="D52" s="11">
+    <row r="52" spans="4:8">
+      <c r="D52" s="7">
         <v>17</v>
       </c>
-      <c r="E52" s="12" t="s">
+      <c r="E52" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="F52" s="12" t="s">
+      <c r="F52" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="G52" s="11" t="s">
+      <c r="G52" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="H52" s="13" t="s">
+      <c r="H52" s="9" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="53" spans="4:8" x14ac:dyDescent="0.15">
-      <c r="D53" s="11">
+    <row r="53" spans="4:8">
+      <c r="D53" s="7">
         <v>18</v>
       </c>
-      <c r="E53" s="12" t="s">
+      <c r="E53" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="F53" s="12" t="s">
+      <c r="F53" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="G53" s="11" t="s">
+      <c r="G53" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="H53" s="13" t="s">
+      <c r="H53" s="9" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="54" spans="4:8" x14ac:dyDescent="0.15">
-      <c r="D54" s="11">
+    <row r="54" spans="4:8">
+      <c r="D54" s="7">
         <v>19</v>
       </c>
-      <c r="E54" s="12" t="s">
+      <c r="E54" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="F54" s="12" t="s">
+      <c r="F54" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="G54" s="11" t="s">
+      <c r="G54" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="H54" s="13" t="s">
+      <c r="H54" s="9" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="55" spans="4:8" x14ac:dyDescent="0.15">
-      <c r="D55" s="11">
+    <row r="55" spans="4:8">
+      <c r="D55" s="7">
         <v>20</v>
       </c>
-      <c r="E55" s="12" t="s">
+      <c r="E55" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="F55" s="12" t="s">
+      <c r="F55" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="G55" s="11" t="s">
+      <c r="G55" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="H55" s="13" t="s">
+      <c r="H55" s="9" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="56" spans="4:8" x14ac:dyDescent="0.15">
-      <c r="D56" s="11">
+    <row r="56" spans="4:8">
+      <c r="D56" s="7">
         <v>21</v>
       </c>
-      <c r="E56" s="12" t="s">
+      <c r="E56" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="F56" s="12" t="s">
+      <c r="F56" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="G56" s="11" t="s">
+      <c r="G56" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="H56" s="14" t="s">
+      <c r="H56" s="10" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="57" spans="4:8" x14ac:dyDescent="0.15">
-      <c r="D57" s="11">
+    <row r="57" spans="4:8">
+      <c r="D57" s="7">
         <v>21</v>
       </c>
-      <c r="E57" s="12" t="s">
+      <c r="E57" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="F57" s="12" t="s">
+      <c r="F57" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="G57" s="11" t="s">
+      <c r="G57" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="H57" s="14" t="s">
+      <c r="H57" s="10" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="58" spans="4:8" x14ac:dyDescent="0.15">
-      <c r="D58" s="11">
+    <row r="58" spans="4:8">
+      <c r="D58" s="7">
         <v>21</v>
       </c>
-      <c r="E58" s="12" t="s">
+      <c r="E58" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="F58" s="12" t="s">
+      <c r="F58" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="G58" s="11" t="s">
+      <c r="G58" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="H58" s="14" t="s">
+      <c r="H58" s="10" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="59" spans="4:8" x14ac:dyDescent="0.15">
-      <c r="D59" s="11">
+    <row r="59" spans="4:8">
+      <c r="D59" s="7">
         <v>21</v>
       </c>
-      <c r="E59" s="12" t="s">
+      <c r="E59" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="F59" s="12" t="s">
+      <c r="F59" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="G59" s="11" t="s">
+      <c r="G59" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="H59" s="13" t="s">
+      <c r="H59" s="9" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="60" spans="4:8" x14ac:dyDescent="0.15">
-      <c r="D60" s="11">
+    <row r="60" spans="4:8">
+      <c r="D60" s="7">
         <v>21</v>
       </c>
-      <c r="E60" s="12" t="s">
+      <c r="E60" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="F60" s="12" t="s">
+      <c r="F60" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="G60" s="11" t="s">
+      <c r="G60" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="H60" s="13" t="s">
+      <c r="H60" s="9" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="61" spans="4:8" x14ac:dyDescent="0.15">
-      <c r="D61" s="11">
+    <row r="61" spans="4:8">
+      <c r="D61" s="7">
         <v>21</v>
       </c>
-      <c r="E61" s="12" t="s">
+      <c r="E61" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="F61" s="12" t="s">
+      <c r="F61" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="G61" s="11" t="s">
+      <c r="G61" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="H61" s="13" t="s">
+      <c r="H61" s="9" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="62" spans="4:8" x14ac:dyDescent="0.15">
-      <c r="D62" s="11">
+    <row r="62" spans="4:8">
+      <c r="D62" s="7">
         <v>21</v>
       </c>
-      <c r="E62" s="12" t="s">
+      <c r="E62" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="F62" s="12" t="s">
+      <c r="F62" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="G62" s="11" t="s">
+      <c r="G62" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="H62" s="14" t="s">
+      <c r="H62" s="10" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="63" spans="4:8" x14ac:dyDescent="0.15">
-      <c r="D63" s="11">
+    <row r="63" spans="4:8">
+      <c r="D63" s="7">
         <v>21</v>
       </c>
-      <c r="E63" s="12" t="s">
+      <c r="E63" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="F63" s="12" t="s">
+      <c r="F63" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="G63" s="11" t="s">
+      <c r="G63" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="H63" s="14" t="s">
+      <c r="H63" s="10" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="64" spans="4:8" x14ac:dyDescent="0.15">
-      <c r="D64" s="11">
+    <row r="64" spans="4:8">
+      <c r="D64" s="7">
         <v>21</v>
       </c>
-      <c r="E64" s="12" t="s">
+      <c r="E64" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="F64" s="12" t="s">
+      <c r="F64" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="G64" s="11" t="s">
+      <c r="G64" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="H64" s="14" t="s">
+      <c r="H64" s="10" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="65" spans="4:8" x14ac:dyDescent="0.15">
-      <c r="D65" s="11">
+    <row r="65" spans="4:8">
+      <c r="D65" s="7">
         <v>21</v>
       </c>
-      <c r="E65" s="12" t="s">
+      <c r="E65" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="F65" s="12" t="s">
+      <c r="F65" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="G65" s="11" t="s">
+      <c r="G65" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="H65" s="14" t="s">
+      <c r="H65" s="10" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="66" spans="4:8" x14ac:dyDescent="0.15">
-      <c r="D66" s="11">
+    <row r="66" spans="4:8">
+      <c r="D66" s="7">
         <v>21</v>
       </c>
-      <c r="E66" s="12" t="s">
+      <c r="E66" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="F66" s="12" t="s">
+      <c r="F66" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="G66" s="11" t="s">
+      <c r="G66" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="H66" s="13" t="s">
+      <c r="H66" s="9" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="67" spans="4:8" x14ac:dyDescent="0.15">
-      <c r="D67" s="11">
+    <row r="67" spans="4:8">
+      <c r="D67" s="7">
         <v>21</v>
       </c>
-      <c r="E67" s="12" t="s">
+      <c r="E67" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="F67" s="12" t="s">
+      <c r="F67" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="G67" s="11" t="s">
+      <c r="G67" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="H67" s="14" t="s">
+      <c r="H67" s="10" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="68" spans="4:8" x14ac:dyDescent="0.15">
-      <c r="D68" s="11">
+    <row r="68" spans="4:8">
+      <c r="D68" s="7">
         <v>21</v>
       </c>
-      <c r="E68" s="12" t="s">
+      <c r="E68" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="F68" s="12" t="s">
+      <c r="F68" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="G68" s="11" t="s">
+      <c r="G68" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="H68" s="14" t="s">
+      <c r="H68" s="10" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="69" spans="4:8" x14ac:dyDescent="0.15">
-      <c r="D69" s="11">
+    <row r="69" spans="4:8">
+      <c r="D69" s="7">
         <v>21</v>
       </c>
-      <c r="E69" s="12" t="s">
+      <c r="E69" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="F69" s="12" t="s">
+      <c r="F69" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="G69" s="11" t="s">
+      <c r="G69" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="H69" s="14" t="s">
+      <c r="H69" s="10" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="70" spans="4:8" x14ac:dyDescent="0.15">
-      <c r="D70" s="11">
+    <row r="70" spans="4:8">
+      <c r="D70" s="7">
         <v>21</v>
       </c>
-      <c r="E70" s="12" t="s">
+      <c r="E70" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="F70" s="12" t="s">
+      <c r="F70" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="G70" s="11" t="s">
+      <c r="G70" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="H70" s="14" t="s">
+      <c r="H70" s="10" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="71" spans="4:8" x14ac:dyDescent="0.15">
-      <c r="D71" s="11">
+    <row r="71" spans="4:8">
+      <c r="D71" s="7">
         <v>21</v>
       </c>
-      <c r="E71" s="12" t="s">
+      <c r="E71" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="F71" s="12" t="s">
+      <c r="F71" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="G71" s="11" t="s">
+      <c r="G71" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="H71" s="14" t="s">
+      <c r="H71" s="10" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="72" spans="4:8" x14ac:dyDescent="0.15">
-      <c r="D72" s="11">
+    <row r="72" spans="4:8">
+      <c r="D72" s="7">
         <v>21</v>
       </c>
-      <c r="E72" s="12" t="s">
+      <c r="E72" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="F72" s="12" t="s">
+      <c r="F72" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="G72" s="11" t="s">
+      <c r="G72" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="H72" s="13" t="s">
+      <c r="H72" s="9" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="73" spans="4:8" x14ac:dyDescent="0.15">
-      <c r="D73" s="11">
+    <row r="73" spans="4:8">
+      <c r="D73" s="7">
         <v>21</v>
       </c>
-      <c r="E73" s="12" t="s">
+      <c r="E73" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="F73" s="12" t="s">
+      <c r="F73" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="G73" s="11" t="s">
+      <c r="G73" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="H73" s="14" t="s">
+      <c r="H73" s="10" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="74" spans="4:8" x14ac:dyDescent="0.15">
-      <c r="D74" s="11">
+    <row r="74" spans="4:8">
+      <c r="D74" s="7">
         <v>21</v>
       </c>
-      <c r="E74" s="12" t="s">
+      <c r="E74" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="F74" s="12" t="s">
+      <c r="F74" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="G74" s="11" t="s">
+      <c r="G74" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="H74" s="14" t="s">
+      <c r="H74" s="10" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="75" spans="4:8" x14ac:dyDescent="0.15">
-      <c r="D75" s="11">
+    <row r="75" spans="4:8">
+      <c r="D75" s="7">
         <v>21</v>
       </c>
-      <c r="E75" s="12" t="s">
+      <c r="E75" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="F75" s="12" t="s">
+      <c r="F75" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="G75" s="11" t="s">
+      <c r="G75" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="H75" s="14" t="s">
+      <c r="H75" s="10" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="76" spans="4:8" x14ac:dyDescent="0.15">
-      <c r="D76" s="11">
+    <row r="76" spans="4:8">
+      <c r="D76" s="7">
         <v>21</v>
       </c>
-      <c r="E76" s="12" t="s">
+      <c r="E76" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="F76" s="12" t="s">
+      <c r="F76" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="G76" s="11" t="s">
+      <c r="G76" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="H76" s="13" t="s">
+      <c r="H76" s="9" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="77" spans="4:8" x14ac:dyDescent="0.15">
-      <c r="D77" s="11">
+    <row r="77" spans="4:8">
+      <c r="D77" s="7">
         <v>21</v>
       </c>
-      <c r="E77" s="12" t="s">
+      <c r="E77" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="F77" s="12" t="s">
+      <c r="F77" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="G77" s="11" t="s">
+      <c r="G77" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="H77" s="13" t="s">
+      <c r="H77" s="9" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="78" spans="4:8" x14ac:dyDescent="0.15">
-      <c r="D78" s="11">
+    <row r="78" spans="4:8">
+      <c r="D78" s="7">
         <v>22</v>
       </c>
-      <c r="E78" s="12" t="s">
+      <c r="E78" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="F78" s="12" t="s">
+      <c r="F78" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="G78" s="11" t="s">
+      <c r="G78" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="H78" s="14" t="s">
+      <c r="H78" s="10" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="79" spans="4:8" x14ac:dyDescent="0.15">
-      <c r="D79" s="11">
+    <row r="79" spans="4:8">
+      <c r="D79" s="7">
         <v>21</v>
       </c>
-      <c r="E79" s="12" t="s">
+      <c r="E79" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="F79" s="12" t="s">
+      <c r="F79" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="G79" s="11" t="s">
+      <c r="G79" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="H79" s="13" t="s">
+      <c r="H79" s="9" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="80" spans="4:8" x14ac:dyDescent="0.15">
-      <c r="D80" s="11">
+    <row r="80" spans="4:8">
+      <c r="D80" s="7">
         <v>21</v>
       </c>
-      <c r="E80" s="12" t="s">
+      <c r="E80" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="F80" s="12" t="s">
+      <c r="F80" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="G80" s="11" t="s">
+      <c r="G80" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="H80" s="14" t="s">
+      <c r="H80" s="10" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="81" spans="4:8" x14ac:dyDescent="0.15">
-      <c r="D81" s="11">
+    <row r="81" spans="4:8">
+      <c r="D81" s="7">
         <v>21</v>
       </c>
-      <c r="E81" s="12" t="s">
+      <c r="E81" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="F81" s="12" t="s">
+      <c r="F81" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="G81" s="11" t="s">
+      <c r="G81" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="H81" s="14" t="s">
+      <c r="H81" s="10" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="82" spans="4:8" x14ac:dyDescent="0.15">
-      <c r="D82" s="11">
+    <row r="82" spans="4:8">
+      <c r="D82" s="7">
         <v>21</v>
       </c>
-      <c r="E82" s="12" t="s">
+      <c r="E82" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="F82" s="12" t="s">
+      <c r="F82" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="G82" s="11" t="s">
+      <c r="G82" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="H82" s="14" t="s">
+      <c r="H82" s="10" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="83" spans="4:8" x14ac:dyDescent="0.15">
-      <c r="D83" s="11">
+    <row r="83" spans="4:8">
+      <c r="D83" s="7">
         <v>21</v>
       </c>
-      <c r="E83" s="12" t="s">
+      <c r="E83" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="F83" s="12" t="s">
+      <c r="F83" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="G83" s="11" t="s">
+      <c r="G83" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="H83" s="14" t="s">
+      <c r="H83" s="10" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="84" spans="4:8" x14ac:dyDescent="0.15">
-      <c r="D84" s="11">
+    <row r="84" spans="4:8">
+      <c r="D84" s="7">
         <v>21</v>
       </c>
-      <c r="E84" s="12" t="s">
+      <c r="E84" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="F84" s="12" t="s">
+      <c r="F84" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="G84" s="11" t="s">
+      <c r="G84" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="H84" s="14" t="s">
+      <c r="H84" s="10" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="85" spans="4:8" x14ac:dyDescent="0.15">
-      <c r="D85" s="11">
+    <row r="85" spans="4:8">
+      <c r="D85" s="7">
         <v>21</v>
       </c>
-      <c r="E85" s="12" t="s">
+      <c r="E85" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="F85" s="12" t="s">
+      <c r="F85" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="G85" s="11" t="s">
+      <c r="G85" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="H85" s="14" t="s">
+      <c r="H85" s="10" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="86" spans="4:8" x14ac:dyDescent="0.15">
-      <c r="D86" s="11">
+    <row r="86" spans="4:8">
+      <c r="D86" s="7">
         <v>21</v>
       </c>
-      <c r="E86" s="12" t="s">
+      <c r="E86" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="F86" s="12" t="s">
+      <c r="F86" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="G86" s="11" t="s">
+      <c r="G86" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="H86" s="14" t="s">
+      <c r="H86" s="10" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="87" spans="4:8" x14ac:dyDescent="0.15">
-      <c r="D87" s="11">
+    <row r="87" spans="4:8">
+      <c r="D87" s="7">
         <v>21</v>
       </c>
-      <c r="E87" s="12" t="s">
+      <c r="E87" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="F87" s="12" t="s">
+      <c r="F87" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="G87" s="11" t="s">
+      <c r="G87" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="H87" s="14" t="s">
+      <c r="H87" s="10" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="88" spans="4:8" x14ac:dyDescent="0.15">
-      <c r="D88" s="11">
+    <row r="88" spans="4:8">
+      <c r="D88" s="7">
         <v>21</v>
       </c>
-      <c r="E88" s="12" t="s">
+      <c r="E88" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="F88" s="12" t="s">
+      <c r="F88" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="G88" s="11" t="s">
+      <c r="G88" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="H88" s="14" t="s">
+      <c r="H88" s="10" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="89" spans="4:8" x14ac:dyDescent="0.15">
-      <c r="D89" s="11">
+    <row r="89" spans="4:8">
+      <c r="D89" s="7">
         <v>21</v>
       </c>
-      <c r="E89" s="12" t="s">
+      <c r="E89" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="F89" s="12" t="s">
+      <c r="F89" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="G89" s="11" t="s">
+      <c r="G89" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="H89" s="13" t="s">
+      <c r="H89" s="9" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="90" spans="4:8" x14ac:dyDescent="0.15">
-      <c r="D90" s="11">
+    <row r="90" spans="4:8">
+      <c r="D90" s="7">
         <v>24</v>
       </c>
-      <c r="E90" s="12" t="s">
+      <c r="E90" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="F90" s="12" t="s">
+      <c r="F90" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="G90" s="11" t="s">
+      <c r="G90" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="H90" s="13" t="s">
+      <c r="H90" s="9" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="91" spans="4:8" x14ac:dyDescent="0.15">
-      <c r="D91" s="11">
+    <row r="91" spans="4:8">
+      <c r="D91" s="7">
         <v>25</v>
       </c>
-      <c r="E91" s="12" t="s">
+      <c r="E91" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="F91" s="12" t="s">
+      <c r="F91" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="G91" s="11" t="s">
+      <c r="G91" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="H91" s="13" t="s">
+      <c r="H91" s="9" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="92" spans="4:8" x14ac:dyDescent="0.15">
-      <c r="D92" s="11">
+    <row r="92" spans="4:8">
+      <c r="D92" s="7">
         <v>26</v>
       </c>
-      <c r="E92" s="12" t="s">
+      <c r="E92" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="F92" s="12" t="s">
+      <c r="F92" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="G92" s="11" t="s">
+      <c r="G92" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="H92" s="13" t="s">
+      <c r="H92" s="9" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="93" spans="4:8" x14ac:dyDescent="0.15">
-      <c r="D93" s="11">
+    <row r="93" spans="4:8">
+      <c r="D93" s="7">
         <v>27</v>
       </c>
-      <c r="E93" s="12" t="s">
+      <c r="E93" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="F93" s="12" t="s">
+      <c r="F93" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="G93" s="11" t="s">
+      <c r="G93" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="H93" s="13" t="s">
+      <c r="H93" s="9" t="s">
         <v>25</v>
       </c>
     </row>
@@ -7161,336 +7681,336 @@
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="2.625" style="15" customWidth="1"/>
-    <col min="2" max="2" width="3.625" style="15" customWidth="1"/>
-    <col min="3" max="3" width="54.375" style="15" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="72.625" style="15" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="79" style="15" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="64.875" style="15" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="15"/>
+    <col min="1" max="1" width="2.625" style="11" customWidth="1"/>
+    <col min="2" max="2" width="3.625" style="11" customWidth="1"/>
+    <col min="3" max="3" width="54.375" style="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="72.625" style="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="79" style="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="64.875" style="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="11"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B2" s="15" t="s">
+    <row r="2" spans="2:6">
+      <c r="B2" s="11" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="C3" s="15" t="s">
+    <row r="3" spans="2:6">
+      <c r="C3" s="11" t="s">
         <v>116</v>
       </c>
-      <c r="D3" s="16"/>
-      <c r="E3" s="17"/>
-    </row>
-    <row r="5" spans="2:6" ht="27" x14ac:dyDescent="0.15">
-      <c r="C5" s="18" t="s">
+      <c r="D3" s="12"/>
+      <c r="E3" s="13"/>
+    </row>
+    <row r="5" spans="2:6" ht="27">
+      <c r="C5" s="14" t="s">
         <v>117</v>
       </c>
-      <c r="D5" s="18" t="s">
+      <c r="D5" s="14" t="s">
         <v>118</v>
       </c>
-      <c r="E5" s="19" t="s">
+      <c r="E5" s="15" t="s">
         <v>216</v>
       </c>
-      <c r="F5" s="18" t="s">
+      <c r="F5" s="14" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="6" spans="2:6" s="23" customFormat="1" ht="134.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C6" s="28" t="s">
+    <row r="6" spans="2:6" s="19" customFormat="1" ht="134.25" customHeight="1">
+      <c r="C6" s="24" t="s">
         <v>245</v>
       </c>
-      <c r="D6" s="24" t="s">
+      <c r="D6" s="20" t="s">
         <v>247</v>
       </c>
-      <c r="E6" s="25" t="s">
+      <c r="E6" s="21" t="s">
         <v>246</v>
       </c>
-      <c r="F6" s="26" t="s">
+      <c r="F6" s="22" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="7" spans="2:6" s="23" customFormat="1" ht="93.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C7" s="28" t="s">
+    <row r="7" spans="2:6" s="19" customFormat="1" ht="93.75" customHeight="1">
+      <c r="C7" s="24" t="s">
         <v>296</v>
       </c>
-      <c r="D7" s="24" t="s">
+      <c r="D7" s="20" t="s">
         <v>297</v>
       </c>
-      <c r="E7" s="25" t="s">
+      <c r="E7" s="21" t="s">
         <v>298</v>
       </c>
-      <c r="F7" s="26" t="s">
+      <c r="F7" s="22" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="8" spans="2:6" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C8" s="29" t="s">
+    <row r="8" spans="2:6" ht="41.25" customHeight="1">
+      <c r="C8" s="25" t="s">
         <v>119</v>
       </c>
-      <c r="D8" s="12" t="s">
+      <c r="D8" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="E8" s="12" t="s">
+      <c r="E8" s="8" t="s">
         <v>217</v>
       </c>
-      <c r="F8" s="21" t="s">
+      <c r="F8" s="17" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="9" spans="2:6" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C9" s="29" t="s">
+    <row r="9" spans="2:6" ht="41.25" customHeight="1">
+      <c r="C9" s="25" t="s">
         <v>120</v>
       </c>
-      <c r="D9" s="12" t="s">
+      <c r="D9" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="E9" s="12" t="s">
+      <c r="E9" s="8" t="s">
         <v>218</v>
       </c>
-      <c r="F9" s="21" t="s">
+      <c r="F9" s="17" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="10" spans="2:6" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C10" s="29" t="s">
+    <row r="10" spans="2:6" ht="41.25" customHeight="1">
+      <c r="C10" s="25" t="s">
         <v>121</v>
       </c>
-      <c r="D10" s="12" t="s">
+      <c r="D10" s="8" t="s">
         <v>130</v>
       </c>
-      <c r="E10" s="12" t="s">
+      <c r="E10" s="8" t="s">
         <v>219</v>
       </c>
-      <c r="F10" s="21" t="s">
+      <c r="F10" s="17" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="11" spans="2:6" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C11" s="29" t="s">
+    <row r="11" spans="2:6" ht="41.25" customHeight="1">
+      <c r="C11" s="25" t="s">
         <v>122</v>
       </c>
-      <c r="D11" s="12" t="s">
+      <c r="D11" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="E11" s="12" t="s">
+      <c r="E11" s="8" t="s">
         <v>220</v>
       </c>
-      <c r="F11" s="21" t="s">
+      <c r="F11" s="17" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="12" spans="2:6" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C12" s="29" t="s">
+    <row r="12" spans="2:6" ht="41.25" customHeight="1">
+      <c r="C12" s="25" t="s">
         <v>292</v>
       </c>
-      <c r="D12" s="12" t="s">
+      <c r="D12" s="8" t="s">
         <v>293</v>
       </c>
-      <c r="E12" s="12" t="s">
+      <c r="E12" s="8" t="s">
         <v>294</v>
       </c>
-      <c r="F12" s="21" t="s">
+      <c r="F12" s="17" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="13" spans="2:6" ht="267.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C13" s="29" t="s">
+    <row r="13" spans="2:6" ht="267.75" customHeight="1">
+      <c r="C13" s="25" t="s">
         <v>123</v>
       </c>
-      <c r="D13" s="20" t="s">
+      <c r="D13" s="16" t="s">
         <v>224</v>
       </c>
-      <c r="E13" s="20" t="s">
+      <c r="E13" s="16" t="s">
         <v>263</v>
       </c>
-      <c r="F13" s="21" t="s">
+      <c r="F13" s="17" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="14" spans="2:6" ht="228.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C14" s="29" t="s">
+    <row r="14" spans="2:6" ht="228.75" customHeight="1">
+      <c r="C14" s="25" t="s">
         <v>124</v>
       </c>
-      <c r="D14" s="12" t="s">
+      <c r="D14" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="E14" s="20" t="s">
+      <c r="E14" s="16" t="s">
         <v>226</v>
       </c>
-      <c r="F14" s="21" t="s">
+      <c r="F14" s="17" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="15" spans="2:6" ht="60" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C15" s="29" t="s">
+    <row r="15" spans="2:6" ht="60" customHeight="1">
+      <c r="C15" s="25" t="s">
         <v>125</v>
       </c>
-      <c r="D15" s="12" t="s">
+      <c r="D15" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="E15" s="12" t="s">
+      <c r="E15" s="8" t="s">
         <v>227</v>
       </c>
-      <c r="F15" s="21" t="s">
+      <c r="F15" s="17" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="16" spans="2:6" ht="109.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C16" s="29" t="s">
+    <row r="16" spans="2:6" ht="109.5" customHeight="1">
+      <c r="C16" s="25" t="s">
         <v>126</v>
       </c>
-      <c r="D16" s="12" t="s">
+      <c r="D16" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="E16" s="20" t="s">
+      <c r="E16" s="16" t="s">
         <v>229</v>
       </c>
-      <c r="F16" s="21" t="s">
+      <c r="F16" s="17" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="17" spans="3:6" ht="60" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C17" s="29" t="s">
+    <row r="17" spans="3:6" ht="60" customHeight="1">
+      <c r="C17" s="25" t="s">
         <v>239</v>
       </c>
-      <c r="D17" s="12" t="s">
+      <c r="D17" s="8" t="s">
         <v>135</v>
       </c>
-      <c r="E17" s="20" t="s">
+      <c r="E17" s="16" t="s">
         <v>303</v>
       </c>
-      <c r="F17" s="22" t="s">
+      <c r="F17" s="18" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="18" spans="3:6" ht="60" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C18" s="29" t="s">
+    <row r="18" spans="3:6" ht="60" customHeight="1">
+      <c r="C18" s="25" t="s">
         <v>127</v>
       </c>
-      <c r="D18" s="12" t="s">
+      <c r="D18" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="E18" s="12" t="s">
+      <c r="E18" s="8" t="s">
         <v>231</v>
       </c>
-      <c r="F18" s="21" t="s">
+      <c r="F18" s="17" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="19" spans="3:6" ht="169.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C19" s="29" t="s">
+    <row r="19" spans="3:6" ht="169.5" customHeight="1">
+      <c r="C19" s="25" t="s">
         <v>240</v>
       </c>
-      <c r="D19" s="12" t="s">
+      <c r="D19" s="8" t="s">
         <v>241</v>
       </c>
-      <c r="E19" s="20" t="s">
+      <c r="E19" s="16" t="s">
         <v>243</v>
       </c>
-      <c r="F19" s="21" t="s">
+      <c r="F19" s="17" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="20" spans="3:6" ht="94.5" x14ac:dyDescent="0.15">
-      <c r="C20" s="29" t="s">
+    <row r="20" spans="3:6" ht="94.5">
+      <c r="C20" s="25" t="s">
         <v>282</v>
       </c>
-      <c r="D20" s="20" t="s">
+      <c r="D20" s="16" t="s">
         <v>283</v>
       </c>
-      <c r="E20" s="20" t="s">
+      <c r="E20" s="16" t="s">
         <v>278</v>
       </c>
-      <c r="F20" s="20" t="s">
+      <c r="F20" s="16" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="21" spans="3:6" ht="81" x14ac:dyDescent="0.15">
-      <c r="C21" s="29" t="s">
+    <row r="21" spans="3:6" ht="81">
+      <c r="C21" s="25" t="s">
         <v>281</v>
       </c>
-      <c r="D21" s="12" t="s">
+      <c r="D21" s="8" t="s">
         <v>279</v>
       </c>
-      <c r="E21" s="20" t="s">
+      <c r="E21" s="16" t="s">
         <v>280</v>
       </c>
-      <c r="F21" s="20" t="s">
+      <c r="F21" s="16" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="22" spans="3:6" ht="81" x14ac:dyDescent="0.15">
-      <c r="C22" s="29" t="s">
+    <row r="22" spans="3:6" ht="81">
+      <c r="C22" s="25" t="s">
         <v>286</v>
       </c>
-      <c r="D22" s="12" t="s">
+      <c r="D22" s="8" t="s">
         <v>288</v>
       </c>
-      <c r="E22" s="25" t="s">
+      <c r="E22" s="21" t="s">
         <v>246</v>
       </c>
-      <c r="F22" s="20" t="s">
+      <c r="F22" s="16" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="23" spans="3:6" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="C23" s="29" t="s">
+    <row r="23" spans="3:6" ht="17.25">
+      <c r="C23" s="25" t="s">
         <v>287</v>
       </c>
-      <c r="D23" s="12" t="s">
+      <c r="D23" s="8" t="s">
         <v>290</v>
       </c>
-      <c r="E23" s="25" t="s">
+      <c r="E23" s="21" t="s">
         <v>246</v>
       </c>
-      <c r="F23" s="12" t="s">
+      <c r="F23" s="8" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="24" spans="3:6" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="C24" s="29"/>
-      <c r="D24" s="12"/>
-      <c r="E24" s="12"/>
-      <c r="F24" s="12"/>
-    </row>
-    <row r="25" spans="3:6" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="C25" s="29"/>
-      <c r="D25" s="12"/>
-      <c r="E25" s="12"/>
-      <c r="F25" s="12"/>
-    </row>
-    <row r="26" spans="3:6" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="C26" s="29"/>
-      <c r="D26" s="12"/>
-      <c r="E26" s="12"/>
-      <c r="F26" s="12"/>
-    </row>
-    <row r="27" spans="3:6" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="C27" s="29"/>
-      <c r="D27" s="12"/>
-      <c r="E27" s="12"/>
-      <c r="F27" s="12"/>
-    </row>
-    <row r="28" spans="3:6" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="C28" s="29"/>
-      <c r="D28" s="12"/>
-      <c r="E28" s="12"/>
-      <c r="F28" s="12"/>
-    </row>
-    <row r="29" spans="3:6" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="C29" s="29"/>
-      <c r="D29" s="12"/>
-      <c r="E29" s="12"/>
-      <c r="F29" s="12"/>
-    </row>
-    <row r="30" spans="3:6" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="C30" s="29"/>
-      <c r="D30" s="12"/>
-      <c r="E30" s="12"/>
-      <c r="F30" s="12"/>
+    <row r="24" spans="3:6" ht="17.25">
+      <c r="C24" s="25"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+    </row>
+    <row r="25" spans="3:6" ht="17.25">
+      <c r="C25" s="25"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+    </row>
+    <row r="26" spans="3:6" ht="17.25">
+      <c r="C26" s="25"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+    </row>
+    <row r="27" spans="3:6" ht="17.25">
+      <c r="C27" s="25"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+    </row>
+    <row r="28" spans="3:6" ht="17.25">
+      <c r="C28" s="25"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+    </row>
+    <row r="29" spans="3:6" ht="17.25">
+      <c r="C29" s="25"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+    </row>
+    <row r="30" spans="3:6" ht="17.25">
+      <c r="C30" s="25"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
@@ -7503,11 +8023,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:H40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="3.375" style="1" customWidth="1"/>
     <col min="2" max="2" width="4.5" style="1" customWidth="1"/>
@@ -7515,164 +8035,164 @@
     <col min="4" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:8">
       <c r="B2" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="C3" s="15" t="s">
+    <row r="3" spans="2:8">
+      <c r="C3" s="11" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:8">
       <c r="C5" s="1" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:8">
       <c r="D6" s="1" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:8">
       <c r="D7" s="1" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:8">
       <c r="C9" s="1" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:8">
       <c r="D10" s="1" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="11" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="12" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="D12" s="37" t="s">
+    <row r="11" spans="2:8" ht="14.25" thickBot="1"/>
+    <row r="12" spans="2:8" ht="14.25" thickBot="1">
+      <c r="D12" s="33" t="s">
         <v>307</v>
       </c>
-      <c r="E12" s="38"/>
-      <c r="F12" s="38"/>
-      <c r="G12" s="38"/>
-      <c r="H12" s="39"/>
-    </row>
-    <row r="14" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="E12" s="34"/>
+      <c r="F12" s="34"/>
+      <c r="G12" s="34"/>
+      <c r="H12" s="35"/>
+    </row>
+    <row r="14" spans="2:8" ht="14.25" thickBot="1">
       <c r="C14" s="1" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="15" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="D15" s="37" t="s">
+    <row r="15" spans="2:8" ht="14.25" thickBot="1">
+      <c r="D15" s="33" t="s">
         <v>234</v>
       </c>
-      <c r="E15" s="38"/>
-      <c r="F15" s="38"/>
-      <c r="G15" s="38"/>
-      <c r="H15" s="39"/>
-    </row>
-    <row r="17" spans="3:8" x14ac:dyDescent="0.15">
+      <c r="E15" s="34"/>
+      <c r="F15" s="34"/>
+      <c r="G15" s="34"/>
+      <c r="H15" s="35"/>
+    </row>
+    <row r="17" spans="3:8">
       <c r="D17" s="1" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="18" spans="3:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:8" ht="14.25" thickBot="1">
       <c r="C18" s="1" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="19" spans="3:8" x14ac:dyDescent="0.15">
-      <c r="D19" s="40" t="s">
+    <row r="19" spans="3:8">
+      <c r="D19" s="36" t="s">
         <v>235</v>
       </c>
-      <c r="E19" s="41"/>
-      <c r="F19" s="41"/>
-      <c r="G19" s="41"/>
-      <c r="H19" s="42"/>
-    </row>
-    <row r="20" spans="3:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="D20" s="43" t="s">
+      <c r="E19" s="37"/>
+      <c r="F19" s="37"/>
+      <c r="G19" s="37"/>
+      <c r="H19" s="38"/>
+    </row>
+    <row r="20" spans="3:8" ht="14.25" thickBot="1">
+      <c r="D20" s="39" t="s">
         <v>236</v>
       </c>
-      <c r="E20" s="44"/>
-      <c r="F20" s="44"/>
-      <c r="G20" s="44"/>
-      <c r="H20" s="45"/>
-    </row>
-    <row r="23" spans="3:8" x14ac:dyDescent="0.15">
+      <c r="E20" s="40"/>
+      <c r="F20" s="40"/>
+      <c r="G20" s="40"/>
+      <c r="H20" s="41"/>
+    </row>
+    <row r="23" spans="3:8">
       <c r="C23" s="1" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="24" spans="3:8" x14ac:dyDescent="0.15">
+    <row r="24" spans="3:8">
       <c r="D24" s="1" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="25" spans="3:8" x14ac:dyDescent="0.15">
+    <row r="25" spans="3:8">
       <c r="D25" s="1" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="26" spans="3:8" x14ac:dyDescent="0.15">
+    <row r="26" spans="3:8">
       <c r="D26" s="1" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="28" spans="3:8" x14ac:dyDescent="0.15">
+    <row r="28" spans="3:8">
       <c r="D28" s="1" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="29" spans="3:8" x14ac:dyDescent="0.15">
+    <row r="29" spans="3:8">
       <c r="D29" s="1" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="30" spans="3:8" x14ac:dyDescent="0.15">
+    <row r="30" spans="3:8">
       <c r="D30" s="1" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="32" spans="3:8" x14ac:dyDescent="0.15">
+    <row r="32" spans="3:8">
       <c r="D32" s="1" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="33" spans="4:4" x14ac:dyDescent="0.15">
+    <row r="33" spans="4:4">
       <c r="D33" s="1" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="34" spans="4:4" x14ac:dyDescent="0.15">
+    <row r="34" spans="4:4">
       <c r="D34" s="1" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="36" spans="4:4" x14ac:dyDescent="0.15">
+    <row r="36" spans="4:4">
       <c r="D36" s="1" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="37" spans="4:4" x14ac:dyDescent="0.15">
+    <row r="37" spans="4:4">
       <c r="D37" s="1" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="38" spans="4:4" x14ac:dyDescent="0.15">
+    <row r="38" spans="4:4">
       <c r="D38" s="1" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="39" spans="4:4" x14ac:dyDescent="0.15">
+    <row r="39" spans="4:4">
       <c r="D39" s="1" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="40" spans="4:4" x14ac:dyDescent="0.15">
+    <row r="40" spans="4:4">
       <c r="D40" s="1" t="s">
         <v>317</v>
       </c>
@@ -7697,159 +8217,159 @@
       <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="3.5" style="1" customWidth="1"/>
     <col min="2" max="4" width="3.75" style="1" customWidth="1"/>
     <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:9">
       <c r="B2" s="1" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:9">
       <c r="C3" s="1" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:9">
       <c r="C4" s="1" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:9">
       <c r="C5" s="1" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:9">
       <c r="C7" s="1" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:9">
       <c r="D8" s="1" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:9">
       <c r="C10" s="1" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="D11" s="15" t="s">
+    <row r="11" spans="2:9">
+      <c r="D11" s="11" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="12" spans="2:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="13" spans="2:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="D13" s="37" t="s">
+    <row r="12" spans="2:9" ht="14.25" thickBot="1"/>
+    <row r="13" spans="2:9" ht="14.25" thickBot="1">
+      <c r="D13" s="33" t="s">
         <v>308</v>
       </c>
-      <c r="E13" s="38"/>
-      <c r="F13" s="38"/>
-      <c r="G13" s="38"/>
-      <c r="H13" s="38"/>
-      <c r="I13" s="39"/>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="E13" s="34"/>
+      <c r="F13" s="34"/>
+      <c r="G13" s="34"/>
+      <c r="H13" s="34"/>
+      <c r="I13" s="35"/>
+    </row>
+    <row r="15" spans="2:9">
       <c r="D15" s="1" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="16" spans="2:9">
       <c r="D16" s="1" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="17" spans="3:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="18" spans="3:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="D18" s="37" t="s">
+    <row r="17" spans="3:9" ht="14.25" thickBot="1"/>
+    <row r="18" spans="3:9" ht="14.25" thickBot="1">
+      <c r="D18" s="33" t="s">
         <v>255</v>
       </c>
-      <c r="E18" s="38"/>
-      <c r="F18" s="38"/>
-      <c r="G18" s="38"/>
-      <c r="H18" s="38"/>
-      <c r="I18" s="39"/>
-    </row>
-    <row r="20" spans="3:9" x14ac:dyDescent="0.15">
+      <c r="E18" s="34"/>
+      <c r="F18" s="34"/>
+      <c r="G18" s="34"/>
+      <c r="H18" s="34"/>
+      <c r="I18" s="35"/>
+    </row>
+    <row r="20" spans="3:9">
       <c r="D20" s="1" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="22" spans="3:9" x14ac:dyDescent="0.15">
+    <row r="22" spans="3:9">
       <c r="C22" s="1" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="23" spans="3:9" x14ac:dyDescent="0.15">
-      <c r="D23" s="15" t="s">
+    <row r="23" spans="3:9">
+      <c r="D23" s="11" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="24" spans="3:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="25" spans="3:9" x14ac:dyDescent="0.15">
-      <c r="D25" s="40" t="s">
+    <row r="24" spans="3:9" ht="14.25" thickBot="1"/>
+    <row r="25" spans="3:9">
+      <c r="D25" s="36" t="s">
         <v>274</v>
       </c>
-      <c r="E25" s="41"/>
-      <c r="F25" s="41"/>
-      <c r="G25" s="41"/>
-      <c r="H25" s="41"/>
-      <c r="I25" s="42"/>
-    </row>
-    <row r="26" spans="3:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="D26" s="43" t="s">
+      <c r="E25" s="37"/>
+      <c r="F25" s="37"/>
+      <c r="G25" s="37"/>
+      <c r="H25" s="37"/>
+      <c r="I25" s="38"/>
+    </row>
+    <row r="26" spans="3:9" ht="14.25" thickBot="1">
+      <c r="D26" s="39" t="s">
         <v>273</v>
       </c>
-      <c r="E26" s="44"/>
-      <c r="F26" s="44"/>
-      <c r="G26" s="44"/>
-      <c r="H26" s="44"/>
-      <c r="I26" s="45"/>
-    </row>
-    <row r="27" spans="3:9" x14ac:dyDescent="0.15">
-      <c r="D27" s="27"/>
-      <c r="E27" s="27"/>
-      <c r="F27" s="27"/>
-      <c r="G27" s="27"/>
-      <c r="H27" s="27"/>
-      <c r="I27" s="27"/>
-    </row>
-    <row r="28" spans="3:9" x14ac:dyDescent="0.15">
+      <c r="E26" s="40"/>
+      <c r="F26" s="40"/>
+      <c r="G26" s="40"/>
+      <c r="H26" s="40"/>
+      <c r="I26" s="41"/>
+    </row>
+    <row r="27" spans="3:9">
+      <c r="D27" s="23"/>
+      <c r="E27" s="23"/>
+      <c r="F27" s="23"/>
+      <c r="G27" s="23"/>
+      <c r="H27" s="23"/>
+      <c r="I27" s="23"/>
+    </row>
+    <row r="28" spans="3:9">
       <c r="D28" s="1" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="30" spans="3:9" x14ac:dyDescent="0.15">
-      <c r="D30" s="15" t="s">
+    <row r="30" spans="3:9">
+      <c r="D30" s="11" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="31" spans="3:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="32" spans="3:9" x14ac:dyDescent="0.15">
-      <c r="D32" s="40" t="s">
+    <row r="31" spans="3:9" ht="14.25" thickBot="1"/>
+    <row r="32" spans="3:9">
+      <c r="D32" s="36" t="s">
         <v>274</v>
       </c>
-      <c r="E32" s="41"/>
-      <c r="F32" s="41"/>
-      <c r="G32" s="41"/>
-      <c r="H32" s="41"/>
-      <c r="I32" s="42"/>
-    </row>
-    <row r="33" spans="4:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="D33" s="43" t="s">
+      <c r="E32" s="37"/>
+      <c r="F32" s="37"/>
+      <c r="G32" s="37"/>
+      <c r="H32" s="37"/>
+      <c r="I32" s="38"/>
+    </row>
+    <row r="33" spans="4:9" ht="14.25" thickBot="1">
+      <c r="D33" s="39" t="s">
         <v>277</v>
       </c>
-      <c r="E33" s="44"/>
-      <c r="F33" s="44"/>
-      <c r="G33" s="44"/>
-      <c r="H33" s="44"/>
-      <c r="I33" s="45"/>
+      <c r="E33" s="40"/>
+      <c r="F33" s="40"/>
+      <c r="G33" s="40"/>
+      <c r="H33" s="40"/>
+      <c r="I33" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -7872,7 +8392,7 @@
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="4.375" style="1" customWidth="1"/>
     <col min="2" max="2" width="3.5" style="1" customWidth="1"/>
@@ -7880,12 +8400,12 @@
     <col min="4" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:3">
       <c r="B2" s="1" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:3">
       <c r="C3" s="1" t="s">
         <v>251</v>
       </c>

--- a/マニュアル.xlsx
+++ b/マニュアル.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="831" uniqueCount="330">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="831" uniqueCount="331">
   <si>
     <t>１．はじめに</t>
     <phoneticPr fontId="2"/>
@@ -2961,6 +2961,10 @@
     <rPh sb="0" eb="1">
       <t>モリ</t>
     </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>add1, add2</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -3302,6 +3306,9 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3345,9 +3352,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4806,43 +4810,43 @@
       <c r="B11" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="C11" s="27" t="s">
+      <c r="C11" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="D11" s="27"/>
-      <c r="E11" s="27"/>
-      <c r="F11" s="27"/>
-      <c r="G11" s="27"/>
-      <c r="H11" s="27"/>
-      <c r="I11" s="27"/>
+      <c r="D11" s="28"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="28"/>
+      <c r="G11" s="28"/>
+      <c r="H11" s="28"/>
+      <c r="I11" s="28"/>
     </row>
     <row r="12" spans="2:9">
       <c r="B12" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C12" s="29" t="s">
+      <c r="C12" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="D12" s="29"/>
-      <c r="E12" s="29"/>
-      <c r="F12" s="29"/>
-      <c r="G12" s="29"/>
-      <c r="H12" s="29"/>
-      <c r="I12" s="29"/>
+      <c r="D12" s="30"/>
+      <c r="E12" s="30"/>
+      <c r="F12" s="30"/>
+      <c r="G12" s="30"/>
+      <c r="H12" s="30"/>
+      <c r="I12" s="30"/>
     </row>
     <row r="13" spans="2:9" ht="76.5" customHeight="1">
       <c r="B13" s="8" t="s">
         <v>301</v>
       </c>
-      <c r="C13" s="28" t="s">
+      <c r="C13" s="29" t="s">
         <v>302</v>
       </c>
-      <c r="D13" s="29"/>
-      <c r="E13" s="29"/>
-      <c r="F13" s="29"/>
-      <c r="G13" s="29"/>
-      <c r="H13" s="29"/>
-      <c r="I13" s="29"/>
+      <c r="D13" s="30"/>
+      <c r="E13" s="30"/>
+      <c r="F13" s="30"/>
+      <c r="G13" s="30"/>
+      <c r="H13" s="30"/>
+      <c r="I13" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -4954,7 +4958,7 @@
   <dimension ref="B2:G85"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G34" sqref="G34"/>
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4989,7 +4993,7 @@
       <c r="F5" s="5" t="s">
         <v>327</v>
       </c>
-      <c r="G5" s="42" t="s">
+      <c r="G5" s="27" t="s">
         <v>328</v>
       </c>
     </row>
@@ -5281,10 +5285,10 @@
         <v>16</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>323</v>
+        <v>330</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
     </row>
     <row r="27" spans="4:7">
@@ -6156,11 +6160,11 @@
       <c r="E4" s="2"/>
     </row>
     <row r="5" spans="2:8" ht="27">
-      <c r="D5" s="30" t="s">
+      <c r="D5" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="31"/>
-      <c r="F5" s="32"/>
+      <c r="E5" s="32"/>
+      <c r="F5" s="33"/>
       <c r="G5" s="5" t="s">
         <v>14</v>
       </c>
@@ -8072,13 +8076,13 @@
     </row>
     <row r="11" spans="2:8" ht="14.25" thickBot="1"/>
     <row r="12" spans="2:8" ht="14.25" thickBot="1">
-      <c r="D12" s="33" t="s">
+      <c r="D12" s="34" t="s">
         <v>307</v>
       </c>
-      <c r="E12" s="34"/>
-      <c r="F12" s="34"/>
-      <c r="G12" s="34"/>
-      <c r="H12" s="35"/>
+      <c r="E12" s="35"/>
+      <c r="F12" s="35"/>
+      <c r="G12" s="35"/>
+      <c r="H12" s="36"/>
     </row>
     <row r="14" spans="2:8" ht="14.25" thickBot="1">
       <c r="C14" s="1" t="s">
@@ -8086,13 +8090,13 @@
       </c>
     </row>
     <row r="15" spans="2:8" ht="14.25" thickBot="1">
-      <c r="D15" s="33" t="s">
+      <c r="D15" s="34" t="s">
         <v>234</v>
       </c>
-      <c r="E15" s="34"/>
-      <c r="F15" s="34"/>
-      <c r="G15" s="34"/>
-      <c r="H15" s="35"/>
+      <c r="E15" s="35"/>
+      <c r="F15" s="35"/>
+      <c r="G15" s="35"/>
+      <c r="H15" s="36"/>
     </row>
     <row r="17" spans="3:8">
       <c r="D17" s="1" t="s">
@@ -8105,22 +8109,22 @@
       </c>
     </row>
     <row r="19" spans="3:8">
-      <c r="D19" s="36" t="s">
+      <c r="D19" s="37" t="s">
         <v>235</v>
       </c>
-      <c r="E19" s="37"/>
-      <c r="F19" s="37"/>
-      <c r="G19" s="37"/>
-      <c r="H19" s="38"/>
+      <c r="E19" s="38"/>
+      <c r="F19" s="38"/>
+      <c r="G19" s="38"/>
+      <c r="H19" s="39"/>
     </row>
     <row r="20" spans="3:8" ht="14.25" thickBot="1">
-      <c r="D20" s="39" t="s">
+      <c r="D20" s="40" t="s">
         <v>236</v>
       </c>
-      <c r="E20" s="40"/>
-      <c r="F20" s="40"/>
-      <c r="G20" s="40"/>
-      <c r="H20" s="41"/>
+      <c r="E20" s="41"/>
+      <c r="F20" s="41"/>
+      <c r="G20" s="41"/>
+      <c r="H20" s="42"/>
     </row>
     <row r="23" spans="3:8">
       <c r="C23" s="1" t="s">
@@ -8266,14 +8270,14 @@
     </row>
     <row r="12" spans="2:9" ht="14.25" thickBot="1"/>
     <row r="13" spans="2:9" ht="14.25" thickBot="1">
-      <c r="D13" s="33" t="s">
+      <c r="D13" s="34" t="s">
         <v>308</v>
       </c>
-      <c r="E13" s="34"/>
-      <c r="F13" s="34"/>
-      <c r="G13" s="34"/>
-      <c r="H13" s="34"/>
-      <c r="I13" s="35"/>
+      <c r="E13" s="35"/>
+      <c r="F13" s="35"/>
+      <c r="G13" s="35"/>
+      <c r="H13" s="35"/>
+      <c r="I13" s="36"/>
     </row>
     <row r="15" spans="2:9">
       <c r="D15" s="1" t="s">
@@ -8287,14 +8291,14 @@
     </row>
     <row r="17" spans="3:9" ht="14.25" thickBot="1"/>
     <row r="18" spans="3:9" ht="14.25" thickBot="1">
-      <c r="D18" s="33" t="s">
+      <c r="D18" s="34" t="s">
         <v>255</v>
       </c>
-      <c r="E18" s="34"/>
-      <c r="F18" s="34"/>
-      <c r="G18" s="34"/>
-      <c r="H18" s="34"/>
-      <c r="I18" s="35"/>
+      <c r="E18" s="35"/>
+      <c r="F18" s="35"/>
+      <c r="G18" s="35"/>
+      <c r="H18" s="35"/>
+      <c r="I18" s="36"/>
     </row>
     <row r="20" spans="3:9">
       <c r="D20" s="1" t="s">
@@ -8313,24 +8317,24 @@
     </row>
     <row r="24" spans="3:9" ht="14.25" thickBot="1"/>
     <row r="25" spans="3:9">
-      <c r="D25" s="36" t="s">
+      <c r="D25" s="37" t="s">
         <v>274</v>
       </c>
-      <c r="E25" s="37"/>
-      <c r="F25" s="37"/>
-      <c r="G25" s="37"/>
-      <c r="H25" s="37"/>
-      <c r="I25" s="38"/>
+      <c r="E25" s="38"/>
+      <c r="F25" s="38"/>
+      <c r="G25" s="38"/>
+      <c r="H25" s="38"/>
+      <c r="I25" s="39"/>
     </row>
     <row r="26" spans="3:9" ht="14.25" thickBot="1">
-      <c r="D26" s="39" t="s">
+      <c r="D26" s="40" t="s">
         <v>273</v>
       </c>
-      <c r="E26" s="40"/>
-      <c r="F26" s="40"/>
-      <c r="G26" s="40"/>
-      <c r="H26" s="40"/>
-      <c r="I26" s="41"/>
+      <c r="E26" s="41"/>
+      <c r="F26" s="41"/>
+      <c r="G26" s="41"/>
+      <c r="H26" s="41"/>
+      <c r="I26" s="42"/>
     </row>
     <row r="27" spans="3:9">
       <c r="D27" s="23"/>
@@ -8352,24 +8356,24 @@
     </row>
     <row r="31" spans="3:9" ht="14.25" thickBot="1"/>
     <row r="32" spans="3:9">
-      <c r="D32" s="36" t="s">
+      <c r="D32" s="37" t="s">
         <v>274</v>
       </c>
-      <c r="E32" s="37"/>
-      <c r="F32" s="37"/>
-      <c r="G32" s="37"/>
-      <c r="H32" s="37"/>
-      <c r="I32" s="38"/>
+      <c r="E32" s="38"/>
+      <c r="F32" s="38"/>
+      <c r="G32" s="38"/>
+      <c r="H32" s="38"/>
+      <c r="I32" s="39"/>
     </row>
     <row r="33" spans="4:9" ht="14.25" thickBot="1">
-      <c r="D33" s="39" t="s">
+      <c r="D33" s="40" t="s">
         <v>277</v>
       </c>
-      <c r="E33" s="40"/>
-      <c r="F33" s="40"/>
-      <c r="G33" s="40"/>
-      <c r="H33" s="40"/>
-      <c r="I33" s="41"/>
+      <c r="E33" s="41"/>
+      <c r="F33" s="41"/>
+      <c r="G33" s="41"/>
+      <c r="H33" s="41"/>
+      <c r="I33" s="42"/>
     </row>
   </sheetData>
   <mergeCells count="6">

--- a/マニュアル.xlsx
+++ b/マニュアル.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="831" uniqueCount="331">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="831" uniqueCount="332">
   <si>
     <t>１．はじめに</t>
     <phoneticPr fontId="2"/>
@@ -2965,6 +2965,10 @@
   </si>
   <si>
     <t>add1, add2</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>addi</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -4958,7 +4962,7 @@
   <dimension ref="B2:G85"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -5299,10 +5303,10 @@
         <v>16</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>323</v>
+        <v>331</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
     </row>
     <row r="28" spans="4:7">

--- a/マニュアル.xlsx
+++ b/マニュアル.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="831" uniqueCount="332">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="832" uniqueCount="334">
   <si>
     <t>１．はじめに</t>
     <phoneticPr fontId="2"/>
@@ -2971,12 +2971,29 @@
     <t>addi</t>
     <phoneticPr fontId="2"/>
   </si>
+  <si>
+    <t>and</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>テスト実施率</t>
+    <rPh sb="3" eb="5">
+      <t>ジッシ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>リツ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="0.0%"/>
+  </numFmts>
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3036,6 +3053,14 @@
       <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
@@ -3219,15 +3244,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3357,8 +3385,12 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="パーセント" xfId="2" builtinId="5"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="良い" xfId="1" builtinId="26"/>
   </cellStyles>
@@ -4959,10 +4991,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:G85"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="B2:H85"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4974,20 +5007,21 @@
     <col min="5" max="5" width="9" style="13"/>
     <col min="6" max="6" width="18.375" style="13" customWidth="1"/>
     <col min="7" max="7" width="13.875" style="13" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="11"/>
+    <col min="8" max="8" width="11.875" style="11" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="11"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7">
+    <row r="2" spans="2:8">
       <c r="B2" s="11" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="2:7">
+    <row r="3" spans="2:8">
       <c r="C3" s="11" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="2:7" ht="27">
+    <row r="5" spans="2:8" ht="27">
       <c r="D5" s="15" t="s">
         <v>13</v>
       </c>
@@ -5000,8 +5034,11 @@
       <c r="G5" s="27" t="s">
         <v>328</v>
       </c>
-    </row>
-    <row r="6" spans="2:7">
+      <c r="H5" s="27" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8">
       <c r="D6" s="16" t="s">
         <v>137</v>
       </c>
@@ -5014,8 +5051,12 @@
       <c r="G6" s="7" t="s">
         <v>324</v>
       </c>
-    </row>
-    <row r="7" spans="2:7">
+      <c r="H6" s="43">
+        <f>4/71</f>
+        <v>5.6338028169014086E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8">
       <c r="D7" s="16" t="s">
         <v>138</v>
       </c>
@@ -5029,7 +5070,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="8" spans="2:7">
+    <row r="8" spans="2:8">
       <c r="D8" s="16" t="s">
         <v>139</v>
       </c>
@@ -5043,7 +5084,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="9" spans="2:7">
+    <row r="9" spans="2:8">
       <c r="D9" s="16" t="s">
         <v>140</v>
       </c>
@@ -5057,7 +5098,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="10" spans="2:7">
+    <row r="10" spans="2:8">
       <c r="D10" s="16" t="s">
         <v>141</v>
       </c>
@@ -5071,7 +5112,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="11" spans="2:7">
+    <row r="11" spans="2:8">
       <c r="D11" s="16" t="s">
         <v>142</v>
       </c>
@@ -5085,7 +5126,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="12" spans="2:7">
+    <row r="12" spans="2:8">
       <c r="D12" s="16" t="s">
         <v>143</v>
       </c>
@@ -5099,7 +5140,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="13" spans="2:7">
+    <row r="13" spans="2:8">
       <c r="D13" s="16" t="s">
         <v>144</v>
       </c>
@@ -5113,7 +5154,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="14" spans="2:7">
+    <row r="14" spans="2:8">
       <c r="D14" s="16" t="s">
         <v>145</v>
       </c>
@@ -5127,7 +5168,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="15" spans="2:7">
+    <row r="15" spans="2:8">
       <c r="D15" s="16" t="s">
         <v>146</v>
       </c>
@@ -5141,7 +5182,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="16" spans="2:7">
+    <row r="16" spans="2:8">
       <c r="D16" s="16" t="s">
         <v>147</v>
       </c>
@@ -5435,7 +5476,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="37" spans="4:7">
+    <row r="37" spans="4:7" hidden="1">
       <c r="D37" s="16" t="s">
         <v>168</v>
       </c>
@@ -5533,7 +5574,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="44" spans="4:7">
+    <row r="44" spans="4:7" hidden="1">
       <c r="D44" s="16" t="s">
         <v>174</v>
       </c>
@@ -5555,10 +5596,10 @@
         <v>16</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>323</v>
+        <v>332</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
     </row>
     <row r="46" spans="4:7">
@@ -5575,7 +5616,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="47" spans="4:7">
+    <row r="47" spans="4:7" hidden="1">
       <c r="D47" s="16" t="s">
         <v>177</v>
       </c>
@@ -5589,7 +5630,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="48" spans="4:7">
+    <row r="48" spans="4:7" hidden="1">
       <c r="D48" s="16" t="s">
         <v>178</v>
       </c>
@@ -5603,7 +5644,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="49" spans="4:7">
+    <row r="49" spans="4:7" hidden="1">
       <c r="D49" s="16" t="s">
         <v>179</v>
       </c>
@@ -5911,7 +5952,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="71" spans="4:7">
+    <row r="71" spans="4:7" hidden="1">
       <c r="D71" s="16" t="s">
         <v>201</v>
       </c>
@@ -5925,7 +5966,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="72" spans="4:7">
+    <row r="72" spans="4:7" hidden="1">
       <c r="D72" s="16" t="s">
         <v>202</v>
       </c>
@@ -6093,7 +6134,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="84" spans="4:7">
+    <row r="84" spans="4:7" hidden="1">
       <c r="D84" s="16" t="s">
         <v>214</v>
       </c>
@@ -6107,7 +6148,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="85" spans="4:7">
+    <row r="85" spans="4:7" hidden="1">
       <c r="D85" s="16" t="s">
         <v>215</v>
       </c>
@@ -6122,9 +6163,16 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="D5:F85"/>
+  <autoFilter ref="D5:F85">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="○"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/マニュアル.xlsx
+++ b/マニュアル.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="832" uniqueCount="334">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="832" uniqueCount="335">
   <si>
     <t>１．はじめに</t>
     <phoneticPr fontId="2"/>
@@ -2983,6 +2983,10 @@
     <rPh sb="5" eb="6">
       <t>リツ</t>
     </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>andi</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -3340,6 +3344,9 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -3384,9 +3391,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -4846,43 +4850,43 @@
       <c r="B11" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="C11" s="28" t="s">
+      <c r="C11" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="D11" s="28"/>
-      <c r="E11" s="28"/>
-      <c r="F11" s="28"/>
-      <c r="G11" s="28"/>
-      <c r="H11" s="28"/>
-      <c r="I11" s="28"/>
+      <c r="D11" s="29"/>
+      <c r="E11" s="29"/>
+      <c r="F11" s="29"/>
+      <c r="G11" s="29"/>
+      <c r="H11" s="29"/>
+      <c r="I11" s="29"/>
     </row>
     <row r="12" spans="2:9">
       <c r="B12" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C12" s="30" t="s">
+      <c r="C12" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="D12" s="30"/>
-      <c r="E12" s="30"/>
-      <c r="F12" s="30"/>
-      <c r="G12" s="30"/>
-      <c r="H12" s="30"/>
-      <c r="I12" s="30"/>
+      <c r="D12" s="31"/>
+      <c r="E12" s="31"/>
+      <c r="F12" s="31"/>
+      <c r="G12" s="31"/>
+      <c r="H12" s="31"/>
+      <c r="I12" s="31"/>
     </row>
     <row r="13" spans="2:9" ht="76.5" customHeight="1">
       <c r="B13" s="8" t="s">
         <v>301</v>
       </c>
-      <c r="C13" s="29" t="s">
+      <c r="C13" s="30" t="s">
         <v>302</v>
       </c>
-      <c r="D13" s="30"/>
-      <c r="E13" s="30"/>
-      <c r="F13" s="30"/>
-      <c r="G13" s="30"/>
-      <c r="H13" s="30"/>
-      <c r="I13" s="30"/>
+      <c r="D13" s="31"/>
+      <c r="E13" s="31"/>
+      <c r="F13" s="31"/>
+      <c r="G13" s="31"/>
+      <c r="H13" s="31"/>
+      <c r="I13" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -4995,7 +4999,7 @@
   <dimension ref="B2:H85"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="F50" sqref="F50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -5051,9 +5055,9 @@
       <c r="G6" s="7" t="s">
         <v>324</v>
       </c>
-      <c r="H6" s="43">
-        <f>4/71</f>
-        <v>5.6338028169014086E-2</v>
+      <c r="H6" s="28">
+        <f>5/71</f>
+        <v>7.0422535211267609E-2</v>
       </c>
     </row>
     <row r="7" spans="2:8">
@@ -5610,10 +5614,10 @@
         <v>16</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>323</v>
+        <v>334</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
     </row>
     <row r="47" spans="4:7" hidden="1">
@@ -6212,11 +6216,11 @@
       <c r="E4" s="2"/>
     </row>
     <row r="5" spans="2:8" ht="27">
-      <c r="D5" s="31" t="s">
+      <c r="D5" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="32"/>
-      <c r="F5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="34"/>
       <c r="G5" s="5" t="s">
         <v>14</v>
       </c>
@@ -8128,13 +8132,13 @@
     </row>
     <row r="11" spans="2:8" ht="14.25" thickBot="1"/>
     <row r="12" spans="2:8" ht="14.25" thickBot="1">
-      <c r="D12" s="34" t="s">
+      <c r="D12" s="35" t="s">
         <v>307</v>
       </c>
-      <c r="E12" s="35"/>
-      <c r="F12" s="35"/>
-      <c r="G12" s="35"/>
-      <c r="H12" s="36"/>
+      <c r="E12" s="36"/>
+      <c r="F12" s="36"/>
+      <c r="G12" s="36"/>
+      <c r="H12" s="37"/>
     </row>
     <row r="14" spans="2:8" ht="14.25" thickBot="1">
       <c r="C14" s="1" t="s">
@@ -8142,13 +8146,13 @@
       </c>
     </row>
     <row r="15" spans="2:8" ht="14.25" thickBot="1">
-      <c r="D15" s="34" t="s">
+      <c r="D15" s="35" t="s">
         <v>234</v>
       </c>
-      <c r="E15" s="35"/>
-      <c r="F15" s="35"/>
-      <c r="G15" s="35"/>
-      <c r="H15" s="36"/>
+      <c r="E15" s="36"/>
+      <c r="F15" s="36"/>
+      <c r="G15" s="36"/>
+      <c r="H15" s="37"/>
     </row>
     <row r="17" spans="3:8">
       <c r="D17" s="1" t="s">
@@ -8161,22 +8165,22 @@
       </c>
     </row>
     <row r="19" spans="3:8">
-      <c r="D19" s="37" t="s">
+      <c r="D19" s="38" t="s">
         <v>235</v>
       </c>
-      <c r="E19" s="38"/>
-      <c r="F19" s="38"/>
-      <c r="G19" s="38"/>
-      <c r="H19" s="39"/>
+      <c r="E19" s="39"/>
+      <c r="F19" s="39"/>
+      <c r="G19" s="39"/>
+      <c r="H19" s="40"/>
     </row>
     <row r="20" spans="3:8" ht="14.25" thickBot="1">
-      <c r="D20" s="40" t="s">
+      <c r="D20" s="41" t="s">
         <v>236</v>
       </c>
-      <c r="E20" s="41"/>
-      <c r="F20" s="41"/>
-      <c r="G20" s="41"/>
-      <c r="H20" s="42"/>
+      <c r="E20" s="42"/>
+      <c r="F20" s="42"/>
+      <c r="G20" s="42"/>
+      <c r="H20" s="43"/>
     </row>
     <row r="23" spans="3:8">
       <c r="C23" s="1" t="s">
@@ -8322,14 +8326,14 @@
     </row>
     <row r="12" spans="2:9" ht="14.25" thickBot="1"/>
     <row r="13" spans="2:9" ht="14.25" thickBot="1">
-      <c r="D13" s="34" t="s">
+      <c r="D13" s="35" t="s">
         <v>308</v>
       </c>
-      <c r="E13" s="35"/>
-      <c r="F13" s="35"/>
-      <c r="G13" s="35"/>
-      <c r="H13" s="35"/>
-      <c r="I13" s="36"/>
+      <c r="E13" s="36"/>
+      <c r="F13" s="36"/>
+      <c r="G13" s="36"/>
+      <c r="H13" s="36"/>
+      <c r="I13" s="37"/>
     </row>
     <row r="15" spans="2:9">
       <c r="D15" s="1" t="s">
@@ -8343,14 +8347,14 @@
     </row>
     <row r="17" spans="3:9" ht="14.25" thickBot="1"/>
     <row r="18" spans="3:9" ht="14.25" thickBot="1">
-      <c r="D18" s="34" t="s">
+      <c r="D18" s="35" t="s">
         <v>255</v>
       </c>
-      <c r="E18" s="35"/>
-      <c r="F18" s="35"/>
-      <c r="G18" s="35"/>
-      <c r="H18" s="35"/>
-      <c r="I18" s="36"/>
+      <c r="E18" s="36"/>
+      <c r="F18" s="36"/>
+      <c r="G18" s="36"/>
+      <c r="H18" s="36"/>
+      <c r="I18" s="37"/>
     </row>
     <row r="20" spans="3:9">
       <c r="D20" s="1" t="s">
@@ -8369,24 +8373,24 @@
     </row>
     <row r="24" spans="3:9" ht="14.25" thickBot="1"/>
     <row r="25" spans="3:9">
-      <c r="D25" s="37" t="s">
+      <c r="D25" s="38" t="s">
         <v>274</v>
       </c>
-      <c r="E25" s="38"/>
-      <c r="F25" s="38"/>
-      <c r="G25" s="38"/>
-      <c r="H25" s="38"/>
-      <c r="I25" s="39"/>
+      <c r="E25" s="39"/>
+      <c r="F25" s="39"/>
+      <c r="G25" s="39"/>
+      <c r="H25" s="39"/>
+      <c r="I25" s="40"/>
     </row>
     <row r="26" spans="3:9" ht="14.25" thickBot="1">
-      <c r="D26" s="40" t="s">
+      <c r="D26" s="41" t="s">
         <v>273</v>
       </c>
-      <c r="E26" s="41"/>
-      <c r="F26" s="41"/>
-      <c r="G26" s="41"/>
-      <c r="H26" s="41"/>
-      <c r="I26" s="42"/>
+      <c r="E26" s="42"/>
+      <c r="F26" s="42"/>
+      <c r="G26" s="42"/>
+      <c r="H26" s="42"/>
+      <c r="I26" s="43"/>
     </row>
     <row r="27" spans="3:9">
       <c r="D27" s="23"/>
@@ -8408,24 +8412,24 @@
     </row>
     <row r="31" spans="3:9" ht="14.25" thickBot="1"/>
     <row r="32" spans="3:9">
-      <c r="D32" s="37" t="s">
+      <c r="D32" s="38" t="s">
         <v>274</v>
       </c>
-      <c r="E32" s="38"/>
-      <c r="F32" s="38"/>
-      <c r="G32" s="38"/>
-      <c r="H32" s="38"/>
-      <c r="I32" s="39"/>
+      <c r="E32" s="39"/>
+      <c r="F32" s="39"/>
+      <c r="G32" s="39"/>
+      <c r="H32" s="39"/>
+      <c r="I32" s="40"/>
     </row>
     <row r="33" spans="4:9" ht="14.25" thickBot="1">
-      <c r="D33" s="40" t="s">
+      <c r="D33" s="41" t="s">
         <v>277</v>
       </c>
-      <c r="E33" s="41"/>
-      <c r="F33" s="41"/>
-      <c r="G33" s="41"/>
-      <c r="H33" s="41"/>
-      <c r="I33" s="42"/>
+      <c r="E33" s="42"/>
+      <c r="F33" s="42"/>
+      <c r="G33" s="42"/>
+      <c r="H33" s="42"/>
+      <c r="I33" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="6">
